--- a/확률정보.xlsx
+++ b/확률정보.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\파이썬프로젝트\r2mProbLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD431A7A-187B-474F-A605-E8D9ABF45C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603F4528-3EB2-4CFD-8446-4754B3914F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{ABCE2CA0-A1D3-4D65-96EE-F34166D7733B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{ABCE2CA0-A1D3-4D65-96EE-F34166D7733B}"/>
   </bookViews>
   <sheets>
     <sheet name="23년4월" sheetId="1" state="hidden" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'23년4월'!$A$1:$K$141</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'23년7월'!$A$1:$N$143</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">타입분류!$A$1:$E$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">타입분류!$A$1:$F$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="354">
   <si>
     <t>Category 1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1256,6 +1256,17 @@
   </si>
   <si>
     <t>희귀~영웅 변신 뽑기로 영웅 등급 교체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리포트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업팀 문의
+고지표 삭제 필요(인게임에 더 이상 존재하지 않는 확률표)
+&gt; 고급~희귀 서번트 뽑기권[이벤트] 확률 표의 이전 버전
+2023-06-20 삭제 확인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1362,7 +1373,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1420,6 +1431,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1726,7 +1743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1973,45 +1990,6 @@
     <xf numFmtId="10" fontId="5" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="10" fontId="6" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2021,7 +1999,7 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2045,35 +2023,68 @@
     <xf numFmtId="176" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2095,6 +2106,30 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2496,10 +2531,10 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="93" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2534,8 +2569,8 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="83"/>
-      <c r="B3" s="86"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="16" t="s">
         <v>14</v>
       </c>
@@ -2568,8 +2603,8 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="83"/>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="99"/>
+      <c r="B4" s="94" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="16" t="s">
@@ -2604,8 +2639,8 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="83"/>
-      <c r="B5" s="86"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="94"/>
       <c r="C5" s="16" t="s">
         <v>17</v>
       </c>
@@ -2638,8 +2673,8 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="83"/>
-      <c r="B6" s="86" t="s">
+      <c r="A6" s="99"/>
+      <c r="B6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -2670,8 +2705,8 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="83"/>
-      <c r="B7" s="86"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="16" t="s">
         <v>21</v>
       </c>
@@ -2700,8 +2735,8 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="83"/>
-      <c r="B8" s="86"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="16" t="s">
         <v>22</v>
       </c>
@@ -2730,8 +2765,8 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="83"/>
-      <c r="B9" s="86"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="16" t="s">
         <v>23</v>
       </c>
@@ -2760,8 +2795,8 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="83"/>
-      <c r="B10" s="86"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="16" t="s">
         <v>24</v>
       </c>
@@ -2790,8 +2825,8 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="83"/>
-      <c r="B11" s="86"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="16" t="s">
         <v>25</v>
       </c>
@@ -2824,8 +2859,8 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="83"/>
-      <c r="B12" s="86"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="16" t="s">
         <v>26</v>
       </c>
@@ -2858,8 +2893,8 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="83"/>
-      <c r="B13" s="86"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="16" t="s">
         <v>27</v>
       </c>
@@ -2892,8 +2927,8 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="83"/>
-      <c r="B14" s="86"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="94"/>
       <c r="C14" s="16" t="s">
         <v>28</v>
       </c>
@@ -2922,8 +2957,8 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="83"/>
-      <c r="B15" s="86"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
@@ -2952,8 +2987,8 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="83"/>
-      <c r="B16" s="86"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="16" t="s">
         <v>31</v>
       </c>
@@ -2975,8 +3010,8 @@
       <c r="K16" s="21"/>
     </row>
     <row r="17" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="83"/>
-      <c r="B17" s="86" t="s">
+      <c r="A17" s="99"/>
+      <c r="B17" s="94" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="16" t="s">
@@ -3000,8 +3035,8 @@
       <c r="K17" s="21"/>
     </row>
     <row r="18" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="83"/>
-      <c r="B18" s="86"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="94"/>
       <c r="C18" s="16" t="s">
         <v>34</v>
       </c>
@@ -3025,8 +3060,8 @@
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="83"/>
-      <c r="B19" s="86"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="16" t="s">
         <v>36</v>
       </c>
@@ -3048,8 +3083,8 @@
       <c r="K19" s="21"/>
     </row>
     <row r="20" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="83"/>
-      <c r="B20" s="86"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="94"/>
       <c r="C20" s="16" t="s">
         <v>38</v>
       </c>
@@ -3071,8 +3106,8 @@
       <c r="K20" s="21"/>
     </row>
     <row r="21" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="83"/>
-      <c r="B21" s="86"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="16" t="s">
         <v>39</v>
       </c>
@@ -3094,8 +3129,8 @@
       <c r="K21" s="21"/>
     </row>
     <row r="22" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
-      <c r="B22" s="86"/>
+      <c r="A22" s="99"/>
+      <c r="B22" s="94"/>
       <c r="C22" s="16" t="s">
         <v>40</v>
       </c>
@@ -3117,8 +3152,8 @@
       <c r="K22" s="21"/>
     </row>
     <row r="23" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
-      <c r="B23" s="86"/>
+      <c r="A23" s="99"/>
+      <c r="B23" s="94"/>
       <c r="C23" s="16" t="s">
         <v>41</v>
       </c>
@@ -3140,8 +3175,8 @@
       <c r="K23" s="21"/>
     </row>
     <row r="24" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="83"/>
-      <c r="B24" s="86"/>
+      <c r="A24" s="99"/>
+      <c r="B24" s="94"/>
       <c r="C24" s="16" t="s">
         <v>42</v>
       </c>
@@ -3163,8 +3198,8 @@
       <c r="K24" s="21"/>
     </row>
     <row r="25" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="83"/>
-      <c r="B25" s="86"/>
+      <c r="A25" s="99"/>
+      <c r="B25" s="94"/>
       <c r="C25" s="16" t="s">
         <v>43</v>
       </c>
@@ -3188,8 +3223,8 @@
       <c r="K25" s="21"/>
     </row>
     <row r="26" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="83"/>
-      <c r="B26" s="86"/>
+      <c r="A26" s="99"/>
+      <c r="B26" s="94"/>
       <c r="C26" s="16" t="s">
         <v>45</v>
       </c>
@@ -3211,8 +3246,8 @@
       <c r="K26" s="21"/>
     </row>
     <row r="27" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
-      <c r="B27" s="86"/>
+      <c r="A27" s="99"/>
+      <c r="B27" s="94"/>
       <c r="C27" s="16" t="s">
         <v>46</v>
       </c>
@@ -3234,8 +3269,8 @@
       <c r="K27" s="21"/>
     </row>
     <row r="28" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="83"/>
-      <c r="B28" s="86"/>
+      <c r="A28" s="99"/>
+      <c r="B28" s="94"/>
       <c r="C28" s="16" t="s">
         <v>47</v>
       </c>
@@ -3257,8 +3292,8 @@
       <c r="K28" s="21"/>
     </row>
     <row r="29" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="83"/>
-      <c r="B29" s="86"/>
+      <c r="A29" s="99"/>
+      <c r="B29" s="94"/>
       <c r="C29" s="16" t="s">
         <v>48</v>
       </c>
@@ -3280,8 +3315,8 @@
       <c r="K29" s="21"/>
     </row>
     <row r="30" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="83"/>
-      <c r="B30" s="86"/>
+      <c r="A30" s="99"/>
+      <c r="B30" s="94"/>
       <c r="C30" s="16" t="s">
         <v>49</v>
       </c>
@@ -3303,8 +3338,8 @@
       <c r="K30" s="21"/>
     </row>
     <row r="31" spans="1:21" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="83"/>
-      <c r="B31" s="86"/>
+      <c r="A31" s="99"/>
+      <c r="B31" s="94"/>
       <c r="C31" s="16" t="s">
         <v>50</v>
       </c>
@@ -3341,7 +3376,7 @@
       <c r="U31" s="1"/>
     </row>
     <row r="32" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="83"/>
+      <c r="A32" s="99"/>
       <c r="B32" s="15" t="s">
         <v>52</v>
       </c>
@@ -3379,7 +3414,7 @@
       <c r="U32" s="1"/>
     </row>
     <row r="33" spans="1:35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="83"/>
+      <c r="A33" s="99"/>
       <c r="B33" s="15" t="s">
         <v>54</v>
       </c>
@@ -3417,7 +3452,7 @@
       <c r="U33" s="1"/>
     </row>
     <row r="34" spans="1:35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="83"/>
+      <c r="A34" s="99"/>
       <c r="B34" s="15" t="s">
         <v>56</v>
       </c>
@@ -3455,8 +3490,8 @@
       <c r="U34" s="1"/>
     </row>
     <row r="35" spans="1:35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="83"/>
-      <c r="B35" s="86" t="s">
+      <c r="A35" s="99"/>
+      <c r="B35" s="94" t="s">
         <v>58</v>
       </c>
       <c r="C35" s="16" t="s">
@@ -3491,23 +3526,23 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
-      <c r="W35" s="93"/>
-      <c r="X35" s="93"/>
-      <c r="Y35" s="93"/>
-      <c r="Z35" s="93"/>
-      <c r="AA35" s="93"/>
-      <c r="AB35" s="93"/>
-      <c r="AC35" s="93"/>
-      <c r="AD35" s="93"/>
-      <c r="AE35" s="93"/>
-      <c r="AF35" s="93"/>
-      <c r="AG35" s="93"/>
-      <c r="AH35" s="93"/>
-      <c r="AI35" s="93"/>
+      <c r="W35" s="97"/>
+      <c r="X35" s="97"/>
+      <c r="Y35" s="97"/>
+      <c r="Z35" s="97"/>
+      <c r="AA35" s="97"/>
+      <c r="AB35" s="97"/>
+      <c r="AC35" s="97"/>
+      <c r="AD35" s="97"/>
+      <c r="AE35" s="97"/>
+      <c r="AF35" s="97"/>
+      <c r="AG35" s="97"/>
+      <c r="AH35" s="97"/>
+      <c r="AI35" s="97"/>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A36" s="83"/>
-      <c r="B36" s="86"/>
+      <c r="A36" s="99"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="16" t="s">
         <v>60</v>
       </c>
@@ -3532,23 +3567,23 @@
       </c>
       <c r="K36" s="31"/>
       <c r="V36"/>
-      <c r="W36" s="93"/>
-      <c r="X36" s="93"/>
-      <c r="Y36" s="93"/>
-      <c r="Z36" s="93"/>
-      <c r="AA36" s="93"/>
-      <c r="AB36" s="93"/>
-      <c r="AC36" s="93"/>
-      <c r="AD36" s="93"/>
-      <c r="AE36" s="93"/>
-      <c r="AF36" s="93"/>
-      <c r="AG36" s="93"/>
-      <c r="AH36" s="93"/>
-      <c r="AI36" s="93"/>
+      <c r="W36" s="97"/>
+      <c r="X36" s="97"/>
+      <c r="Y36" s="97"/>
+      <c r="Z36" s="97"/>
+      <c r="AA36" s="97"/>
+      <c r="AB36" s="97"/>
+      <c r="AC36" s="97"/>
+      <c r="AD36" s="97"/>
+      <c r="AE36" s="97"/>
+      <c r="AF36" s="97"/>
+      <c r="AG36" s="97"/>
+      <c r="AH36" s="97"/>
+      <c r="AI36" s="97"/>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A37" s="83"/>
-      <c r="B37" s="86"/>
+      <c r="A37" s="99"/>
+      <c r="B37" s="94"/>
       <c r="C37" s="16" t="s">
         <v>61</v>
       </c>
@@ -3573,22 +3608,22 @@
       </c>
       <c r="K37" s="31"/>
       <c r="V37"/>
-      <c r="W37" s="93"/>
-      <c r="X37" s="93"/>
-      <c r="Y37" s="93"/>
-      <c r="Z37" s="93"/>
-      <c r="AA37" s="93"/>
-      <c r="AB37" s="93"/>
-      <c r="AC37" s="93"/>
-      <c r="AD37" s="93"/>
-      <c r="AE37" s="93"/>
-      <c r="AF37" s="93"/>
-      <c r="AG37" s="93"/>
-      <c r="AH37" s="93"/>
-      <c r="AI37" s="93"/>
+      <c r="W37" s="97"/>
+      <c r="X37" s="97"/>
+      <c r="Y37" s="97"/>
+      <c r="Z37" s="97"/>
+      <c r="AA37" s="97"/>
+      <c r="AB37" s="97"/>
+      <c r="AC37" s="97"/>
+      <c r="AD37" s="97"/>
+      <c r="AE37" s="97"/>
+      <c r="AF37" s="97"/>
+      <c r="AG37" s="97"/>
+      <c r="AH37" s="97"/>
+      <c r="AI37" s="97"/>
     </row>
     <row r="38" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="85"/>
+      <c r="A38" s="100"/>
       <c r="B38" s="32" t="s">
         <v>63</v>
       </c>
@@ -3610,25 +3645,25 @@
       </c>
       <c r="K38" s="39"/>
       <c r="V38"/>
-      <c r="W38" s="93"/>
-      <c r="X38" s="93"/>
-      <c r="Y38" s="93"/>
-      <c r="Z38" s="93"/>
-      <c r="AA38" s="93"/>
-      <c r="AB38" s="93"/>
-      <c r="AC38" s="93"/>
-      <c r="AD38" s="93"/>
-      <c r="AE38" s="93"/>
-      <c r="AF38" s="93"/>
-      <c r="AG38" s="93"/>
-      <c r="AH38" s="93"/>
-      <c r="AI38" s="93"/>
+      <c r="W38" s="97"/>
+      <c r="X38" s="97"/>
+      <c r="Y38" s="97"/>
+      <c r="Z38" s="97"/>
+      <c r="AA38" s="97"/>
+      <c r="AB38" s="97"/>
+      <c r="AC38" s="97"/>
+      <c r="AD38" s="97"/>
+      <c r="AE38" s="97"/>
+      <c r="AF38" s="97"/>
+      <c r="AG38" s="97"/>
+      <c r="AH38" s="97"/>
+      <c r="AI38" s="97"/>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A39" s="82" t="s">
+      <c r="A39" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="90" t="s">
+      <c r="B39" s="93" t="s">
         <v>67</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -3670,8 +3705,8 @@
       <c r="AI39"/>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A40" s="83"/>
-      <c r="B40" s="86"/>
+      <c r="A40" s="99"/>
+      <c r="B40" s="94"/>
       <c r="C40" s="16" t="s">
         <v>69</v>
       </c>
@@ -3711,8 +3746,8 @@
       <c r="AI40"/>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A41" s="83"/>
-      <c r="B41" s="86" t="s">
+      <c r="A41" s="99"/>
+      <c r="B41" s="94" t="s">
         <v>70</v>
       </c>
       <c r="C41" s="16" t="s">
@@ -3754,8 +3789,8 @@
       <c r="AI41"/>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A42" s="83"/>
-      <c r="B42" s="86"/>
+      <c r="A42" s="99"/>
+      <c r="B42" s="94"/>
       <c r="C42" s="16" t="s">
         <v>72</v>
       </c>
@@ -3797,8 +3832,8 @@
       <c r="AI42"/>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A43" s="83"/>
-      <c r="B43" s="86" t="s">
+      <c r="A43" s="99"/>
+      <c r="B43" s="94" t="s">
         <v>74</v>
       </c>
       <c r="C43" s="16" t="s">
@@ -3827,8 +3862,8 @@
       <c r="Z43"/>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A44" s="83"/>
-      <c r="B44" s="86"/>
+      <c r="A44" s="99"/>
+      <c r="B44" s="94"/>
       <c r="C44" s="16" t="s">
         <v>77</v>
       </c>
@@ -3857,8 +3892,8 @@
       <c r="Z44"/>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A45" s="83"/>
-      <c r="B45" s="86"/>
+      <c r="A45" s="99"/>
+      <c r="B45" s="94"/>
       <c r="C45" s="16" t="s">
         <v>79</v>
       </c>
@@ -3887,8 +3922,8 @@
       <c r="Z45"/>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A46" s="83"/>
-      <c r="B46" s="86"/>
+      <c r="A46" s="99"/>
+      <c r="B46" s="94"/>
       <c r="C46" s="16" t="s">
         <v>80</v>
       </c>
@@ -3917,8 +3952,8 @@
       <c r="Z46"/>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A47" s="83"/>
-      <c r="B47" s="86"/>
+      <c r="A47" s="99"/>
+      <c r="B47" s="94"/>
       <c r="C47" s="16" t="s">
         <v>81</v>
       </c>
@@ -3942,8 +3977,8 @@
       <c r="K47" s="21"/>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A48" s="83"/>
-      <c r="B48" s="86"/>
+      <c r="A48" s="99"/>
+      <c r="B48" s="94"/>
       <c r="C48" s="16" t="s">
         <v>82</v>
       </c>
@@ -3969,8 +4004,8 @@
       <c r="K48" s="21"/>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A49" s="83"/>
-      <c r="B49" s="86"/>
+      <c r="A49" s="99"/>
+      <c r="B49" s="94"/>
       <c r="C49" s="16" t="s">
         <v>83</v>
       </c>
@@ -3996,8 +4031,8 @@
       <c r="K49" s="21"/>
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A50" s="83"/>
-      <c r="B50" s="86"/>
+      <c r="A50" s="99"/>
+      <c r="B50" s="94"/>
       <c r="C50" s="16" t="s">
         <v>84</v>
       </c>
@@ -4021,8 +4056,8 @@
       <c r="K50" s="21"/>
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A51" s="83"/>
-      <c r="B51" s="86"/>
+      <c r="A51" s="99"/>
+      <c r="B51" s="94"/>
       <c r="C51" s="16" t="s">
         <v>86</v>
       </c>
@@ -4049,8 +4084,8 @@
       <c r="K51" s="21"/>
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A52" s="83"/>
-      <c r="B52" s="86"/>
+      <c r="A52" s="99"/>
+      <c r="B52" s="94"/>
       <c r="C52" s="16" t="s">
         <v>88</v>
       </c>
@@ -4077,8 +4112,8 @@
       <c r="K52" s="21"/>
     </row>
     <row r="53" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="83"/>
-      <c r="B53" s="86"/>
+      <c r="A53" s="99"/>
+      <c r="B53" s="94"/>
       <c r="C53" s="16" t="s">
         <v>89</v>
       </c>
@@ -4135,8 +4170,8 @@
       <c r="AP53" s="1"/>
     </row>
     <row r="54" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="83"/>
-      <c r="B54" s="86" t="s">
+      <c r="A54" s="99"/>
+      <c r="B54" s="94" t="s">
         <v>90</v>
       </c>
       <c r="C54" s="16" t="s">
@@ -4193,8 +4228,8 @@
       <c r="AP54" s="1"/>
     </row>
     <row r="55" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="83"/>
-      <c r="B55" s="86"/>
+      <c r="A55" s="99"/>
+      <c r="B55" s="94"/>
       <c r="C55" s="16" t="s">
         <v>92</v>
       </c>
@@ -4251,8 +4286,8 @@
       <c r="AP55" s="1"/>
     </row>
     <row r="56" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="83"/>
-      <c r="B56" s="86"/>
+      <c r="A56" s="99"/>
+      <c r="B56" s="94"/>
       <c r="C56" s="16" t="s">
         <v>94</v>
       </c>
@@ -4307,8 +4342,8 @@
       <c r="AP56" s="1"/>
     </row>
     <row r="57" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="83"/>
-      <c r="B57" s="86"/>
+      <c r="A57" s="99"/>
+      <c r="B57" s="94"/>
       <c r="C57" s="16" t="s">
         <v>96</v>
       </c>
@@ -4365,8 +4400,8 @@
       <c r="AP57" s="1"/>
     </row>
     <row r="58" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="83"/>
-      <c r="B58" s="86"/>
+      <c r="A58" s="99"/>
+      <c r="B58" s="94"/>
       <c r="C58" s="16" t="s">
         <v>98</v>
       </c>
@@ -4423,8 +4458,8 @@
       <c r="AP58" s="1"/>
     </row>
     <row r="59" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="83"/>
-      <c r="B59" s="86"/>
+      <c r="A59" s="99"/>
+      <c r="B59" s="94"/>
       <c r="C59" s="16" t="s">
         <v>99</v>
       </c>
@@ -4479,8 +4514,8 @@
       <c r="AP59" s="1"/>
     </row>
     <row r="60" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="83"/>
-      <c r="B60" s="86"/>
+      <c r="A60" s="99"/>
+      <c r="B60" s="94"/>
       <c r="C60" s="16" t="s">
         <v>100</v>
       </c>
@@ -4535,8 +4570,8 @@
       <c r="AP60" s="1"/>
     </row>
     <row r="61" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="83"/>
-      <c r="B61" s="86"/>
+      <c r="A61" s="99"/>
+      <c r="B61" s="94"/>
       <c r="C61" s="16" t="s">
         <v>101</v>
       </c>
@@ -4593,8 +4628,8 @@
       <c r="AP61" s="1"/>
     </row>
     <row r="62" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="83"/>
-      <c r="B62" s="86"/>
+      <c r="A62" s="99"/>
+      <c r="B62" s="94"/>
       <c r="C62" s="16" t="s">
         <v>103</v>
       </c>
@@ -4653,8 +4688,8 @@
       <c r="AP62" s="1"/>
     </row>
     <row r="63" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="83"/>
-      <c r="B63" s="86"/>
+      <c r="A63" s="99"/>
+      <c r="B63" s="94"/>
       <c r="C63" s="16" t="s">
         <v>105</v>
       </c>
@@ -4711,8 +4746,8 @@
       <c r="AP63" s="1"/>
     </row>
     <row r="64" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="83"/>
-      <c r="B64" s="86"/>
+      <c r="A64" s="99"/>
+      <c r="B64" s="94"/>
       <c r="C64" s="16" t="s">
         <v>106</v>
       </c>
@@ -4767,8 +4802,8 @@
       <c r="AP64" s="1"/>
     </row>
     <row r="65" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="83"/>
-      <c r="B65" s="86"/>
+      <c r="A65" s="99"/>
+      <c r="B65" s="94"/>
       <c r="C65" s="16" t="s">
         <v>107</v>
       </c>
@@ -4823,8 +4858,8 @@
       <c r="AP65" s="1"/>
     </row>
     <row r="66" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="83"/>
-      <c r="B66" s="86"/>
+      <c r="A66" s="99"/>
+      <c r="B66" s="94"/>
       <c r="C66" s="16" t="s">
         <v>108</v>
       </c>
@@ -4879,8 +4914,8 @@
       <c r="AP66" s="1"/>
     </row>
     <row r="67" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="83"/>
-      <c r="B67" s="86"/>
+      <c r="A67" s="99"/>
+      <c r="B67" s="94"/>
       <c r="C67" s="16" t="s">
         <v>109</v>
       </c>
@@ -4937,8 +4972,8 @@
       <c r="AP67" s="1"/>
     </row>
     <row r="68" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="83"/>
-      <c r="B68" s="86"/>
+      <c r="A68" s="99"/>
+      <c r="B68" s="94"/>
       <c r="C68" s="16" t="s">
         <v>110</v>
       </c>
@@ -4995,7 +5030,7 @@
       <c r="AP68" s="1"/>
     </row>
     <row r="69" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="83"/>
+      <c r="A69" s="99"/>
       <c r="B69" s="15" t="s">
         <v>111</v>
       </c>
@@ -5054,7 +5089,7 @@
       <c r="AP69" s="1"/>
     </row>
     <row r="70" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="83"/>
+      <c r="A70" s="99"/>
       <c r="B70" s="15" t="s">
         <v>113</v>
       </c>
@@ -5113,7 +5148,7 @@
       <c r="AP70" s="1"/>
     </row>
     <row r="71" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="83"/>
+      <c r="A71" s="99"/>
       <c r="B71" s="15" t="s">
         <v>115</v>
       </c>
@@ -5172,7 +5207,7 @@
       <c r="AP71" s="1"/>
     </row>
     <row r="72" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="83"/>
+      <c r="A72" s="99"/>
       <c r="B72" s="15" t="s">
         <v>117</v>
       </c>
@@ -5233,7 +5268,7 @@
       <c r="AP72" s="1"/>
     </row>
     <row r="73" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="83"/>
+      <c r="A73" s="99"/>
       <c r="B73" s="15" t="s">
         <v>119</v>
       </c>
@@ -5292,8 +5327,8 @@
       <c r="AP73" s="1"/>
     </row>
     <row r="74" spans="1:42" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="83"/>
-      <c r="B74" s="86" t="s">
+      <c r="A74" s="99"/>
+      <c r="B74" s="94" t="s">
         <v>121</v>
       </c>
       <c r="C74" s="16" t="s">
@@ -5353,8 +5388,8 @@
       <c r="AP74" s="1"/>
     </row>
     <row r="75" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="83"/>
-      <c r="B75" s="86"/>
+      <c r="A75" s="99"/>
+      <c r="B75" s="94"/>
       <c r="C75" s="16" t="s">
         <v>125</v>
       </c>
@@ -5412,8 +5447,8 @@
       <c r="AP75" s="1"/>
     </row>
     <row r="76" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="83"/>
-      <c r="B76" s="86"/>
+      <c r="A76" s="99"/>
+      <c r="B76" s="94"/>
       <c r="C76" s="16" t="s">
         <v>127</v>
       </c>
@@ -5469,8 +5504,8 @@
       <c r="AP76" s="1"/>
     </row>
     <row r="77" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="83"/>
-      <c r="B77" s="86"/>
+      <c r="A77" s="99"/>
+      <c r="B77" s="94"/>
       <c r="C77" s="16" t="s">
         <v>128</v>
       </c>
@@ -5526,8 +5561,8 @@
       <c r="AP77" s="1"/>
     </row>
     <row r="78" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="83"/>
-      <c r="B78" s="86"/>
+      <c r="A78" s="99"/>
+      <c r="B78" s="94"/>
       <c r="C78" s="16" t="s">
         <v>129</v>
       </c>
@@ -5583,7 +5618,7 @@
       <c r="AP78" s="1"/>
     </row>
     <row r="79" spans="1:42" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="85"/>
+      <c r="A79" s="100"/>
       <c r="B79" s="32" t="s">
         <v>130</v>
       </c>
@@ -5636,10 +5671,10 @@
       <c r="AP79" s="1"/>
     </row>
     <row r="80" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="82" t="s">
+      <c r="A80" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="B80" s="90" t="s">
+      <c r="B80" s="93" t="s">
         <v>133</v>
       </c>
       <c r="C80" s="9" t="s">
@@ -5697,8 +5732,8 @@
       <c r="AP80" s="1"/>
     </row>
     <row r="81" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="83"/>
-      <c r="B81" s="86"/>
+      <c r="A81" s="99"/>
+      <c r="B81" s="94"/>
       <c r="C81" s="16" t="s">
         <v>135</v>
       </c>
@@ -5754,8 +5789,8 @@
       <c r="AP81" s="1"/>
     </row>
     <row r="82" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="83"/>
-      <c r="B82" s="86"/>
+      <c r="A82" s="99"/>
+      <c r="B82" s="94"/>
       <c r="C82" s="16" t="s">
         <v>136</v>
       </c>
@@ -5811,8 +5846,8 @@
       <c r="AP82" s="1"/>
     </row>
     <row r="83" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="83"/>
-      <c r="B83" s="86"/>
+      <c r="A83" s="99"/>
+      <c r="B83" s="94"/>
       <c r="C83" s="16" t="s">
         <v>137</v>
       </c>
@@ -5868,8 +5903,8 @@
       <c r="AP83" s="1"/>
     </row>
     <row r="84" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="83"/>
-      <c r="B84" s="86"/>
+      <c r="A84" s="99"/>
+      <c r="B84" s="94"/>
       <c r="C84" s="16" t="s">
         <v>138</v>
       </c>
@@ -5925,8 +5960,8 @@
       <c r="AP84" s="1"/>
     </row>
     <row r="85" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="83"/>
-      <c r="B85" s="86"/>
+      <c r="A85" s="99"/>
+      <c r="B85" s="94"/>
       <c r="C85" s="16" t="s">
         <v>139</v>
       </c>
@@ -5982,8 +6017,8 @@
       <c r="AP85" s="1"/>
     </row>
     <row r="86" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="83"/>
-      <c r="B86" s="86" t="s">
+      <c r="A86" s="99"/>
+      <c r="B86" s="94" t="s">
         <v>140</v>
       </c>
       <c r="C86" s="16" t="s">
@@ -6033,8 +6068,8 @@
       <c r="AP86" s="1"/>
     </row>
     <row r="87" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="83"/>
-      <c r="B87" s="86"/>
+      <c r="A87" s="99"/>
+      <c r="B87" s="94"/>
       <c r="C87" s="16" t="s">
         <v>143</v>
       </c>
@@ -6082,8 +6117,8 @@
       <c r="AP87" s="1"/>
     </row>
     <row r="88" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="83"/>
-      <c r="B88" s="86"/>
+      <c r="A88" s="99"/>
+      <c r="B88" s="94"/>
       <c r="C88" s="16" t="s">
         <v>144</v>
       </c>
@@ -6131,8 +6166,8 @@
       <c r="AP88" s="1"/>
     </row>
     <row r="89" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="83"/>
-      <c r="B89" s="86"/>
+      <c r="A89" s="99"/>
+      <c r="B89" s="94"/>
       <c r="C89" s="16" t="s">
         <v>145</v>
       </c>
@@ -6180,8 +6215,8 @@
       <c r="AP89" s="1"/>
     </row>
     <row r="90" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="83"/>
-      <c r="B90" s="86"/>
+      <c r="A90" s="99"/>
+      <c r="B90" s="94"/>
       <c r="C90" s="16" t="s">
         <v>146</v>
       </c>
@@ -6229,8 +6264,8 @@
       <c r="AP90" s="1"/>
     </row>
     <row r="91" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="83"/>
-      <c r="B91" s="86"/>
+      <c r="A91" s="99"/>
+      <c r="B91" s="94"/>
       <c r="C91" s="16" t="s">
         <v>147</v>
       </c>
@@ -6278,7 +6313,7 @@
       <c r="AP91" s="1"/>
     </row>
     <row r="92" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="83"/>
+      <c r="A92" s="99"/>
       <c r="B92" s="15" t="s">
         <v>148</v>
       </c>
@@ -6329,7 +6364,7 @@
       <c r="AP92" s="1"/>
     </row>
     <row r="93" spans="1:42" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="85"/>
+      <c r="A93" s="100"/>
       <c r="B93" s="32" t="s">
         <v>151</v>
       </c>
@@ -6386,13 +6421,13 @@
       <c r="AP93" s="1"/>
     </row>
     <row r="94" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="82" t="s">
+      <c r="A94" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="B94" s="90" t="s">
+      <c r="B94" s="93" t="s">
         <v>154</v>
       </c>
-      <c r="C94" s="91" t="s">
+      <c r="C94" s="95" t="s">
         <v>155</v>
       </c>
       <c r="D94" s="50"/>
@@ -6441,9 +6476,9 @@
       <c r="AP94" s="1"/>
     </row>
     <row r="95" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="83"/>
-      <c r="B95" s="86"/>
-      <c r="C95" s="92"/>
+      <c r="A95" s="99"/>
+      <c r="B95" s="94"/>
+      <c r="C95" s="96"/>
       <c r="D95" s="24"/>
       <c r="E95" s="18"/>
       <c r="F95" s="18">
@@ -6490,9 +6525,9 @@
       <c r="AP95" s="1"/>
     </row>
     <row r="96" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="83"/>
-      <c r="B96" s="86"/>
-      <c r="C96" s="92"/>
+      <c r="A96" s="99"/>
+      <c r="B96" s="94"/>
+      <c r="C96" s="96"/>
       <c r="D96" s="24"/>
       <c r="E96" s="18"/>
       <c r="F96" s="18">
@@ -6539,9 +6574,9 @@
       <c r="AP96" s="1"/>
     </row>
     <row r="97" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="83"/>
-      <c r="B97" s="86"/>
-      <c r="C97" s="92"/>
+      <c r="A97" s="99"/>
+      <c r="B97" s="94"/>
+      <c r="C97" s="96"/>
       <c r="D97" s="24"/>
       <c r="E97" s="18"/>
       <c r="F97" s="18">
@@ -6588,9 +6623,9 @@
       <c r="AP97" s="1"/>
     </row>
     <row r="98" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="83"/>
-      <c r="B98" s="86"/>
-      <c r="C98" s="92"/>
+      <c r="A98" s="99"/>
+      <c r="B98" s="94"/>
+      <c r="C98" s="96"/>
       <c r="D98" s="24"/>
       <c r="E98" s="18"/>
       <c r="F98" s="18">
@@ -6637,9 +6672,9 @@
       <c r="AP98" s="1"/>
     </row>
     <row r="99" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="83"/>
-      <c r="B99" s="86"/>
-      <c r="C99" s="92"/>
+      <c r="A99" s="99"/>
+      <c r="B99" s="94"/>
+      <c r="C99" s="96"/>
       <c r="D99" s="24"/>
       <c r="E99" s="18"/>
       <c r="F99" s="18">
@@ -6686,9 +6721,9 @@
       <c r="AP99" s="1"/>
     </row>
     <row r="100" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="83"/>
-      <c r="B100" s="86"/>
-      <c r="C100" s="92" t="s">
+      <c r="A100" s="99"/>
+      <c r="B100" s="94"/>
+      <c r="C100" s="96" t="s">
         <v>156</v>
       </c>
       <c r="D100" s="24"/>
@@ -6737,9 +6772,9 @@
       <c r="AP100" s="1"/>
     </row>
     <row r="101" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="83"/>
-      <c r="B101" s="86"/>
-      <c r="C101" s="92"/>
+      <c r="A101" s="99"/>
+      <c r="B101" s="94"/>
+      <c r="C101" s="96"/>
       <c r="D101" s="24"/>
       <c r="E101" s="18"/>
       <c r="F101" s="18">
@@ -6786,9 +6821,9 @@
       <c r="AP101" s="1"/>
     </row>
     <row r="102" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="83"/>
-      <c r="B102" s="86"/>
-      <c r="C102" s="92"/>
+      <c r="A102" s="99"/>
+      <c r="B102" s="94"/>
+      <c r="C102" s="96"/>
       <c r="D102" s="24"/>
       <c r="E102" s="18"/>
       <c r="F102" s="18">
@@ -6835,9 +6870,9 @@
       <c r="AP102" s="1"/>
     </row>
     <row r="103" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="83"/>
-      <c r="B103" s="86"/>
-      <c r="C103" s="92" t="s">
+      <c r="A103" s="99"/>
+      <c r="B103" s="94"/>
+      <c r="C103" s="96" t="s">
         <v>157</v>
       </c>
       <c r="D103" s="24"/>
@@ -6886,9 +6921,9 @@
       <c r="AP103" s="1"/>
     </row>
     <row r="104" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="83"/>
-      <c r="B104" s="86"/>
-      <c r="C104" s="92"/>
+      <c r="A104" s="99"/>
+      <c r="B104" s="94"/>
+      <c r="C104" s="96"/>
       <c r="D104" s="24"/>
       <c r="E104" s="18"/>
       <c r="F104" s="18">
@@ -6935,9 +6970,9 @@
       <c r="AP104" s="1"/>
     </row>
     <row r="105" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="83"/>
-      <c r="B105" s="86"/>
-      <c r="C105" s="92"/>
+      <c r="A105" s="99"/>
+      <c r="B105" s="94"/>
+      <c r="C105" s="96"/>
       <c r="D105" s="24"/>
       <c r="E105" s="18"/>
       <c r="F105" s="18">
@@ -6984,7 +7019,7 @@
       <c r="AP105" s="1"/>
     </row>
     <row r="106" spans="1:42" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="85"/>
+      <c r="A106" s="100"/>
       <c r="B106" s="32" t="s">
         <v>158</v>
       </c>
@@ -7035,10 +7070,10 @@
       <c r="AP106" s="1"/>
     </row>
     <row r="107" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="82" t="s">
+      <c r="A107" s="98" t="s">
         <v>161</v>
       </c>
-      <c r="B107" s="90" t="s">
+      <c r="B107" s="93" t="s">
         <v>162</v>
       </c>
       <c r="C107" s="9" t="s">
@@ -7088,8 +7123,8 @@
       <c r="AP107" s="1"/>
     </row>
     <row r="108" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="83"/>
-      <c r="B108" s="86"/>
+      <c r="A108" s="99"/>
+      <c r="B108" s="94"/>
       <c r="C108" s="16" t="s">
         <v>165</v>
       </c>
@@ -7137,8 +7172,8 @@
       <c r="AP108" s="1"/>
     </row>
     <row r="109" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="83"/>
-      <c r="B109" s="86" t="s">
+      <c r="A109" s="99"/>
+      <c r="B109" s="94" t="s">
         <v>166</v>
       </c>
       <c r="C109" s="16" t="s">
@@ -7188,8 +7223,8 @@
       <c r="AP109" s="1"/>
     </row>
     <row r="110" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="83"/>
-      <c r="B110" s="86"/>
+      <c r="A110" s="99"/>
+      <c r="B110" s="94"/>
       <c r="C110" s="16" t="s">
         <v>168</v>
       </c>
@@ -7237,8 +7272,8 @@
       <c r="AP110" s="1"/>
     </row>
     <row r="111" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="83"/>
-      <c r="B111" s="86" t="s">
+      <c r="A111" s="99"/>
+      <c r="B111" s="94" t="s">
         <v>169</v>
       </c>
       <c r="C111" s="16" t="s">
@@ -7288,8 +7323,8 @@
       <c r="AP111" s="1"/>
     </row>
     <row r="112" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="83"/>
-      <c r="B112" s="86"/>
+      <c r="A112" s="99"/>
+      <c r="B112" s="94"/>
       <c r="C112" s="16" t="s">
         <v>171</v>
       </c>
@@ -7337,8 +7372,8 @@
       <c r="AP112" s="1"/>
     </row>
     <row r="113" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="83"/>
-      <c r="B113" s="86" t="s">
+      <c r="A113" s="99"/>
+      <c r="B113" s="94" t="s">
         <v>172</v>
       </c>
       <c r="C113" s="16" t="s">
@@ -7388,8 +7423,8 @@
       <c r="AP113" s="1"/>
     </row>
     <row r="114" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="83"/>
-      <c r="B114" s="86"/>
+      <c r="A114" s="99"/>
+      <c r="B114" s="94"/>
       <c r="C114" s="16" t="s">
         <v>174</v>
       </c>
@@ -7437,8 +7472,8 @@
       <c r="AP114" s="1"/>
     </row>
     <row r="115" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="83"/>
-      <c r="B115" s="86" t="s">
+      <c r="A115" s="99"/>
+      <c r="B115" s="94" t="s">
         <v>175</v>
       </c>
       <c r="C115" s="16" t="s">
@@ -7488,8 +7523,8 @@
       <c r="AP115" s="1"/>
     </row>
     <row r="116" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="83"/>
-      <c r="B116" s="86"/>
+      <c r="A116" s="99"/>
+      <c r="B116" s="94"/>
       <c r="C116" s="16" t="s">
         <v>177</v>
       </c>
@@ -7537,7 +7572,7 @@
       <c r="AP116" s="1"/>
     </row>
     <row r="117" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="83"/>
+      <c r="A117" s="99"/>
       <c r="B117" s="15" t="s">
         <v>178</v>
       </c>
@@ -7588,7 +7623,7 @@
       <c r="AP117" s="1"/>
     </row>
     <row r="118" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="83"/>
+      <c r="A118" s="99"/>
       <c r="B118" s="51" t="s">
         <v>180</v>
       </c>
@@ -7641,7 +7676,7 @@
       <c r="AP118" s="1"/>
     </row>
     <row r="119" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="83"/>
+      <c r="A119" s="99"/>
       <c r="B119" s="51" t="s">
         <v>183</v>
       </c>
@@ -7694,7 +7729,7 @@
       <c r="AP119" s="1"/>
     </row>
     <row r="120" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="83"/>
+      <c r="A120" s="99"/>
       <c r="B120" s="51" t="s">
         <v>185</v>
       </c>
@@ -7747,7 +7782,7 @@
       <c r="AP120" s="1"/>
     </row>
     <row r="121" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="83"/>
+      <c r="A121" s="99"/>
       <c r="B121" s="51" t="s">
         <v>187</v>
       </c>
@@ -7800,7 +7835,7 @@
       <c r="AP121" s="1"/>
     </row>
     <row r="122" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="83"/>
+      <c r="A122" s="99"/>
       <c r="B122" s="51" t="s">
         <v>189</v>
       </c>
@@ -7853,7 +7888,7 @@
       <c r="AP122" s="1"/>
     </row>
     <row r="123" spans="1:42" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="85"/>
+      <c r="A123" s="100"/>
       <c r="B123" s="53" t="s">
         <v>191</v>
       </c>
@@ -7906,7 +7941,7 @@
       <c r="AP123" s="1"/>
     </row>
     <row r="124" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="82" t="s">
+      <c r="A124" s="98" t="s">
         <v>193</v>
       </c>
       <c r="B124" s="8" t="s">
@@ -7959,7 +7994,7 @@
       <c r="AP124" s="1"/>
     </row>
     <row r="125" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="83"/>
+      <c r="A125" s="99"/>
       <c r="B125" s="15" t="s">
         <v>196</v>
       </c>
@@ -8014,7 +8049,7 @@
       <c r="AP125" s="1"/>
     </row>
     <row r="126" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="83"/>
+      <c r="A126" s="99"/>
       <c r="B126" s="15" t="s">
         <v>201</v>
       </c>
@@ -8067,8 +8102,8 @@
       <c r="AP126" s="1"/>
     </row>
     <row r="127" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="83"/>
-      <c r="B127" s="86" t="s">
+      <c r="A127" s="99"/>
+      <c r="B127" s="94" t="s">
         <v>205</v>
       </c>
       <c r="C127" s="16" t="s">
@@ -8118,8 +8153,8 @@
       <c r="AP127" s="1"/>
     </row>
     <row r="128" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="83"/>
-      <c r="B128" s="86"/>
+      <c r="A128" s="99"/>
+      <c r="B128" s="94"/>
       <c r="C128" s="16" t="s">
         <v>208</v>
       </c>
@@ -8167,8 +8202,8 @@
       <c r="AP128" s="1"/>
     </row>
     <row r="129" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="83"/>
-      <c r="B129" s="86"/>
+      <c r="A129" s="99"/>
+      <c r="B129" s="94"/>
       <c r="C129" s="16" t="s">
         <v>210</v>
       </c>
@@ -8216,8 +8251,8 @@
       <c r="AP129" s="1"/>
     </row>
     <row r="130" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="83"/>
-      <c r="B130" s="87" t="s">
+      <c r="A130" s="99"/>
+      <c r="B130" s="102" t="s">
         <v>211</v>
       </c>
       <c r="C130" s="52" t="s">
@@ -8271,8 +8306,8 @@
       <c r="AP130" s="1"/>
     </row>
     <row r="131" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="83"/>
-      <c r="B131" s="87"/>
+      <c r="A131" s="99"/>
+      <c r="B131" s="102"/>
       <c r="C131" s="52" t="s">
         <v>216</v>
       </c>
@@ -8324,8 +8359,8 @@
       <c r="AP131" s="1"/>
     </row>
     <row r="132" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="83"/>
-      <c r="B132" s="86" t="s">
+      <c r="A132" s="99"/>
+      <c r="B132" s="94" t="s">
         <v>217</v>
       </c>
       <c r="C132" s="16" t="s">
@@ -8381,8 +8416,8 @@
       <c r="AP132" s="1"/>
     </row>
     <row r="133" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="83"/>
-      <c r="B133" s="86"/>
+      <c r="A133" s="99"/>
+      <c r="B133" s="94"/>
       <c r="C133" s="16" t="s">
         <v>219</v>
       </c>
@@ -8436,8 +8471,8 @@
       <c r="AP133" s="1"/>
     </row>
     <row r="134" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="83"/>
-      <c r="B134" s="86"/>
+      <c r="A134" s="99"/>
+      <c r="B134" s="94"/>
       <c r="C134" s="16" t="s">
         <v>220</v>
       </c>
@@ -8491,8 +8526,8 @@
       <c r="AP134" s="1"/>
     </row>
     <row r="135" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="83"/>
-      <c r="B135" s="86"/>
+      <c r="A135" s="99"/>
+      <c r="B135" s="94"/>
       <c r="C135" s="16" t="s">
         <v>221</v>
       </c>
@@ -8546,8 +8581,8 @@
       <c r="AP135" s="1"/>
     </row>
     <row r="136" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="83"/>
-      <c r="B136" s="86"/>
+      <c r="A136" s="99"/>
+      <c r="B136" s="94"/>
       <c r="C136" s="16" t="s">
         <v>222</v>
       </c>
@@ -8601,8 +8636,8 @@
       <c r="AP136" s="1"/>
     </row>
     <row r="137" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="83"/>
-      <c r="B137" s="86"/>
+      <c r="A137" s="99"/>
+      <c r="B137" s="94"/>
       <c r="C137" s="16" t="s">
         <v>223</v>
       </c>
@@ -8656,8 +8691,8 @@
       <c r="AP137" s="1"/>
     </row>
     <row r="138" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="84"/>
-      <c r="B138" s="88"/>
+      <c r="A138" s="101"/>
+      <c r="B138" s="103"/>
       <c r="C138" s="55" t="s">
         <v>224</v>
       </c>
@@ -8711,8 +8746,8 @@
       <c r="AP138" s="1"/>
     </row>
     <row r="139" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="84"/>
-      <c r="B139" s="88"/>
+      <c r="A139" s="101"/>
+      <c r="B139" s="103"/>
       <c r="C139" s="55" t="s">
         <v>227</v>
       </c>
@@ -8766,8 +8801,8 @@
       <c r="AP139" s="1"/>
     </row>
     <row r="140" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="84"/>
-      <c r="B140" s="88"/>
+      <c r="A140" s="101"/>
+      <c r="B140" s="103"/>
       <c r="C140" s="55" t="s">
         <v>229</v>
       </c>
@@ -8821,8 +8856,8 @@
       <c r="AP140" s="1"/>
     </row>
     <row r="141" spans="1:42" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="85"/>
-      <c r="B141" s="89"/>
+      <c r="A141" s="100"/>
+      <c r="B141" s="104"/>
       <c r="C141" s="33" t="s">
         <v>230</v>
       </c>
@@ -8878,11 +8913,16 @@
   </sheetData>
   <autoFilter ref="A1:K141" xr:uid="{9C6DE4F0-FB08-4A38-9A04-A033331CA2DF}"/>
   <mergeCells count="31">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B16"/>
-    <mergeCell ref="B17:B31"/>
-    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A124:A141"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B132:B141"/>
+    <mergeCell ref="A107:A123"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B115:B116"/>
     <mergeCell ref="C94:C99"/>
     <mergeCell ref="C100:C102"/>
     <mergeCell ref="C103:C105"/>
@@ -8899,16 +8939,11 @@
     <mergeCell ref="A94:A106"/>
     <mergeCell ref="B94:B105"/>
     <mergeCell ref="A2:A38"/>
-    <mergeCell ref="A124:A141"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="B132:B141"/>
-    <mergeCell ref="A107:A123"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B16"/>
+    <mergeCell ref="B17:B31"/>
+    <mergeCell ref="B35:B37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2:I141">
@@ -8931,9 +8966,9 @@
   </sheetPr>
   <dimension ref="A1:AS143"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H136" sqref="H136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8943,8 +8978,8 @@
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.375" style="63" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.125" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="63" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="42.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="63" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="10.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.75" style="63" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="23.75" bestFit="1" customWidth="1"/>
@@ -8955,46 +8990,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="84" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="84" t="s">
         <v>235</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="84" t="s">
         <v>234</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="84" t="s">
         <v>245</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="84" t="s">
         <v>233</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="G1" s="84" t="s">
         <v>236</v>
       </c>
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="84" t="s">
         <v>237</v>
       </c>
-      <c r="I1" s="97" t="s">
+      <c r="I1" s="84" t="s">
         <v>238</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="J1" s="84" t="s">
         <v>243</v>
       </c>
-      <c r="K1" s="97" t="s">
+      <c r="K1" s="84" t="s">
         <v>241</v>
       </c>
-      <c r="L1" s="97" t="s">
+      <c r="L1" s="84" t="s">
         <v>244</v>
       </c>
-      <c r="M1" s="97" t="s">
+      <c r="M1" s="84" t="s">
         <v>267</v>
       </c>
-      <c r="N1" s="97" t="s">
+      <c r="N1" s="84" t="s">
         <v>242</v>
       </c>
       <c r="O1" s="1"/>
@@ -9005,7 +9040,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
@@ -9018,8 +9053,8 @@
       <c r="D2" s="64">
         <v>0</v>
       </c>
-      <c r="E2" s="105">
-        <v>0</v>
+      <c r="E2" s="92">
+        <v>1</v>
       </c>
       <c r="F2" s="67" t="s">
         <v>271</v>
@@ -9057,7 +9092,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="s">
         <v>341</v>
       </c>
@@ -9071,8 +9106,8 @@
       <c r="D3" s="64">
         <v>1</v>
       </c>
-      <c r="E3" s="105">
-        <v>0</v>
+      <c r="E3" s="92">
+        <v>1</v>
       </c>
       <c r="F3" s="67" t="s">
         <v>272</v>
@@ -9108,7 +9143,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65" t="s">
         <v>341</v>
       </c>
@@ -9121,8 +9156,8 @@
       <c r="D4" s="64">
         <v>0</v>
       </c>
-      <c r="E4" s="105">
-        <v>0</v>
+      <c r="E4" s="92">
+        <v>1</v>
       </c>
       <c r="F4" s="67" t="s">
         <v>16</v>
@@ -9158,7 +9193,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65" t="s">
         <v>341</v>
       </c>
@@ -9172,8 +9207,8 @@
       <c r="D5" s="64">
         <v>1</v>
       </c>
-      <c r="E5" s="105">
-        <v>0</v>
+      <c r="E5" s="92">
+        <v>1</v>
       </c>
       <c r="F5" s="67" t="s">
         <v>273</v>
@@ -9209,7 +9244,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65" t="s">
         <v>341</v>
       </c>
@@ -9222,8 +9257,8 @@
       <c r="D6" s="64">
         <v>0</v>
       </c>
-      <c r="E6" s="105">
-        <v>0</v>
+      <c r="E6" s="92">
+        <v>1</v>
       </c>
       <c r="F6" s="67" t="s">
         <v>274</v>
@@ -9255,7 +9290,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65" t="s">
         <v>341</v>
       </c>
@@ -9269,8 +9304,8 @@
       <c r="D7" s="64">
         <v>1</v>
       </c>
-      <c r="E7" s="105">
-        <v>0</v>
+      <c r="E7" s="92">
+        <v>1</v>
       </c>
       <c r="F7" s="67" t="s">
         <v>275</v>
@@ -9302,7 +9337,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="65" t="s">
         <v>341</v>
       </c>
@@ -9316,8 +9351,8 @@
       <c r="D8" s="64">
         <v>2</v>
       </c>
-      <c r="E8" s="105">
-        <v>0</v>
+      <c r="E8" s="92">
+        <v>1</v>
       </c>
       <c r="F8" s="67" t="s">
         <v>276</v>
@@ -9349,7 +9384,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:21" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="65" t="s">
         <v>341</v>
       </c>
@@ -9363,8 +9398,8 @@
       <c r="D9" s="64">
         <v>3</v>
       </c>
-      <c r="E9" s="105">
-        <v>0</v>
+      <c r="E9" s="92">
+        <v>1</v>
       </c>
       <c r="F9" s="67" t="s">
         <v>277</v>
@@ -9396,7 +9431,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:21" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="65" t="s">
         <v>341</v>
       </c>
@@ -9410,8 +9445,8 @@
       <c r="D10" s="64">
         <v>4</v>
       </c>
-      <c r="E10" s="105">
-        <v>0</v>
+      <c r="E10" s="92">
+        <v>1</v>
       </c>
       <c r="F10" s="67" t="s">
         <v>278</v>
@@ -9443,7 +9478,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="65" t="s">
         <v>341</v>
       </c>
@@ -9457,8 +9492,8 @@
       <c r="D11" s="64">
         <v>5</v>
       </c>
-      <c r="E11" s="105">
-        <v>0</v>
+      <c r="E11" s="92">
+        <v>1</v>
       </c>
       <c r="F11" s="67" t="s">
         <v>25</v>
@@ -9494,7 +9529,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:21" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="65" t="s">
         <v>341</v>
       </c>
@@ -9508,8 +9543,8 @@
       <c r="D12" s="64">
         <v>6</v>
       </c>
-      <c r="E12" s="105">
-        <v>0</v>
+      <c r="E12" s="92">
+        <v>1</v>
       </c>
       <c r="F12" s="67" t="s">
         <v>26</v>
@@ -9545,7 +9580,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:21" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="65" t="s">
         <v>341</v>
       </c>
@@ -9559,8 +9594,8 @@
       <c r="D13" s="64">
         <v>7</v>
       </c>
-      <c r="E13" s="105">
-        <v>0</v>
+      <c r="E13" s="92">
+        <v>1</v>
       </c>
       <c r="F13" s="67" t="s">
         <v>27</v>
@@ -9610,7 +9645,7 @@
       <c r="D14" s="64">
         <v>5</v>
       </c>
-      <c r="E14" s="105">
+      <c r="E14" s="92">
         <v>0</v>
       </c>
       <c r="F14" s="67" t="s">
@@ -9657,7 +9692,7 @@
       <c r="D15" s="64">
         <v>6</v>
       </c>
-      <c r="E15" s="105">
+      <c r="E15" s="92">
         <v>0</v>
       </c>
       <c r="F15" s="67" t="s">
@@ -9704,7 +9739,7 @@
       <c r="D16" s="64">
         <v>7</v>
       </c>
-      <c r="E16" s="105">
+      <c r="E16" s="92">
         <v>0</v>
       </c>
       <c r="F16" s="67" t="s">
@@ -9743,7 +9778,7 @@
       <c r="D17" s="64">
         <v>0</v>
       </c>
-      <c r="E17" s="105">
+      <c r="E17" s="92">
         <v>0</v>
       </c>
       <c r="F17" s="67" t="s">
@@ -9783,7 +9818,7 @@
       <c r="D18" s="64">
         <v>1</v>
       </c>
-      <c r="E18" s="105">
+      <c r="E18" s="92">
         <v>0</v>
       </c>
       <c r="F18" s="67" t="s">
@@ -9825,7 +9860,7 @@
       <c r="D19" s="64">
         <v>2</v>
       </c>
-      <c r="E19" s="105">
+      <c r="E19" s="92">
         <v>0</v>
       </c>
       <c r="F19" s="67" t="s">
@@ -9865,7 +9900,7 @@
       <c r="D20" s="64">
         <v>3</v>
       </c>
-      <c r="E20" s="105">
+      <c r="E20" s="92">
         <v>0</v>
       </c>
       <c r="F20" s="67" t="s">
@@ -9905,7 +9940,7 @@
       <c r="D21" s="64">
         <v>4</v>
       </c>
-      <c r="E21" s="105">
+      <c r="E21" s="92">
         <v>0</v>
       </c>
       <c r="F21" s="67" t="s">
@@ -9945,7 +9980,7 @@
       <c r="D22" s="64">
         <v>5</v>
       </c>
-      <c r="E22" s="105">
+      <c r="E22" s="92">
         <v>0</v>
       </c>
       <c r="F22" s="67" t="s">
@@ -9985,7 +10020,7 @@
       <c r="D23" s="64">
         <v>6</v>
       </c>
-      <c r="E23" s="105">
+      <c r="E23" s="92">
         <v>0</v>
       </c>
       <c r="F23" s="67" t="s">
@@ -10025,7 +10060,7 @@
       <c r="D24" s="64">
         <v>7</v>
       </c>
-      <c r="E24" s="105">
+      <c r="E24" s="92">
         <v>0</v>
       </c>
       <c r="F24" s="67" t="s">
@@ -10065,7 +10100,7 @@
       <c r="D25" s="64">
         <v>8</v>
       </c>
-      <c r="E25" s="105">
+      <c r="E25" s="92">
         <v>0</v>
       </c>
       <c r="F25" s="67" t="s">
@@ -10107,7 +10142,7 @@
       <c r="D26" s="64">
         <v>9</v>
       </c>
-      <c r="E26" s="105">
+      <c r="E26" s="92">
         <v>0</v>
       </c>
       <c r="F26" s="67" t="s">
@@ -10147,7 +10182,7 @@
       <c r="D27" s="64">
         <v>10</v>
       </c>
-      <c r="E27" s="105">
+      <c r="E27" s="92">
         <v>0</v>
       </c>
       <c r="F27" s="67" t="s">
@@ -10187,7 +10222,7 @@
       <c r="D28" s="64">
         <v>11</v>
       </c>
-      <c r="E28" s="105">
+      <c r="E28" s="92">
         <v>0</v>
       </c>
       <c r="F28" s="67" t="s">
@@ -10227,7 +10262,7 @@
       <c r="D29" s="64">
         <v>12</v>
       </c>
-      <c r="E29" s="105">
+      <c r="E29" s="92">
         <v>0</v>
       </c>
       <c r="F29" s="67" t="s">
@@ -10267,7 +10302,7 @@
       <c r="D30" s="64">
         <v>13</v>
       </c>
-      <c r="E30" s="105">
+      <c r="E30" s="92">
         <v>0</v>
       </c>
       <c r="F30" s="67" t="s">
@@ -10293,7 +10328,7 @@
       </c>
       <c r="N30" s="73"/>
     </row>
-    <row r="31" spans="1:24" customFormat="1" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A31" s="65" t="s">
         <v>341</v>
       </c>
@@ -10307,8 +10342,8 @@
       <c r="D31" s="64">
         <v>14</v>
       </c>
-      <c r="E31" s="105">
-        <v>0</v>
+      <c r="E31" s="92">
+        <v>1</v>
       </c>
       <c r="F31" s="67" t="s">
         <v>310</v>
@@ -10348,7 +10383,7 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="65" t="s">
         <v>341</v>
       </c>
@@ -10361,8 +10396,8 @@
       <c r="D32" s="64">
         <v>0</v>
       </c>
-      <c r="E32" s="105">
-        <v>0</v>
+      <c r="E32" s="92">
+        <v>1</v>
       </c>
       <c r="F32" s="67" t="s">
         <v>279</v>
@@ -10400,7 +10435,7 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:38" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="65" t="s">
         <v>341</v>
       </c>
@@ -10413,8 +10448,8 @@
       <c r="D33" s="64">
         <v>0</v>
       </c>
-      <c r="E33" s="105">
-        <v>0</v>
+      <c r="E33" s="92">
+        <v>1</v>
       </c>
       <c r="F33" s="67" t="s">
         <v>311</v>
@@ -10452,7 +10487,7 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="1:38" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="65" t="s">
         <v>341</v>
       </c>
@@ -10465,8 +10500,8 @@
       <c r="D34" s="64">
         <v>0</v>
       </c>
-      <c r="E34" s="105">
-        <v>0</v>
+      <c r="E34" s="92">
+        <v>1</v>
       </c>
       <c r="F34" s="67" t="s">
         <v>312</v>
@@ -10504,7 +10539,7 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="1:38" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="65" t="s">
         <v>341</v>
       </c>
@@ -10517,8 +10552,8 @@
       <c r="D35" s="64">
         <v>0</v>
       </c>
-      <c r="E35" s="105">
-        <v>0</v>
+      <c r="E35" s="92">
+        <v>1</v>
       </c>
       <c r="F35" s="67" t="s">
         <v>313</v>
@@ -10555,21 +10590,21 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
-      <c r="Z35" s="93"/>
-      <c r="AA35" s="93"/>
-      <c r="AB35" s="93"/>
-      <c r="AC35" s="93"/>
-      <c r="AD35" s="93"/>
-      <c r="AE35" s="93"/>
-      <c r="AF35" s="93"/>
-      <c r="AG35" s="93"/>
-      <c r="AH35" s="93"/>
-      <c r="AI35" s="93"/>
-      <c r="AJ35" s="93"/>
-      <c r="AK35" s="93"/>
-      <c r="AL35" s="93"/>
-    </row>
-    <row r="36" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Z35" s="97"/>
+      <c r="AA35" s="97"/>
+      <c r="AB35" s="97"/>
+      <c r="AC35" s="97"/>
+      <c r="AD35" s="97"/>
+      <c r="AE35" s="97"/>
+      <c r="AF35" s="97"/>
+      <c r="AG35" s="97"/>
+      <c r="AH35" s="97"/>
+      <c r="AI35" s="97"/>
+      <c r="AJ35" s="97"/>
+      <c r="AK35" s="97"/>
+      <c r="AL35" s="97"/>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="65" t="s">
         <v>341</v>
       </c>
@@ -10583,8 +10618,8 @@
       <c r="D36" s="64">
         <v>1</v>
       </c>
-      <c r="E36" s="105">
-        <v>0</v>
+      <c r="E36" s="92">
+        <v>1</v>
       </c>
       <c r="F36" s="67" t="s">
         <v>314</v>
@@ -10613,21 +10648,21 @@
       </c>
       <c r="N36" s="79"/>
       <c r="Y36"/>
-      <c r="Z36" s="93"/>
-      <c r="AA36" s="93"/>
-      <c r="AB36" s="93"/>
-      <c r="AC36" s="93"/>
-      <c r="AD36" s="93"/>
-      <c r="AE36" s="93"/>
-      <c r="AF36" s="93"/>
-      <c r="AG36" s="93"/>
-      <c r="AH36" s="93"/>
-      <c r="AI36" s="93"/>
-      <c r="AJ36" s="93"/>
-      <c r="AK36" s="93"/>
-      <c r="AL36" s="93"/>
-    </row>
-    <row r="37" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Z36" s="97"/>
+      <c r="AA36" s="97"/>
+      <c r="AB36" s="97"/>
+      <c r="AC36" s="97"/>
+      <c r="AD36" s="97"/>
+      <c r="AE36" s="97"/>
+      <c r="AF36" s="97"/>
+      <c r="AG36" s="97"/>
+      <c r="AH36" s="97"/>
+      <c r="AI36" s="97"/>
+      <c r="AJ36" s="97"/>
+      <c r="AK36" s="97"/>
+      <c r="AL36" s="97"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="65" t="s">
         <v>341</v>
       </c>
@@ -10641,8 +10676,8 @@
       <c r="D37" s="64">
         <v>2</v>
       </c>
-      <c r="E37" s="105">
-        <v>0</v>
+      <c r="E37" s="92">
+        <v>1</v>
       </c>
       <c r="F37" s="67" t="s">
         <v>315</v>
@@ -10671,21 +10706,21 @@
       </c>
       <c r="N37" s="79"/>
       <c r="Y37"/>
-      <c r="Z37" s="93"/>
-      <c r="AA37" s="93"/>
-      <c r="AB37" s="93"/>
-      <c r="AC37" s="93"/>
-      <c r="AD37" s="93"/>
-      <c r="AE37" s="93"/>
-      <c r="AF37" s="93"/>
-      <c r="AG37" s="93"/>
-      <c r="AH37" s="93"/>
-      <c r="AI37" s="93"/>
-      <c r="AJ37" s="93"/>
-      <c r="AK37" s="93"/>
-      <c r="AL37" s="93"/>
-    </row>
-    <row r="38" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Z37" s="97"/>
+      <c r="AA37" s="97"/>
+      <c r="AB37" s="97"/>
+      <c r="AC37" s="97"/>
+      <c r="AD37" s="97"/>
+      <c r="AE37" s="97"/>
+      <c r="AF37" s="97"/>
+      <c r="AG37" s="97"/>
+      <c r="AH37" s="97"/>
+      <c r="AI37" s="97"/>
+      <c r="AJ37" s="97"/>
+      <c r="AK37" s="97"/>
+      <c r="AL37" s="97"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="65" t="s">
         <v>341</v>
       </c>
@@ -10699,13 +10734,13 @@
       <c r="D38" s="64">
         <v>3</v>
       </c>
-      <c r="E38" s="105">
-        <v>0</v>
+      <c r="E38" s="92">
+        <v>1</v>
       </c>
       <c r="F38" s="67" t="s">
         <v>316</v>
       </c>
-      <c r="G38" s="98">
+      <c r="G38" s="85">
         <v>45043</v>
       </c>
       <c r="H38" s="69">
@@ -10727,19 +10762,19 @@
       </c>
       <c r="N38" s="73"/>
       <c r="Y38"/>
-      <c r="Z38" s="93"/>
-      <c r="AA38" s="93"/>
-      <c r="AB38" s="93"/>
-      <c r="AC38" s="93"/>
-      <c r="AD38" s="93"/>
-      <c r="AE38" s="93"/>
-      <c r="AF38" s="93"/>
-      <c r="AG38" s="93"/>
-      <c r="AH38" s="93"/>
-      <c r="AI38" s="93"/>
-      <c r="AJ38" s="93"/>
-      <c r="AK38" s="93"/>
-      <c r="AL38" s="93"/>
+      <c r="Z38" s="97"/>
+      <c r="AA38" s="97"/>
+      <c r="AB38" s="97"/>
+      <c r="AC38" s="97"/>
+      <c r="AD38" s="97"/>
+      <c r="AE38" s="97"/>
+      <c r="AF38" s="97"/>
+      <c r="AG38" s="97"/>
+      <c r="AH38" s="97"/>
+      <c r="AI38" s="97"/>
+      <c r="AJ38" s="97"/>
+      <c r="AK38" s="97"/>
+      <c r="AL38" s="97"/>
     </row>
     <row r="39" spans="1:38" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="65" t="s">
@@ -10755,7 +10790,7 @@
       <c r="D39" s="64">
         <v>0</v>
       </c>
-      <c r="E39" s="105">
+      <c r="E39" s="92">
         <v>0</v>
       </c>
       <c r="F39" s="67" t="s">
@@ -10779,35 +10814,35 @@
       </c>
       <c r="N39" s="73"/>
       <c r="Y39"/>
-      <c r="Z39" s="93"/>
-      <c r="AA39" s="93"/>
-      <c r="AB39" s="93"/>
-      <c r="AC39" s="93"/>
-      <c r="AD39" s="93"/>
-      <c r="AE39" s="93"/>
-      <c r="AF39" s="93"/>
-      <c r="AG39" s="93"/>
-      <c r="AH39" s="93"/>
-      <c r="AI39" s="93"/>
-      <c r="AJ39" s="93"/>
-      <c r="AK39" s="93"/>
-      <c r="AL39" s="93"/>
-    </row>
-    <row r="40" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Z39" s="97"/>
+      <c r="AA39" s="97"/>
+      <c r="AB39" s="97"/>
+      <c r="AC39" s="97"/>
+      <c r="AD39" s="97"/>
+      <c r="AE39" s="97"/>
+      <c r="AF39" s="97"/>
+      <c r="AG39" s="97"/>
+      <c r="AH39" s="97"/>
+      <c r="AI39" s="97"/>
+      <c r="AJ39" s="97"/>
+      <c r="AK39" s="97"/>
+      <c r="AL39" s="97"/>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="95" t="s">
+      <c r="B40" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="96">
+      <c r="C40" s="83">
         <v>948</v>
       </c>
-      <c r="D40" s="96">
+      <c r="D40" s="83">
         <v>0</v>
       </c>
-      <c r="E40" s="105">
-        <v>0</v>
+      <c r="E40" s="92">
+        <v>1</v>
       </c>
       <c r="F40" s="67" t="s">
         <v>280</v>
@@ -10848,22 +10883,22 @@
       <c r="AK40"/>
       <c r="AL40"/>
     </row>
-    <row r="41" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="95" t="str">
+      <c r="B41" s="82" t="str">
         <f>B40</f>
         <v>골드 서번트 뽑기</v>
       </c>
-      <c r="C41" s="96">
+      <c r="C41" s="83">
         <v>948</v>
       </c>
-      <c r="D41" s="96">
+      <c r="D41" s="83">
         <v>1</v>
       </c>
-      <c r="E41" s="105">
-        <v>0</v>
+      <c r="E41" s="92">
+        <v>1</v>
       </c>
       <c r="F41" s="67" t="s">
         <v>281</v>
@@ -10904,21 +10939,21 @@
       <c r="AK41"/>
       <c r="AL41"/>
     </row>
-    <row r="42" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="95" t="s">
+      <c r="B42" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="96">
+      <c r="C42" s="83">
         <v>949</v>
       </c>
-      <c r="D42" s="96">
+      <c r="D42" s="83">
         <v>0</v>
       </c>
-      <c r="E42" s="105">
-        <v>0</v>
+      <c r="E42" s="92">
+        <v>1</v>
       </c>
       <c r="F42" s="67" t="s">
         <v>71</v>
@@ -10959,22 +10994,22 @@
       <c r="AK42"/>
       <c r="AL42"/>
     </row>
-    <row r="43" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="95" t="str">
+      <c r="B43" s="82" t="str">
         <f>B42</f>
         <v>다이아 서번트 뽑기</v>
       </c>
-      <c r="C43" s="96">
+      <c r="C43" s="83">
         <v>949</v>
       </c>
-      <c r="D43" s="96">
+      <c r="D43" s="83">
         <v>1</v>
       </c>
-      <c r="E43" s="105">
-        <v>0</v>
+      <c r="E43" s="92">
+        <v>1</v>
       </c>
       <c r="F43" s="67" t="s">
         <v>282</v>
@@ -11017,21 +11052,21 @@
       <c r="AK43"/>
       <c r="AL43"/>
     </row>
-    <row r="44" spans="1:38" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="95" t="s">
+      <c r="B44" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="96">
+      <c r="C44" s="83">
         <v>950</v>
       </c>
-      <c r="D44" s="96">
+      <c r="D44" s="83">
         <v>0</v>
       </c>
-      <c r="E44" s="105">
-        <v>0</v>
+      <c r="E44" s="92">
+        <v>1</v>
       </c>
       <c r="F44" s="67" t="s">
         <v>283</v>
@@ -11059,22 +11094,22 @@
       <c r="AB44"/>
       <c r="AC44"/>
     </row>
-    <row r="45" spans="1:38" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="95" t="str">
+      <c r="B45" s="82" t="str">
         <f t="shared" ref="B45:B54" si="3">B44</f>
         <v>서번트 합성</v>
       </c>
-      <c r="C45" s="96">
+      <c r="C45" s="83">
         <v>950</v>
       </c>
-      <c r="D45" s="96">
+      <c r="D45" s="83">
         <v>1</v>
       </c>
-      <c r="E45" s="105">
-        <v>0</v>
+      <c r="E45" s="92">
+        <v>1</v>
       </c>
       <c r="F45" s="67" t="s">
         <v>284</v>
@@ -11104,22 +11139,22 @@
       <c r="AB45"/>
       <c r="AC45"/>
     </row>
-    <row r="46" spans="1:38" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="95" t="str">
+      <c r="B46" s="82" t="str">
         <f t="shared" si="3"/>
         <v>서번트 합성</v>
       </c>
-      <c r="C46" s="96">
+      <c r="C46" s="83">
         <v>950</v>
       </c>
-      <c r="D46" s="96">
+      <c r="D46" s="83">
         <v>2</v>
       </c>
-      <c r="E46" s="105">
-        <v>0</v>
+      <c r="E46" s="92">
+        <v>1</v>
       </c>
       <c r="F46" s="67" t="s">
         <v>285</v>
@@ -11149,22 +11184,22 @@
       <c r="AB46"/>
       <c r="AC46"/>
     </row>
-    <row r="47" spans="1:38" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="95" t="str">
+      <c r="B47" s="82" t="str">
         <f t="shared" si="3"/>
         <v>서번트 합성</v>
       </c>
-      <c r="C47" s="96">
+      <c r="C47" s="83">
         <v>950</v>
       </c>
-      <c r="D47" s="96">
+      <c r="D47" s="83">
         <v>3</v>
       </c>
-      <c r="E47" s="105">
-        <v>0</v>
+      <c r="E47" s="92">
+        <v>1</v>
       </c>
       <c r="F47" s="67" t="s">
         <v>286</v>
@@ -11194,22 +11229,22 @@
       <c r="AB47"/>
       <c r="AC47"/>
     </row>
-    <row r="48" spans="1:38" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="95" t="str">
+      <c r="B48" s="82" t="str">
         <f t="shared" si="3"/>
         <v>서번트 합성</v>
       </c>
-      <c r="C48" s="96">
+      <c r="C48" s="83">
         <v>950</v>
       </c>
-      <c r="D48" s="96">
+      <c r="D48" s="83">
         <v>4</v>
       </c>
-      <c r="E48" s="105">
-        <v>0</v>
+      <c r="E48" s="92">
+        <v>1</v>
       </c>
       <c r="F48" s="67" t="s">
         <v>287</v>
@@ -11234,22 +11269,22 @@
       </c>
       <c r="N48" s="73"/>
     </row>
-    <row r="49" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A49" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="95" t="str">
+      <c r="B49" s="82" t="str">
         <f t="shared" si="3"/>
         <v>서번트 합성</v>
       </c>
-      <c r="C49" s="96">
+      <c r="C49" s="83">
         <v>950</v>
       </c>
-      <c r="D49" s="96">
+      <c r="D49" s="83">
         <v>5</v>
       </c>
-      <c r="E49" s="105">
-        <v>0</v>
+      <c r="E49" s="92">
+        <v>1</v>
       </c>
       <c r="F49" s="67" t="s">
         <v>82</v>
@@ -11276,22 +11311,22 @@
       </c>
       <c r="N49" s="73"/>
     </row>
-    <row r="50" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A50" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="95" t="str">
+      <c r="B50" s="82" t="str">
         <f t="shared" si="3"/>
         <v>서번트 합성</v>
       </c>
-      <c r="C50" s="96">
+      <c r="C50" s="83">
         <v>950</v>
       </c>
-      <c r="D50" s="96">
+      <c r="D50" s="83">
         <v>6</v>
       </c>
-      <c r="E50" s="105">
-        <v>0</v>
+      <c r="E50" s="92">
+        <v>1</v>
       </c>
       <c r="F50" s="67" t="s">
         <v>83</v>
@@ -11318,22 +11353,22 @@
       </c>
       <c r="N50" s="73"/>
     </row>
-    <row r="51" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A51" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="95" t="str">
+      <c r="B51" s="82" t="str">
         <f t="shared" si="3"/>
         <v>서번트 합성</v>
       </c>
-      <c r="C51" s="96">
+      <c r="C51" s="83">
         <v>950</v>
       </c>
-      <c r="D51" s="96">
+      <c r="D51" s="83">
         <v>7</v>
       </c>
-      <c r="E51" s="105">
-        <v>0</v>
+      <c r="E51" s="92">
+        <v>1</v>
       </c>
       <c r="F51" s="67" t="s">
         <v>84</v>
@@ -11360,22 +11395,22 @@
       </c>
       <c r="N51" s="73"/>
     </row>
-    <row r="52" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:45" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B52" s="95" t="str">
+      <c r="B52" s="82" t="str">
         <f t="shared" si="3"/>
         <v>서번트 합성</v>
       </c>
-      <c r="C52" s="96">
+      <c r="C52" s="83">
         <v>950</v>
       </c>
-      <c r="D52" s="96">
+      <c r="D52" s="83">
         <v>8</v>
       </c>
-      <c r="E52" s="105">
-        <v>1</v>
+      <c r="E52" s="92">
+        <v>0</v>
       </c>
       <c r="F52" s="67" t="s">
         <v>294</v>
@@ -11404,22 +11439,22 @@
       </c>
       <c r="N52" s="73"/>
     </row>
-    <row r="53" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:45" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="95" t="str">
+      <c r="B53" s="82" t="str">
         <f t="shared" si="3"/>
         <v>서번트 합성</v>
       </c>
-      <c r="C53" s="96">
+      <c r="C53" s="83">
         <v>950</v>
       </c>
-      <c r="D53" s="96">
+      <c r="D53" s="83">
         <v>9</v>
       </c>
-      <c r="E53" s="105">
-        <v>1</v>
+      <c r="E53" s="92">
+        <v>0</v>
       </c>
       <c r="F53" s="67" t="s">
         <v>295</v>
@@ -11448,22 +11483,22 @@
       </c>
       <c r="N53" s="73"/>
     </row>
-    <row r="54" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="95" t="str">
+      <c r="B54" s="82" t="str">
         <f t="shared" si="3"/>
         <v>서번트 합성</v>
       </c>
-      <c r="C54" s="96">
+      <c r="C54" s="83">
         <v>950</v>
       </c>
-      <c r="D54" s="96">
+      <c r="D54" s="83">
         <v>10</v>
       </c>
-      <c r="E54" s="105">
-        <v>1</v>
+      <c r="E54" s="92">
+        <v>0</v>
       </c>
       <c r="F54" s="67" t="s">
         <v>296</v>
@@ -11522,21 +11557,21 @@
       <c r="AR54" s="1"/>
       <c r="AS54" s="1"/>
     </row>
-    <row r="55" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="95" t="s">
+      <c r="B55" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="96">
+      <c r="C55" s="83">
         <v>951</v>
       </c>
-      <c r="D55" s="96">
+      <c r="D55" s="83">
         <v>0</v>
       </c>
-      <c r="E55" s="105">
-        <v>1</v>
+      <c r="E55" s="92">
+        <v>0</v>
       </c>
       <c r="F55" s="67" t="s">
         <v>317</v>
@@ -11593,22 +11628,22 @@
       <c r="AR55" s="1"/>
       <c r="AS55" s="1"/>
     </row>
-    <row r="56" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="95" t="str">
+      <c r="B56" s="82" t="str">
         <f t="shared" ref="B56:B69" si="4">B55</f>
         <v>서번트 교체 뽑기</v>
       </c>
-      <c r="C56" s="96">
+      <c r="C56" s="83">
         <v>951</v>
       </c>
-      <c r="D56" s="96">
+      <c r="D56" s="83">
         <v>1</v>
       </c>
-      <c r="E56" s="105">
-        <v>1</v>
+      <c r="E56" s="92">
+        <v>0</v>
       </c>
       <c r="F56" s="67" t="s">
         <v>318</v>
@@ -11667,22 +11702,22 @@
       <c r="AR56" s="1"/>
       <c r="AS56" s="1"/>
     </row>
-    <row r="57" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="95" t="str">
+      <c r="B57" s="82" t="str">
         <f t="shared" si="4"/>
         <v>서번트 교체 뽑기</v>
       </c>
-      <c r="C57" s="96">
+      <c r="C57" s="83">
         <v>951</v>
       </c>
-      <c r="D57" s="96">
+      <c r="D57" s="83">
         <v>2</v>
       </c>
-      <c r="E57" s="105">
-        <v>1</v>
+      <c r="E57" s="92">
+        <v>0</v>
       </c>
       <c r="F57" s="67" t="s">
         <v>319</v>
@@ -11743,17 +11778,17 @@
       <c r="A58" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="95" t="str">
+      <c r="B58" s="82" t="str">
         <f t="shared" si="4"/>
         <v>서번트 교체 뽑기</v>
       </c>
-      <c r="C58" s="96">
+      <c r="C58" s="83">
         <v>951</v>
       </c>
-      <c r="D58" s="96">
+      <c r="D58" s="83">
         <v>3</v>
       </c>
-      <c r="E58" s="105">
+      <c r="E58" s="92">
         <v>0</v>
       </c>
       <c r="F58" s="67" t="s">
@@ -11817,17 +11852,17 @@
       <c r="A59" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="95" t="str">
+      <c r="B59" s="82" t="str">
         <f t="shared" si="4"/>
         <v>서번트 교체 뽑기</v>
       </c>
-      <c r="C59" s="96">
+      <c r="C59" s="83">
         <v>951</v>
       </c>
-      <c r="D59" s="96">
+      <c r="D59" s="83">
         <v>4</v>
       </c>
-      <c r="E59" s="105">
+      <c r="E59" s="92">
         <v>0</v>
       </c>
       <c r="F59" s="67" t="s">
@@ -11891,17 +11926,17 @@
       <c r="A60" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="95" t="str">
+      <c r="B60" s="82" t="str">
         <f t="shared" si="4"/>
         <v>서번트 교체 뽑기</v>
       </c>
-      <c r="C60" s="96">
+      <c r="C60" s="83">
         <v>951</v>
       </c>
-      <c r="D60" s="96">
+      <c r="D60" s="83">
         <v>5</v>
       </c>
-      <c r="E60" s="105">
+      <c r="E60" s="92">
         <v>0</v>
       </c>
       <c r="F60" s="67" t="s">
@@ -11963,17 +11998,17 @@
       <c r="A61" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="95" t="str">
+      <c r="B61" s="82" t="str">
         <f t="shared" si="4"/>
         <v>서번트 교체 뽑기</v>
       </c>
-      <c r="C61" s="96">
+      <c r="C61" s="83">
         <v>951</v>
       </c>
-      <c r="D61" s="96">
+      <c r="D61" s="83">
         <v>6</v>
       </c>
-      <c r="E61" s="105">
+      <c r="E61" s="92">
         <v>0</v>
       </c>
       <c r="F61" s="67" t="s">
@@ -12035,17 +12070,17 @@
       <c r="A62" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="95" t="str">
+      <c r="B62" s="82" t="str">
         <f t="shared" si="4"/>
         <v>서번트 교체 뽑기</v>
       </c>
-      <c r="C62" s="96">
+      <c r="C62" s="83">
         <v>951</v>
       </c>
-      <c r="D62" s="96">
+      <c r="D62" s="83">
         <v>7</v>
       </c>
-      <c r="E62" s="105">
+      <c r="E62" s="92">
         <v>0</v>
       </c>
       <c r="F62" s="67" t="s">
@@ -12105,22 +12140,22 @@
       <c r="AR62" s="1"/>
       <c r="AS62" s="1"/>
     </row>
-    <row r="63" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="95" t="str">
+      <c r="B63" s="82" t="str">
         <f t="shared" si="4"/>
         <v>서번트 교체 뽑기</v>
       </c>
-      <c r="C63" s="96">
+      <c r="C63" s="83">
         <v>951</v>
       </c>
-      <c r="D63" s="96">
+      <c r="D63" s="83">
         <v>8</v>
       </c>
-      <c r="E63" s="105">
-        <v>1</v>
+      <c r="E63" s="92">
+        <v>0</v>
       </c>
       <c r="F63" s="67" t="s">
         <v>331</v>
@@ -12179,22 +12214,22 @@
       <c r="AR63" s="1"/>
       <c r="AS63" s="1"/>
     </row>
-    <row r="64" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="95" t="str">
+      <c r="B64" s="82" t="str">
         <f t="shared" si="4"/>
         <v>서번트 교체 뽑기</v>
       </c>
-      <c r="C64" s="96">
+      <c r="C64" s="83">
         <v>951</v>
       </c>
-      <c r="D64" s="96">
+      <c r="D64" s="83">
         <v>9</v>
       </c>
-      <c r="E64" s="105">
-        <v>1</v>
+      <c r="E64" s="92">
+        <v>0</v>
       </c>
       <c r="F64" s="67" t="s">
         <v>332</v>
@@ -12253,22 +12288,22 @@
       <c r="AR64" s="1"/>
       <c r="AS64" s="1"/>
     </row>
-    <row r="65" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="95" t="str">
+      <c r="B65" s="82" t="str">
         <f t="shared" si="4"/>
         <v>서번트 교체 뽑기</v>
       </c>
-      <c r="C65" s="96">
+      <c r="C65" s="83">
         <v>951</v>
       </c>
-      <c r="D65" s="96">
+      <c r="D65" s="83">
         <v>10</v>
       </c>
-      <c r="E65" s="105">
-        <v>1</v>
+      <c r="E65" s="92">
+        <v>0</v>
       </c>
       <c r="F65" s="67" t="s">
         <v>333</v>
@@ -12325,22 +12360,22 @@
       <c r="AR65" s="1"/>
       <c r="AS65" s="1"/>
     </row>
-    <row r="66" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="95" t="str">
+      <c r="B66" s="82" t="str">
         <f t="shared" si="4"/>
         <v>서번트 교체 뽑기</v>
       </c>
-      <c r="C66" s="96">
+      <c r="C66" s="83">
         <v>951</v>
       </c>
-      <c r="D66" s="96">
+      <c r="D66" s="83">
         <v>11</v>
       </c>
-      <c r="E66" s="105">
-        <v>1</v>
+      <c r="E66" s="92">
+        <v>0</v>
       </c>
       <c r="F66" s="67" t="s">
         <v>334</v>
@@ -12397,22 +12432,22 @@
       <c r="AR66" s="1"/>
       <c r="AS66" s="1"/>
     </row>
-    <row r="67" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="95" t="str">
+      <c r="B67" s="82" t="str">
         <f t="shared" si="4"/>
         <v>서번트 교체 뽑기</v>
       </c>
-      <c r="C67" s="96">
+      <c r="C67" s="83">
         <v>951</v>
       </c>
-      <c r="D67" s="96">
-        <v>12</v>
-      </c>
-      <c r="E67" s="105">
-        <v>1</v>
+      <c r="D67" s="83">
+        <v>12</v>
+      </c>
+      <c r="E67" s="92">
+        <v>0</v>
       </c>
       <c r="F67" s="67" t="s">
         <v>335</v>
@@ -12469,22 +12504,22 @@
       <c r="AR67" s="1"/>
       <c r="AS67" s="1"/>
     </row>
-    <row r="68" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="95" t="str">
+      <c r="B68" s="82" t="str">
         <f t="shared" si="4"/>
         <v>서번트 교체 뽑기</v>
       </c>
-      <c r="C68" s="96">
+      <c r="C68" s="83">
         <v>951</v>
       </c>
-      <c r="D68" s="96">
+      <c r="D68" s="83">
         <v>13</v>
       </c>
-      <c r="E68" s="105">
-        <v>1</v>
+      <c r="E68" s="92">
+        <v>0</v>
       </c>
       <c r="F68" s="67" t="s">
         <v>336</v>
@@ -12543,22 +12578,22 @@
       <c r="AR68" s="1"/>
       <c r="AS68" s="1"/>
     </row>
-    <row r="69" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B69" s="95" t="str">
+      <c r="B69" s="82" t="str">
         <f t="shared" si="4"/>
         <v>서번트 교체 뽑기</v>
       </c>
-      <c r="C69" s="96">
+      <c r="C69" s="83">
         <v>951</v>
       </c>
-      <c r="D69" s="96">
+      <c r="D69" s="83">
         <v>14</v>
       </c>
-      <c r="E69" s="105">
-        <v>1</v>
+      <c r="E69" s="92">
+        <v>0</v>
       </c>
       <c r="F69" s="67" t="s">
         <v>337</v>
@@ -12617,21 +12652,21 @@
       <c r="AR69" s="1"/>
       <c r="AS69" s="1"/>
     </row>
-    <row r="70" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B70" s="95" t="s">
+      <c r="B70" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="C70" s="96">
+      <c r="C70" s="83">
         <v>1404</v>
       </c>
-      <c r="D70" s="96">
+      <c r="D70" s="83">
         <v>0</v>
       </c>
-      <c r="E70" s="105">
-        <v>0</v>
+      <c r="E70" s="92">
+        <v>1</v>
       </c>
       <c r="F70" s="67" t="s">
         <v>288</v>
@@ -12688,21 +12723,21 @@
       <c r="AR70" s="1"/>
       <c r="AS70" s="1"/>
     </row>
-    <row r="71" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="95" t="s">
+      <c r="B71" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="C71" s="96">
+      <c r="C71" s="83">
         <v>952</v>
       </c>
-      <c r="D71" s="96">
+      <c r="D71" s="83">
         <v>0</v>
       </c>
-      <c r="E71" s="105">
-        <v>0</v>
+      <c r="E71" s="92">
+        <v>1</v>
       </c>
       <c r="F71" s="67" t="s">
         <v>289</v>
@@ -12759,21 +12794,21 @@
       <c r="AR71" s="1"/>
       <c r="AS71" s="1"/>
     </row>
-    <row r="72" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B72" s="95" t="s">
+      <c r="B72" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="C72" s="96">
+      <c r="C72" s="83">
         <v>953</v>
       </c>
-      <c r="D72" s="96">
+      <c r="D72" s="83">
         <v>0</v>
       </c>
-      <c r="E72" s="105">
-        <v>0</v>
+      <c r="E72" s="92">
+        <v>1</v>
       </c>
       <c r="F72" s="67" t="s">
         <v>290</v>
@@ -12830,21 +12865,21 @@
       <c r="AR72" s="1"/>
       <c r="AS72" s="1"/>
     </row>
-    <row r="73" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B73" s="95" t="s">
+      <c r="B73" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="C73" s="96">
+      <c r="C73" s="83">
         <v>955</v>
       </c>
-      <c r="D73" s="96">
+      <c r="D73" s="83">
         <v>0</v>
       </c>
-      <c r="E73" s="105">
-        <v>0</v>
+      <c r="E73" s="92">
+        <v>1</v>
       </c>
       <c r="F73" s="67" t="s">
         <v>325</v>
@@ -12903,21 +12938,21 @@
       <c r="AR73" s="1"/>
       <c r="AS73" s="1"/>
     </row>
-    <row r="74" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B74" s="95" t="s">
+      <c r="B74" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="C74" s="96">
+      <c r="C74" s="83">
         <v>1338</v>
       </c>
-      <c r="D74" s="96">
+      <c r="D74" s="83">
         <v>0</v>
       </c>
-      <c r="E74" s="105">
-        <v>0</v>
+      <c r="E74" s="92">
+        <v>1</v>
       </c>
       <c r="F74" s="67" t="s">
         <v>120</v>
@@ -12974,41 +13009,37 @@
       <c r="AR74" s="1"/>
       <c r="AS74" s="1"/>
     </row>
-    <row r="75" spans="1:45" customFormat="1" ht="40.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:45" customFormat="1" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A75" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="95" t="s">
+      <c r="B75" s="106" t="s">
         <v>121</v>
       </c>
-      <c r="C75" s="96">
-        <v>1405</v>
-      </c>
-      <c r="D75" s="96"/>
-      <c r="E75" s="105">
-        <v>0</v>
-      </c>
-      <c r="F75" s="67" t="s">
+      <c r="C75" s="107"/>
+      <c r="D75" s="107"/>
+      <c r="E75" s="107"/>
+      <c r="F75" s="108" t="s">
         <v>326</v>
       </c>
       <c r="G75" s="68">
         <v>44887</v>
       </c>
-      <c r="H75" s="69"/>
-      <c r="I75" s="69"/>
+      <c r="H75" s="109"/>
+      <c r="I75" s="109"/>
       <c r="J75" s="70"/>
-      <c r="K75" s="71" t="s">
+      <c r="K75" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="L75" s="71">
+      <c r="L75" s="110">
         <f>_xlfn.XLOOKUP(K75,타입분류!$A$1:$A$28,타입분류!$B$1:$B$28)</f>
         <v>1</v>
       </c>
-      <c r="M75" s="71" t="s">
+      <c r="M75" s="110" t="s">
         <v>268</v>
       </c>
-      <c r="N75" s="78" t="s">
-        <v>124</v>
+      <c r="N75" s="111" t="s">
+        <v>353</v>
       </c>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
@@ -13041,22 +13072,21 @@
       <c r="AR75" s="1"/>
       <c r="AS75" s="1"/>
     </row>
-    <row r="76" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B76" s="95" t="str">
-        <f t="shared" ref="B76:B79" si="5">B75</f>
-        <v>구간 서번트 뽑기</v>
-      </c>
-      <c r="C76" s="96">
+      <c r="B76" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76" s="83">
         <v>1405</v>
       </c>
-      <c r="D76" s="96">
+      <c r="D76" s="83">
         <v>0</v>
       </c>
-      <c r="E76" s="105">
-        <v>0</v>
+      <c r="E76" s="92">
+        <v>1</v>
       </c>
       <c r="F76" s="67" t="s">
         <v>327</v>
@@ -13115,22 +13145,21 @@
       <c r="AR76" s="1"/>
       <c r="AS76" s="1"/>
     </row>
-    <row r="77" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B77" s="95" t="str">
-        <f t="shared" si="5"/>
-        <v>구간 서번트 뽑기</v>
-      </c>
-      <c r="C77" s="96">
+      <c r="B77" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" s="83">
         <v>1405</v>
       </c>
-      <c r="D77" s="96">
+      <c r="D77" s="83">
         <v>1</v>
       </c>
-      <c r="E77" s="105">
-        <v>0</v>
+      <c r="E77" s="92">
+        <v>1</v>
       </c>
       <c r="F77" s="67" t="s">
         <v>328</v>
@@ -13187,22 +13216,21 @@
       <c r="AR77" s="1"/>
       <c r="AS77" s="1"/>
     </row>
-    <row r="78" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B78" s="95" t="str">
-        <f t="shared" si="5"/>
-        <v>구간 서번트 뽑기</v>
-      </c>
-      <c r="C78" s="96">
+      <c r="B78" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" s="83">
         <v>1405</v>
       </c>
-      <c r="D78" s="96">
+      <c r="D78" s="83">
         <v>2</v>
       </c>
-      <c r="E78" s="105">
-        <v>0</v>
+      <c r="E78" s="92">
+        <v>1</v>
       </c>
       <c r="F78" s="67" t="s">
         <v>329</v>
@@ -13259,22 +13287,21 @@
       <c r="AR78" s="1"/>
       <c r="AS78" s="1"/>
     </row>
-    <row r="79" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B79" s="95" t="str">
-        <f t="shared" si="5"/>
-        <v>구간 서번트 뽑기</v>
-      </c>
-      <c r="C79" s="96">
+      <c r="B79" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" s="83">
         <v>1405</v>
       </c>
-      <c r="D79" s="96">
+      <c r="D79" s="83">
         <v>3</v>
       </c>
-      <c r="E79" s="105">
-        <v>0</v>
+      <c r="E79" s="92">
+        <v>1</v>
       </c>
       <c r="F79" s="67" t="s">
         <v>330</v>
@@ -13335,16 +13362,16 @@
       <c r="A80" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B80" s="95" t="s">
+      <c r="B80" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="C80" s="96">
+      <c r="C80" s="83">
         <v>954</v>
       </c>
-      <c r="D80" s="96">
+      <c r="D80" s="83">
         <v>0</v>
       </c>
-      <c r="E80" s="105">
+      <c r="E80" s="92">
         <v>0</v>
       </c>
       <c r="F80" s="67" t="s">
@@ -13400,7 +13427,7 @@
       <c r="AR80" s="1"/>
       <c r="AS80" s="1"/>
     </row>
-    <row r="81" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="65" t="s">
         <v>132</v>
       </c>
@@ -13413,8 +13440,8 @@
       <c r="D81" s="64">
         <v>0</v>
       </c>
-      <c r="E81" s="105">
-        <v>0</v>
+      <c r="E81" s="92">
+        <v>1</v>
       </c>
       <c r="F81" s="67" t="s">
         <v>134</v>
@@ -13471,12 +13498,12 @@
       <c r="AR81" s="1"/>
       <c r="AS81" s="1"/>
     </row>
-    <row r="82" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="65" t="s">
         <v>342</v>
       </c>
       <c r="B82" s="66" t="str">
-        <f t="shared" ref="B82:B86" si="6">B81</f>
+        <f t="shared" ref="B82:B86" si="5">B81</f>
         <v>매터리얼 상자</v>
       </c>
       <c r="C82" s="64">
@@ -13485,8 +13512,8 @@
       <c r="D82" s="64">
         <v>1</v>
       </c>
-      <c r="E82" s="105">
-        <v>0</v>
+      <c r="E82" s="92">
+        <v>1</v>
       </c>
       <c r="F82" s="67" t="s">
         <v>135</v>
@@ -13543,12 +13570,12 @@
       <c r="AR82" s="1"/>
       <c r="AS82" s="1"/>
     </row>
-    <row r="83" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="65" t="s">
         <v>342</v>
       </c>
       <c r="B83" s="66" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>매터리얼 상자</v>
       </c>
       <c r="C83" s="64">
@@ -13557,8 +13584,8 @@
       <c r="D83" s="64">
         <v>2</v>
       </c>
-      <c r="E83" s="105">
-        <v>0</v>
+      <c r="E83" s="92">
+        <v>1</v>
       </c>
       <c r="F83" s="67" t="s">
         <v>136</v>
@@ -13615,12 +13642,12 @@
       <c r="AR83" s="1"/>
       <c r="AS83" s="1"/>
     </row>
-    <row r="84" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="65" t="s">
         <v>342</v>
       </c>
       <c r="B84" s="66" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>매터리얼 상자</v>
       </c>
       <c r="C84" s="64">
@@ -13629,8 +13656,8 @@
       <c r="D84" s="64">
         <v>3</v>
       </c>
-      <c r="E84" s="105">
-        <v>0</v>
+      <c r="E84" s="92">
+        <v>1</v>
       </c>
       <c r="F84" s="67" t="s">
         <v>137</v>
@@ -13687,12 +13714,12 @@
       <c r="AR84" s="1"/>
       <c r="AS84" s="1"/>
     </row>
-    <row r="85" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="65" t="s">
         <v>342</v>
       </c>
       <c r="B85" s="66" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>매터리얼 상자</v>
       </c>
       <c r="C85" s="64">
@@ -13701,8 +13728,8 @@
       <c r="D85" s="64">
         <v>4</v>
       </c>
-      <c r="E85" s="105">
-        <v>0</v>
+      <c r="E85" s="92">
+        <v>1</v>
       </c>
       <c r="F85" s="67" t="s">
         <v>138</v>
@@ -13759,12 +13786,12 @@
       <c r="AR85" s="1"/>
       <c r="AS85" s="1"/>
     </row>
-    <row r="86" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="65" t="s">
         <v>342</v>
       </c>
       <c r="B86" s="66" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>매터리얼 상자</v>
       </c>
       <c r="C86" s="64">
@@ -13773,8 +13800,8 @@
       <c r="D86" s="64">
         <v>5</v>
       </c>
-      <c r="E86" s="105">
-        <v>0</v>
+      <c r="E86" s="92">
+        <v>1</v>
       </c>
       <c r="F86" s="67" t="s">
         <v>139</v>
@@ -13844,7 +13871,7 @@
       <c r="D87" s="64">
         <v>0</v>
       </c>
-      <c r="E87" s="105">
+      <c r="E87" s="92">
         <v>0</v>
       </c>
       <c r="F87" s="67" t="s">
@@ -13903,7 +13930,7 @@
         <v>342</v>
       </c>
       <c r="B88" s="66" t="str">
-        <f t="shared" ref="B88:B92" si="7">B87</f>
+        <f t="shared" ref="B88:B92" si="6">B87</f>
         <v>매터리얼 교환</v>
       </c>
       <c r="C88" s="64">
@@ -13912,7 +13939,7 @@
       <c r="D88" s="64">
         <v>1</v>
       </c>
-      <c r="E88" s="105">
+      <c r="E88" s="92">
         <v>0</v>
       </c>
       <c r="F88" s="67" t="s">
@@ -13971,7 +13998,7 @@
         <v>342</v>
       </c>
       <c r="B89" s="66" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>매터리얼 교환</v>
       </c>
       <c r="C89" s="64">
@@ -13980,7 +14007,7 @@
       <c r="D89" s="64">
         <v>2</v>
       </c>
-      <c r="E89" s="105">
+      <c r="E89" s="92">
         <v>0</v>
       </c>
       <c r="F89" s="67" t="s">
@@ -14039,7 +14066,7 @@
         <v>342</v>
       </c>
       <c r="B90" s="66" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>매터리얼 교환</v>
       </c>
       <c r="C90" s="64">
@@ -14048,7 +14075,7 @@
       <c r="D90" s="64">
         <v>3</v>
       </c>
-      <c r="E90" s="105">
+      <c r="E90" s="92">
         <v>0</v>
       </c>
       <c r="F90" s="67" t="s">
@@ -14107,7 +14134,7 @@
         <v>342</v>
       </c>
       <c r="B91" s="66" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>매터리얼 교환</v>
       </c>
       <c r="C91" s="64">
@@ -14116,7 +14143,7 @@
       <c r="D91" s="64">
         <v>4</v>
       </c>
-      <c r="E91" s="105">
+      <c r="E91" s="92">
         <v>0</v>
       </c>
       <c r="F91" s="67" t="s">
@@ -14175,7 +14202,7 @@
         <v>342</v>
       </c>
       <c r="B92" s="66" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>매터리얼 교환</v>
       </c>
       <c r="C92" s="64">
@@ -14184,7 +14211,7 @@
       <c r="D92" s="64">
         <v>5</v>
       </c>
-      <c r="E92" s="105">
+      <c r="E92" s="92">
         <v>0</v>
       </c>
       <c r="F92" s="67" t="s">
@@ -14251,7 +14278,7 @@
       <c r="D93" s="64">
         <v>0</v>
       </c>
-      <c r="E93" s="105">
+      <c r="E93" s="92">
         <v>0</v>
       </c>
       <c r="F93" s="67" t="s">
@@ -14305,7 +14332,7 @@
       <c r="AR93" s="1"/>
       <c r="AS93" s="1"/>
     </row>
-    <row r="94" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="65" t="s">
         <v>342</v>
       </c>
@@ -14318,8 +14345,8 @@
       <c r="D94" s="64">
         <v>0</v>
       </c>
-      <c r="E94" s="105">
-        <v>0</v>
+      <c r="E94" s="92">
+        <v>1</v>
       </c>
       <c r="F94" s="67" t="s">
         <v>152</v>
@@ -14374,23 +14401,23 @@
       <c r="AR94" s="1"/>
       <c r="AS94" s="1"/>
     </row>
-    <row r="95" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="B95" s="95" t="s">
+      <c r="B95" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="C95" s="96">
+      <c r="C95" s="83">
         <v>960</v>
       </c>
-      <c r="D95" s="96">
+      <c r="D95" s="83">
         <v>0</v>
       </c>
-      <c r="E95" s="105">
-        <v>0</v>
-      </c>
-      <c r="F95" s="94" t="s">
+      <c r="E95" s="92">
+        <v>1</v>
+      </c>
+      <c r="F95" s="105" t="s">
         <v>155</v>
       </c>
       <c r="G95" s="75"/>
@@ -14441,24 +14468,24 @@
       <c r="AR95" s="1"/>
       <c r="AS95" s="1"/>
     </row>
-    <row r="96" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="81" t="s">
         <v>343</v>
       </c>
-      <c r="B96" s="95" t="str">
-        <f t="shared" ref="B96:B106" si="8">B95</f>
+      <c r="B96" s="82" t="str">
+        <f t="shared" ref="B96:B106" si="7">B95</f>
         <v>전리품 뽑기</v>
       </c>
-      <c r="C96" s="96">
+      <c r="C96" s="83">
         <v>960</v>
       </c>
-      <c r="D96" s="96">
+      <c r="D96" s="83">
         <v>0</v>
       </c>
-      <c r="E96" s="105">
-        <v>0</v>
-      </c>
-      <c r="F96" s="94"/>
+      <c r="E96" s="92">
+        <v>1</v>
+      </c>
+      <c r="F96" s="105"/>
       <c r="G96" s="75"/>
       <c r="H96" s="69">
         <v>1110035</v>
@@ -14507,24 +14534,24 @@
       <c r="AR96" s="1"/>
       <c r="AS96" s="1"/>
     </row>
-    <row r="97" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="81" t="s">
         <v>343</v>
       </c>
-      <c r="B97" s="95" t="str">
-        <f t="shared" si="8"/>
+      <c r="B97" s="82" t="str">
+        <f t="shared" si="7"/>
         <v>전리품 뽑기</v>
       </c>
-      <c r="C97" s="96">
+      <c r="C97" s="83">
         <v>960</v>
       </c>
-      <c r="D97" s="96">
+      <c r="D97" s="83">
         <v>0</v>
       </c>
-      <c r="E97" s="105">
-        <v>0</v>
-      </c>
-      <c r="F97" s="94"/>
+      <c r="E97" s="92">
+        <v>1</v>
+      </c>
+      <c r="F97" s="105"/>
       <c r="G97" s="75"/>
       <c r="H97" s="69">
         <v>1110062</v>
@@ -14573,24 +14600,24 @@
       <c r="AR97" s="1"/>
       <c r="AS97" s="1"/>
     </row>
-    <row r="98" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="81" t="s">
         <v>343</v>
       </c>
-      <c r="B98" s="95" t="str">
-        <f t="shared" si="8"/>
+      <c r="B98" s="82" t="str">
+        <f t="shared" si="7"/>
         <v>전리품 뽑기</v>
       </c>
-      <c r="C98" s="96">
+      <c r="C98" s="83">
         <v>960</v>
       </c>
-      <c r="D98" s="96">
+      <c r="D98" s="83">
         <v>0</v>
       </c>
-      <c r="E98" s="105">
-        <v>0</v>
-      </c>
-      <c r="F98" s="94"/>
+      <c r="E98" s="92">
+        <v>1</v>
+      </c>
+      <c r="F98" s="105"/>
       <c r="G98" s="75"/>
       <c r="H98" s="69">
         <v>502634</v>
@@ -14639,24 +14666,24 @@
       <c r="AR98" s="1"/>
       <c r="AS98" s="1"/>
     </row>
-    <row r="99" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="81" t="s">
         <v>343</v>
       </c>
-      <c r="B99" s="95" t="str">
-        <f t="shared" si="8"/>
+      <c r="B99" s="82" t="str">
+        <f t="shared" si="7"/>
         <v>전리품 뽑기</v>
       </c>
-      <c r="C99" s="96">
+      <c r="C99" s="83">
         <v>960</v>
       </c>
-      <c r="D99" s="96">
+      <c r="D99" s="83">
         <v>0</v>
       </c>
-      <c r="E99" s="105">
-        <v>0</v>
-      </c>
-      <c r="F99" s="94"/>
+      <c r="E99" s="92">
+        <v>1</v>
+      </c>
+      <c r="F99" s="105"/>
       <c r="G99" s="75"/>
       <c r="H99" s="69">
         <v>1110036</v>
@@ -14705,24 +14732,24 @@
       <c r="AR99" s="1"/>
       <c r="AS99" s="1"/>
     </row>
-    <row r="100" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="81" t="s">
         <v>343</v>
       </c>
-      <c r="B100" s="95" t="str">
-        <f t="shared" si="8"/>
+      <c r="B100" s="82" t="str">
+        <f t="shared" si="7"/>
         <v>전리품 뽑기</v>
       </c>
-      <c r="C100" s="96">
+      <c r="C100" s="83">
         <v>960</v>
       </c>
-      <c r="D100" s="96">
+      <c r="D100" s="83">
         <v>0</v>
       </c>
-      <c r="E100" s="105">
-        <v>0</v>
-      </c>
-      <c r="F100" s="94"/>
+      <c r="E100" s="92">
+        <v>1</v>
+      </c>
+      <c r="F100" s="105"/>
       <c r="G100" s="75"/>
       <c r="H100" s="69">
         <v>1110061</v>
@@ -14771,24 +14798,24 @@
       <c r="AR100" s="1"/>
       <c r="AS100" s="1"/>
     </row>
-    <row r="101" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="81" t="s">
         <v>343</v>
       </c>
-      <c r="B101" s="95" t="str">
-        <f t="shared" si="8"/>
+      <c r="B101" s="82" t="str">
+        <f t="shared" si="7"/>
         <v>전리품 뽑기</v>
       </c>
-      <c r="C101" s="96">
+      <c r="C101" s="83">
         <v>960</v>
       </c>
-      <c r="D101" s="96">
+      <c r="D101" s="83">
         <v>1</v>
       </c>
-      <c r="E101" s="105">
-        <v>0</v>
-      </c>
-      <c r="F101" s="94" t="s">
+      <c r="E101" s="92">
+        <v>1</v>
+      </c>
+      <c r="F101" s="105" t="s">
         <v>156</v>
       </c>
       <c r="G101" s="75"/>
@@ -14839,24 +14866,24 @@
       <c r="AR101" s="1"/>
       <c r="AS101" s="1"/>
     </row>
-    <row r="102" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="81" t="s">
         <v>343</v>
       </c>
-      <c r="B102" s="95" t="str">
-        <f t="shared" si="8"/>
+      <c r="B102" s="82" t="str">
+        <f t="shared" si="7"/>
         <v>전리품 뽑기</v>
       </c>
-      <c r="C102" s="96">
+      <c r="C102" s="83">
         <v>960</v>
       </c>
-      <c r="D102" s="96">
+      <c r="D102" s="83">
         <v>1</v>
       </c>
-      <c r="E102" s="105">
-        <v>0</v>
-      </c>
-      <c r="F102" s="94"/>
+      <c r="E102" s="92">
+        <v>1</v>
+      </c>
+      <c r="F102" s="105"/>
       <c r="G102" s="75"/>
       <c r="H102" s="69">
         <v>502655</v>
@@ -14905,24 +14932,24 @@
       <c r="AR102" s="1"/>
       <c r="AS102" s="1"/>
     </row>
-    <row r="103" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="81" t="s">
         <v>343</v>
       </c>
-      <c r="B103" s="95" t="str">
-        <f t="shared" si="8"/>
+      <c r="B103" s="82" t="str">
+        <f t="shared" si="7"/>
         <v>전리품 뽑기</v>
       </c>
-      <c r="C103" s="96">
+      <c r="C103" s="83">
         <v>960</v>
       </c>
-      <c r="D103" s="96">
+      <c r="D103" s="83">
         <v>1</v>
       </c>
-      <c r="E103" s="105">
-        <v>0</v>
-      </c>
-      <c r="F103" s="94"/>
+      <c r="E103" s="92">
+        <v>1</v>
+      </c>
+      <c r="F103" s="105"/>
       <c r="G103" s="75"/>
       <c r="H103" s="69">
         <v>502657</v>
@@ -14971,24 +14998,24 @@
       <c r="AR103" s="1"/>
       <c r="AS103" s="1"/>
     </row>
-    <row r="104" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="81" t="s">
         <v>343</v>
       </c>
-      <c r="B104" s="95" t="str">
-        <f t="shared" si="8"/>
+      <c r="B104" s="82" t="str">
+        <f t="shared" si="7"/>
         <v>전리품 뽑기</v>
       </c>
-      <c r="C104" s="96">
+      <c r="C104" s="83">
         <v>960</v>
       </c>
-      <c r="D104" s="96">
+      <c r="D104" s="83">
         <v>2</v>
       </c>
-      <c r="E104" s="105">
-        <v>0</v>
-      </c>
-      <c r="F104" s="94" t="s">
+      <c r="E104" s="92">
+        <v>1</v>
+      </c>
+      <c r="F104" s="105" t="s">
         <v>157</v>
       </c>
       <c r="G104" s="75"/>
@@ -15039,24 +15066,24 @@
       <c r="AR104" s="1"/>
       <c r="AS104" s="1"/>
     </row>
-    <row r="105" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="81" t="s">
         <v>343</v>
       </c>
-      <c r="B105" s="95" t="str">
-        <f t="shared" si="8"/>
+      <c r="B105" s="82" t="str">
+        <f t="shared" si="7"/>
         <v>전리품 뽑기</v>
       </c>
-      <c r="C105" s="96">
+      <c r="C105" s="83">
         <v>960</v>
       </c>
-      <c r="D105" s="96">
+      <c r="D105" s="83">
         <v>2</v>
       </c>
-      <c r="E105" s="105">
-        <v>0</v>
-      </c>
-      <c r="F105" s="94"/>
+      <c r="E105" s="92">
+        <v>1</v>
+      </c>
+      <c r="F105" s="105"/>
       <c r="G105" s="75"/>
       <c r="H105" s="69">
         <v>502656</v>
@@ -15105,24 +15132,24 @@
       <c r="AR105" s="1"/>
       <c r="AS105" s="1"/>
     </row>
-    <row r="106" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="81" t="s">
         <v>343</v>
       </c>
-      <c r="B106" s="95" t="str">
-        <f t="shared" si="8"/>
+      <c r="B106" s="82" t="str">
+        <f t="shared" si="7"/>
         <v>전리품 뽑기</v>
       </c>
-      <c r="C106" s="96">
+      <c r="C106" s="83">
         <v>960</v>
       </c>
-      <c r="D106" s="96">
+      <c r="D106" s="83">
         <v>2</v>
       </c>
-      <c r="E106" s="105">
-        <v>0</v>
-      </c>
-      <c r="F106" s="94"/>
+      <c r="E106" s="92">
+        <v>1</v>
+      </c>
+      <c r="F106" s="105"/>
       <c r="G106" s="75"/>
       <c r="H106" s="69">
         <v>502658</v>
@@ -15175,16 +15202,16 @@
       <c r="A107" s="81" t="s">
         <v>343</v>
       </c>
-      <c r="B107" s="95" t="s">
+      <c r="B107" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="C107" s="96">
+      <c r="C107" s="83">
         <v>961</v>
       </c>
-      <c r="D107" s="96">
+      <c r="D107" s="83">
         <v>0</v>
       </c>
-      <c r="E107" s="105">
+      <c r="E107" s="92">
         <v>0</v>
       </c>
       <c r="F107" s="67" t="s">
@@ -15251,7 +15278,7 @@
       <c r="D108" s="64">
         <v>0</v>
       </c>
-      <c r="E108" s="105">
+      <c r="E108" s="92">
         <v>0</v>
       </c>
       <c r="F108" s="67" t="s">
@@ -15319,7 +15346,7 @@
       <c r="D109" s="64">
         <v>1</v>
       </c>
-      <c r="E109" s="105">
+      <c r="E109" s="92">
         <v>0</v>
       </c>
       <c r="F109" s="67" t="s">
@@ -15386,7 +15413,7 @@
       <c r="D110" s="64">
         <v>0</v>
       </c>
-      <c r="E110" s="105">
+      <c r="E110" s="92">
         <v>0</v>
       </c>
       <c r="F110" s="67" t="s">
@@ -15454,7 +15481,7 @@
       <c r="D111" s="64">
         <v>1</v>
       </c>
-      <c r="E111" s="105">
+      <c r="E111" s="92">
         <v>0</v>
       </c>
       <c r="F111" s="67" t="s">
@@ -15521,7 +15548,7 @@
       <c r="D112" s="64">
         <v>0</v>
       </c>
-      <c r="E112" s="105">
+      <c r="E112" s="92">
         <v>0</v>
       </c>
       <c r="F112" s="67" t="s">
@@ -15589,7 +15616,7 @@
       <c r="D113" s="64">
         <v>1</v>
       </c>
-      <c r="E113" s="105">
+      <c r="E113" s="92">
         <v>0</v>
       </c>
       <c r="F113" s="67" t="s">
@@ -15656,7 +15683,7 @@
       <c r="D114" s="64">
         <v>0</v>
       </c>
-      <c r="E114" s="105">
+      <c r="E114" s="92">
         <v>0</v>
       </c>
       <c r="F114" s="67" t="s">
@@ -15724,7 +15751,7 @@
       <c r="D115" s="64">
         <v>1</v>
       </c>
-      <c r="E115" s="105">
+      <c r="E115" s="92">
         <v>0</v>
       </c>
       <c r="F115" s="67" t="s">
@@ -15791,7 +15818,7 @@
       <c r="D116" s="64">
         <v>0</v>
       </c>
-      <c r="E116" s="105">
+      <c r="E116" s="92">
         <v>0</v>
       </c>
       <c r="F116" s="67" t="s">
@@ -15859,7 +15886,7 @@
       <c r="D117" s="64">
         <v>1</v>
       </c>
-      <c r="E117" s="105">
+      <c r="E117" s="92">
         <v>0</v>
       </c>
       <c r="F117" s="67" t="s">
@@ -15926,7 +15953,7 @@
       <c r="D118" s="64">
         <v>0</v>
       </c>
-      <c r="E118" s="105">
+      <c r="E118" s="92">
         <v>0</v>
       </c>
       <c r="F118" s="67" t="s">
@@ -15993,7 +16020,7 @@
       <c r="D119" s="64">
         <v>0</v>
       </c>
-      <c r="E119" s="105">
+      <c r="E119" s="92">
         <v>0</v>
       </c>
       <c r="F119" s="67" t="s">
@@ -16060,7 +16087,7 @@
       <c r="D120" s="64">
         <v>0</v>
       </c>
-      <c r="E120" s="105">
+      <c r="E120" s="92">
         <v>0</v>
       </c>
       <c r="F120" s="67" t="s">
@@ -16127,7 +16154,7 @@
       <c r="D121" s="64">
         <v>0</v>
       </c>
-      <c r="E121" s="105">
+      <c r="E121" s="92">
         <v>0</v>
       </c>
       <c r="F121" s="67" t="s">
@@ -16194,7 +16221,7 @@
       <c r="D122" s="64">
         <v>0</v>
       </c>
-      <c r="E122" s="105">
+      <c r="E122" s="92">
         <v>0</v>
       </c>
       <c r="F122" s="67" t="s">
@@ -16261,7 +16288,7 @@
       <c r="D123" s="64">
         <v>0</v>
       </c>
-      <c r="E123" s="105">
+      <c r="E123" s="92">
         <v>0</v>
       </c>
       <c r="F123" s="67" t="s">
@@ -16328,7 +16355,7 @@
       <c r="D124" s="64">
         <v>0</v>
       </c>
-      <c r="E124" s="105">
+      <c r="E124" s="92">
         <v>0</v>
       </c>
       <c r="F124" s="67" t="s">
@@ -16386,16 +16413,16 @@
       <c r="A125" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="B125" s="95" t="s">
+      <c r="B125" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="C125" s="96">
+      <c r="C125" s="83">
         <v>974</v>
       </c>
-      <c r="D125" s="96">
+      <c r="D125" s="83">
         <v>0</v>
       </c>
-      <c r="E125" s="105">
+      <c r="E125" s="92">
         <v>0</v>
       </c>
       <c r="F125" s="67" t="s">
@@ -16451,16 +16478,16 @@
       <c r="A126" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="B126" s="95" t="s">
+      <c r="B126" s="82" t="s">
         <v>196</v>
       </c>
-      <c r="C126" s="96">
+      <c r="C126" s="83">
         <v>975</v>
       </c>
-      <c r="D126" s="96">
+      <c r="D126" s="83">
         <v>0</v>
       </c>
-      <c r="E126" s="105">
+      <c r="E126" s="92">
         <v>0</v>
       </c>
       <c r="F126" s="67" t="s">
@@ -16520,16 +16547,16 @@
       <c r="A127" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="B127" s="95" t="s">
+      <c r="B127" s="82" t="s">
         <v>201</v>
       </c>
-      <c r="C127" s="96">
+      <c r="C127" s="83">
         <v>1283</v>
       </c>
-      <c r="D127" s="96">
+      <c r="D127" s="83">
         <v>0</v>
       </c>
-      <c r="E127" s="105">
+      <c r="E127" s="92">
         <v>0</v>
       </c>
       <c r="F127" s="67" t="s">
@@ -16587,16 +16614,16 @@
       <c r="A128" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="B128" s="95" t="s">
+      <c r="B128" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="C128" s="96">
+      <c r="C128" s="83">
         <v>1326</v>
       </c>
-      <c r="D128" s="96">
+      <c r="D128" s="83">
         <v>0</v>
       </c>
-      <c r="E128" s="105">
+      <c r="E128" s="92">
         <v>0</v>
       </c>
       <c r="F128" s="67" t="s">
@@ -16652,17 +16679,17 @@
       <c r="A129" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="B129" s="95" t="str">
-        <f t="shared" ref="B129:B130" si="9">B128</f>
+      <c r="B129" s="82" t="str">
+        <f t="shared" ref="B129:B130" si="8">B128</f>
         <v>슬롯 강화</v>
       </c>
-      <c r="C129" s="96">
+      <c r="C129" s="83">
         <v>1326</v>
       </c>
-      <c r="D129" s="96">
+      <c r="D129" s="83">
         <v>1</v>
       </c>
-      <c r="E129" s="105">
+      <c r="E129" s="92">
         <v>0</v>
       </c>
       <c r="F129" s="67" t="s">
@@ -16718,17 +16745,17 @@
       <c r="A130" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="B130" s="95" t="str">
-        <f t="shared" si="9"/>
+      <c r="B130" s="82" t="str">
+        <f t="shared" si="8"/>
         <v>슬롯 강화</v>
       </c>
-      <c r="C130" s="96">
+      <c r="C130" s="83">
         <v>1326</v>
       </c>
-      <c r="D130" s="96">
+      <c r="D130" s="83">
         <v>2</v>
       </c>
-      <c r="E130" s="105">
+      <c r="E130" s="92">
         <v>0</v>
       </c>
       <c r="F130" s="67" t="s">
@@ -16780,21 +16807,21 @@
       <c r="AR130" s="1"/>
       <c r="AS130" s="1"/>
     </row>
-    <row r="131" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="B131" s="95" t="s">
+      <c r="B131" s="82" t="s">
         <v>217</v>
       </c>
-      <c r="C131" s="96">
+      <c r="C131" s="83">
         <v>976</v>
       </c>
-      <c r="D131" s="96">
+      <c r="D131" s="83">
         <v>0</v>
       </c>
-      <c r="E131" s="105">
-        <v>0</v>
+      <c r="E131" s="92">
+        <v>1</v>
       </c>
       <c r="F131" s="67" t="s">
         <v>218</v>
@@ -16849,22 +16876,22 @@
       <c r="AR131" s="1"/>
       <c r="AS131" s="1"/>
     </row>
-    <row r="132" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="B132" s="95" t="str">
-        <f t="shared" ref="B132:B143" si="10">B131</f>
+      <c r="B132" s="82" t="str">
+        <f t="shared" ref="B132:B143" si="9">B131</f>
         <v>기타</v>
       </c>
-      <c r="C132" s="96">
+      <c r="C132" s="83">
         <v>976</v>
       </c>
-      <c r="D132" s="96">
+      <c r="D132" s="83">
         <v>1</v>
       </c>
-      <c r="E132" s="105">
-        <v>0</v>
+      <c r="E132" s="92">
+        <v>1</v>
       </c>
       <c r="F132" s="67" t="s">
         <v>219</v>
@@ -16919,22 +16946,22 @@
       <c r="AR132" s="1"/>
       <c r="AS132" s="1"/>
     </row>
-    <row r="133" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="B133" s="95" t="str">
-        <f t="shared" si="10"/>
+      <c r="B133" s="82" t="str">
+        <f t="shared" si="9"/>
         <v>기타</v>
       </c>
-      <c r="C133" s="96">
+      <c r="C133" s="83">
         <v>976</v>
       </c>
-      <c r="D133" s="96">
+      <c r="D133" s="83">
         <v>2</v>
       </c>
-      <c r="E133" s="105">
-        <v>0</v>
+      <c r="E133" s="92">
+        <v>1</v>
       </c>
       <c r="F133" s="67" t="s">
         <v>220</v>
@@ -16989,22 +17016,22 @@
       <c r="AR133" s="1"/>
       <c r="AS133" s="1"/>
     </row>
-    <row r="134" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="B134" s="95" t="str">
-        <f t="shared" si="10"/>
+      <c r="B134" s="82" t="str">
+        <f t="shared" si="9"/>
         <v>기타</v>
       </c>
-      <c r="C134" s="96">
+      <c r="C134" s="83">
         <v>976</v>
       </c>
-      <c r="D134" s="96">
+      <c r="D134" s="83">
         <v>3</v>
       </c>
-      <c r="E134" s="105">
-        <v>0</v>
+      <c r="E134" s="92">
+        <v>1</v>
       </c>
       <c r="F134" s="67" t="s">
         <v>221</v>
@@ -17059,22 +17086,22 @@
       <c r="AR134" s="1"/>
       <c r="AS134" s="1"/>
     </row>
-    <row r="135" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="B135" s="95" t="str">
-        <f t="shared" si="10"/>
+      <c r="B135" s="82" t="str">
+        <f t="shared" si="9"/>
         <v>기타</v>
       </c>
-      <c r="C135" s="96">
+      <c r="C135" s="83">
         <v>976</v>
       </c>
-      <c r="D135" s="96">
+      <c r="D135" s="83">
         <v>4</v>
       </c>
-      <c r="E135" s="105">
-        <v>0</v>
+      <c r="E135" s="92">
+        <v>1</v>
       </c>
       <c r="F135" s="67" t="s">
         <v>222</v>
@@ -17129,22 +17156,22 @@
       <c r="AR135" s="1"/>
       <c r="AS135" s="1"/>
     </row>
-    <row r="136" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="B136" s="95" t="str">
-        <f t="shared" si="10"/>
+      <c r="B136" s="82" t="str">
+        <f t="shared" si="9"/>
         <v>기타</v>
       </c>
-      <c r="C136" s="96">
+      <c r="C136" s="83">
         <v>976</v>
       </c>
-      <c r="D136" s="96">
+      <c r="D136" s="83">
         <v>5</v>
       </c>
-      <c r="E136" s="105">
-        <v>0</v>
+      <c r="E136" s="92">
+        <v>1</v>
       </c>
       <c r="F136" s="67" t="s">
         <v>223</v>
@@ -17199,22 +17226,22 @@
       <c r="AR136" s="1"/>
       <c r="AS136" s="1"/>
     </row>
-    <row r="137" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="B137" s="95" t="str">
-        <f t="shared" si="10"/>
+      <c r="B137" s="82" t="str">
+        <f t="shared" si="9"/>
         <v>기타</v>
       </c>
-      <c r="C137" s="96">
+      <c r="C137" s="83">
         <v>976</v>
       </c>
-      <c r="D137" s="96">
+      <c r="D137" s="83">
         <v>6</v>
       </c>
-      <c r="E137" s="105">
-        <v>0</v>
+      <c r="E137" s="92">
+        <v>1</v>
       </c>
       <c r="F137" s="67" t="s">
         <v>224</v>
@@ -17269,22 +17296,22 @@
       <c r="AR137" s="1"/>
       <c r="AS137" s="1"/>
     </row>
-    <row r="138" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="B138" s="95" t="str">
-        <f t="shared" si="10"/>
+      <c r="B138" s="82" t="str">
+        <f t="shared" si="9"/>
         <v>기타</v>
       </c>
-      <c r="C138" s="96">
+      <c r="C138" s="83">
         <v>976</v>
       </c>
-      <c r="D138" s="96">
+      <c r="D138" s="83">
         <v>7</v>
       </c>
-      <c r="E138" s="105">
-        <v>0</v>
+      <c r="E138" s="92">
+        <v>1</v>
       </c>
       <c r="F138" s="67" t="s">
         <v>227</v>
@@ -17339,22 +17366,22 @@
       <c r="AR138" s="1"/>
       <c r="AS138" s="1"/>
     </row>
-    <row r="139" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="B139" s="95" t="str">
-        <f t="shared" si="10"/>
+      <c r="B139" s="82" t="str">
+        <f t="shared" si="9"/>
         <v>기타</v>
       </c>
-      <c r="C139" s="96">
+      <c r="C139" s="83">
         <v>976</v>
       </c>
-      <c r="D139" s="96">
+      <c r="D139" s="83">
         <v>8</v>
       </c>
-      <c r="E139" s="105">
-        <v>0</v>
+      <c r="E139" s="92">
+        <v>1</v>
       </c>
       <c r="F139" s="67" t="s">
         <v>338</v>
@@ -17409,22 +17436,22 @@
       <c r="AR139" s="1"/>
       <c r="AS139" s="1"/>
     </row>
-    <row r="140" spans="1:45" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="B140" s="95" t="str">
-        <f t="shared" si="10"/>
+      <c r="B140" s="82" t="str">
+        <f t="shared" si="9"/>
         <v>기타</v>
       </c>
-      <c r="C140" s="96">
+      <c r="C140" s="83">
         <v>976</v>
       </c>
-      <c r="D140" s="96">
+      <c r="D140" s="83">
         <v>9</v>
       </c>
-      <c r="E140" s="105">
-        <v>0</v>
+      <c r="E140" s="92">
+        <v>1</v>
       </c>
       <c r="F140" s="67" t="s">
         <v>339</v>
@@ -17479,137 +17506,139 @@
       <c r="AR140" s="1"/>
       <c r="AS140" s="1"/>
     </row>
-    <row r="141" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A141" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="B141" s="95" t="str">
-        <f t="shared" si="10"/>
+      <c r="B141" s="82" t="str">
+        <f t="shared" si="9"/>
         <v>기타</v>
       </c>
-      <c r="C141" s="96">
+      <c r="C141" s="83">
         <v>976</v>
       </c>
-      <c r="D141" s="96">
+      <c r="D141" s="83">
         <v>10</v>
       </c>
-      <c r="E141" s="105">
-        <v>0</v>
-      </c>
-      <c r="F141" s="99" t="s">
+      <c r="E141" s="92">
+        <v>1</v>
+      </c>
+      <c r="F141" s="86" t="s">
         <v>346</v>
       </c>
-      <c r="G141" s="104">
+      <c r="G141" s="91">
         <v>45057</v>
       </c>
-      <c r="H141" s="100">
+      <c r="H141" s="87">
         <v>1110324</v>
       </c>
-      <c r="I141" s="100"/>
-      <c r="J141" s="101"/>
-      <c r="K141" s="102" t="s">
+      <c r="I141" s="87"/>
+      <c r="J141" s="88"/>
+      <c r="K141" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="L141" s="102">
+      <c r="L141" s="89">
         <f>_xlfn.XLOOKUP(K141,타입분류!$A$1:$A$28,타입분류!$B$1:$B$28)</f>
         <v>1</v>
       </c>
-      <c r="M141" s="102" t="s">
+      <c r="M141" s="89" t="s">
         <v>269</v>
       </c>
-      <c r="N141" s="103" t="s">
+      <c r="N141" s="90" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="142" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A142" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="B142" s="95" t="str">
-        <f t="shared" si="10"/>
+      <c r="B142" s="82" t="str">
+        <f t="shared" si="9"/>
         <v>기타</v>
       </c>
-      <c r="C142" s="96">
+      <c r="C142" s="83">
         <v>976</v>
       </c>
-      <c r="D142" s="96">
+      <c r="D142" s="83">
         <v>11</v>
       </c>
-      <c r="E142" s="105">
-        <v>0</v>
-      </c>
-      <c r="F142" s="99" t="s">
+      <c r="E142" s="92">
+        <v>1</v>
+      </c>
+      <c r="F142" s="86" t="s">
         <v>348</v>
       </c>
-      <c r="G142" s="104">
+      <c r="G142" s="91">
         <v>45057</v>
       </c>
-      <c r="H142" s="100">
+      <c r="H142" s="87">
         <v>1110334</v>
       </c>
-      <c r="I142" s="100"/>
-      <c r="J142" s="101"/>
-      <c r="K142" s="102" t="s">
+      <c r="I142" s="87"/>
+      <c r="J142" s="88"/>
+      <c r="K142" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="L142" s="102">
+      <c r="L142" s="89">
         <f>_xlfn.XLOOKUP(K142,타입분류!$A$1:$A$28,타입분류!$B$1:$B$28)</f>
         <v>1</v>
       </c>
-      <c r="M142" s="102" t="s">
+      <c r="M142" s="89" t="s">
         <v>269</v>
       </c>
-      <c r="N142" s="103" t="s">
+      <c r="N142" s="90" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="143" spans="1:45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A143" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="B143" s="95" t="str">
-        <f t="shared" si="10"/>
+      <c r="B143" s="82" t="str">
+        <f t="shared" si="9"/>
         <v>기타</v>
       </c>
-      <c r="C143" s="96">
+      <c r="C143" s="83">
         <v>976</v>
       </c>
-      <c r="D143" s="96">
-        <v>12</v>
-      </c>
-      <c r="E143" s="105">
-        <v>0</v>
-      </c>
-      <c r="F143" s="99" t="s">
+      <c r="D143" s="83">
+        <v>12</v>
+      </c>
+      <c r="E143" s="92">
+        <v>1</v>
+      </c>
+      <c r="F143" s="86" t="s">
         <v>347</v>
       </c>
-      <c r="G143" s="104">
+      <c r="G143" s="91">
         <v>45057</v>
       </c>
-      <c r="H143" s="100">
+      <c r="H143" s="87">
         <v>1110335</v>
       </c>
-      <c r="I143" s="100"/>
-      <c r="J143" s="101"/>
-      <c r="K143" s="102" t="s">
+      <c r="I143" s="87"/>
+      <c r="J143" s="88"/>
+      <c r="K143" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="L143" s="102">
+      <c r="L143" s="89">
         <f>_xlfn.XLOOKUP(K143,타입분류!$A$1:$A$28,타입분류!$B$1:$B$28)</f>
         <v>1</v>
       </c>
-      <c r="M143" s="102" t="s">
+      <c r="M143" s="89" t="s">
         <v>269</v>
       </c>
-      <c r="N143" s="103" t="s">
+      <c r="N143" s="90" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N143" xr:uid="{9C6DE4F0-FB08-4A38-9A04-A033331CA2DF}">
+  <autoFilter ref="A1:N143" xr:uid="{58870481-4012-4967-9DF8-188DDC2BA7B8}">
     <filterColumn colId="11">
       <filters>
-        <filter val="16"/>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -17620,20 +17649,20 @@
     <mergeCell ref="Z35:AL39"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="E2:E143">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J2:J143">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E143">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17644,10 +17673,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E899441D-C420-42A0-9459-00002AC9F3FD}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17655,7 +17684,7 @@
     <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>263</v>
       </c>
@@ -17669,10 +17698,13 @@
         <v>350</v>
       </c>
       <c r="E1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>226</v>
       </c>
@@ -17685,8 +17717,11 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>246</v>
       </c>
@@ -17699,8 +17734,11 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>250</v>
       </c>
@@ -17713,8 +17751,11 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>255</v>
       </c>
@@ -17722,7 +17763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>258</v>
       </c>
@@ -17730,7 +17771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>259</v>
       </c>
@@ -17738,7 +17779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>254</v>
       </c>
@@ -17746,7 +17787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>265</v>
       </c>
@@ -17754,7 +17795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>266</v>
       </c>
@@ -17762,7 +17803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>257</v>
       </c>
@@ -17770,7 +17811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>256</v>
       </c>
@@ -17778,7 +17819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>249</v>
       </c>
@@ -17786,7 +17827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>253</v>
       </c>
@@ -17794,15 +17835,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>247</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>248</v>
       </c>
@@ -17810,15 +17857,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>251</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>252</v>
       </c>
@@ -17826,7 +17879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>260</v>
       </c>
@@ -17834,7 +17887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>261</v>
       </c>
@@ -17842,7 +17895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>262</v>
       </c>
@@ -17851,8 +17904,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E21" xr:uid="{E899441D-C420-42A0-9459-00002AC9F3FD}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E21">
+  <autoFilter ref="A1:F21" xr:uid="{E899441D-C420-42A0-9459-00002AC9F3FD}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F21">
       <sortCondition ref="B1:B21"/>
     </sortState>
   </autoFilter>

--- a/확률정보.xlsx
+++ b/확률정보.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\파이썬프로젝트\r2mProbLog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonMsLab\r2mProbLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603F4528-3EB2-4CFD-8446-4754B3914F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C652B780-06F3-4A78-BC9E-7B620BE59534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{ABCE2CA0-A1D3-4D65-96EE-F34166D7733B}"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="28800" windowHeight="15435" firstSheet="1" activeTab="1" xr2:uid="{ABCE2CA0-A1D3-4D65-96EE-F34166D7733B}"/>
   </bookViews>
   <sheets>
     <sheet name="23년4월" sheetId="1" state="hidden" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="354">
   <si>
     <t>Category 1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2023,45 +2023,6 @@
     <xf numFmtId="176" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="10" fontId="6" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2079,6 +2040,45 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2531,10 +2531,10 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="107" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2569,8 +2569,8 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="99"/>
-      <c r="B3" s="94"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="16" t="s">
         <v>14</v>
       </c>
@@ -2603,8 +2603,8 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="99"/>
-      <c r="B4" s="94" t="s">
+      <c r="A4" s="100"/>
+      <c r="B4" s="103" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="16" t="s">
@@ -2639,8 +2639,8 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="99"/>
-      <c r="B5" s="94"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="16" t="s">
         <v>17</v>
       </c>
@@ -2673,8 +2673,8 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99"/>
-      <c r="B6" s="94" t="s">
+      <c r="A6" s="100"/>
+      <c r="B6" s="103" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -2705,8 +2705,8 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="99"/>
-      <c r="B7" s="94"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="16" t="s">
         <v>21</v>
       </c>
@@ -2735,8 +2735,8 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="99"/>
-      <c r="B8" s="94"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="16" t="s">
         <v>22</v>
       </c>
@@ -2765,8 +2765,8 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="99"/>
-      <c r="B9" s="94"/>
+      <c r="A9" s="100"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="16" t="s">
         <v>23</v>
       </c>
@@ -2795,8 +2795,8 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="99"/>
-      <c r="B10" s="94"/>
+      <c r="A10" s="100"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="16" t="s">
         <v>24</v>
       </c>
@@ -2825,8 +2825,8 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="99"/>
-      <c r="B11" s="94"/>
+      <c r="A11" s="100"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="16" t="s">
         <v>25</v>
       </c>
@@ -2859,8 +2859,8 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="99"/>
-      <c r="B12" s="94"/>
+      <c r="A12" s="100"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="16" t="s">
         <v>26</v>
       </c>
@@ -2893,8 +2893,8 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="99"/>
-      <c r="B13" s="94"/>
+      <c r="A13" s="100"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="16" t="s">
         <v>27</v>
       </c>
@@ -2927,8 +2927,8 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="99"/>
-      <c r="B14" s="94"/>
+      <c r="A14" s="100"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="16" t="s">
         <v>28</v>
       </c>
@@ -2957,8 +2957,8 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="99"/>
-      <c r="B15" s="94"/>
+      <c r="A15" s="100"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
@@ -2987,8 +2987,8 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="99"/>
-      <c r="B16" s="94"/>
+      <c r="A16" s="100"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="16" t="s">
         <v>31</v>
       </c>
@@ -3010,8 +3010,8 @@
       <c r="K16" s="21"/>
     </row>
     <row r="17" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="99"/>
-      <c r="B17" s="94" t="s">
+      <c r="A17" s="100"/>
+      <c r="B17" s="103" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="16" t="s">
@@ -3035,8 +3035,8 @@
       <c r="K17" s="21"/>
     </row>
     <row r="18" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="99"/>
-      <c r="B18" s="94"/>
+      <c r="A18" s="100"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="16" t="s">
         <v>34</v>
       </c>
@@ -3060,8 +3060,8 @@
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="99"/>
-      <c r="B19" s="94"/>
+      <c r="A19" s="100"/>
+      <c r="B19" s="103"/>
       <c r="C19" s="16" t="s">
         <v>36</v>
       </c>
@@ -3083,8 +3083,8 @@
       <c r="K19" s="21"/>
     </row>
     <row r="20" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="99"/>
-      <c r="B20" s="94"/>
+      <c r="A20" s="100"/>
+      <c r="B20" s="103"/>
       <c r="C20" s="16" t="s">
         <v>38</v>
       </c>
@@ -3106,8 +3106,8 @@
       <c r="K20" s="21"/>
     </row>
     <row r="21" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="99"/>
-      <c r="B21" s="94"/>
+      <c r="A21" s="100"/>
+      <c r="B21" s="103"/>
       <c r="C21" s="16" t="s">
         <v>39</v>
       </c>
@@ -3129,8 +3129,8 @@
       <c r="K21" s="21"/>
     </row>
     <row r="22" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="99"/>
-      <c r="B22" s="94"/>
+      <c r="A22" s="100"/>
+      <c r="B22" s="103"/>
       <c r="C22" s="16" t="s">
         <v>40</v>
       </c>
@@ -3152,8 +3152,8 @@
       <c r="K22" s="21"/>
     </row>
     <row r="23" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="99"/>
-      <c r="B23" s="94"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="103"/>
       <c r="C23" s="16" t="s">
         <v>41</v>
       </c>
@@ -3175,8 +3175,8 @@
       <c r="K23" s="21"/>
     </row>
     <row r="24" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="99"/>
-      <c r="B24" s="94"/>
+      <c r="A24" s="100"/>
+      <c r="B24" s="103"/>
       <c r="C24" s="16" t="s">
         <v>42</v>
       </c>
@@ -3198,8 +3198,8 @@
       <c r="K24" s="21"/>
     </row>
     <row r="25" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="99"/>
-      <c r="B25" s="94"/>
+      <c r="A25" s="100"/>
+      <c r="B25" s="103"/>
       <c r="C25" s="16" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3223,8 @@
       <c r="K25" s="21"/>
     </row>
     <row r="26" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="99"/>
-      <c r="B26" s="94"/>
+      <c r="A26" s="100"/>
+      <c r="B26" s="103"/>
       <c r="C26" s="16" t="s">
         <v>45</v>
       </c>
@@ -3246,8 +3246,8 @@
       <c r="K26" s="21"/>
     </row>
     <row r="27" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="99"/>
-      <c r="B27" s="94"/>
+      <c r="A27" s="100"/>
+      <c r="B27" s="103"/>
       <c r="C27" s="16" t="s">
         <v>46</v>
       </c>
@@ -3269,8 +3269,8 @@
       <c r="K27" s="21"/>
     </row>
     <row r="28" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="99"/>
-      <c r="B28" s="94"/>
+      <c r="A28" s="100"/>
+      <c r="B28" s="103"/>
       <c r="C28" s="16" t="s">
         <v>47</v>
       </c>
@@ -3292,8 +3292,8 @@
       <c r="K28" s="21"/>
     </row>
     <row r="29" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="99"/>
-      <c r="B29" s="94"/>
+      <c r="A29" s="100"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="16" t="s">
         <v>48</v>
       </c>
@@ -3315,8 +3315,8 @@
       <c r="K29" s="21"/>
     </row>
     <row r="30" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="99"/>
-      <c r="B30" s="94"/>
+      <c r="A30" s="100"/>
+      <c r="B30" s="103"/>
       <c r="C30" s="16" t="s">
         <v>49</v>
       </c>
@@ -3338,8 +3338,8 @@
       <c r="K30" s="21"/>
     </row>
     <row r="31" spans="1:21" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="99"/>
-      <c r="B31" s="94"/>
+      <c r="A31" s="100"/>
+      <c r="B31" s="103"/>
       <c r="C31" s="16" t="s">
         <v>50</v>
       </c>
@@ -3376,7 +3376,7 @@
       <c r="U31" s="1"/>
     </row>
     <row r="32" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="99"/>
+      <c r="A32" s="100"/>
       <c r="B32" s="15" t="s">
         <v>52</v>
       </c>
@@ -3414,7 +3414,7 @@
       <c r="U32" s="1"/>
     </row>
     <row r="33" spans="1:35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="99"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="15" t="s">
         <v>54</v>
       </c>
@@ -3452,7 +3452,7 @@
       <c r="U33" s="1"/>
     </row>
     <row r="34" spans="1:35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="99"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="15" t="s">
         <v>56</v>
       </c>
@@ -3490,8 +3490,8 @@
       <c r="U34" s="1"/>
     </row>
     <row r="35" spans="1:35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="99"/>
-      <c r="B35" s="94" t="s">
+      <c r="A35" s="100"/>
+      <c r="B35" s="103" t="s">
         <v>58</v>
       </c>
       <c r="C35" s="16" t="s">
@@ -3526,23 +3526,23 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
-      <c r="W35" s="97"/>
-      <c r="X35" s="97"/>
-      <c r="Y35" s="97"/>
-      <c r="Z35" s="97"/>
-      <c r="AA35" s="97"/>
-      <c r="AB35" s="97"/>
-      <c r="AC35" s="97"/>
-      <c r="AD35" s="97"/>
-      <c r="AE35" s="97"/>
-      <c r="AF35" s="97"/>
-      <c r="AG35" s="97"/>
-      <c r="AH35" s="97"/>
-      <c r="AI35" s="97"/>
+      <c r="W35" s="110"/>
+      <c r="X35" s="110"/>
+      <c r="Y35" s="110"/>
+      <c r="Z35" s="110"/>
+      <c r="AA35" s="110"/>
+      <c r="AB35" s="110"/>
+      <c r="AC35" s="110"/>
+      <c r="AD35" s="110"/>
+      <c r="AE35" s="110"/>
+      <c r="AF35" s="110"/>
+      <c r="AG35" s="110"/>
+      <c r="AH35" s="110"/>
+      <c r="AI35" s="110"/>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A36" s="99"/>
-      <c r="B36" s="94"/>
+      <c r="A36" s="100"/>
+      <c r="B36" s="103"/>
       <c r="C36" s="16" t="s">
         <v>60</v>
       </c>
@@ -3567,23 +3567,23 @@
       </c>
       <c r="K36" s="31"/>
       <c r="V36"/>
-      <c r="W36" s="97"/>
-      <c r="X36" s="97"/>
-      <c r="Y36" s="97"/>
-      <c r="Z36" s="97"/>
-      <c r="AA36" s="97"/>
-      <c r="AB36" s="97"/>
-      <c r="AC36" s="97"/>
-      <c r="AD36" s="97"/>
-      <c r="AE36" s="97"/>
-      <c r="AF36" s="97"/>
-      <c r="AG36" s="97"/>
-      <c r="AH36" s="97"/>
-      <c r="AI36" s="97"/>
+      <c r="W36" s="110"/>
+      <c r="X36" s="110"/>
+      <c r="Y36" s="110"/>
+      <c r="Z36" s="110"/>
+      <c r="AA36" s="110"/>
+      <c r="AB36" s="110"/>
+      <c r="AC36" s="110"/>
+      <c r="AD36" s="110"/>
+      <c r="AE36" s="110"/>
+      <c r="AF36" s="110"/>
+      <c r="AG36" s="110"/>
+      <c r="AH36" s="110"/>
+      <c r="AI36" s="110"/>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A37" s="99"/>
-      <c r="B37" s="94"/>
+      <c r="A37" s="100"/>
+      <c r="B37" s="103"/>
       <c r="C37" s="16" t="s">
         <v>61</v>
       </c>
@@ -3608,22 +3608,22 @@
       </c>
       <c r="K37" s="31"/>
       <c r="V37"/>
-      <c r="W37" s="97"/>
-      <c r="X37" s="97"/>
-      <c r="Y37" s="97"/>
-      <c r="Z37" s="97"/>
-      <c r="AA37" s="97"/>
-      <c r="AB37" s="97"/>
-      <c r="AC37" s="97"/>
-      <c r="AD37" s="97"/>
-      <c r="AE37" s="97"/>
-      <c r="AF37" s="97"/>
-      <c r="AG37" s="97"/>
-      <c r="AH37" s="97"/>
-      <c r="AI37" s="97"/>
+      <c r="W37" s="110"/>
+      <c r="X37" s="110"/>
+      <c r="Y37" s="110"/>
+      <c r="Z37" s="110"/>
+      <c r="AA37" s="110"/>
+      <c r="AB37" s="110"/>
+      <c r="AC37" s="110"/>
+      <c r="AD37" s="110"/>
+      <c r="AE37" s="110"/>
+      <c r="AF37" s="110"/>
+      <c r="AG37" s="110"/>
+      <c r="AH37" s="110"/>
+      <c r="AI37" s="110"/>
     </row>
     <row r="38" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="102"/>
       <c r="B38" s="32" t="s">
         <v>63</v>
       </c>
@@ -3645,25 +3645,25 @@
       </c>
       <c r="K38" s="39"/>
       <c r="V38"/>
-      <c r="W38" s="97"/>
-      <c r="X38" s="97"/>
-      <c r="Y38" s="97"/>
-      <c r="Z38" s="97"/>
-      <c r="AA38" s="97"/>
-      <c r="AB38" s="97"/>
-      <c r="AC38" s="97"/>
-      <c r="AD38" s="97"/>
-      <c r="AE38" s="97"/>
-      <c r="AF38" s="97"/>
-      <c r="AG38" s="97"/>
-      <c r="AH38" s="97"/>
-      <c r="AI38" s="97"/>
+      <c r="W38" s="110"/>
+      <c r="X38" s="110"/>
+      <c r="Y38" s="110"/>
+      <c r="Z38" s="110"/>
+      <c r="AA38" s="110"/>
+      <c r="AB38" s="110"/>
+      <c r="AC38" s="110"/>
+      <c r="AD38" s="110"/>
+      <c r="AE38" s="110"/>
+      <c r="AF38" s="110"/>
+      <c r="AG38" s="110"/>
+      <c r="AH38" s="110"/>
+      <c r="AI38" s="110"/>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A39" s="98" t="s">
+      <c r="A39" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="93" t="s">
+      <c r="B39" s="107" t="s">
         <v>67</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -3705,8 +3705,8 @@
       <c r="AI39"/>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A40" s="99"/>
-      <c r="B40" s="94"/>
+      <c r="A40" s="100"/>
+      <c r="B40" s="103"/>
       <c r="C40" s="16" t="s">
         <v>69</v>
       </c>
@@ -3746,8 +3746,8 @@
       <c r="AI40"/>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A41" s="99"/>
-      <c r="B41" s="94" t="s">
+      <c r="A41" s="100"/>
+      <c r="B41" s="103" t="s">
         <v>70</v>
       </c>
       <c r="C41" s="16" t="s">
@@ -3789,8 +3789,8 @@
       <c r="AI41"/>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A42" s="99"/>
-      <c r="B42" s="94"/>
+      <c r="A42" s="100"/>
+      <c r="B42" s="103"/>
       <c r="C42" s="16" t="s">
         <v>72</v>
       </c>
@@ -3832,8 +3832,8 @@
       <c r="AI42"/>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A43" s="99"/>
-      <c r="B43" s="94" t="s">
+      <c r="A43" s="100"/>
+      <c r="B43" s="103" t="s">
         <v>74</v>
       </c>
       <c r="C43" s="16" t="s">
@@ -3862,8 +3862,8 @@
       <c r="Z43"/>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A44" s="99"/>
-      <c r="B44" s="94"/>
+      <c r="A44" s="100"/>
+      <c r="B44" s="103"/>
       <c r="C44" s="16" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +3892,8 @@
       <c r="Z44"/>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A45" s="99"/>
-      <c r="B45" s="94"/>
+      <c r="A45" s="100"/>
+      <c r="B45" s="103"/>
       <c r="C45" s="16" t="s">
         <v>79</v>
       </c>
@@ -3922,8 +3922,8 @@
       <c r="Z45"/>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A46" s="99"/>
-      <c r="B46" s="94"/>
+      <c r="A46" s="100"/>
+      <c r="B46" s="103"/>
       <c r="C46" s="16" t="s">
         <v>80</v>
       </c>
@@ -3952,8 +3952,8 @@
       <c r="Z46"/>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A47" s="99"/>
-      <c r="B47" s="94"/>
+      <c r="A47" s="100"/>
+      <c r="B47" s="103"/>
       <c r="C47" s="16" t="s">
         <v>81</v>
       </c>
@@ -3977,8 +3977,8 @@
       <c r="K47" s="21"/>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A48" s="99"/>
-      <c r="B48" s="94"/>
+      <c r="A48" s="100"/>
+      <c r="B48" s="103"/>
       <c r="C48" s="16" t="s">
         <v>82</v>
       </c>
@@ -4004,8 +4004,8 @@
       <c r="K48" s="21"/>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A49" s="99"/>
-      <c r="B49" s="94"/>
+      <c r="A49" s="100"/>
+      <c r="B49" s="103"/>
       <c r="C49" s="16" t="s">
         <v>83</v>
       </c>
@@ -4031,8 +4031,8 @@
       <c r="K49" s="21"/>
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A50" s="99"/>
-      <c r="B50" s="94"/>
+      <c r="A50" s="100"/>
+      <c r="B50" s="103"/>
       <c r="C50" s="16" t="s">
         <v>84</v>
       </c>
@@ -4056,8 +4056,8 @@
       <c r="K50" s="21"/>
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A51" s="99"/>
-      <c r="B51" s="94"/>
+      <c r="A51" s="100"/>
+      <c r="B51" s="103"/>
       <c r="C51" s="16" t="s">
         <v>86</v>
       </c>
@@ -4084,8 +4084,8 @@
       <c r="K51" s="21"/>
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A52" s="99"/>
-      <c r="B52" s="94"/>
+      <c r="A52" s="100"/>
+      <c r="B52" s="103"/>
       <c r="C52" s="16" t="s">
         <v>88</v>
       </c>
@@ -4112,8 +4112,8 @@
       <c r="K52" s="21"/>
     </row>
     <row r="53" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="99"/>
-      <c r="B53" s="94"/>
+      <c r="A53" s="100"/>
+      <c r="B53" s="103"/>
       <c r="C53" s="16" t="s">
         <v>89</v>
       </c>
@@ -4170,8 +4170,8 @@
       <c r="AP53" s="1"/>
     </row>
     <row r="54" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="99"/>
-      <c r="B54" s="94" t="s">
+      <c r="A54" s="100"/>
+      <c r="B54" s="103" t="s">
         <v>90</v>
       </c>
       <c r="C54" s="16" t="s">
@@ -4228,8 +4228,8 @@
       <c r="AP54" s="1"/>
     </row>
     <row r="55" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="99"/>
-      <c r="B55" s="94"/>
+      <c r="A55" s="100"/>
+      <c r="B55" s="103"/>
       <c r="C55" s="16" t="s">
         <v>92</v>
       </c>
@@ -4286,8 +4286,8 @@
       <c r="AP55" s="1"/>
     </row>
     <row r="56" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="99"/>
-      <c r="B56" s="94"/>
+      <c r="A56" s="100"/>
+      <c r="B56" s="103"/>
       <c r="C56" s="16" t="s">
         <v>94</v>
       </c>
@@ -4342,8 +4342,8 @@
       <c r="AP56" s="1"/>
     </row>
     <row r="57" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="99"/>
-      <c r="B57" s="94"/>
+      <c r="A57" s="100"/>
+      <c r="B57" s="103"/>
       <c r="C57" s="16" t="s">
         <v>96</v>
       </c>
@@ -4400,8 +4400,8 @@
       <c r="AP57" s="1"/>
     </row>
     <row r="58" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="99"/>
-      <c r="B58" s="94"/>
+      <c r="A58" s="100"/>
+      <c r="B58" s="103"/>
       <c r="C58" s="16" t="s">
         <v>98</v>
       </c>
@@ -4458,8 +4458,8 @@
       <c r="AP58" s="1"/>
     </row>
     <row r="59" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="99"/>
-      <c r="B59" s="94"/>
+      <c r="A59" s="100"/>
+      <c r="B59" s="103"/>
       <c r="C59" s="16" t="s">
         <v>99</v>
       </c>
@@ -4514,8 +4514,8 @@
       <c r="AP59" s="1"/>
     </row>
     <row r="60" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="99"/>
-      <c r="B60" s="94"/>
+      <c r="A60" s="100"/>
+      <c r="B60" s="103"/>
       <c r="C60" s="16" t="s">
         <v>100</v>
       </c>
@@ -4570,8 +4570,8 @@
       <c r="AP60" s="1"/>
     </row>
     <row r="61" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="99"/>
-      <c r="B61" s="94"/>
+      <c r="A61" s="100"/>
+      <c r="B61" s="103"/>
       <c r="C61" s="16" t="s">
         <v>101</v>
       </c>
@@ -4628,8 +4628,8 @@
       <c r="AP61" s="1"/>
     </row>
     <row r="62" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="99"/>
-      <c r="B62" s="94"/>
+      <c r="A62" s="100"/>
+      <c r="B62" s="103"/>
       <c r="C62" s="16" t="s">
         <v>103</v>
       </c>
@@ -4688,8 +4688,8 @@
       <c r="AP62" s="1"/>
     </row>
     <row r="63" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="99"/>
-      <c r="B63" s="94"/>
+      <c r="A63" s="100"/>
+      <c r="B63" s="103"/>
       <c r="C63" s="16" t="s">
         <v>105</v>
       </c>
@@ -4746,8 +4746,8 @@
       <c r="AP63" s="1"/>
     </row>
     <row r="64" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="99"/>
-      <c r="B64" s="94"/>
+      <c r="A64" s="100"/>
+      <c r="B64" s="103"/>
       <c r="C64" s="16" t="s">
         <v>106</v>
       </c>
@@ -4802,8 +4802,8 @@
       <c r="AP64" s="1"/>
     </row>
     <row r="65" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="99"/>
-      <c r="B65" s="94"/>
+      <c r="A65" s="100"/>
+      <c r="B65" s="103"/>
       <c r="C65" s="16" t="s">
         <v>107</v>
       </c>
@@ -4858,8 +4858,8 @@
       <c r="AP65" s="1"/>
     </row>
     <row r="66" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="99"/>
-      <c r="B66" s="94"/>
+      <c r="A66" s="100"/>
+      <c r="B66" s="103"/>
       <c r="C66" s="16" t="s">
         <v>108</v>
       </c>
@@ -4914,8 +4914,8 @@
       <c r="AP66" s="1"/>
     </row>
     <row r="67" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="99"/>
-      <c r="B67" s="94"/>
+      <c r="A67" s="100"/>
+      <c r="B67" s="103"/>
       <c r="C67" s="16" t="s">
         <v>109</v>
       </c>
@@ -4972,8 +4972,8 @@
       <c r="AP67" s="1"/>
     </row>
     <row r="68" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="99"/>
-      <c r="B68" s="94"/>
+      <c r="A68" s="100"/>
+      <c r="B68" s="103"/>
       <c r="C68" s="16" t="s">
         <v>110</v>
       </c>
@@ -5030,7 +5030,7 @@
       <c r="AP68" s="1"/>
     </row>
     <row r="69" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="99"/>
+      <c r="A69" s="100"/>
       <c r="B69" s="15" t="s">
         <v>111</v>
       </c>
@@ -5089,7 +5089,7 @@
       <c r="AP69" s="1"/>
     </row>
     <row r="70" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="99"/>
+      <c r="A70" s="100"/>
       <c r="B70" s="15" t="s">
         <v>113</v>
       </c>
@@ -5148,7 +5148,7 @@
       <c r="AP70" s="1"/>
     </row>
     <row r="71" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="99"/>
+      <c r="A71" s="100"/>
       <c r="B71" s="15" t="s">
         <v>115</v>
       </c>
@@ -5207,7 +5207,7 @@
       <c r="AP71" s="1"/>
     </row>
     <row r="72" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="99"/>
+      <c r="A72" s="100"/>
       <c r="B72" s="15" t="s">
         <v>117</v>
       </c>
@@ -5268,7 +5268,7 @@
       <c r="AP72" s="1"/>
     </row>
     <row r="73" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="99"/>
+      <c r="A73" s="100"/>
       <c r="B73" s="15" t="s">
         <v>119</v>
       </c>
@@ -5327,8 +5327,8 @@
       <c r="AP73" s="1"/>
     </row>
     <row r="74" spans="1:42" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="99"/>
-      <c r="B74" s="94" t="s">
+      <c r="A74" s="100"/>
+      <c r="B74" s="103" t="s">
         <v>121</v>
       </c>
       <c r="C74" s="16" t="s">
@@ -5388,8 +5388,8 @@
       <c r="AP74" s="1"/>
     </row>
     <row r="75" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="99"/>
-      <c r="B75" s="94"/>
+      <c r="A75" s="100"/>
+      <c r="B75" s="103"/>
       <c r="C75" s="16" t="s">
         <v>125</v>
       </c>
@@ -5447,8 +5447,8 @@
       <c r="AP75" s="1"/>
     </row>
     <row r="76" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="99"/>
-      <c r="B76" s="94"/>
+      <c r="A76" s="100"/>
+      <c r="B76" s="103"/>
       <c r="C76" s="16" t="s">
         <v>127</v>
       </c>
@@ -5504,8 +5504,8 @@
       <c r="AP76" s="1"/>
     </row>
     <row r="77" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="99"/>
-      <c r="B77" s="94"/>
+      <c r="A77" s="100"/>
+      <c r="B77" s="103"/>
       <c r="C77" s="16" t="s">
         <v>128</v>
       </c>
@@ -5561,8 +5561,8 @@
       <c r="AP77" s="1"/>
     </row>
     <row r="78" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="99"/>
-      <c r="B78" s="94"/>
+      <c r="A78" s="100"/>
+      <c r="B78" s="103"/>
       <c r="C78" s="16" t="s">
         <v>129</v>
       </c>
@@ -5618,7 +5618,7 @@
       <c r="AP78" s="1"/>
     </row>
     <row r="79" spans="1:42" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="100"/>
+      <c r="A79" s="102"/>
       <c r="B79" s="32" t="s">
         <v>130</v>
       </c>
@@ -5671,10 +5671,10 @@
       <c r="AP79" s="1"/>
     </row>
     <row r="80" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="98" t="s">
+      <c r="A80" s="99" t="s">
         <v>132</v>
       </c>
-      <c r="B80" s="93" t="s">
+      <c r="B80" s="107" t="s">
         <v>133</v>
       </c>
       <c r="C80" s="9" t="s">
@@ -5732,8 +5732,8 @@
       <c r="AP80" s="1"/>
     </row>
     <row r="81" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="99"/>
-      <c r="B81" s="94"/>
+      <c r="A81" s="100"/>
+      <c r="B81" s="103"/>
       <c r="C81" s="16" t="s">
         <v>135</v>
       </c>
@@ -5789,8 +5789,8 @@
       <c r="AP81" s="1"/>
     </row>
     <row r="82" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="99"/>
-      <c r="B82" s="94"/>
+      <c r="A82" s="100"/>
+      <c r="B82" s="103"/>
       <c r="C82" s="16" t="s">
         <v>136</v>
       </c>
@@ -5846,8 +5846,8 @@
       <c r="AP82" s="1"/>
     </row>
     <row r="83" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="99"/>
-      <c r="B83" s="94"/>
+      <c r="A83" s="100"/>
+      <c r="B83" s="103"/>
       <c r="C83" s="16" t="s">
         <v>137</v>
       </c>
@@ -5903,8 +5903,8 @@
       <c r="AP83" s="1"/>
     </row>
     <row r="84" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="99"/>
-      <c r="B84" s="94"/>
+      <c r="A84" s="100"/>
+      <c r="B84" s="103"/>
       <c r="C84" s="16" t="s">
         <v>138</v>
       </c>
@@ -5960,8 +5960,8 @@
       <c r="AP84" s="1"/>
     </row>
     <row r="85" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="99"/>
-      <c r="B85" s="94"/>
+      <c r="A85" s="100"/>
+      <c r="B85" s="103"/>
       <c r="C85" s="16" t="s">
         <v>139</v>
       </c>
@@ -6017,8 +6017,8 @@
       <c r="AP85" s="1"/>
     </row>
     <row r="86" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="99"/>
-      <c r="B86" s="94" t="s">
+      <c r="A86" s="100"/>
+      <c r="B86" s="103" t="s">
         <v>140</v>
       </c>
       <c r="C86" s="16" t="s">
@@ -6068,8 +6068,8 @@
       <c r="AP86" s="1"/>
     </row>
     <row r="87" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="99"/>
-      <c r="B87" s="94"/>
+      <c r="A87" s="100"/>
+      <c r="B87" s="103"/>
       <c r="C87" s="16" t="s">
         <v>143</v>
       </c>
@@ -6117,8 +6117,8 @@
       <c r="AP87" s="1"/>
     </row>
     <row r="88" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="99"/>
-      <c r="B88" s="94"/>
+      <c r="A88" s="100"/>
+      <c r="B88" s="103"/>
       <c r="C88" s="16" t="s">
         <v>144</v>
       </c>
@@ -6166,8 +6166,8 @@
       <c r="AP88" s="1"/>
     </row>
     <row r="89" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="99"/>
-      <c r="B89" s="94"/>
+      <c r="A89" s="100"/>
+      <c r="B89" s="103"/>
       <c r="C89" s="16" t="s">
         <v>145</v>
       </c>
@@ -6215,8 +6215,8 @@
       <c r="AP89" s="1"/>
     </row>
     <row r="90" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="99"/>
-      <c r="B90" s="94"/>
+      <c r="A90" s="100"/>
+      <c r="B90" s="103"/>
       <c r="C90" s="16" t="s">
         <v>146</v>
       </c>
@@ -6264,8 +6264,8 @@
       <c r="AP90" s="1"/>
     </row>
     <row r="91" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="99"/>
-      <c r="B91" s="94"/>
+      <c r="A91" s="100"/>
+      <c r="B91" s="103"/>
       <c r="C91" s="16" t="s">
         <v>147</v>
       </c>
@@ -6313,7 +6313,7 @@
       <c r="AP91" s="1"/>
     </row>
     <row r="92" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="99"/>
+      <c r="A92" s="100"/>
       <c r="B92" s="15" t="s">
         <v>148</v>
       </c>
@@ -6364,7 +6364,7 @@
       <c r="AP92" s="1"/>
     </row>
     <row r="93" spans="1:42" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="100"/>
+      <c r="A93" s="102"/>
       <c r="B93" s="32" t="s">
         <v>151</v>
       </c>
@@ -6421,13 +6421,13 @@
       <c r="AP93" s="1"/>
     </row>
     <row r="94" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="98" t="s">
+      <c r="A94" s="99" t="s">
         <v>153</v>
       </c>
-      <c r="B94" s="93" t="s">
+      <c r="B94" s="107" t="s">
         <v>154</v>
       </c>
-      <c r="C94" s="95" t="s">
+      <c r="C94" s="108" t="s">
         <v>155</v>
       </c>
       <c r="D94" s="50"/>
@@ -6476,9 +6476,9 @@
       <c r="AP94" s="1"/>
     </row>
     <row r="95" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="99"/>
-      <c r="B95" s="94"/>
-      <c r="C95" s="96"/>
+      <c r="A95" s="100"/>
+      <c r="B95" s="103"/>
+      <c r="C95" s="109"/>
       <c r="D95" s="24"/>
       <c r="E95" s="18"/>
       <c r="F95" s="18">
@@ -6525,9 +6525,9 @@
       <c r="AP95" s="1"/>
     </row>
     <row r="96" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="99"/>
-      <c r="B96" s="94"/>
-      <c r="C96" s="96"/>
+      <c r="A96" s="100"/>
+      <c r="B96" s="103"/>
+      <c r="C96" s="109"/>
       <c r="D96" s="24"/>
       <c r="E96" s="18"/>
       <c r="F96" s="18">
@@ -6574,9 +6574,9 @@
       <c r="AP96" s="1"/>
     </row>
     <row r="97" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="99"/>
-      <c r="B97" s="94"/>
-      <c r="C97" s="96"/>
+      <c r="A97" s="100"/>
+      <c r="B97" s="103"/>
+      <c r="C97" s="109"/>
       <c r="D97" s="24"/>
       <c r="E97" s="18"/>
       <c r="F97" s="18">
@@ -6623,9 +6623,9 @@
       <c r="AP97" s="1"/>
     </row>
     <row r="98" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="99"/>
-      <c r="B98" s="94"/>
-      <c r="C98" s="96"/>
+      <c r="A98" s="100"/>
+      <c r="B98" s="103"/>
+      <c r="C98" s="109"/>
       <c r="D98" s="24"/>
       <c r="E98" s="18"/>
       <c r="F98" s="18">
@@ -6672,9 +6672,9 @@
       <c r="AP98" s="1"/>
     </row>
     <row r="99" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="99"/>
-      <c r="B99" s="94"/>
-      <c r="C99" s="96"/>
+      <c r="A99" s="100"/>
+      <c r="B99" s="103"/>
+      <c r="C99" s="109"/>
       <c r="D99" s="24"/>
       <c r="E99" s="18"/>
       <c r="F99" s="18">
@@ -6721,9 +6721,9 @@
       <c r="AP99" s="1"/>
     </row>
     <row r="100" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="99"/>
-      <c r="B100" s="94"/>
-      <c r="C100" s="96" t="s">
+      <c r="A100" s="100"/>
+      <c r="B100" s="103"/>
+      <c r="C100" s="109" t="s">
         <v>156</v>
       </c>
       <c r="D100" s="24"/>
@@ -6772,9 +6772,9 @@
       <c r="AP100" s="1"/>
     </row>
     <row r="101" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="99"/>
-      <c r="B101" s="94"/>
-      <c r="C101" s="96"/>
+      <c r="A101" s="100"/>
+      <c r="B101" s="103"/>
+      <c r="C101" s="109"/>
       <c r="D101" s="24"/>
       <c r="E101" s="18"/>
       <c r="F101" s="18">
@@ -6821,9 +6821,9 @@
       <c r="AP101" s="1"/>
     </row>
     <row r="102" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="99"/>
-      <c r="B102" s="94"/>
-      <c r="C102" s="96"/>
+      <c r="A102" s="100"/>
+      <c r="B102" s="103"/>
+      <c r="C102" s="109"/>
       <c r="D102" s="24"/>
       <c r="E102" s="18"/>
       <c r="F102" s="18">
@@ -6870,9 +6870,9 @@
       <c r="AP102" s="1"/>
     </row>
     <row r="103" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="99"/>
-      <c r="B103" s="94"/>
-      <c r="C103" s="96" t="s">
+      <c r="A103" s="100"/>
+      <c r="B103" s="103"/>
+      <c r="C103" s="109" t="s">
         <v>157</v>
       </c>
       <c r="D103" s="24"/>
@@ -6921,9 +6921,9 @@
       <c r="AP103" s="1"/>
     </row>
     <row r="104" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="99"/>
-      <c r="B104" s="94"/>
-      <c r="C104" s="96"/>
+      <c r="A104" s="100"/>
+      <c r="B104" s="103"/>
+      <c r="C104" s="109"/>
       <c r="D104" s="24"/>
       <c r="E104" s="18"/>
       <c r="F104" s="18">
@@ -6970,9 +6970,9 @@
       <c r="AP104" s="1"/>
     </row>
     <row r="105" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="99"/>
-      <c r="B105" s="94"/>
-      <c r="C105" s="96"/>
+      <c r="A105" s="100"/>
+      <c r="B105" s="103"/>
+      <c r="C105" s="109"/>
       <c r="D105" s="24"/>
       <c r="E105" s="18"/>
       <c r="F105" s="18">
@@ -7019,7 +7019,7 @@
       <c r="AP105" s="1"/>
     </row>
     <row r="106" spans="1:42" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="100"/>
+      <c r="A106" s="102"/>
       <c r="B106" s="32" t="s">
         <v>158</v>
       </c>
@@ -7070,10 +7070,10 @@
       <c r="AP106" s="1"/>
     </row>
     <row r="107" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="98" t="s">
+      <c r="A107" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="B107" s="93" t="s">
+      <c r="B107" s="107" t="s">
         <v>162</v>
       </c>
       <c r="C107" s="9" t="s">
@@ -7123,8 +7123,8 @@
       <c r="AP107" s="1"/>
     </row>
     <row r="108" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="99"/>
-      <c r="B108" s="94"/>
+      <c r="A108" s="100"/>
+      <c r="B108" s="103"/>
       <c r="C108" s="16" t="s">
         <v>165</v>
       </c>
@@ -7172,8 +7172,8 @@
       <c r="AP108" s="1"/>
     </row>
     <row r="109" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="99"/>
-      <c r="B109" s="94" t="s">
+      <c r="A109" s="100"/>
+      <c r="B109" s="103" t="s">
         <v>166</v>
       </c>
       <c r="C109" s="16" t="s">
@@ -7223,8 +7223,8 @@
       <c r="AP109" s="1"/>
     </row>
     <row r="110" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="99"/>
-      <c r="B110" s="94"/>
+      <c r="A110" s="100"/>
+      <c r="B110" s="103"/>
       <c r="C110" s="16" t="s">
         <v>168</v>
       </c>
@@ -7272,8 +7272,8 @@
       <c r="AP110" s="1"/>
     </row>
     <row r="111" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="99"/>
-      <c r="B111" s="94" t="s">
+      <c r="A111" s="100"/>
+      <c r="B111" s="103" t="s">
         <v>169</v>
       </c>
       <c r="C111" s="16" t="s">
@@ -7323,8 +7323,8 @@
       <c r="AP111" s="1"/>
     </row>
     <row r="112" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="99"/>
-      <c r="B112" s="94"/>
+      <c r="A112" s="100"/>
+      <c r="B112" s="103"/>
       <c r="C112" s="16" t="s">
         <v>171</v>
       </c>
@@ -7372,8 +7372,8 @@
       <c r="AP112" s="1"/>
     </row>
     <row r="113" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="99"/>
-      <c r="B113" s="94" t="s">
+      <c r="A113" s="100"/>
+      <c r="B113" s="103" t="s">
         <v>172</v>
       </c>
       <c r="C113" s="16" t="s">
@@ -7423,8 +7423,8 @@
       <c r="AP113" s="1"/>
     </row>
     <row r="114" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="99"/>
-      <c r="B114" s="94"/>
+      <c r="A114" s="100"/>
+      <c r="B114" s="103"/>
       <c r="C114" s="16" t="s">
         <v>174</v>
       </c>
@@ -7472,8 +7472,8 @@
       <c r="AP114" s="1"/>
     </row>
     <row r="115" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="99"/>
-      <c r="B115" s="94" t="s">
+      <c r="A115" s="100"/>
+      <c r="B115" s="103" t="s">
         <v>175</v>
       </c>
       <c r="C115" s="16" t="s">
@@ -7523,8 +7523,8 @@
       <c r="AP115" s="1"/>
     </row>
     <row r="116" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="99"/>
-      <c r="B116" s="94"/>
+      <c r="A116" s="100"/>
+      <c r="B116" s="103"/>
       <c r="C116" s="16" t="s">
         <v>177</v>
       </c>
@@ -7572,7 +7572,7 @@
       <c r="AP116" s="1"/>
     </row>
     <row r="117" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="99"/>
+      <c r="A117" s="100"/>
       <c r="B117" s="15" t="s">
         <v>178</v>
       </c>
@@ -7623,7 +7623,7 @@
       <c r="AP117" s="1"/>
     </row>
     <row r="118" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="99"/>
+      <c r="A118" s="100"/>
       <c r="B118" s="51" t="s">
         <v>180</v>
       </c>
@@ -7676,7 +7676,7 @@
       <c r="AP118" s="1"/>
     </row>
     <row r="119" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="99"/>
+      <c r="A119" s="100"/>
       <c r="B119" s="51" t="s">
         <v>183</v>
       </c>
@@ -7729,7 +7729,7 @@
       <c r="AP119" s="1"/>
     </row>
     <row r="120" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="99"/>
+      <c r="A120" s="100"/>
       <c r="B120" s="51" t="s">
         <v>185</v>
       </c>
@@ -7782,7 +7782,7 @@
       <c r="AP120" s="1"/>
     </row>
     <row r="121" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="99"/>
+      <c r="A121" s="100"/>
       <c r="B121" s="51" t="s">
         <v>187</v>
       </c>
@@ -7835,7 +7835,7 @@
       <c r="AP121" s="1"/>
     </row>
     <row r="122" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="99"/>
+      <c r="A122" s="100"/>
       <c r="B122" s="51" t="s">
         <v>189</v>
       </c>
@@ -7888,7 +7888,7 @@
       <c r="AP122" s="1"/>
     </row>
     <row r="123" spans="1:42" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="100"/>
+      <c r="A123" s="102"/>
       <c r="B123" s="53" t="s">
         <v>191</v>
       </c>
@@ -7941,7 +7941,7 @@
       <c r="AP123" s="1"/>
     </row>
     <row r="124" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="98" t="s">
+      <c r="A124" s="99" t="s">
         <v>193</v>
       </c>
       <c r="B124" s="8" t="s">
@@ -7994,7 +7994,7 @@
       <c r="AP124" s="1"/>
     </row>
     <row r="125" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="99"/>
+      <c r="A125" s="100"/>
       <c r="B125" s="15" t="s">
         <v>196</v>
       </c>
@@ -8049,7 +8049,7 @@
       <c r="AP125" s="1"/>
     </row>
     <row r="126" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="99"/>
+      <c r="A126" s="100"/>
       <c r="B126" s="15" t="s">
         <v>201</v>
       </c>
@@ -8102,8 +8102,8 @@
       <c r="AP126" s="1"/>
     </row>
     <row r="127" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="99"/>
-      <c r="B127" s="94" t="s">
+      <c r="A127" s="100"/>
+      <c r="B127" s="103" t="s">
         <v>205</v>
       </c>
       <c r="C127" s="16" t="s">
@@ -8153,8 +8153,8 @@
       <c r="AP127" s="1"/>
     </row>
     <row r="128" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="99"/>
-      <c r="B128" s="94"/>
+      <c r="A128" s="100"/>
+      <c r="B128" s="103"/>
       <c r="C128" s="16" t="s">
         <v>208</v>
       </c>
@@ -8202,8 +8202,8 @@
       <c r="AP128" s="1"/>
     </row>
     <row r="129" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="99"/>
-      <c r="B129" s="94"/>
+      <c r="A129" s="100"/>
+      <c r="B129" s="103"/>
       <c r="C129" s="16" t="s">
         <v>210</v>
       </c>
@@ -8251,8 +8251,8 @@
       <c r="AP129" s="1"/>
     </row>
     <row r="130" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="99"/>
-      <c r="B130" s="102" t="s">
+      <c r="A130" s="100"/>
+      <c r="B130" s="104" t="s">
         <v>211</v>
       </c>
       <c r="C130" s="52" t="s">
@@ -8306,8 +8306,8 @@
       <c r="AP130" s="1"/>
     </row>
     <row r="131" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="99"/>
-      <c r="B131" s="102"/>
+      <c r="A131" s="100"/>
+      <c r="B131" s="104"/>
       <c r="C131" s="52" t="s">
         <v>216</v>
       </c>
@@ -8359,8 +8359,8 @@
       <c r="AP131" s="1"/>
     </row>
     <row r="132" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="99"/>
-      <c r="B132" s="94" t="s">
+      <c r="A132" s="100"/>
+      <c r="B132" s="103" t="s">
         <v>217</v>
       </c>
       <c r="C132" s="16" t="s">
@@ -8416,8 +8416,8 @@
       <c r="AP132" s="1"/>
     </row>
     <row r="133" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="99"/>
-      <c r="B133" s="94"/>
+      <c r="A133" s="100"/>
+      <c r="B133" s="103"/>
       <c r="C133" s="16" t="s">
         <v>219</v>
       </c>
@@ -8471,8 +8471,8 @@
       <c r="AP133" s="1"/>
     </row>
     <row r="134" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="99"/>
-      <c r="B134" s="94"/>
+      <c r="A134" s="100"/>
+      <c r="B134" s="103"/>
       <c r="C134" s="16" t="s">
         <v>220</v>
       </c>
@@ -8526,8 +8526,8 @@
       <c r="AP134" s="1"/>
     </row>
     <row r="135" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="99"/>
-      <c r="B135" s="94"/>
+      <c r="A135" s="100"/>
+      <c r="B135" s="103"/>
       <c r="C135" s="16" t="s">
         <v>221</v>
       </c>
@@ -8581,8 +8581,8 @@
       <c r="AP135" s="1"/>
     </row>
     <row r="136" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="99"/>
-      <c r="B136" s="94"/>
+      <c r="A136" s="100"/>
+      <c r="B136" s="103"/>
       <c r="C136" s="16" t="s">
         <v>222</v>
       </c>
@@ -8636,8 +8636,8 @@
       <c r="AP136" s="1"/>
     </row>
     <row r="137" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="99"/>
-      <c r="B137" s="94"/>
+      <c r="A137" s="100"/>
+      <c r="B137" s="103"/>
       <c r="C137" s="16" t="s">
         <v>223</v>
       </c>
@@ -8692,7 +8692,7 @@
     </row>
     <row r="138" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="101"/>
-      <c r="B138" s="103"/>
+      <c r="B138" s="105"/>
       <c r="C138" s="55" t="s">
         <v>224</v>
       </c>
@@ -8747,7 +8747,7 @@
     </row>
     <row r="139" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="101"/>
-      <c r="B139" s="103"/>
+      <c r="B139" s="105"/>
       <c r="C139" s="55" t="s">
         <v>227</v>
       </c>
@@ -8802,7 +8802,7 @@
     </row>
     <row r="140" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="101"/>
-      <c r="B140" s="103"/>
+      <c r="B140" s="105"/>
       <c r="C140" s="55" t="s">
         <v>229</v>
       </c>
@@ -8856,8 +8856,8 @@
       <c r="AP140" s="1"/>
     </row>
     <row r="141" spans="1:42" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="100"/>
-      <c r="B141" s="104"/>
+      <c r="A141" s="102"/>
+      <c r="B141" s="106"/>
       <c r="C141" s="33" t="s">
         <v>230</v>
       </c>
@@ -8913,16 +8913,11 @@
   </sheetData>
   <autoFilter ref="A1:K141" xr:uid="{9C6DE4F0-FB08-4A38-9A04-A033331CA2DF}"/>
   <mergeCells count="31">
-    <mergeCell ref="A124:A141"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="B132:B141"/>
-    <mergeCell ref="A107:A123"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B16"/>
+    <mergeCell ref="B17:B31"/>
+    <mergeCell ref="B35:B37"/>
     <mergeCell ref="C94:C99"/>
     <mergeCell ref="C100:C102"/>
     <mergeCell ref="C103:C105"/>
@@ -8939,11 +8934,16 @@
     <mergeCell ref="A94:A106"/>
     <mergeCell ref="B94:B105"/>
     <mergeCell ref="A2:A38"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B16"/>
-    <mergeCell ref="B17:B31"/>
-    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A124:A141"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B132:B141"/>
+    <mergeCell ref="A107:A123"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B115:B116"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2:I141">
@@ -8961,14 +8961,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58870481-4012-4967-9DF8-188DDC2BA7B8}">
-  <sheetPr codeName="Sheet2" filterMode="1">
+  <sheetPr codeName="Sheet2">
     <tabColor theme="1"/>
   </sheetPr>
   <dimension ref="A1:AS143"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H136" sqref="H136"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11:F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9054,7 +9054,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="67" t="s">
         <v>271</v>
@@ -9107,7 +9107,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="67" t="s">
         <v>272</v>
@@ -9157,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="67" t="s">
         <v>16</v>
@@ -9208,7 +9208,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="67" t="s">
         <v>273</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="67" t="s">
         <v>274</v>
@@ -9305,7 +9305,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="67" t="s">
         <v>275</v>
@@ -9352,7 +9352,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="67" t="s">
         <v>276</v>
@@ -9399,7 +9399,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="67" t="s">
         <v>277</v>
@@ -9446,7 +9446,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="67" t="s">
         <v>278</v>
@@ -9493,7 +9493,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="67" t="s">
         <v>25</v>
@@ -9544,7 +9544,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="67" t="s">
         <v>26</v>
@@ -9595,7 +9595,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="67" t="s">
         <v>27</v>
@@ -9631,7 +9631,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:21" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="65" t="s">
         <v>341</v>
       </c>
@@ -9678,7 +9678,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="65" t="s">
         <v>341</v>
       </c>
@@ -9725,7 +9725,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:21" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="65" t="s">
         <v>341</v>
       </c>
@@ -9765,7 +9765,7 @@
       </c>
       <c r="N16" s="73"/>
     </row>
-    <row r="17" spans="1:24" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="65" t="s">
         <v>341</v>
       </c>
@@ -9804,7 +9804,7 @@
       </c>
       <c r="N17" s="73"/>
     </row>
-    <row r="18" spans="1:24" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="65" t="s">
         <v>341</v>
       </c>
@@ -9846,7 +9846,7 @@
       </c>
       <c r="N18" s="73"/>
     </row>
-    <row r="19" spans="1:24" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="65" t="s">
         <v>341</v>
       </c>
@@ -9886,7 +9886,7 @@
       </c>
       <c r="N19" s="73"/>
     </row>
-    <row r="20" spans="1:24" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="65" t="s">
         <v>341</v>
       </c>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="N20" s="73"/>
     </row>
-    <row r="21" spans="1:24" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="65" t="s">
         <v>341</v>
       </c>
@@ -9966,7 +9966,7 @@
       </c>
       <c r="N21" s="73"/>
     </row>
-    <row r="22" spans="1:24" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="65" t="s">
         <v>341</v>
       </c>
@@ -10006,7 +10006,7 @@
       </c>
       <c r="N22" s="73"/>
     </row>
-    <row r="23" spans="1:24" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="65" t="s">
         <v>341</v>
       </c>
@@ -10046,7 +10046,7 @@
       </c>
       <c r="N23" s="73"/>
     </row>
-    <row r="24" spans="1:24" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="65" t="s">
         <v>341</v>
       </c>
@@ -10086,7 +10086,7 @@
       </c>
       <c r="N24" s="73"/>
     </row>
-    <row r="25" spans="1:24" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="65" t="s">
         <v>341</v>
       </c>
@@ -10128,7 +10128,7 @@
       </c>
       <c r="N25" s="73"/>
     </row>
-    <row r="26" spans="1:24" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="65" t="s">
         <v>341</v>
       </c>
@@ -10168,7 +10168,7 @@
       </c>
       <c r="N26" s="73"/>
     </row>
-    <row r="27" spans="1:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="65" t="s">
         <v>341</v>
       </c>
@@ -10208,7 +10208,7 @@
       </c>
       <c r="N27" s="73"/>
     </row>
-    <row r="28" spans="1:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="65" t="s">
         <v>341</v>
       </c>
@@ -10248,7 +10248,7 @@
       </c>
       <c r="N28" s="73"/>
     </row>
-    <row r="29" spans="1:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="65" t="s">
         <v>341</v>
       </c>
@@ -10288,7 +10288,7 @@
       </c>
       <c r="N29" s="73"/>
     </row>
-    <row r="30" spans="1:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="65" t="s">
         <v>341</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>14</v>
       </c>
       <c r="E31" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="67" t="s">
         <v>310</v>
@@ -10397,7 +10397,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="67" t="s">
         <v>279</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="67" t="s">
         <v>311</v>
@@ -10501,7 +10501,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="67" t="s">
         <v>312</v>
@@ -10553,7 +10553,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="67" t="s">
         <v>313</v>
@@ -10590,19 +10590,19 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
-      <c r="Z35" s="97"/>
-      <c r="AA35" s="97"/>
-      <c r="AB35" s="97"/>
-      <c r="AC35" s="97"/>
-      <c r="AD35" s="97"/>
-      <c r="AE35" s="97"/>
-      <c r="AF35" s="97"/>
-      <c r="AG35" s="97"/>
-      <c r="AH35" s="97"/>
-      <c r="AI35" s="97"/>
-      <c r="AJ35" s="97"/>
-      <c r="AK35" s="97"/>
-      <c r="AL35" s="97"/>
+      <c r="Z35" s="110"/>
+      <c r="AA35" s="110"/>
+      <c r="AB35" s="110"/>
+      <c r="AC35" s="110"/>
+      <c r="AD35" s="110"/>
+      <c r="AE35" s="110"/>
+      <c r="AF35" s="110"/>
+      <c r="AG35" s="110"/>
+      <c r="AH35" s="110"/>
+      <c r="AI35" s="110"/>
+      <c r="AJ35" s="110"/>
+      <c r="AK35" s="110"/>
+      <c r="AL35" s="110"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="65" t="s">
@@ -10619,7 +10619,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="67" t="s">
         <v>314</v>
@@ -10648,19 +10648,19 @@
       </c>
       <c r="N36" s="79"/>
       <c r="Y36"/>
-      <c r="Z36" s="97"/>
-      <c r="AA36" s="97"/>
-      <c r="AB36" s="97"/>
-      <c r="AC36" s="97"/>
-      <c r="AD36" s="97"/>
-      <c r="AE36" s="97"/>
-      <c r="AF36" s="97"/>
-      <c r="AG36" s="97"/>
-      <c r="AH36" s="97"/>
-      <c r="AI36" s="97"/>
-      <c r="AJ36" s="97"/>
-      <c r="AK36" s="97"/>
-      <c r="AL36" s="97"/>
+      <c r="Z36" s="110"/>
+      <c r="AA36" s="110"/>
+      <c r="AB36" s="110"/>
+      <c r="AC36" s="110"/>
+      <c r="AD36" s="110"/>
+      <c r="AE36" s="110"/>
+      <c r="AF36" s="110"/>
+      <c r="AG36" s="110"/>
+      <c r="AH36" s="110"/>
+      <c r="AI36" s="110"/>
+      <c r="AJ36" s="110"/>
+      <c r="AK36" s="110"/>
+      <c r="AL36" s="110"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="65" t="s">
@@ -10677,7 +10677,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="67" t="s">
         <v>315</v>
@@ -10706,19 +10706,19 @@
       </c>
       <c r="N37" s="79"/>
       <c r="Y37"/>
-      <c r="Z37" s="97"/>
-      <c r="AA37" s="97"/>
-      <c r="AB37" s="97"/>
-      <c r="AC37" s="97"/>
-      <c r="AD37" s="97"/>
-      <c r="AE37" s="97"/>
-      <c r="AF37" s="97"/>
-      <c r="AG37" s="97"/>
-      <c r="AH37" s="97"/>
-      <c r="AI37" s="97"/>
-      <c r="AJ37" s="97"/>
-      <c r="AK37" s="97"/>
-      <c r="AL37" s="97"/>
+      <c r="Z37" s="110"/>
+      <c r="AA37" s="110"/>
+      <c r="AB37" s="110"/>
+      <c r="AC37" s="110"/>
+      <c r="AD37" s="110"/>
+      <c r="AE37" s="110"/>
+      <c r="AF37" s="110"/>
+      <c r="AG37" s="110"/>
+      <c r="AH37" s="110"/>
+      <c r="AI37" s="110"/>
+      <c r="AJ37" s="110"/>
+      <c r="AK37" s="110"/>
+      <c r="AL37" s="110"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="65" t="s">
@@ -10735,7 +10735,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="67" t="s">
         <v>316</v>
@@ -10762,21 +10762,21 @@
       </c>
       <c r="N38" s="73"/>
       <c r="Y38"/>
-      <c r="Z38" s="97"/>
-      <c r="AA38" s="97"/>
-      <c r="AB38" s="97"/>
-      <c r="AC38" s="97"/>
-      <c r="AD38" s="97"/>
-      <c r="AE38" s="97"/>
-      <c r="AF38" s="97"/>
-      <c r="AG38" s="97"/>
-      <c r="AH38" s="97"/>
-      <c r="AI38" s="97"/>
-      <c r="AJ38" s="97"/>
-      <c r="AK38" s="97"/>
-      <c r="AL38" s="97"/>
-    </row>
-    <row r="39" spans="1:38" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z38" s="110"/>
+      <c r="AA38" s="110"/>
+      <c r="AB38" s="110"/>
+      <c r="AC38" s="110"/>
+      <c r="AD38" s="110"/>
+      <c r="AE38" s="110"/>
+      <c r="AF38" s="110"/>
+      <c r="AG38" s="110"/>
+      <c r="AH38" s="110"/>
+      <c r="AI38" s="110"/>
+      <c r="AJ38" s="110"/>
+      <c r="AK38" s="110"/>
+      <c r="AL38" s="110"/>
+    </row>
+    <row r="39" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="65" t="s">
         <v>341</v>
       </c>
@@ -10814,19 +10814,19 @@
       </c>
       <c r="N39" s="73"/>
       <c r="Y39"/>
-      <c r="Z39" s="97"/>
-      <c r="AA39" s="97"/>
-      <c r="AB39" s="97"/>
-      <c r="AC39" s="97"/>
-      <c r="AD39" s="97"/>
-      <c r="AE39" s="97"/>
-      <c r="AF39" s="97"/>
-      <c r="AG39" s="97"/>
-      <c r="AH39" s="97"/>
-      <c r="AI39" s="97"/>
-      <c r="AJ39" s="97"/>
-      <c r="AK39" s="97"/>
-      <c r="AL39" s="97"/>
+      <c r="Z39" s="110"/>
+      <c r="AA39" s="110"/>
+      <c r="AB39" s="110"/>
+      <c r="AC39" s="110"/>
+      <c r="AD39" s="110"/>
+      <c r="AE39" s="110"/>
+      <c r="AF39" s="110"/>
+      <c r="AG39" s="110"/>
+      <c r="AH39" s="110"/>
+      <c r="AI39" s="110"/>
+      <c r="AJ39" s="110"/>
+      <c r="AK39" s="110"/>
+      <c r="AL39" s="110"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="81" t="s">
@@ -10842,7 +10842,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="67" t="s">
         <v>280</v>
@@ -10898,7 +10898,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="67" t="s">
         <v>281</v>
@@ -10953,7 +10953,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="67" t="s">
         <v>71</v>
@@ -11009,7 +11009,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="67" t="s">
         <v>282</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="67" t="s">
         <v>283</v>
@@ -11109,7 +11109,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="67" t="s">
         <v>284</v>
@@ -11154,7 +11154,7 @@
         <v>2</v>
       </c>
       <c r="E46" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="67" t="s">
         <v>285</v>
@@ -11199,7 +11199,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="67" t="s">
         <v>286</v>
@@ -11244,7 +11244,7 @@
         <v>4</v>
       </c>
       <c r="E48" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="67" t="s">
         <v>287</v>
@@ -11284,7 +11284,7 @@
         <v>5</v>
       </c>
       <c r="E49" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="67" t="s">
         <v>82</v>
@@ -11326,7 +11326,7 @@
         <v>6</v>
       </c>
       <c r="E50" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="67" t="s">
         <v>83</v>
@@ -11368,7 +11368,7 @@
         <v>7</v>
       </c>
       <c r="E51" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="67" t="s">
         <v>84</v>
@@ -11395,7 +11395,7 @@
       </c>
       <c r="N51" s="73"/>
     </row>
-    <row r="52" spans="1:45" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="81" t="s">
         <v>66</v>
       </c>
@@ -11439,7 +11439,7 @@
       </c>
       <c r="N52" s="73"/>
     </row>
-    <row r="53" spans="1:45" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="81" t="s">
         <v>66</v>
       </c>
@@ -11483,7 +11483,7 @@
       </c>
       <c r="N53" s="73"/>
     </row>
-    <row r="54" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="81" t="s">
         <v>66</v>
       </c>
@@ -11557,7 +11557,7 @@
       <c r="AR54" s="1"/>
       <c r="AS54" s="1"/>
     </row>
-    <row r="55" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="81" t="s">
         <v>66</v>
       </c>
@@ -11628,7 +11628,7 @@
       <c r="AR55" s="1"/>
       <c r="AS55" s="1"/>
     </row>
-    <row r="56" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="81" t="s">
         <v>66</v>
       </c>
@@ -11702,7 +11702,7 @@
       <c r="AR56" s="1"/>
       <c r="AS56" s="1"/>
     </row>
-    <row r="57" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="81" t="s">
         <v>66</v>
       </c>
@@ -11774,7 +11774,7 @@
       <c r="AR57" s="1"/>
       <c r="AS57" s="1"/>
     </row>
-    <row r="58" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="81" t="s">
         <v>66</v>
       </c>
@@ -11848,7 +11848,7 @@
       <c r="AR58" s="1"/>
       <c r="AS58" s="1"/>
     </row>
-    <row r="59" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="81" t="s">
         <v>66</v>
       </c>
@@ -11922,7 +11922,7 @@
       <c r="AR59" s="1"/>
       <c r="AS59" s="1"/>
     </row>
-    <row r="60" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="81" t="s">
         <v>66</v>
       </c>
@@ -11994,7 +11994,7 @@
       <c r="AR60" s="1"/>
       <c r="AS60" s="1"/>
     </row>
-    <row r="61" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="81" t="s">
         <v>66</v>
       </c>
@@ -12066,7 +12066,7 @@
       <c r="AR61" s="1"/>
       <c r="AS61" s="1"/>
     </row>
-    <row r="62" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="81" t="s">
         <v>66</v>
       </c>
@@ -12140,7 +12140,7 @@
       <c r="AR62" s="1"/>
       <c r="AS62" s="1"/>
     </row>
-    <row r="63" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="81" t="s">
         <v>66</v>
       </c>
@@ -12214,7 +12214,7 @@
       <c r="AR63" s="1"/>
       <c r="AS63" s="1"/>
     </row>
-    <row r="64" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="81" t="s">
         <v>66</v>
       </c>
@@ -12288,7 +12288,7 @@
       <c r="AR64" s="1"/>
       <c r="AS64" s="1"/>
     </row>
-    <row r="65" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="81" t="s">
         <v>66</v>
       </c>
@@ -12360,7 +12360,7 @@
       <c r="AR65" s="1"/>
       <c r="AS65" s="1"/>
     </row>
-    <row r="66" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="81" t="s">
         <v>66</v>
       </c>
@@ -12432,7 +12432,7 @@
       <c r="AR66" s="1"/>
       <c r="AS66" s="1"/>
     </row>
-    <row r="67" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="81" t="s">
         <v>66</v>
       </c>
@@ -12504,7 +12504,7 @@
       <c r="AR67" s="1"/>
       <c r="AS67" s="1"/>
     </row>
-    <row r="68" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="81" t="s">
         <v>66</v>
       </c>
@@ -12578,7 +12578,7 @@
       <c r="AR68" s="1"/>
       <c r="AS68" s="1"/>
     </row>
-    <row r="69" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="81" t="s">
         <v>66</v>
       </c>
@@ -12666,7 +12666,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" s="67" t="s">
         <v>288</v>
@@ -12737,7 +12737,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" s="67" t="s">
         <v>289</v>
@@ -12808,7 +12808,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" s="67" t="s">
         <v>290</v>
@@ -12879,7 +12879,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" s="67" t="s">
         <v>325</v>
@@ -12952,7 +12952,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" s="67" t="s">
         <v>120</v>
@@ -13013,32 +13013,34 @@
       <c r="A75" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="106" t="s">
+      <c r="B75" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="C75" s="107"/>
-      <c r="D75" s="107"/>
-      <c r="E75" s="107"/>
-      <c r="F75" s="108" t="s">
+      <c r="C75" s="94"/>
+      <c r="D75" s="94"/>
+      <c r="E75" s="92">
+        <v>0</v>
+      </c>
+      <c r="F75" s="95" t="s">
         <v>326</v>
       </c>
       <c r="G75" s="68">
         <v>44887</v>
       </c>
-      <c r="H75" s="109"/>
-      <c r="I75" s="109"/>
+      <c r="H75" s="96"/>
+      <c r="I75" s="96"/>
       <c r="J75" s="70"/>
-      <c r="K75" s="110" t="s">
+      <c r="K75" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="L75" s="110">
+      <c r="L75" s="97">
         <f>_xlfn.XLOOKUP(K75,타입분류!$A$1:$A$28,타입분류!$B$1:$B$28)</f>
         <v>1</v>
       </c>
-      <c r="M75" s="110" t="s">
+      <c r="M75" s="97" t="s">
         <v>268</v>
       </c>
-      <c r="N75" s="111" t="s">
+      <c r="N75" s="98" t="s">
         <v>353</v>
       </c>
       <c r="P75" s="1"/>
@@ -13086,7 +13088,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" s="67" t="s">
         <v>327</v>
@@ -13159,7 +13161,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" s="67" t="s">
         <v>328</v>
@@ -13230,7 +13232,7 @@
         <v>2</v>
       </c>
       <c r="E78" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" s="67" t="s">
         <v>329</v>
@@ -13301,7 +13303,7 @@
         <v>3</v>
       </c>
       <c r="E79" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" s="67" t="s">
         <v>330</v>
@@ -13358,7 +13360,7 @@
       <c r="AR79" s="1"/>
       <c r="AS79" s="1"/>
     </row>
-    <row r="80" spans="1:45" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:45" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="81" t="s">
         <v>66</v>
       </c>
@@ -13441,7 +13443,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" s="67" t="s">
         <v>134</v>
@@ -13513,7 +13515,7 @@
         <v>1</v>
       </c>
       <c r="E82" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" s="67" t="s">
         <v>135</v>
@@ -13585,7 +13587,7 @@
         <v>2</v>
       </c>
       <c r="E83" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" s="67" t="s">
         <v>136</v>
@@ -13657,7 +13659,7 @@
         <v>3</v>
       </c>
       <c r="E84" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" s="67" t="s">
         <v>137</v>
@@ -13729,7 +13731,7 @@
         <v>4</v>
       </c>
       <c r="E85" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" s="67" t="s">
         <v>138</v>
@@ -13801,7 +13803,7 @@
         <v>5</v>
       </c>
       <c r="E86" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" s="67" t="s">
         <v>139</v>
@@ -13858,7 +13860,7 @@
       <c r="AR86" s="1"/>
       <c r="AS86" s="1"/>
     </row>
-    <row r="87" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="65" t="s">
         <v>342</v>
       </c>
@@ -13925,7 +13927,7 @@
       <c r="AR87" s="1"/>
       <c r="AS87" s="1"/>
     </row>
-    <row r="88" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="65" t="s">
         <v>342</v>
       </c>
@@ -13993,7 +13995,7 @@
       <c r="AR88" s="1"/>
       <c r="AS88" s="1"/>
     </row>
-    <row r="89" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="65" t="s">
         <v>342</v>
       </c>
@@ -14061,7 +14063,7 @@
       <c r="AR89" s="1"/>
       <c r="AS89" s="1"/>
     </row>
-    <row r="90" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="65" t="s">
         <v>342</v>
       </c>
@@ -14129,7 +14131,7 @@
       <c r="AR90" s="1"/>
       <c r="AS90" s="1"/>
     </row>
-    <row r="91" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="65" t="s">
         <v>342</v>
       </c>
@@ -14197,7 +14199,7 @@
       <c r="AR91" s="1"/>
       <c r="AS91" s="1"/>
     </row>
-    <row r="92" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="65" t="s">
         <v>342</v>
       </c>
@@ -14265,7 +14267,7 @@
       <c r="AR92" s="1"/>
       <c r="AS92" s="1"/>
     </row>
-    <row r="93" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="65" t="s">
         <v>342</v>
       </c>
@@ -14346,7 +14348,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" s="67" t="s">
         <v>152</v>
@@ -14415,9 +14417,9 @@
         <v>0</v>
       </c>
       <c r="E95" s="92">
-        <v>1</v>
-      </c>
-      <c r="F95" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="F95" s="111" t="s">
         <v>155</v>
       </c>
       <c r="G95" s="75"/>
@@ -14483,9 +14485,9 @@
         <v>0</v>
       </c>
       <c r="E96" s="92">
-        <v>1</v>
-      </c>
-      <c r="F96" s="105"/>
+        <v>0</v>
+      </c>
+      <c r="F96" s="111"/>
       <c r="G96" s="75"/>
       <c r="H96" s="69">
         <v>1110035</v>
@@ -14549,9 +14551,9 @@
         <v>0</v>
       </c>
       <c r="E97" s="92">
-        <v>1</v>
-      </c>
-      <c r="F97" s="105"/>
+        <v>0</v>
+      </c>
+      <c r="F97" s="111"/>
       <c r="G97" s="75"/>
       <c r="H97" s="69">
         <v>1110062</v>
@@ -14615,9 +14617,9 @@
         <v>0</v>
       </c>
       <c r="E98" s="92">
-        <v>1</v>
-      </c>
-      <c r="F98" s="105"/>
+        <v>0</v>
+      </c>
+      <c r="F98" s="111"/>
       <c r="G98" s="75"/>
       <c r="H98" s="69">
         <v>502634</v>
@@ -14681,9 +14683,9 @@
         <v>0</v>
       </c>
       <c r="E99" s="92">
-        <v>1</v>
-      </c>
-      <c r="F99" s="105"/>
+        <v>0</v>
+      </c>
+      <c r="F99" s="111"/>
       <c r="G99" s="75"/>
       <c r="H99" s="69">
         <v>1110036</v>
@@ -14747,9 +14749,9 @@
         <v>0</v>
       </c>
       <c r="E100" s="92">
-        <v>1</v>
-      </c>
-      <c r="F100" s="105"/>
+        <v>0</v>
+      </c>
+      <c r="F100" s="111"/>
       <c r="G100" s="75"/>
       <c r="H100" s="69">
         <v>1110061</v>
@@ -14813,9 +14815,9 @@
         <v>1</v>
       </c>
       <c r="E101" s="92">
-        <v>1</v>
-      </c>
-      <c r="F101" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="F101" s="111" t="s">
         <v>156</v>
       </c>
       <c r="G101" s="75"/>
@@ -14881,9 +14883,9 @@
         <v>1</v>
       </c>
       <c r="E102" s="92">
-        <v>1</v>
-      </c>
-      <c r="F102" s="105"/>
+        <v>0</v>
+      </c>
+      <c r="F102" s="111"/>
       <c r="G102" s="75"/>
       <c r="H102" s="69">
         <v>502655</v>
@@ -14947,9 +14949,9 @@
         <v>1</v>
       </c>
       <c r="E103" s="92">
-        <v>1</v>
-      </c>
-      <c r="F103" s="105"/>
+        <v>0</v>
+      </c>
+      <c r="F103" s="111"/>
       <c r="G103" s="75"/>
       <c r="H103" s="69">
         <v>502657</v>
@@ -15013,9 +15015,9 @@
         <v>2</v>
       </c>
       <c r="E104" s="92">
-        <v>1</v>
-      </c>
-      <c r="F104" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="F104" s="111" t="s">
         <v>157</v>
       </c>
       <c r="G104" s="75"/>
@@ -15081,9 +15083,9 @@
         <v>2</v>
       </c>
       <c r="E105" s="92">
-        <v>1</v>
-      </c>
-      <c r="F105" s="105"/>
+        <v>0</v>
+      </c>
+      <c r="F105" s="111"/>
       <c r="G105" s="75"/>
       <c r="H105" s="69">
         <v>502656</v>
@@ -15147,9 +15149,9 @@
         <v>2</v>
       </c>
       <c r="E106" s="92">
-        <v>1</v>
-      </c>
-      <c r="F106" s="105"/>
+        <v>0</v>
+      </c>
+      <c r="F106" s="111"/>
       <c r="G106" s="75"/>
       <c r="H106" s="69">
         <v>502658</v>
@@ -15198,7 +15200,7 @@
       <c r="AR106" s="1"/>
       <c r="AS106" s="1"/>
     </row>
-    <row r="107" spans="1:45" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:45" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="81" t="s">
         <v>343</v>
       </c>
@@ -15265,7 +15267,7 @@
       <c r="AR107" s="1"/>
       <c r="AS107" s="1"/>
     </row>
-    <row r="108" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="65" t="s">
         <v>161</v>
       </c>
@@ -15332,7 +15334,7 @@
       <c r="AR108" s="1"/>
       <c r="AS108" s="1"/>
     </row>
-    <row r="109" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="65" t="s">
         <v>344</v>
       </c>
@@ -15400,7 +15402,7 @@
       <c r="AR109" s="1"/>
       <c r="AS109" s="1"/>
     </row>
-    <row r="110" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="65" t="s">
         <v>344</v>
       </c>
@@ -15467,7 +15469,7 @@
       <c r="AR110" s="1"/>
       <c r="AS110" s="1"/>
     </row>
-    <row r="111" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="65" t="s">
         <v>344</v>
       </c>
@@ -15535,7 +15537,7 @@
       <c r="AR111" s="1"/>
       <c r="AS111" s="1"/>
     </row>
-    <row r="112" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="65" t="s">
         <v>344</v>
       </c>
@@ -15602,7 +15604,7 @@
       <c r="AR112" s="1"/>
       <c r="AS112" s="1"/>
     </row>
-    <row r="113" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="65" t="s">
         <v>344</v>
       </c>
@@ -15670,7 +15672,7 @@
       <c r="AR113" s="1"/>
       <c r="AS113" s="1"/>
     </row>
-    <row r="114" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="65" t="s">
         <v>344</v>
       </c>
@@ -15737,7 +15739,7 @@
       <c r="AR114" s="1"/>
       <c r="AS114" s="1"/>
     </row>
-    <row r="115" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="65" t="s">
         <v>344</v>
       </c>
@@ -15805,7 +15807,7 @@
       <c r="AR115" s="1"/>
       <c r="AS115" s="1"/>
     </row>
-    <row r="116" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="65" t="s">
         <v>344</v>
       </c>
@@ -15872,7 +15874,7 @@
       <c r="AR116" s="1"/>
       <c r="AS116" s="1"/>
     </row>
-    <row r="117" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="65" t="s">
         <v>344</v>
       </c>
@@ -15940,7 +15942,7 @@
       <c r="AR117" s="1"/>
       <c r="AS117" s="1"/>
     </row>
-    <row r="118" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="65" t="s">
         <v>344</v>
       </c>
@@ -16007,7 +16009,7 @@
       <c r="AR118" s="1"/>
       <c r="AS118" s="1"/>
     </row>
-    <row r="119" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="65" t="s">
         <v>344</v>
       </c>
@@ -16074,7 +16076,7 @@
       <c r="AR119" s="1"/>
       <c r="AS119" s="1"/>
     </row>
-    <row r="120" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="65" t="s">
         <v>344</v>
       </c>
@@ -16141,7 +16143,7 @@
       <c r="AR120" s="1"/>
       <c r="AS120" s="1"/>
     </row>
-    <row r="121" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="65" t="s">
         <v>344</v>
       </c>
@@ -16208,7 +16210,7 @@
       <c r="AR121" s="1"/>
       <c r="AS121" s="1"/>
     </row>
-    <row r="122" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="65" t="s">
         <v>344</v>
       </c>
@@ -16275,7 +16277,7 @@
       <c r="AR122" s="1"/>
       <c r="AS122" s="1"/>
     </row>
-    <row r="123" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="65" t="s">
         <v>344</v>
       </c>
@@ -16342,7 +16344,7 @@
       <c r="AR123" s="1"/>
       <c r="AS123" s="1"/>
     </row>
-    <row r="124" spans="1:45" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:45" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="65" t="s">
         <v>344</v>
       </c>
@@ -16409,7 +16411,7 @@
       <c r="AR124" s="1"/>
       <c r="AS124" s="1"/>
     </row>
-    <row r="125" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="81" t="s">
         <v>193</v>
       </c>
@@ -16474,7 +16476,7 @@
       <c r="AR125" s="1"/>
       <c r="AS125" s="1"/>
     </row>
-    <row r="126" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="81" t="s">
         <v>345</v>
       </c>
@@ -16543,7 +16545,7 @@
       <c r="AR126" s="1"/>
       <c r="AS126" s="1"/>
     </row>
-    <row r="127" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="81" t="s">
         <v>345</v>
       </c>
@@ -16610,7 +16612,7 @@
       <c r="AR127" s="1"/>
       <c r="AS127" s="1"/>
     </row>
-    <row r="128" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="81" t="s">
         <v>345</v>
       </c>
@@ -16675,7 +16677,7 @@
       <c r="AR128" s="1"/>
       <c r="AS128" s="1"/>
     </row>
-    <row r="129" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="81" t="s">
         <v>345</v>
       </c>
@@ -16741,7 +16743,7 @@
       <c r="AR129" s="1"/>
       <c r="AS129" s="1"/>
     </row>
-    <row r="130" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="81" t="s">
         <v>345</v>
       </c>
@@ -16821,7 +16823,7 @@
         <v>0</v>
       </c>
       <c r="E131" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131" s="67" t="s">
         <v>218</v>
@@ -16891,7 +16893,7 @@
         <v>1</v>
       </c>
       <c r="E132" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" s="67" t="s">
         <v>219</v>
@@ -16961,7 +16963,7 @@
         <v>2</v>
       </c>
       <c r="E133" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" s="67" t="s">
         <v>220</v>
@@ -17031,7 +17033,7 @@
         <v>3</v>
       </c>
       <c r="E134" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" s="67" t="s">
         <v>221</v>
@@ -17101,7 +17103,7 @@
         <v>4</v>
       </c>
       <c r="E135" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135" s="67" t="s">
         <v>222</v>
@@ -17171,7 +17173,7 @@
         <v>5</v>
       </c>
       <c r="E136" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" s="67" t="s">
         <v>223</v>
@@ -17241,7 +17243,7 @@
         <v>6</v>
       </c>
       <c r="E137" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137" s="67" t="s">
         <v>224</v>
@@ -17311,7 +17313,7 @@
         <v>7</v>
       </c>
       <c r="E138" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138" s="67" t="s">
         <v>227</v>
@@ -17381,7 +17383,7 @@
         <v>8</v>
       </c>
       <c r="E139" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" s="67" t="s">
         <v>338</v>
@@ -17451,7 +17453,7 @@
         <v>9</v>
       </c>
       <c r="E140" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140" s="67" t="s">
         <v>339</v>
@@ -17521,7 +17523,7 @@
         <v>10</v>
       </c>
       <c r="E141" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" s="86" t="s">
         <v>346</v>
@@ -17563,7 +17565,7 @@
         <v>11</v>
       </c>
       <c r="E142" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" s="86" t="s">
         <v>348</v>
@@ -17605,7 +17607,7 @@
         <v>12</v>
       </c>
       <c r="E143" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143" s="86" t="s">
         <v>347</v>
@@ -17633,15 +17635,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N143" xr:uid="{58870481-4012-4967-9DF8-188DDC2BA7B8}">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="1"/>
-        <filter val="2"/>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:N143" xr:uid="{58870481-4012-4967-9DF8-188DDC2BA7B8}"/>
   <mergeCells count="4">
     <mergeCell ref="F95:F100"/>
     <mergeCell ref="F101:F103"/>
@@ -17675,8 +17669,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17848,6 +17842,9 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -17856,8 +17853,17 @@
       <c r="B16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>251</v>
       </c>
@@ -17870,16 +17876,28 @@
       <c r="D17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>252</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>260</v>
       </c>
@@ -17887,7 +17905,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>261</v>
       </c>
@@ -17895,7 +17913,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>262</v>
       </c>

--- a/확률정보.xlsx
+++ b/확률정보.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonMsLab\r2mProbLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C652B780-06F3-4A78-BC9E-7B620BE59534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB9A2AE-F566-4D23-AD2C-F7364E7D2E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="28800" windowHeight="15435" firstSheet="1" activeTab="1" xr2:uid="{ABCE2CA0-A1D3-4D65-96EE-F34166D7733B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{ABCE2CA0-A1D3-4D65-96EE-F34166D7733B}"/>
   </bookViews>
   <sheets>
     <sheet name="23년4월" sheetId="1" state="hidden" r:id="rId1"/>
@@ -8967,8 +8967,8 @@
   <dimension ref="A1:AS143"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11:F130"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F104" sqref="F104:F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15281,7 +15281,7 @@
         <v>0</v>
       </c>
       <c r="E108" s="92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" s="67" t="s">
         <v>163</v>

--- a/확률정보.xlsx
+++ b/확률정보.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\파이썬프로젝트\r2mProbLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603F4528-3EB2-4CFD-8446-4754B3914F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A60D31-4F3E-4719-9D39-6D2B2FBB298C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{ABCE2CA0-A1D3-4D65-96EE-F34166D7733B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{ABCE2CA0-A1D3-4D65-96EE-F34166D7733B}"/>
   </bookViews>
   <sheets>
     <sheet name="23년4월" sheetId="1" state="hidden" r:id="rId1"/>
@@ -2093,6 +2093,30 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -2106,30 +2130,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8961,14 +8961,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58870481-4012-4967-9DF8-188DDC2BA7B8}">
-  <sheetPr codeName="Sheet2" filterMode="1">
+  <sheetPr codeName="Sheet2">
     <tabColor theme="1"/>
   </sheetPr>
   <dimension ref="A1:AS143"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H136" sqref="H136"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9054,7 +9054,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="67" t="s">
         <v>271</v>
@@ -9107,7 +9107,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="67" t="s">
         <v>272</v>
@@ -9157,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="67" t="s">
         <v>16</v>
@@ -9208,7 +9208,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="67" t="s">
         <v>273</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="67" t="s">
         <v>274</v>
@@ -9305,7 +9305,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="67" t="s">
         <v>275</v>
@@ -9352,7 +9352,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="67" t="s">
         <v>276</v>
@@ -9399,7 +9399,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="67" t="s">
         <v>277</v>
@@ -9446,7 +9446,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="67" t="s">
         <v>278</v>
@@ -9493,7 +9493,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="67" t="s">
         <v>25</v>
@@ -9544,7 +9544,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="67" t="s">
         <v>26</v>
@@ -9595,7 +9595,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="67" t="s">
         <v>27</v>
@@ -9631,7 +9631,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:21" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="65" t="s">
         <v>341</v>
       </c>
@@ -9678,7 +9678,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="65" t="s">
         <v>341</v>
       </c>
@@ -9725,7 +9725,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:21" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="65" t="s">
         <v>341</v>
       </c>
@@ -9765,7 +9765,7 @@
       </c>
       <c r="N16" s="73"/>
     </row>
-    <row r="17" spans="1:24" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="65" t="s">
         <v>341</v>
       </c>
@@ -9804,7 +9804,7 @@
       </c>
       <c r="N17" s="73"/>
     </row>
-    <row r="18" spans="1:24" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="65" t="s">
         <v>341</v>
       </c>
@@ -9846,7 +9846,7 @@
       </c>
       <c r="N18" s="73"/>
     </row>
-    <row r="19" spans="1:24" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="65" t="s">
         <v>341</v>
       </c>
@@ -9886,7 +9886,7 @@
       </c>
       <c r="N19" s="73"/>
     </row>
-    <row r="20" spans="1:24" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="65" t="s">
         <v>341</v>
       </c>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="N20" s="73"/>
     </row>
-    <row r="21" spans="1:24" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="65" t="s">
         <v>341</v>
       </c>
@@ -9966,7 +9966,7 @@
       </c>
       <c r="N21" s="73"/>
     </row>
-    <row r="22" spans="1:24" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="65" t="s">
         <v>341</v>
       </c>
@@ -10006,7 +10006,7 @@
       </c>
       <c r="N22" s="73"/>
     </row>
-    <row r="23" spans="1:24" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="65" t="s">
         <v>341</v>
       </c>
@@ -10046,7 +10046,7 @@
       </c>
       <c r="N23" s="73"/>
     </row>
-    <row r="24" spans="1:24" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="65" t="s">
         <v>341</v>
       </c>
@@ -10086,7 +10086,7 @@
       </c>
       <c r="N24" s="73"/>
     </row>
-    <row r="25" spans="1:24" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="65" t="s">
         <v>341</v>
       </c>
@@ -10128,7 +10128,7 @@
       </c>
       <c r="N25" s="73"/>
     </row>
-    <row r="26" spans="1:24" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="65" t="s">
         <v>341</v>
       </c>
@@ -10168,7 +10168,7 @@
       </c>
       <c r="N26" s="73"/>
     </row>
-    <row r="27" spans="1:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="65" t="s">
         <v>341</v>
       </c>
@@ -10208,7 +10208,7 @@
       </c>
       <c r="N27" s="73"/>
     </row>
-    <row r="28" spans="1:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="65" t="s">
         <v>341</v>
       </c>
@@ -10248,7 +10248,7 @@
       </c>
       <c r="N28" s="73"/>
     </row>
-    <row r="29" spans="1:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="65" t="s">
         <v>341</v>
       </c>
@@ -10288,7 +10288,7 @@
       </c>
       <c r="N29" s="73"/>
     </row>
-    <row r="30" spans="1:24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="65" t="s">
         <v>341</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>14</v>
       </c>
       <c r="E31" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="67" t="s">
         <v>310</v>
@@ -10397,7 +10397,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="67" t="s">
         <v>279</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="67" t="s">
         <v>311</v>
@@ -10501,7 +10501,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="67" t="s">
         <v>312</v>
@@ -10553,7 +10553,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="67" t="s">
         <v>313</v>
@@ -10619,7 +10619,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="67" t="s">
         <v>314</v>
@@ -10677,7 +10677,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="67" t="s">
         <v>315</v>
@@ -10735,7 +10735,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="67" t="s">
         <v>316</v>
@@ -10776,7 +10776,7 @@
       <c r="AK38" s="97"/>
       <c r="AL38" s="97"/>
     </row>
-    <row r="39" spans="1:38" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="65" t="s">
         <v>341</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="67" t="s">
         <v>280</v>
@@ -10898,7 +10898,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="67" t="s">
         <v>281</v>
@@ -10953,7 +10953,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="67" t="s">
         <v>71</v>
@@ -11009,7 +11009,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="67" t="s">
         <v>282</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="67" t="s">
         <v>283</v>
@@ -11109,7 +11109,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="67" t="s">
         <v>284</v>
@@ -11154,7 +11154,7 @@
         <v>2</v>
       </c>
       <c r="E46" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="67" t="s">
         <v>285</v>
@@ -11199,7 +11199,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="67" t="s">
         <v>286</v>
@@ -11244,7 +11244,7 @@
         <v>4</v>
       </c>
       <c r="E48" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="67" t="s">
         <v>287</v>
@@ -11284,7 +11284,7 @@
         <v>5</v>
       </c>
       <c r="E49" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="67" t="s">
         <v>82</v>
@@ -11326,7 +11326,7 @@
         <v>6</v>
       </c>
       <c r="E50" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="67" t="s">
         <v>83</v>
@@ -11368,7 +11368,7 @@
         <v>7</v>
       </c>
       <c r="E51" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="67" t="s">
         <v>84</v>
@@ -11395,7 +11395,7 @@
       </c>
       <c r="N51" s="73"/>
     </row>
-    <row r="52" spans="1:45" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="81" t="s">
         <v>66</v>
       </c>
@@ -11439,7 +11439,7 @@
       </c>
       <c r="N52" s="73"/>
     </row>
-    <row r="53" spans="1:45" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="81" t="s">
         <v>66</v>
       </c>
@@ -11483,7 +11483,7 @@
       </c>
       <c r="N53" s="73"/>
     </row>
-    <row r="54" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="81" t="s">
         <v>66</v>
       </c>
@@ -11557,7 +11557,7 @@
       <c r="AR54" s="1"/>
       <c r="AS54" s="1"/>
     </row>
-    <row r="55" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="81" t="s">
         <v>66</v>
       </c>
@@ -11628,7 +11628,7 @@
       <c r="AR55" s="1"/>
       <c r="AS55" s="1"/>
     </row>
-    <row r="56" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="81" t="s">
         <v>66</v>
       </c>
@@ -11702,7 +11702,7 @@
       <c r="AR56" s="1"/>
       <c r="AS56" s="1"/>
     </row>
-    <row r="57" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="81" t="s">
         <v>66</v>
       </c>
@@ -11774,7 +11774,7 @@
       <c r="AR57" s="1"/>
       <c r="AS57" s="1"/>
     </row>
-    <row r="58" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="81" t="s">
         <v>66</v>
       </c>
@@ -11848,7 +11848,7 @@
       <c r="AR58" s="1"/>
       <c r="AS58" s="1"/>
     </row>
-    <row r="59" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="81" t="s">
         <v>66</v>
       </c>
@@ -11922,7 +11922,7 @@
       <c r="AR59" s="1"/>
       <c r="AS59" s="1"/>
     </row>
-    <row r="60" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="81" t="s">
         <v>66</v>
       </c>
@@ -11994,7 +11994,7 @@
       <c r="AR60" s="1"/>
       <c r="AS60" s="1"/>
     </row>
-    <row r="61" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="81" t="s">
         <v>66</v>
       </c>
@@ -12066,7 +12066,7 @@
       <c r="AR61" s="1"/>
       <c r="AS61" s="1"/>
     </row>
-    <row r="62" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="81" t="s">
         <v>66</v>
       </c>
@@ -12140,7 +12140,7 @@
       <c r="AR62" s="1"/>
       <c r="AS62" s="1"/>
     </row>
-    <row r="63" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="81" t="s">
         <v>66</v>
       </c>
@@ -12214,7 +12214,7 @@
       <c r="AR63" s="1"/>
       <c r="AS63" s="1"/>
     </row>
-    <row r="64" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="81" t="s">
         <v>66</v>
       </c>
@@ -12288,7 +12288,7 @@
       <c r="AR64" s="1"/>
       <c r="AS64" s="1"/>
     </row>
-    <row r="65" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="81" t="s">
         <v>66</v>
       </c>
@@ -12360,7 +12360,7 @@
       <c r="AR65" s="1"/>
       <c r="AS65" s="1"/>
     </row>
-    <row r="66" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="81" t="s">
         <v>66</v>
       </c>
@@ -12432,7 +12432,7 @@
       <c r="AR66" s="1"/>
       <c r="AS66" s="1"/>
     </row>
-    <row r="67" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="81" t="s">
         <v>66</v>
       </c>
@@ -12504,7 +12504,7 @@
       <c r="AR67" s="1"/>
       <c r="AS67" s="1"/>
     </row>
-    <row r="68" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="81" t="s">
         <v>66</v>
       </c>
@@ -12578,7 +12578,7 @@
       <c r="AR68" s="1"/>
       <c r="AS68" s="1"/>
     </row>
-    <row r="69" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="81" t="s">
         <v>66</v>
       </c>
@@ -12666,7 +12666,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" s="67" t="s">
         <v>288</v>
@@ -12737,7 +12737,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" s="67" t="s">
         <v>289</v>
@@ -12808,7 +12808,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" s="67" t="s">
         <v>290</v>
@@ -12879,7 +12879,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" s="67" t="s">
         <v>325</v>
@@ -12952,7 +12952,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" s="67" t="s">
         <v>120</v>
@@ -13086,7 +13086,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" s="67" t="s">
         <v>327</v>
@@ -13159,7 +13159,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" s="67" t="s">
         <v>328</v>
@@ -13230,7 +13230,7 @@
         <v>2</v>
       </c>
       <c r="E78" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" s="67" t="s">
         <v>329</v>
@@ -13301,7 +13301,7 @@
         <v>3</v>
       </c>
       <c r="E79" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" s="67" t="s">
         <v>330</v>
@@ -13358,7 +13358,7 @@
       <c r="AR79" s="1"/>
       <c r="AS79" s="1"/>
     </row>
-    <row r="80" spans="1:45" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:45" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="81" t="s">
         <v>66</v>
       </c>
@@ -13858,7 +13858,7 @@
       <c r="AR86" s="1"/>
       <c r="AS86" s="1"/>
     </row>
-    <row r="87" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="65" t="s">
         <v>342</v>
       </c>
@@ -13925,7 +13925,7 @@
       <c r="AR87" s="1"/>
       <c r="AS87" s="1"/>
     </row>
-    <row r="88" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="65" t="s">
         <v>342</v>
       </c>
@@ -13993,7 +13993,7 @@
       <c r="AR88" s="1"/>
       <c r="AS88" s="1"/>
     </row>
-    <row r="89" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="65" t="s">
         <v>342</v>
       </c>
@@ -14061,7 +14061,7 @@
       <c r="AR89" s="1"/>
       <c r="AS89" s="1"/>
     </row>
-    <row r="90" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="65" t="s">
         <v>342</v>
       </c>
@@ -14129,7 +14129,7 @@
       <c r="AR90" s="1"/>
       <c r="AS90" s="1"/>
     </row>
-    <row r="91" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="65" t="s">
         <v>342</v>
       </c>
@@ -14197,7 +14197,7 @@
       <c r="AR91" s="1"/>
       <c r="AS91" s="1"/>
     </row>
-    <row r="92" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="65" t="s">
         <v>342</v>
       </c>
@@ -14265,7 +14265,7 @@
       <c r="AR92" s="1"/>
       <c r="AS92" s="1"/>
     </row>
-    <row r="93" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="65" t="s">
         <v>342</v>
       </c>
@@ -15198,7 +15198,7 @@
       <c r="AR106" s="1"/>
       <c r="AS106" s="1"/>
     </row>
-    <row r="107" spans="1:45" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:45" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="81" t="s">
         <v>343</v>
       </c>
@@ -15265,7 +15265,7 @@
       <c r="AR107" s="1"/>
       <c r="AS107" s="1"/>
     </row>
-    <row r="108" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="65" t="s">
         <v>161</v>
       </c>
@@ -15332,7 +15332,7 @@
       <c r="AR108" s="1"/>
       <c r="AS108" s="1"/>
     </row>
-    <row r="109" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="65" t="s">
         <v>344</v>
       </c>
@@ -15400,7 +15400,7 @@
       <c r="AR109" s="1"/>
       <c r="AS109" s="1"/>
     </row>
-    <row r="110" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="65" t="s">
         <v>344</v>
       </c>
@@ -15467,7 +15467,7 @@
       <c r="AR110" s="1"/>
       <c r="AS110" s="1"/>
     </row>
-    <row r="111" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="65" t="s">
         <v>344</v>
       </c>
@@ -15535,7 +15535,7 @@
       <c r="AR111" s="1"/>
       <c r="AS111" s="1"/>
     </row>
-    <row r="112" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="65" t="s">
         <v>344</v>
       </c>
@@ -15602,7 +15602,7 @@
       <c r="AR112" s="1"/>
       <c r="AS112" s="1"/>
     </row>
-    <row r="113" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="65" t="s">
         <v>344</v>
       </c>
@@ -15670,7 +15670,7 @@
       <c r="AR113" s="1"/>
       <c r="AS113" s="1"/>
     </row>
-    <row r="114" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="65" t="s">
         <v>344</v>
       </c>
@@ -15737,7 +15737,7 @@
       <c r="AR114" s="1"/>
       <c r="AS114" s="1"/>
     </row>
-    <row r="115" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="65" t="s">
         <v>344</v>
       </c>
@@ -15805,7 +15805,7 @@
       <c r="AR115" s="1"/>
       <c r="AS115" s="1"/>
     </row>
-    <row r="116" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="65" t="s">
         <v>344</v>
       </c>
@@ -15872,7 +15872,7 @@
       <c r="AR116" s="1"/>
       <c r="AS116" s="1"/>
     </row>
-    <row r="117" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="65" t="s">
         <v>344</v>
       </c>
@@ -15940,7 +15940,7 @@
       <c r="AR117" s="1"/>
       <c r="AS117" s="1"/>
     </row>
-    <row r="118" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="65" t="s">
         <v>344</v>
       </c>
@@ -16007,7 +16007,7 @@
       <c r="AR118" s="1"/>
       <c r="AS118" s="1"/>
     </row>
-    <row r="119" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="65" t="s">
         <v>344</v>
       </c>
@@ -16074,7 +16074,7 @@
       <c r="AR119" s="1"/>
       <c r="AS119" s="1"/>
     </row>
-    <row r="120" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="65" t="s">
         <v>344</v>
       </c>
@@ -16141,7 +16141,7 @@
       <c r="AR120" s="1"/>
       <c r="AS120" s="1"/>
     </row>
-    <row r="121" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="65" t="s">
         <v>344</v>
       </c>
@@ -16208,7 +16208,7 @@
       <c r="AR121" s="1"/>
       <c r="AS121" s="1"/>
     </row>
-    <row r="122" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="65" t="s">
         <v>344</v>
       </c>
@@ -16275,7 +16275,7 @@
       <c r="AR122" s="1"/>
       <c r="AS122" s="1"/>
     </row>
-    <row r="123" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="65" t="s">
         <v>344</v>
       </c>
@@ -16342,7 +16342,7 @@
       <c r="AR123" s="1"/>
       <c r="AS123" s="1"/>
     </row>
-    <row r="124" spans="1:45" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:45" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="65" t="s">
         <v>344</v>
       </c>
@@ -16409,7 +16409,7 @@
       <c r="AR124" s="1"/>
       <c r="AS124" s="1"/>
     </row>
-    <row r="125" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="81" t="s">
         <v>193</v>
       </c>
@@ -16474,7 +16474,7 @@
       <c r="AR125" s="1"/>
       <c r="AS125" s="1"/>
     </row>
-    <row r="126" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="81" t="s">
         <v>345</v>
       </c>
@@ -16543,7 +16543,7 @@
       <c r="AR126" s="1"/>
       <c r="AS126" s="1"/>
     </row>
-    <row r="127" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="81" t="s">
         <v>345</v>
       </c>
@@ -16610,7 +16610,7 @@
       <c r="AR127" s="1"/>
       <c r="AS127" s="1"/>
     </row>
-    <row r="128" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="81" t="s">
         <v>345</v>
       </c>
@@ -16675,7 +16675,7 @@
       <c r="AR128" s="1"/>
       <c r="AS128" s="1"/>
     </row>
-    <row r="129" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="81" t="s">
         <v>345</v>
       </c>
@@ -16741,7 +16741,7 @@
       <c r="AR129" s="1"/>
       <c r="AS129" s="1"/>
     </row>
-    <row r="130" spans="1:45" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="81" t="s">
         <v>345</v>
       </c>
@@ -17633,15 +17633,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N143" xr:uid="{58870481-4012-4967-9DF8-188DDC2BA7B8}">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="1"/>
-        <filter val="2"/>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="4">
     <mergeCell ref="F95:F100"/>
     <mergeCell ref="F101:F103"/>
@@ -17650,18 +17641,18 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E2:E143">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J143">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17675,8 +17666,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/확률정보.xlsx
+++ b/확률정보.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\파이썬프로젝트\r2mProbLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA57C48-7E3D-4A53-AF4A-87EDD3759CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D7C6EC-9E4E-4FAB-9797-6E6C2C920323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{ABCE2CA0-A1D3-4D65-96EE-F34166D7733B}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="1" activeTab="1" xr2:uid="{ABCE2CA0-A1D3-4D65-96EE-F34166D7733B}"/>
   </bookViews>
   <sheets>
     <sheet name="23년4월" sheetId="1" state="hidden" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="355">
   <si>
     <t>Category 1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1267,6 +1267,11 @@
 고지표 삭제 필요(인게임에 더 이상 존재하지 않는 확률표)
 &gt; 고급~희귀 서번트 뽑기권[이벤트] 확률 표의 이전 버전
 2023-06-20 삭제 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구버전 확률 고지표
+2023-06-23 업데이트 요청 완료</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1277,7 +1282,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1366,6 +1371,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -1743,7 +1756,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2023,48 +2036,6 @@
     <xf numFmtId="176" fontId="6" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="10" fontId="6" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2083,11 +2054,80 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2109,30 +2149,6 @@
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2534,10 +2550,10 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="109" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2572,8 +2588,8 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="99"/>
-      <c r="B3" s="94"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="105"/>
       <c r="C3" s="16" t="s">
         <v>14</v>
       </c>
@@ -2606,8 +2622,8 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="99"/>
-      <c r="B4" s="94" t="s">
+      <c r="A4" s="102"/>
+      <c r="B4" s="105" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="16" t="s">
@@ -2642,8 +2658,8 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="99"/>
-      <c r="B5" s="94"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="16" t="s">
         <v>17</v>
       </c>
@@ -2676,8 +2692,8 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99"/>
-      <c r="B6" s="94" t="s">
+      <c r="A6" s="102"/>
+      <c r="B6" s="105" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -2708,8 +2724,8 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="99"/>
-      <c r="B7" s="94"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="16" t="s">
         <v>21</v>
       </c>
@@ -2738,8 +2754,8 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="99"/>
-      <c r="B8" s="94"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="16" t="s">
         <v>22</v>
       </c>
@@ -2768,8 +2784,8 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="99"/>
-      <c r="B9" s="94"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="16" t="s">
         <v>23</v>
       </c>
@@ -2798,8 +2814,8 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="99"/>
-      <c r="B10" s="94"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="16" t="s">
         <v>24</v>
       </c>
@@ -2828,8 +2844,8 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="99"/>
-      <c r="B11" s="94"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="16" t="s">
         <v>25</v>
       </c>
@@ -2862,8 +2878,8 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="99"/>
-      <c r="B12" s="94"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="16" t="s">
         <v>26</v>
       </c>
@@ -2896,8 +2912,8 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="99"/>
-      <c r="B13" s="94"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="16" t="s">
         <v>27</v>
       </c>
@@ -2930,8 +2946,8 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="99"/>
-      <c r="B14" s="94"/>
+      <c r="A14" s="102"/>
+      <c r="B14" s="105"/>
       <c r="C14" s="16" t="s">
         <v>28</v>
       </c>
@@ -2960,8 +2976,8 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="99"/>
-      <c r="B15" s="94"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="105"/>
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
@@ -2990,8 +3006,8 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="99"/>
-      <c r="B16" s="94"/>
+      <c r="A16" s="102"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="16" t="s">
         <v>31</v>
       </c>
@@ -3013,8 +3029,8 @@
       <c r="K16" s="21"/>
     </row>
     <row r="17" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="99"/>
-      <c r="B17" s="94" t="s">
+      <c r="A17" s="102"/>
+      <c r="B17" s="105" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="16" t="s">
@@ -3038,8 +3054,8 @@
       <c r="K17" s="21"/>
     </row>
     <row r="18" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="99"/>
-      <c r="B18" s="94"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="105"/>
       <c r="C18" s="16" t="s">
         <v>34</v>
       </c>
@@ -3063,8 +3079,8 @@
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="99"/>
-      <c r="B19" s="94"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="105"/>
       <c r="C19" s="16" t="s">
         <v>36</v>
       </c>
@@ -3086,8 +3102,8 @@
       <c r="K19" s="21"/>
     </row>
     <row r="20" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="99"/>
-      <c r="B20" s="94"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="16" t="s">
         <v>38</v>
       </c>
@@ -3109,8 +3125,8 @@
       <c r="K20" s="21"/>
     </row>
     <row r="21" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="99"/>
-      <c r="B21" s="94"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="16" t="s">
         <v>39</v>
       </c>
@@ -3132,8 +3148,8 @@
       <c r="K21" s="21"/>
     </row>
     <row r="22" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="99"/>
-      <c r="B22" s="94"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="105"/>
       <c r="C22" s="16" t="s">
         <v>40</v>
       </c>
@@ -3155,8 +3171,8 @@
       <c r="K22" s="21"/>
     </row>
     <row r="23" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="99"/>
-      <c r="B23" s="94"/>
+      <c r="A23" s="102"/>
+      <c r="B23" s="105"/>
       <c r="C23" s="16" t="s">
         <v>41</v>
       </c>
@@ -3178,8 +3194,8 @@
       <c r="K23" s="21"/>
     </row>
     <row r="24" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="99"/>
-      <c r="B24" s="94"/>
+      <c r="A24" s="102"/>
+      <c r="B24" s="105"/>
       <c r="C24" s="16" t="s">
         <v>42</v>
       </c>
@@ -3201,8 +3217,8 @@
       <c r="K24" s="21"/>
     </row>
     <row r="25" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="99"/>
-      <c r="B25" s="94"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="105"/>
       <c r="C25" s="16" t="s">
         <v>43</v>
       </c>
@@ -3226,8 +3242,8 @@
       <c r="K25" s="21"/>
     </row>
     <row r="26" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="99"/>
-      <c r="B26" s="94"/>
+      <c r="A26" s="102"/>
+      <c r="B26" s="105"/>
       <c r="C26" s="16" t="s">
         <v>45</v>
       </c>
@@ -3249,8 +3265,8 @@
       <c r="K26" s="21"/>
     </row>
     <row r="27" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="99"/>
-      <c r="B27" s="94"/>
+      <c r="A27" s="102"/>
+      <c r="B27" s="105"/>
       <c r="C27" s="16" t="s">
         <v>46</v>
       </c>
@@ -3272,8 +3288,8 @@
       <c r="K27" s="21"/>
     </row>
     <row r="28" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="99"/>
-      <c r="B28" s="94"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="105"/>
       <c r="C28" s="16" t="s">
         <v>47</v>
       </c>
@@ -3295,8 +3311,8 @@
       <c r="K28" s="21"/>
     </row>
     <row r="29" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="99"/>
-      <c r="B29" s="94"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="105"/>
       <c r="C29" s="16" t="s">
         <v>48</v>
       </c>
@@ -3318,8 +3334,8 @@
       <c r="K29" s="21"/>
     </row>
     <row r="30" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="99"/>
-      <c r="B30" s="94"/>
+      <c r="A30" s="102"/>
+      <c r="B30" s="105"/>
       <c r="C30" s="16" t="s">
         <v>49</v>
       </c>
@@ -3341,8 +3357,8 @@
       <c r="K30" s="21"/>
     </row>
     <row r="31" spans="1:21" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="99"/>
-      <c r="B31" s="94"/>
+      <c r="A31" s="102"/>
+      <c r="B31" s="105"/>
       <c r="C31" s="16" t="s">
         <v>50</v>
       </c>
@@ -3379,7 +3395,7 @@
       <c r="U31" s="1"/>
     </row>
     <row r="32" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="99"/>
+      <c r="A32" s="102"/>
       <c r="B32" s="15" t="s">
         <v>52</v>
       </c>
@@ -3417,7 +3433,7 @@
       <c r="U32" s="1"/>
     </row>
     <row r="33" spans="1:35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="99"/>
+      <c r="A33" s="102"/>
       <c r="B33" s="15" t="s">
         <v>54</v>
       </c>
@@ -3455,7 +3471,7 @@
       <c r="U33" s="1"/>
     </row>
     <row r="34" spans="1:35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="99"/>
+      <c r="A34" s="102"/>
       <c r="B34" s="15" t="s">
         <v>56</v>
       </c>
@@ -3493,8 +3509,8 @@
       <c r="U34" s="1"/>
     </row>
     <row r="35" spans="1:35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="99"/>
-      <c r="B35" s="94" t="s">
+      <c r="A35" s="102"/>
+      <c r="B35" s="105" t="s">
         <v>58</v>
       </c>
       <c r="C35" s="16" t="s">
@@ -3529,23 +3545,23 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
-      <c r="W35" s="97"/>
-      <c r="X35" s="97"/>
-      <c r="Y35" s="97"/>
-      <c r="Z35" s="97"/>
-      <c r="AA35" s="97"/>
-      <c r="AB35" s="97"/>
-      <c r="AC35" s="97"/>
-      <c r="AD35" s="97"/>
-      <c r="AE35" s="97"/>
-      <c r="AF35" s="97"/>
-      <c r="AG35" s="97"/>
-      <c r="AH35" s="97"/>
-      <c r="AI35" s="97"/>
+      <c r="W35" s="112"/>
+      <c r="X35" s="112"/>
+      <c r="Y35" s="112"/>
+      <c r="Z35" s="112"/>
+      <c r="AA35" s="112"/>
+      <c r="AB35" s="112"/>
+      <c r="AC35" s="112"/>
+      <c r="AD35" s="112"/>
+      <c r="AE35" s="112"/>
+      <c r="AF35" s="112"/>
+      <c r="AG35" s="112"/>
+      <c r="AH35" s="112"/>
+      <c r="AI35" s="112"/>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A36" s="99"/>
-      <c r="B36" s="94"/>
+      <c r="A36" s="102"/>
+      <c r="B36" s="105"/>
       <c r="C36" s="16" t="s">
         <v>60</v>
       </c>
@@ -3570,23 +3586,23 @@
       </c>
       <c r="K36" s="31"/>
       <c r="V36"/>
-      <c r="W36" s="97"/>
-      <c r="X36" s="97"/>
-      <c r="Y36" s="97"/>
-      <c r="Z36" s="97"/>
-      <c r="AA36" s="97"/>
-      <c r="AB36" s="97"/>
-      <c r="AC36" s="97"/>
-      <c r="AD36" s="97"/>
-      <c r="AE36" s="97"/>
-      <c r="AF36" s="97"/>
-      <c r="AG36" s="97"/>
-      <c r="AH36" s="97"/>
-      <c r="AI36" s="97"/>
+      <c r="W36" s="112"/>
+      <c r="X36" s="112"/>
+      <c r="Y36" s="112"/>
+      <c r="Z36" s="112"/>
+      <c r="AA36" s="112"/>
+      <c r="AB36" s="112"/>
+      <c r="AC36" s="112"/>
+      <c r="AD36" s="112"/>
+      <c r="AE36" s="112"/>
+      <c r="AF36" s="112"/>
+      <c r="AG36" s="112"/>
+      <c r="AH36" s="112"/>
+      <c r="AI36" s="112"/>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A37" s="99"/>
-      <c r="B37" s="94"/>
+      <c r="A37" s="102"/>
+      <c r="B37" s="105"/>
       <c r="C37" s="16" t="s">
         <v>61</v>
       </c>
@@ -3611,22 +3627,22 @@
       </c>
       <c r="K37" s="31"/>
       <c r="V37"/>
-      <c r="W37" s="97"/>
-      <c r="X37" s="97"/>
-      <c r="Y37" s="97"/>
-      <c r="Z37" s="97"/>
-      <c r="AA37" s="97"/>
-      <c r="AB37" s="97"/>
-      <c r="AC37" s="97"/>
-      <c r="AD37" s="97"/>
-      <c r="AE37" s="97"/>
-      <c r="AF37" s="97"/>
-      <c r="AG37" s="97"/>
-      <c r="AH37" s="97"/>
-      <c r="AI37" s="97"/>
+      <c r="W37" s="112"/>
+      <c r="X37" s="112"/>
+      <c r="Y37" s="112"/>
+      <c r="Z37" s="112"/>
+      <c r="AA37" s="112"/>
+      <c r="AB37" s="112"/>
+      <c r="AC37" s="112"/>
+      <c r="AD37" s="112"/>
+      <c r="AE37" s="112"/>
+      <c r="AF37" s="112"/>
+      <c r="AG37" s="112"/>
+      <c r="AH37" s="112"/>
+      <c r="AI37" s="112"/>
     </row>
     <row r="38" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100"/>
+      <c r="A38" s="104"/>
       <c r="B38" s="32" t="s">
         <v>63</v>
       </c>
@@ -3648,25 +3664,25 @@
       </c>
       <c r="K38" s="39"/>
       <c r="V38"/>
-      <c r="W38" s="97"/>
-      <c r="X38" s="97"/>
-      <c r="Y38" s="97"/>
-      <c r="Z38" s="97"/>
-      <c r="AA38" s="97"/>
-      <c r="AB38" s="97"/>
-      <c r="AC38" s="97"/>
-      <c r="AD38" s="97"/>
-      <c r="AE38" s="97"/>
-      <c r="AF38" s="97"/>
-      <c r="AG38" s="97"/>
-      <c r="AH38" s="97"/>
-      <c r="AI38" s="97"/>
+      <c r="W38" s="112"/>
+      <c r="X38" s="112"/>
+      <c r="Y38" s="112"/>
+      <c r="Z38" s="112"/>
+      <c r="AA38" s="112"/>
+      <c r="AB38" s="112"/>
+      <c r="AC38" s="112"/>
+      <c r="AD38" s="112"/>
+      <c r="AE38" s="112"/>
+      <c r="AF38" s="112"/>
+      <c r="AG38" s="112"/>
+      <c r="AH38" s="112"/>
+      <c r="AI38" s="112"/>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A39" s="98" t="s">
+      <c r="A39" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="93" t="s">
+      <c r="B39" s="109" t="s">
         <v>67</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -3708,8 +3724,8 @@
       <c r="AI39"/>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A40" s="99"/>
-      <c r="B40" s="94"/>
+      <c r="A40" s="102"/>
+      <c r="B40" s="105"/>
       <c r="C40" s="16" t="s">
         <v>69</v>
       </c>
@@ -3749,8 +3765,8 @@
       <c r="AI40"/>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A41" s="99"/>
-      <c r="B41" s="94" t="s">
+      <c r="A41" s="102"/>
+      <c r="B41" s="105" t="s">
         <v>70</v>
       </c>
       <c r="C41" s="16" t="s">
@@ -3792,8 +3808,8 @@
       <c r="AI41"/>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A42" s="99"/>
-      <c r="B42" s="94"/>
+      <c r="A42" s="102"/>
+      <c r="B42" s="105"/>
       <c r="C42" s="16" t="s">
         <v>72</v>
       </c>
@@ -3835,8 +3851,8 @@
       <c r="AI42"/>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A43" s="99"/>
-      <c r="B43" s="94" t="s">
+      <c r="A43" s="102"/>
+      <c r="B43" s="105" t="s">
         <v>74</v>
       </c>
       <c r="C43" s="16" t="s">
@@ -3865,8 +3881,8 @@
       <c r="Z43"/>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A44" s="99"/>
-      <c r="B44" s="94"/>
+      <c r="A44" s="102"/>
+      <c r="B44" s="105"/>
       <c r="C44" s="16" t="s">
         <v>77</v>
       </c>
@@ -3895,8 +3911,8 @@
       <c r="Z44"/>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A45" s="99"/>
-      <c r="B45" s="94"/>
+      <c r="A45" s="102"/>
+      <c r="B45" s="105"/>
       <c r="C45" s="16" t="s">
         <v>79</v>
       </c>
@@ -3925,8 +3941,8 @@
       <c r="Z45"/>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A46" s="99"/>
-      <c r="B46" s="94"/>
+      <c r="A46" s="102"/>
+      <c r="B46" s="105"/>
       <c r="C46" s="16" t="s">
         <v>80</v>
       </c>
@@ -3955,8 +3971,8 @@
       <c r="Z46"/>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A47" s="99"/>
-      <c r="B47" s="94"/>
+      <c r="A47" s="102"/>
+      <c r="B47" s="105"/>
       <c r="C47" s="16" t="s">
         <v>81</v>
       </c>
@@ -3980,8 +3996,8 @@
       <c r="K47" s="21"/>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A48" s="99"/>
-      <c r="B48" s="94"/>
+      <c r="A48" s="102"/>
+      <c r="B48" s="105"/>
       <c r="C48" s="16" t="s">
         <v>82</v>
       </c>
@@ -4007,8 +4023,8 @@
       <c r="K48" s="21"/>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A49" s="99"/>
-      <c r="B49" s="94"/>
+      <c r="A49" s="102"/>
+      <c r="B49" s="105"/>
       <c r="C49" s="16" t="s">
         <v>83</v>
       </c>
@@ -4034,8 +4050,8 @@
       <c r="K49" s="21"/>
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A50" s="99"/>
-      <c r="B50" s="94"/>
+      <c r="A50" s="102"/>
+      <c r="B50" s="105"/>
       <c r="C50" s="16" t="s">
         <v>84</v>
       </c>
@@ -4059,8 +4075,8 @@
       <c r="K50" s="21"/>
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A51" s="99"/>
-      <c r="B51" s="94"/>
+      <c r="A51" s="102"/>
+      <c r="B51" s="105"/>
       <c r="C51" s="16" t="s">
         <v>86</v>
       </c>
@@ -4087,8 +4103,8 @@
       <c r="K51" s="21"/>
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A52" s="99"/>
-      <c r="B52" s="94"/>
+      <c r="A52" s="102"/>
+      <c r="B52" s="105"/>
       <c r="C52" s="16" t="s">
         <v>88</v>
       </c>
@@ -4115,8 +4131,8 @@
       <c r="K52" s="21"/>
     </row>
     <row r="53" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="99"/>
-      <c r="B53" s="94"/>
+      <c r="A53" s="102"/>
+      <c r="B53" s="105"/>
       <c r="C53" s="16" t="s">
         <v>89</v>
       </c>
@@ -4173,8 +4189,8 @@
       <c r="AP53" s="1"/>
     </row>
     <row r="54" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="99"/>
-      <c r="B54" s="94" t="s">
+      <c r="A54" s="102"/>
+      <c r="B54" s="105" t="s">
         <v>90</v>
       </c>
       <c r="C54" s="16" t="s">
@@ -4231,8 +4247,8 @@
       <c r="AP54" s="1"/>
     </row>
     <row r="55" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="99"/>
-      <c r="B55" s="94"/>
+      <c r="A55" s="102"/>
+      <c r="B55" s="105"/>
       <c r="C55" s="16" t="s">
         <v>92</v>
       </c>
@@ -4289,8 +4305,8 @@
       <c r="AP55" s="1"/>
     </row>
     <row r="56" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="99"/>
-      <c r="B56" s="94"/>
+      <c r="A56" s="102"/>
+      <c r="B56" s="105"/>
       <c r="C56" s="16" t="s">
         <v>94</v>
       </c>
@@ -4345,8 +4361,8 @@
       <c r="AP56" s="1"/>
     </row>
     <row r="57" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="99"/>
-      <c r="B57" s="94"/>
+      <c r="A57" s="102"/>
+      <c r="B57" s="105"/>
       <c r="C57" s="16" t="s">
         <v>96</v>
       </c>
@@ -4403,8 +4419,8 @@
       <c r="AP57" s="1"/>
     </row>
     <row r="58" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="99"/>
-      <c r="B58" s="94"/>
+      <c r="A58" s="102"/>
+      <c r="B58" s="105"/>
       <c r="C58" s="16" t="s">
         <v>98</v>
       </c>
@@ -4461,8 +4477,8 @@
       <c r="AP58" s="1"/>
     </row>
     <row r="59" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="99"/>
-      <c r="B59" s="94"/>
+      <c r="A59" s="102"/>
+      <c r="B59" s="105"/>
       <c r="C59" s="16" t="s">
         <v>99</v>
       </c>
@@ -4517,8 +4533,8 @@
       <c r="AP59" s="1"/>
     </row>
     <row r="60" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="99"/>
-      <c r="B60" s="94"/>
+      <c r="A60" s="102"/>
+      <c r="B60" s="105"/>
       <c r="C60" s="16" t="s">
         <v>100</v>
       </c>
@@ -4573,8 +4589,8 @@
       <c r="AP60" s="1"/>
     </row>
     <row r="61" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="99"/>
-      <c r="B61" s="94"/>
+      <c r="A61" s="102"/>
+      <c r="B61" s="105"/>
       <c r="C61" s="16" t="s">
         <v>101</v>
       </c>
@@ -4631,8 +4647,8 @@
       <c r="AP61" s="1"/>
     </row>
     <row r="62" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="99"/>
-      <c r="B62" s="94"/>
+      <c r="A62" s="102"/>
+      <c r="B62" s="105"/>
       <c r="C62" s="16" t="s">
         <v>103</v>
       </c>
@@ -4691,8 +4707,8 @@
       <c r="AP62" s="1"/>
     </row>
     <row r="63" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="99"/>
-      <c r="B63" s="94"/>
+      <c r="A63" s="102"/>
+      <c r="B63" s="105"/>
       <c r="C63" s="16" t="s">
         <v>105</v>
       </c>
@@ -4749,8 +4765,8 @@
       <c r="AP63" s="1"/>
     </row>
     <row r="64" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="99"/>
-      <c r="B64" s="94"/>
+      <c r="A64" s="102"/>
+      <c r="B64" s="105"/>
       <c r="C64" s="16" t="s">
         <v>106</v>
       </c>
@@ -4805,8 +4821,8 @@
       <c r="AP64" s="1"/>
     </row>
     <row r="65" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="99"/>
-      <c r="B65" s="94"/>
+      <c r="A65" s="102"/>
+      <c r="B65" s="105"/>
       <c r="C65" s="16" t="s">
         <v>107</v>
       </c>
@@ -4861,8 +4877,8 @@
       <c r="AP65" s="1"/>
     </row>
     <row r="66" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="99"/>
-      <c r="B66" s="94"/>
+      <c r="A66" s="102"/>
+      <c r="B66" s="105"/>
       <c r="C66" s="16" t="s">
         <v>108</v>
       </c>
@@ -4917,8 +4933,8 @@
       <c r="AP66" s="1"/>
     </row>
     <row r="67" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="99"/>
-      <c r="B67" s="94"/>
+      <c r="A67" s="102"/>
+      <c r="B67" s="105"/>
       <c r="C67" s="16" t="s">
         <v>109</v>
       </c>
@@ -4975,8 +4991,8 @@
       <c r="AP67" s="1"/>
     </row>
     <row r="68" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="99"/>
-      <c r="B68" s="94"/>
+      <c r="A68" s="102"/>
+      <c r="B68" s="105"/>
       <c r="C68" s="16" t="s">
         <v>110</v>
       </c>
@@ -5033,7 +5049,7 @@
       <c r="AP68" s="1"/>
     </row>
     <row r="69" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="99"/>
+      <c r="A69" s="102"/>
       <c r="B69" s="15" t="s">
         <v>111</v>
       </c>
@@ -5092,7 +5108,7 @@
       <c r="AP69" s="1"/>
     </row>
     <row r="70" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="99"/>
+      <c r="A70" s="102"/>
       <c r="B70" s="15" t="s">
         <v>113</v>
       </c>
@@ -5151,7 +5167,7 @@
       <c r="AP70" s="1"/>
     </row>
     <row r="71" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="99"/>
+      <c r="A71" s="102"/>
       <c r="B71" s="15" t="s">
         <v>115</v>
       </c>
@@ -5210,7 +5226,7 @@
       <c r="AP71" s="1"/>
     </row>
     <row r="72" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="99"/>
+      <c r="A72" s="102"/>
       <c r="B72" s="15" t="s">
         <v>117</v>
       </c>
@@ -5271,7 +5287,7 @@
       <c r="AP72" s="1"/>
     </row>
     <row r="73" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="99"/>
+      <c r="A73" s="102"/>
       <c r="B73" s="15" t="s">
         <v>119</v>
       </c>
@@ -5330,8 +5346,8 @@
       <c r="AP73" s="1"/>
     </row>
     <row r="74" spans="1:42" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="99"/>
-      <c r="B74" s="94" t="s">
+      <c r="A74" s="102"/>
+      <c r="B74" s="105" t="s">
         <v>121</v>
       </c>
       <c r="C74" s="16" t="s">
@@ -5391,8 +5407,8 @@
       <c r="AP74" s="1"/>
     </row>
     <row r="75" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="99"/>
-      <c r="B75" s="94"/>
+      <c r="A75" s="102"/>
+      <c r="B75" s="105"/>
       <c r="C75" s="16" t="s">
         <v>125</v>
       </c>
@@ -5450,8 +5466,8 @@
       <c r="AP75" s="1"/>
     </row>
     <row r="76" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="99"/>
-      <c r="B76" s="94"/>
+      <c r="A76" s="102"/>
+      <c r="B76" s="105"/>
       <c r="C76" s="16" t="s">
         <v>127</v>
       </c>
@@ -5507,8 +5523,8 @@
       <c r="AP76" s="1"/>
     </row>
     <row r="77" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="99"/>
-      <c r="B77" s="94"/>
+      <c r="A77" s="102"/>
+      <c r="B77" s="105"/>
       <c r="C77" s="16" t="s">
         <v>128</v>
       </c>
@@ -5564,8 +5580,8 @@
       <c r="AP77" s="1"/>
     </row>
     <row r="78" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="99"/>
-      <c r="B78" s="94"/>
+      <c r="A78" s="102"/>
+      <c r="B78" s="105"/>
       <c r="C78" s="16" t="s">
         <v>129</v>
       </c>
@@ -5621,7 +5637,7 @@
       <c r="AP78" s="1"/>
     </row>
     <row r="79" spans="1:42" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="100"/>
+      <c r="A79" s="104"/>
       <c r="B79" s="32" t="s">
         <v>130</v>
       </c>
@@ -5674,10 +5690,10 @@
       <c r="AP79" s="1"/>
     </row>
     <row r="80" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="98" t="s">
+      <c r="A80" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="B80" s="93" t="s">
+      <c r="B80" s="109" t="s">
         <v>133</v>
       </c>
       <c r="C80" s="9" t="s">
@@ -5735,8 +5751,8 @@
       <c r="AP80" s="1"/>
     </row>
     <row r="81" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="99"/>
-      <c r="B81" s="94"/>
+      <c r="A81" s="102"/>
+      <c r="B81" s="105"/>
       <c r="C81" s="16" t="s">
         <v>135</v>
       </c>
@@ -5792,8 +5808,8 @@
       <c r="AP81" s="1"/>
     </row>
     <row r="82" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="99"/>
-      <c r="B82" s="94"/>
+      <c r="A82" s="102"/>
+      <c r="B82" s="105"/>
       <c r="C82" s="16" t="s">
         <v>136</v>
       </c>
@@ -5849,8 +5865,8 @@
       <c r="AP82" s="1"/>
     </row>
     <row r="83" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="99"/>
-      <c r="B83" s="94"/>
+      <c r="A83" s="102"/>
+      <c r="B83" s="105"/>
       <c r="C83" s="16" t="s">
         <v>137</v>
       </c>
@@ -5906,8 +5922,8 @@
       <c r="AP83" s="1"/>
     </row>
     <row r="84" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="99"/>
-      <c r="B84" s="94"/>
+      <c r="A84" s="102"/>
+      <c r="B84" s="105"/>
       <c r="C84" s="16" t="s">
         <v>138</v>
       </c>
@@ -5963,8 +5979,8 @@
       <c r="AP84" s="1"/>
     </row>
     <row r="85" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="99"/>
-      <c r="B85" s="94"/>
+      <c r="A85" s="102"/>
+      <c r="B85" s="105"/>
       <c r="C85" s="16" t="s">
         <v>139</v>
       </c>
@@ -6020,8 +6036,8 @@
       <c r="AP85" s="1"/>
     </row>
     <row r="86" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="99"/>
-      <c r="B86" s="94" t="s">
+      <c r="A86" s="102"/>
+      <c r="B86" s="105" t="s">
         <v>140</v>
       </c>
       <c r="C86" s="16" t="s">
@@ -6071,8 +6087,8 @@
       <c r="AP86" s="1"/>
     </row>
     <row r="87" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="99"/>
-      <c r="B87" s="94"/>
+      <c r="A87" s="102"/>
+      <c r="B87" s="105"/>
       <c r="C87" s="16" t="s">
         <v>143</v>
       </c>
@@ -6120,8 +6136,8 @@
       <c r="AP87" s="1"/>
     </row>
     <row r="88" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="99"/>
-      <c r="B88" s="94"/>
+      <c r="A88" s="102"/>
+      <c r="B88" s="105"/>
       <c r="C88" s="16" t="s">
         <v>144</v>
       </c>
@@ -6169,8 +6185,8 @@
       <c r="AP88" s="1"/>
     </row>
     <row r="89" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="99"/>
-      <c r="B89" s="94"/>
+      <c r="A89" s="102"/>
+      <c r="B89" s="105"/>
       <c r="C89" s="16" t="s">
         <v>145</v>
       </c>
@@ -6218,8 +6234,8 @@
       <c r="AP89" s="1"/>
     </row>
     <row r="90" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="99"/>
-      <c r="B90" s="94"/>
+      <c r="A90" s="102"/>
+      <c r="B90" s="105"/>
       <c r="C90" s="16" t="s">
         <v>146</v>
       </c>
@@ -6267,8 +6283,8 @@
       <c r="AP90" s="1"/>
     </row>
     <row r="91" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="99"/>
-      <c r="B91" s="94"/>
+      <c r="A91" s="102"/>
+      <c r="B91" s="105"/>
       <c r="C91" s="16" t="s">
         <v>147</v>
       </c>
@@ -6316,7 +6332,7 @@
       <c r="AP91" s="1"/>
     </row>
     <row r="92" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="99"/>
+      <c r="A92" s="102"/>
       <c r="B92" s="15" t="s">
         <v>148</v>
       </c>
@@ -6367,7 +6383,7 @@
       <c r="AP92" s="1"/>
     </row>
     <row r="93" spans="1:42" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="100"/>
+      <c r="A93" s="104"/>
       <c r="B93" s="32" t="s">
         <v>151</v>
       </c>
@@ -6424,13 +6440,13 @@
       <c r="AP93" s="1"/>
     </row>
     <row r="94" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="98" t="s">
+      <c r="A94" s="101" t="s">
         <v>153</v>
       </c>
-      <c r="B94" s="93" t="s">
+      <c r="B94" s="109" t="s">
         <v>154</v>
       </c>
-      <c r="C94" s="95" t="s">
+      <c r="C94" s="110" t="s">
         <v>155</v>
       </c>
       <c r="D94" s="50"/>
@@ -6479,9 +6495,9 @@
       <c r="AP94" s="1"/>
     </row>
     <row r="95" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="99"/>
-      <c r="B95" s="94"/>
-      <c r="C95" s="96"/>
+      <c r="A95" s="102"/>
+      <c r="B95" s="105"/>
+      <c r="C95" s="111"/>
       <c r="D95" s="24"/>
       <c r="E95" s="18"/>
       <c r="F95" s="18">
@@ -6528,9 +6544,9 @@
       <c r="AP95" s="1"/>
     </row>
     <row r="96" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="99"/>
-      <c r="B96" s="94"/>
-      <c r="C96" s="96"/>
+      <c r="A96" s="102"/>
+      <c r="B96" s="105"/>
+      <c r="C96" s="111"/>
       <c r="D96" s="24"/>
       <c r="E96" s="18"/>
       <c r="F96" s="18">
@@ -6577,9 +6593,9 @@
       <c r="AP96" s="1"/>
     </row>
     <row r="97" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="99"/>
-      <c r="B97" s="94"/>
-      <c r="C97" s="96"/>
+      <c r="A97" s="102"/>
+      <c r="B97" s="105"/>
+      <c r="C97" s="111"/>
       <c r="D97" s="24"/>
       <c r="E97" s="18"/>
       <c r="F97" s="18">
@@ -6626,9 +6642,9 @@
       <c r="AP97" s="1"/>
     </row>
     <row r="98" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="99"/>
-      <c r="B98" s="94"/>
-      <c r="C98" s="96"/>
+      <c r="A98" s="102"/>
+      <c r="B98" s="105"/>
+      <c r="C98" s="111"/>
       <c r="D98" s="24"/>
       <c r="E98" s="18"/>
       <c r="F98" s="18">
@@ -6675,9 +6691,9 @@
       <c r="AP98" s="1"/>
     </row>
     <row r="99" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="99"/>
-      <c r="B99" s="94"/>
-      <c r="C99" s="96"/>
+      <c r="A99" s="102"/>
+      <c r="B99" s="105"/>
+      <c r="C99" s="111"/>
       <c r="D99" s="24"/>
       <c r="E99" s="18"/>
       <c r="F99" s="18">
@@ -6724,9 +6740,9 @@
       <c r="AP99" s="1"/>
     </row>
     <row r="100" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="99"/>
-      <c r="B100" s="94"/>
-      <c r="C100" s="96" t="s">
+      <c r="A100" s="102"/>
+      <c r="B100" s="105"/>
+      <c r="C100" s="111" t="s">
         <v>156</v>
       </c>
       <c r="D100" s="24"/>
@@ -6775,9 +6791,9 @@
       <c r="AP100" s="1"/>
     </row>
     <row r="101" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="99"/>
-      <c r="B101" s="94"/>
-      <c r="C101" s="96"/>
+      <c r="A101" s="102"/>
+      <c r="B101" s="105"/>
+      <c r="C101" s="111"/>
       <c r="D101" s="24"/>
       <c r="E101" s="18"/>
       <c r="F101" s="18">
@@ -6824,9 +6840,9 @@
       <c r="AP101" s="1"/>
     </row>
     <row r="102" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="99"/>
-      <c r="B102" s="94"/>
-      <c r="C102" s="96"/>
+      <c r="A102" s="102"/>
+      <c r="B102" s="105"/>
+      <c r="C102" s="111"/>
       <c r="D102" s="24"/>
       <c r="E102" s="18"/>
       <c r="F102" s="18">
@@ -6873,9 +6889,9 @@
       <c r="AP102" s="1"/>
     </row>
     <row r="103" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="99"/>
-      <c r="B103" s="94"/>
-      <c r="C103" s="96" t="s">
+      <c r="A103" s="102"/>
+      <c r="B103" s="105"/>
+      <c r="C103" s="111" t="s">
         <v>157</v>
       </c>
       <c r="D103" s="24"/>
@@ -6924,9 +6940,9 @@
       <c r="AP103" s="1"/>
     </row>
     <row r="104" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="99"/>
-      <c r="B104" s="94"/>
-      <c r="C104" s="96"/>
+      <c r="A104" s="102"/>
+      <c r="B104" s="105"/>
+      <c r="C104" s="111"/>
       <c r="D104" s="24"/>
       <c r="E104" s="18"/>
       <c r="F104" s="18">
@@ -6973,9 +6989,9 @@
       <c r="AP104" s="1"/>
     </row>
     <row r="105" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="99"/>
-      <c r="B105" s="94"/>
-      <c r="C105" s="96"/>
+      <c r="A105" s="102"/>
+      <c r="B105" s="105"/>
+      <c r="C105" s="111"/>
       <c r="D105" s="24"/>
       <c r="E105" s="18"/>
       <c r="F105" s="18">
@@ -7022,7 +7038,7 @@
       <c r="AP105" s="1"/>
     </row>
     <row r="106" spans="1:42" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="100"/>
+      <c r="A106" s="104"/>
       <c r="B106" s="32" t="s">
         <v>158</v>
       </c>
@@ -7073,10 +7089,10 @@
       <c r="AP106" s="1"/>
     </row>
     <row r="107" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="98" t="s">
+      <c r="A107" s="101" t="s">
         <v>161</v>
       </c>
-      <c r="B107" s="93" t="s">
+      <c r="B107" s="109" t="s">
         <v>162</v>
       </c>
       <c r="C107" s="9" t="s">
@@ -7126,8 +7142,8 @@
       <c r="AP107" s="1"/>
     </row>
     <row r="108" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="99"/>
-      <c r="B108" s="94"/>
+      <c r="A108" s="102"/>
+      <c r="B108" s="105"/>
       <c r="C108" s="16" t="s">
         <v>165</v>
       </c>
@@ -7175,8 +7191,8 @@
       <c r="AP108" s="1"/>
     </row>
     <row r="109" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="99"/>
-      <c r="B109" s="94" t="s">
+      <c r="A109" s="102"/>
+      <c r="B109" s="105" t="s">
         <v>166</v>
       </c>
       <c r="C109" s="16" t="s">
@@ -7226,8 +7242,8 @@
       <c r="AP109" s="1"/>
     </row>
     <row r="110" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="99"/>
-      <c r="B110" s="94"/>
+      <c r="A110" s="102"/>
+      <c r="B110" s="105"/>
       <c r="C110" s="16" t="s">
         <v>168</v>
       </c>
@@ -7275,8 +7291,8 @@
       <c r="AP110" s="1"/>
     </row>
     <row r="111" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="99"/>
-      <c r="B111" s="94" t="s">
+      <c r="A111" s="102"/>
+      <c r="B111" s="105" t="s">
         <v>169</v>
       </c>
       <c r="C111" s="16" t="s">
@@ -7326,8 +7342,8 @@
       <c r="AP111" s="1"/>
     </row>
     <row r="112" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="99"/>
-      <c r="B112" s="94"/>
+      <c r="A112" s="102"/>
+      <c r="B112" s="105"/>
       <c r="C112" s="16" t="s">
         <v>171</v>
       </c>
@@ -7375,8 +7391,8 @@
       <c r="AP112" s="1"/>
     </row>
     <row r="113" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="99"/>
-      <c r="B113" s="94" t="s">
+      <c r="A113" s="102"/>
+      <c r="B113" s="105" t="s">
         <v>172</v>
       </c>
       <c r="C113" s="16" t="s">
@@ -7426,8 +7442,8 @@
       <c r="AP113" s="1"/>
     </row>
     <row r="114" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="99"/>
-      <c r="B114" s="94"/>
+      <c r="A114" s="102"/>
+      <c r="B114" s="105"/>
       <c r="C114" s="16" t="s">
         <v>174</v>
       </c>
@@ -7475,8 +7491,8 @@
       <c r="AP114" s="1"/>
     </row>
     <row r="115" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="99"/>
-      <c r="B115" s="94" t="s">
+      <c r="A115" s="102"/>
+      <c r="B115" s="105" t="s">
         <v>175</v>
       </c>
       <c r="C115" s="16" t="s">
@@ -7526,8 +7542,8 @@
       <c r="AP115" s="1"/>
     </row>
     <row r="116" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="99"/>
-      <c r="B116" s="94"/>
+      <c r="A116" s="102"/>
+      <c r="B116" s="105"/>
       <c r="C116" s="16" t="s">
         <v>177</v>
       </c>
@@ -7575,7 +7591,7 @@
       <c r="AP116" s="1"/>
     </row>
     <row r="117" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="99"/>
+      <c r="A117" s="102"/>
       <c r="B117" s="15" t="s">
         <v>178</v>
       </c>
@@ -7626,7 +7642,7 @@
       <c r="AP117" s="1"/>
     </row>
     <row r="118" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="99"/>
+      <c r="A118" s="102"/>
       <c r="B118" s="51" t="s">
         <v>180</v>
       </c>
@@ -7679,7 +7695,7 @@
       <c r="AP118" s="1"/>
     </row>
     <row r="119" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="99"/>
+      <c r="A119" s="102"/>
       <c r="B119" s="51" t="s">
         <v>183</v>
       </c>
@@ -7732,7 +7748,7 @@
       <c r="AP119" s="1"/>
     </row>
     <row r="120" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="99"/>
+      <c r="A120" s="102"/>
       <c r="B120" s="51" t="s">
         <v>185</v>
       </c>
@@ -7785,7 +7801,7 @@
       <c r="AP120" s="1"/>
     </row>
     <row r="121" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="99"/>
+      <c r="A121" s="102"/>
       <c r="B121" s="51" t="s">
         <v>187</v>
       </c>
@@ -7838,7 +7854,7 @@
       <c r="AP121" s="1"/>
     </row>
     <row r="122" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="99"/>
+      <c r="A122" s="102"/>
       <c r="B122" s="51" t="s">
         <v>189</v>
       </c>
@@ -7891,7 +7907,7 @@
       <c r="AP122" s="1"/>
     </row>
     <row r="123" spans="1:42" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="100"/>
+      <c r="A123" s="104"/>
       <c r="B123" s="53" t="s">
         <v>191</v>
       </c>
@@ -7944,7 +7960,7 @@
       <c r="AP123" s="1"/>
     </row>
     <row r="124" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="98" t="s">
+      <c r="A124" s="101" t="s">
         <v>193</v>
       </c>
       <c r="B124" s="8" t="s">
@@ -7997,7 +8013,7 @@
       <c r="AP124" s="1"/>
     </row>
     <row r="125" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="99"/>
+      <c r="A125" s="102"/>
       <c r="B125" s="15" t="s">
         <v>196</v>
       </c>
@@ -8052,7 +8068,7 @@
       <c r="AP125" s="1"/>
     </row>
     <row r="126" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="99"/>
+      <c r="A126" s="102"/>
       <c r="B126" s="15" t="s">
         <v>201</v>
       </c>
@@ -8105,8 +8121,8 @@
       <c r="AP126" s="1"/>
     </row>
     <row r="127" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="99"/>
-      <c r="B127" s="94" t="s">
+      <c r="A127" s="102"/>
+      <c r="B127" s="105" t="s">
         <v>205</v>
       </c>
       <c r="C127" s="16" t="s">
@@ -8156,8 +8172,8 @@
       <c r="AP127" s="1"/>
     </row>
     <row r="128" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="99"/>
-      <c r="B128" s="94"/>
+      <c r="A128" s="102"/>
+      <c r="B128" s="105"/>
       <c r="C128" s="16" t="s">
         <v>208</v>
       </c>
@@ -8205,8 +8221,8 @@
       <c r="AP128" s="1"/>
     </row>
     <row r="129" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="99"/>
-      <c r="B129" s="94"/>
+      <c r="A129" s="102"/>
+      <c r="B129" s="105"/>
       <c r="C129" s="16" t="s">
         <v>210</v>
       </c>
@@ -8254,8 +8270,8 @@
       <c r="AP129" s="1"/>
     </row>
     <row r="130" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="99"/>
-      <c r="B130" s="102" t="s">
+      <c r="A130" s="102"/>
+      <c r="B130" s="106" t="s">
         <v>211</v>
       </c>
       <c r="C130" s="52" t="s">
@@ -8309,8 +8325,8 @@
       <c r="AP130" s="1"/>
     </row>
     <row r="131" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="99"/>
-      <c r="B131" s="102"/>
+      <c r="A131" s="102"/>
+      <c r="B131" s="106"/>
       <c r="C131" s="52" t="s">
         <v>216</v>
       </c>
@@ -8362,8 +8378,8 @@
       <c r="AP131" s="1"/>
     </row>
     <row r="132" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="99"/>
-      <c r="B132" s="94" t="s">
+      <c r="A132" s="102"/>
+      <c r="B132" s="105" t="s">
         <v>217</v>
       </c>
       <c r="C132" s="16" t="s">
@@ -8419,8 +8435,8 @@
       <c r="AP132" s="1"/>
     </row>
     <row r="133" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="99"/>
-      <c r="B133" s="94"/>
+      <c r="A133" s="102"/>
+      <c r="B133" s="105"/>
       <c r="C133" s="16" t="s">
         <v>219</v>
       </c>
@@ -8474,8 +8490,8 @@
       <c r="AP133" s="1"/>
     </row>
     <row r="134" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="99"/>
-      <c r="B134" s="94"/>
+      <c r="A134" s="102"/>
+      <c r="B134" s="105"/>
       <c r="C134" s="16" t="s">
         <v>220</v>
       </c>
@@ -8529,8 +8545,8 @@
       <c r="AP134" s="1"/>
     </row>
     <row r="135" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="99"/>
-      <c r="B135" s="94"/>
+      <c r="A135" s="102"/>
+      <c r="B135" s="105"/>
       <c r="C135" s="16" t="s">
         <v>221</v>
       </c>
@@ -8584,8 +8600,8 @@
       <c r="AP135" s="1"/>
     </row>
     <row r="136" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="99"/>
-      <c r="B136" s="94"/>
+      <c r="A136" s="102"/>
+      <c r="B136" s="105"/>
       <c r="C136" s="16" t="s">
         <v>222</v>
       </c>
@@ -8639,8 +8655,8 @@
       <c r="AP136" s="1"/>
     </row>
     <row r="137" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="99"/>
-      <c r="B137" s="94"/>
+      <c r="A137" s="102"/>
+      <c r="B137" s="105"/>
       <c r="C137" s="16" t="s">
         <v>223</v>
       </c>
@@ -8694,8 +8710,8 @@
       <c r="AP137" s="1"/>
     </row>
     <row r="138" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="101"/>
-      <c r="B138" s="103"/>
+      <c r="A138" s="103"/>
+      <c r="B138" s="107"/>
       <c r="C138" s="55" t="s">
         <v>224</v>
       </c>
@@ -8749,8 +8765,8 @@
       <c r="AP138" s="1"/>
     </row>
     <row r="139" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="101"/>
-      <c r="B139" s="103"/>
+      <c r="A139" s="103"/>
+      <c r="B139" s="107"/>
       <c r="C139" s="55" t="s">
         <v>227</v>
       </c>
@@ -8804,8 +8820,8 @@
       <c r="AP139" s="1"/>
     </row>
     <row r="140" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="101"/>
-      <c r="B140" s="103"/>
+      <c r="A140" s="103"/>
+      <c r="B140" s="107"/>
       <c r="C140" s="55" t="s">
         <v>229</v>
       </c>
@@ -8859,8 +8875,8 @@
       <c r="AP140" s="1"/>
     </row>
     <row r="141" spans="1:42" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="100"/>
-      <c r="B141" s="104"/>
+      <c r="A141" s="104"/>
+      <c r="B141" s="108"/>
       <c r="C141" s="33" t="s">
         <v>230</v>
       </c>
@@ -8916,16 +8932,11 @@
   </sheetData>
   <autoFilter ref="A1:K141" xr:uid="{9C6DE4F0-FB08-4A38-9A04-A033331CA2DF}"/>
   <mergeCells count="31">
-    <mergeCell ref="A124:A141"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="B132:B141"/>
-    <mergeCell ref="A107:A123"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B16"/>
+    <mergeCell ref="B17:B31"/>
+    <mergeCell ref="B35:B37"/>
     <mergeCell ref="C94:C99"/>
     <mergeCell ref="C100:C102"/>
     <mergeCell ref="C103:C105"/>
@@ -8942,11 +8953,16 @@
     <mergeCell ref="A94:A106"/>
     <mergeCell ref="B94:B105"/>
     <mergeCell ref="A2:A38"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B16"/>
-    <mergeCell ref="B17:B31"/>
-    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A124:A141"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B132:B141"/>
+    <mergeCell ref="A107:A123"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B115:B116"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2:I141">
@@ -8969,9 +8985,9 @@
   </sheetPr>
   <dimension ref="A1:AS143"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9160,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="67" t="s">
         <v>16</v>
@@ -9211,7 +9227,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="67" t="s">
         <v>273</v>
@@ -9822,7 +9838,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="67" t="s">
         <v>298</v>
@@ -10064,7 +10080,7 @@
         <v>7</v>
       </c>
       <c r="E24" s="92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="67" t="s">
         <v>308</v>
@@ -10306,7 +10322,7 @@
         <v>13</v>
       </c>
       <c r="E30" s="92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="67" t="s">
         <v>309</v>
@@ -10400,7 +10416,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="67" t="s">
         <v>279</v>
@@ -10452,7 +10468,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="67" t="s">
         <v>311</v>
@@ -10556,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="67" t="s">
         <v>313</v>
@@ -10593,19 +10609,19 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
-      <c r="Z35" s="97"/>
-      <c r="AA35" s="97"/>
-      <c r="AB35" s="97"/>
-      <c r="AC35" s="97"/>
-      <c r="AD35" s="97"/>
-      <c r="AE35" s="97"/>
-      <c r="AF35" s="97"/>
-      <c r="AG35" s="97"/>
-      <c r="AH35" s="97"/>
-      <c r="AI35" s="97"/>
-      <c r="AJ35" s="97"/>
-      <c r="AK35" s="97"/>
-      <c r="AL35" s="97"/>
+      <c r="Z35" s="112"/>
+      <c r="AA35" s="112"/>
+      <c r="AB35" s="112"/>
+      <c r="AC35" s="112"/>
+      <c r="AD35" s="112"/>
+      <c r="AE35" s="112"/>
+      <c r="AF35" s="112"/>
+      <c r="AG35" s="112"/>
+      <c r="AH35" s="112"/>
+      <c r="AI35" s="112"/>
+      <c r="AJ35" s="112"/>
+      <c r="AK35" s="112"/>
+      <c r="AL35" s="112"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="65" t="s">
@@ -10622,7 +10638,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="67" t="s">
         <v>314</v>
@@ -10651,19 +10667,19 @@
       </c>
       <c r="N36" s="79"/>
       <c r="Y36"/>
-      <c r="Z36" s="97"/>
-      <c r="AA36" s="97"/>
-      <c r="AB36" s="97"/>
-      <c r="AC36" s="97"/>
-      <c r="AD36" s="97"/>
-      <c r="AE36" s="97"/>
-      <c r="AF36" s="97"/>
-      <c r="AG36" s="97"/>
-      <c r="AH36" s="97"/>
-      <c r="AI36" s="97"/>
-      <c r="AJ36" s="97"/>
-      <c r="AK36" s="97"/>
-      <c r="AL36" s="97"/>
+      <c r="Z36" s="112"/>
+      <c r="AA36" s="112"/>
+      <c r="AB36" s="112"/>
+      <c r="AC36" s="112"/>
+      <c r="AD36" s="112"/>
+      <c r="AE36" s="112"/>
+      <c r="AF36" s="112"/>
+      <c r="AG36" s="112"/>
+      <c r="AH36" s="112"/>
+      <c r="AI36" s="112"/>
+      <c r="AJ36" s="112"/>
+      <c r="AK36" s="112"/>
+      <c r="AL36" s="112"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="65" t="s">
@@ -10709,19 +10725,19 @@
       </c>
       <c r="N37" s="79"/>
       <c r="Y37"/>
-      <c r="Z37" s="97"/>
-      <c r="AA37" s="97"/>
-      <c r="AB37" s="97"/>
-      <c r="AC37" s="97"/>
-      <c r="AD37" s="97"/>
-      <c r="AE37" s="97"/>
-      <c r="AF37" s="97"/>
-      <c r="AG37" s="97"/>
-      <c r="AH37" s="97"/>
-      <c r="AI37" s="97"/>
-      <c r="AJ37" s="97"/>
-      <c r="AK37" s="97"/>
-      <c r="AL37" s="97"/>
+      <c r="Z37" s="112"/>
+      <c r="AA37" s="112"/>
+      <c r="AB37" s="112"/>
+      <c r="AC37" s="112"/>
+      <c r="AD37" s="112"/>
+      <c r="AE37" s="112"/>
+      <c r="AF37" s="112"/>
+      <c r="AG37" s="112"/>
+      <c r="AH37" s="112"/>
+      <c r="AI37" s="112"/>
+      <c r="AJ37" s="112"/>
+      <c r="AK37" s="112"/>
+      <c r="AL37" s="112"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="65" t="s">
@@ -10765,19 +10781,19 @@
       </c>
       <c r="N38" s="73"/>
       <c r="Y38"/>
-      <c r="Z38" s="97"/>
-      <c r="AA38" s="97"/>
-      <c r="AB38" s="97"/>
-      <c r="AC38" s="97"/>
-      <c r="AD38" s="97"/>
-      <c r="AE38" s="97"/>
-      <c r="AF38" s="97"/>
-      <c r="AG38" s="97"/>
-      <c r="AH38" s="97"/>
-      <c r="AI38" s="97"/>
-      <c r="AJ38" s="97"/>
-      <c r="AK38" s="97"/>
-      <c r="AL38" s="97"/>
+      <c r="Z38" s="112"/>
+      <c r="AA38" s="112"/>
+      <c r="AB38" s="112"/>
+      <c r="AC38" s="112"/>
+      <c r="AD38" s="112"/>
+      <c r="AE38" s="112"/>
+      <c r="AF38" s="112"/>
+      <c r="AG38" s="112"/>
+      <c r="AH38" s="112"/>
+      <c r="AI38" s="112"/>
+      <c r="AJ38" s="112"/>
+      <c r="AK38" s="112"/>
+      <c r="AL38" s="112"/>
     </row>
     <row r="39" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="65" t="s">
@@ -10817,19 +10833,19 @@
       </c>
       <c r="N39" s="73"/>
       <c r="Y39"/>
-      <c r="Z39" s="97"/>
-      <c r="AA39" s="97"/>
-      <c r="AB39" s="97"/>
-      <c r="AC39" s="97"/>
-      <c r="AD39" s="97"/>
-      <c r="AE39" s="97"/>
-      <c r="AF39" s="97"/>
-      <c r="AG39" s="97"/>
-      <c r="AH39" s="97"/>
-      <c r="AI39" s="97"/>
-      <c r="AJ39" s="97"/>
-      <c r="AK39" s="97"/>
-      <c r="AL39" s="97"/>
+      <c r="Z39" s="112"/>
+      <c r="AA39" s="112"/>
+      <c r="AB39" s="112"/>
+      <c r="AC39" s="112"/>
+      <c r="AD39" s="112"/>
+      <c r="AE39" s="112"/>
+      <c r="AF39" s="112"/>
+      <c r="AG39" s="112"/>
+      <c r="AH39" s="112"/>
+      <c r="AI39" s="112"/>
+      <c r="AJ39" s="112"/>
+      <c r="AK39" s="112"/>
+      <c r="AL39" s="112"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="81" t="s">
@@ -12868,7 +12884,7 @@
       <c r="AR72" s="1"/>
       <c r="AS72" s="1"/>
     </row>
-    <row r="73" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:45" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A73" s="81" t="s">
         <v>66</v>
       </c>
@@ -12884,31 +12900,31 @@
       <c r="E73" s="92">
         <v>0</v>
       </c>
-      <c r="F73" s="106" t="s">
+      <c r="F73" s="86" t="s">
         <v>325</v>
       </c>
-      <c r="G73" s="68">
+      <c r="G73" s="91">
         <v>44525</v>
       </c>
-      <c r="H73" s="69">
+      <c r="H73" s="87">
         <v>660202</v>
       </c>
-      <c r="I73" s="69">
+      <c r="I73" s="87">
         <v>10201</v>
       </c>
-      <c r="J73" s="70"/>
-      <c r="K73" s="71" t="s">
+      <c r="J73" s="88"/>
+      <c r="K73" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="L73" s="71">
+      <c r="L73" s="99">
         <f>_xlfn.XLOOKUP(K73,타입분류!$A$1:$A$28,타입분류!$B$1:$B$28)</f>
         <v>1</v>
       </c>
-      <c r="M73" s="71" t="s">
+      <c r="M73" s="99" t="s">
         <v>268</v>
       </c>
-      <c r="N73" s="78" t="s">
-        <v>104</v>
+      <c r="N73" s="100" t="s">
+        <v>354</v>
       </c>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
@@ -13016,32 +13032,32 @@
       <c r="A75" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="107" t="s">
+      <c r="B75" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="C75" s="108"/>
-      <c r="D75" s="108"/>
-      <c r="E75" s="108"/>
-      <c r="F75" s="109" t="s">
+      <c r="C75" s="94"/>
+      <c r="D75" s="94"/>
+      <c r="E75" s="94"/>
+      <c r="F75" s="95" t="s">
         <v>326</v>
       </c>
       <c r="G75" s="68">
         <v>44887</v>
       </c>
-      <c r="H75" s="110"/>
-      <c r="I75" s="110"/>
+      <c r="H75" s="96"/>
+      <c r="I75" s="96"/>
       <c r="J75" s="70"/>
-      <c r="K75" s="111" t="s">
+      <c r="K75" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="L75" s="111">
+      <c r="L75" s="97">
         <f>_xlfn.XLOOKUP(K75,타입분류!$A$1:$A$28,타입분류!$B$1:$B$28)</f>
         <v>1</v>
       </c>
-      <c r="M75" s="111" t="s">
+      <c r="M75" s="97" t="s">
         <v>268</v>
       </c>
-      <c r="N75" s="112" t="s">
+      <c r="N75" s="98" t="s">
         <v>353</v>
       </c>
       <c r="P75" s="1"/>
@@ -13732,7 +13748,7 @@
         <v>4</v>
       </c>
       <c r="E85" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" s="67" t="s">
         <v>138</v>
@@ -14420,7 +14436,7 @@
       <c r="E95" s="92">
         <v>0</v>
       </c>
-      <c r="F95" s="105" t="s">
+      <c r="F95" s="113" t="s">
         <v>155</v>
       </c>
       <c r="G95" s="75"/>
@@ -14488,7 +14504,7 @@
       <c r="E96" s="92">
         <v>0</v>
       </c>
-      <c r="F96" s="105"/>
+      <c r="F96" s="113"/>
       <c r="G96" s="75"/>
       <c r="H96" s="69">
         <v>1110035</v>
@@ -14554,7 +14570,7 @@
       <c r="E97" s="92">
         <v>0</v>
       </c>
-      <c r="F97" s="105"/>
+      <c r="F97" s="113"/>
       <c r="G97" s="75"/>
       <c r="H97" s="69">
         <v>1110062</v>
@@ -14620,7 +14636,7 @@
       <c r="E98" s="92">
         <v>0</v>
       </c>
-      <c r="F98" s="105"/>
+      <c r="F98" s="113"/>
       <c r="G98" s="75"/>
       <c r="H98" s="69">
         <v>502634</v>
@@ -14686,7 +14702,7 @@
       <c r="E99" s="92">
         <v>0</v>
       </c>
-      <c r="F99" s="105"/>
+      <c r="F99" s="113"/>
       <c r="G99" s="75"/>
       <c r="H99" s="69">
         <v>1110036</v>
@@ -14752,7 +14768,7 @@
       <c r="E100" s="92">
         <v>0</v>
       </c>
-      <c r="F100" s="105"/>
+      <c r="F100" s="113"/>
       <c r="G100" s="75"/>
       <c r="H100" s="69">
         <v>1110061</v>
@@ -14818,7 +14834,7 @@
       <c r="E101" s="92">
         <v>0</v>
       </c>
-      <c r="F101" s="105" t="s">
+      <c r="F101" s="113" t="s">
         <v>156</v>
       </c>
       <c r="G101" s="75"/>
@@ -14886,7 +14902,7 @@
       <c r="E102" s="92">
         <v>0</v>
       </c>
-      <c r="F102" s="105"/>
+      <c r="F102" s="113"/>
       <c r="G102" s="75"/>
       <c r="H102" s="69">
         <v>502655</v>
@@ -14952,7 +14968,7 @@
       <c r="E103" s="92">
         <v>0</v>
       </c>
-      <c r="F103" s="105"/>
+      <c r="F103" s="113"/>
       <c r="G103" s="75"/>
       <c r="H103" s="69">
         <v>502657</v>
@@ -15018,7 +15034,7 @@
       <c r="E104" s="92">
         <v>0</v>
       </c>
-      <c r="F104" s="105" t="s">
+      <c r="F104" s="113" t="s">
         <v>157</v>
       </c>
       <c r="G104" s="75"/>
@@ -15086,7 +15102,7 @@
       <c r="E105" s="92">
         <v>0</v>
       </c>
-      <c r="F105" s="105"/>
+      <c r="F105" s="113"/>
       <c r="G105" s="75"/>
       <c r="H105" s="69">
         <v>502656</v>
@@ -15152,7 +15168,7 @@
       <c r="E106" s="92">
         <v>0</v>
       </c>
-      <c r="F106" s="105"/>
+      <c r="F106" s="113"/>
       <c r="G106" s="75"/>
       <c r="H106" s="69">
         <v>502658</v>
@@ -17644,18 +17660,18 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E2:E143">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J143">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17669,8 +17685,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/확률정보.xlsx
+++ b/확률정보.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\파이썬프로젝트\r2mProbLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D7C6EC-9E4E-4FAB-9797-6E6C2C920323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA0F809-D502-4806-9DA3-600844C1E6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="1" activeTab="1" xr2:uid="{ABCE2CA0-A1D3-4D65-96EE-F34166D7733B}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'23년4월'!$A$1:$K$141</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'23년7월'!$A$1:$N$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'23년7월'!$A$1:$N$144</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">타입분류!$A$1:$F$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="356">
   <si>
     <t>Category 1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1272,6 +1272,10 @@
   <si>
     <t>구버전 확률 고지표
 2023-06-23 업데이트 요청 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고대 매터리얼 슬롯 강화 주문서</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1756,7 +1760,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2060,19 +2064,34 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2083,18 +2102,6 @@
     </xf>
     <xf numFmtId="10" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2550,10 +2557,10 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="102" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2588,8 +2595,8 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="102"/>
-      <c r="B3" s="105"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="16" t="s">
         <v>14</v>
       </c>
@@ -2622,8 +2629,8 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="102"/>
-      <c r="B4" s="105" t="s">
+      <c r="A4" s="108"/>
+      <c r="B4" s="103" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="16" t="s">
@@ -2658,8 +2665,8 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
-      <c r="B5" s="105"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="16" t="s">
         <v>17</v>
       </c>
@@ -2692,8 +2699,8 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="102"/>
-      <c r="B6" s="105" t="s">
+      <c r="A6" s="108"/>
+      <c r="B6" s="103" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -2724,8 +2731,8 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="102"/>
-      <c r="B7" s="105"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="16" t="s">
         <v>21</v>
       </c>
@@ -2754,8 +2761,8 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="102"/>
-      <c r="B8" s="105"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="16" t="s">
         <v>22</v>
       </c>
@@ -2784,8 +2791,8 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="102"/>
-      <c r="B9" s="105"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="16" t="s">
         <v>23</v>
       </c>
@@ -2814,8 +2821,8 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="102"/>
-      <c r="B10" s="105"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="16" t="s">
         <v>24</v>
       </c>
@@ -2844,8 +2851,8 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="102"/>
-      <c r="B11" s="105"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="16" t="s">
         <v>25</v>
       </c>
@@ -2878,8 +2885,8 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="102"/>
-      <c r="B12" s="105"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="16" t="s">
         <v>26</v>
       </c>
@@ -2912,8 +2919,8 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="102"/>
-      <c r="B13" s="105"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="16" t="s">
         <v>27</v>
       </c>
@@ -2946,8 +2953,8 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="102"/>
-      <c r="B14" s="105"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="16" t="s">
         <v>28</v>
       </c>
@@ -2976,8 +2983,8 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="102"/>
-      <c r="B15" s="105"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
@@ -3006,8 +3013,8 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="102"/>
-      <c r="B16" s="105"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="16" t="s">
         <v>31</v>
       </c>
@@ -3029,8 +3036,8 @@
       <c r="K16" s="21"/>
     </row>
     <row r="17" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="102"/>
-      <c r="B17" s="105" t="s">
+      <c r="A17" s="108"/>
+      <c r="B17" s="103" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="16" t="s">
@@ -3054,8 +3061,8 @@
       <c r="K17" s="21"/>
     </row>
     <row r="18" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="102"/>
-      <c r="B18" s="105"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="16" t="s">
         <v>34</v>
       </c>
@@ -3079,8 +3086,8 @@
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="102"/>
-      <c r="B19" s="105"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="103"/>
       <c r="C19" s="16" t="s">
         <v>36</v>
       </c>
@@ -3102,8 +3109,8 @@
       <c r="K19" s="21"/>
     </row>
     <row r="20" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="102"/>
-      <c r="B20" s="105"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="103"/>
       <c r="C20" s="16" t="s">
         <v>38</v>
       </c>
@@ -3125,8 +3132,8 @@
       <c r="K20" s="21"/>
     </row>
     <row r="21" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="102"/>
-      <c r="B21" s="105"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="103"/>
       <c r="C21" s="16" t="s">
         <v>39</v>
       </c>
@@ -3148,8 +3155,8 @@
       <c r="K21" s="21"/>
     </row>
     <row r="22" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="102"/>
-      <c r="B22" s="105"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="103"/>
       <c r="C22" s="16" t="s">
         <v>40</v>
       </c>
@@ -3171,8 +3178,8 @@
       <c r="K22" s="21"/>
     </row>
     <row r="23" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="102"/>
-      <c r="B23" s="105"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="103"/>
       <c r="C23" s="16" t="s">
         <v>41</v>
       </c>
@@ -3194,8 +3201,8 @@
       <c r="K23" s="21"/>
     </row>
     <row r="24" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="102"/>
-      <c r="B24" s="105"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="103"/>
       <c r="C24" s="16" t="s">
         <v>42</v>
       </c>
@@ -3217,8 +3224,8 @@
       <c r="K24" s="21"/>
     </row>
     <row r="25" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="102"/>
-      <c r="B25" s="105"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="103"/>
       <c r="C25" s="16" t="s">
         <v>43</v>
       </c>
@@ -3242,8 +3249,8 @@
       <c r="K25" s="21"/>
     </row>
     <row r="26" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="102"/>
-      <c r="B26" s="105"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="103"/>
       <c r="C26" s="16" t="s">
         <v>45</v>
       </c>
@@ -3265,8 +3272,8 @@
       <c r="K26" s="21"/>
     </row>
     <row r="27" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="102"/>
-      <c r="B27" s="105"/>
+      <c r="A27" s="108"/>
+      <c r="B27" s="103"/>
       <c r="C27" s="16" t="s">
         <v>46</v>
       </c>
@@ -3288,8 +3295,8 @@
       <c r="K27" s="21"/>
     </row>
     <row r="28" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="102"/>
-      <c r="B28" s="105"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="103"/>
       <c r="C28" s="16" t="s">
         <v>47</v>
       </c>
@@ -3311,8 +3318,8 @@
       <c r="K28" s="21"/>
     </row>
     <row r="29" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="102"/>
-      <c r="B29" s="105"/>
+      <c r="A29" s="108"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="16" t="s">
         <v>48</v>
       </c>
@@ -3334,8 +3341,8 @@
       <c r="K29" s="21"/>
     </row>
     <row r="30" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="102"/>
-      <c r="B30" s="105"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="103"/>
       <c r="C30" s="16" t="s">
         <v>49</v>
       </c>
@@ -3357,8 +3364,8 @@
       <c r="K30" s="21"/>
     </row>
     <row r="31" spans="1:21" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="102"/>
-      <c r="B31" s="105"/>
+      <c r="A31" s="108"/>
+      <c r="B31" s="103"/>
       <c r="C31" s="16" t="s">
         <v>50</v>
       </c>
@@ -3395,7 +3402,7 @@
       <c r="U31" s="1"/>
     </row>
     <row r="32" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="102"/>
+      <c r="A32" s="108"/>
       <c r="B32" s="15" t="s">
         <v>52</v>
       </c>
@@ -3433,7 +3440,7 @@
       <c r="U32" s="1"/>
     </row>
     <row r="33" spans="1:35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="102"/>
+      <c r="A33" s="108"/>
       <c r="B33" s="15" t="s">
         <v>54</v>
       </c>
@@ -3471,7 +3478,7 @@
       <c r="U33" s="1"/>
     </row>
     <row r="34" spans="1:35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="102"/>
+      <c r="A34" s="108"/>
       <c r="B34" s="15" t="s">
         <v>56</v>
       </c>
@@ -3509,8 +3516,8 @@
       <c r="U34" s="1"/>
     </row>
     <row r="35" spans="1:35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="102"/>
-      <c r="B35" s="105" t="s">
+      <c r="A35" s="108"/>
+      <c r="B35" s="103" t="s">
         <v>58</v>
       </c>
       <c r="C35" s="16" t="s">
@@ -3545,23 +3552,23 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
-      <c r="W35" s="112"/>
-      <c r="X35" s="112"/>
-      <c r="Y35" s="112"/>
-      <c r="Z35" s="112"/>
-      <c r="AA35" s="112"/>
-      <c r="AB35" s="112"/>
-      <c r="AC35" s="112"/>
-      <c r="AD35" s="112"/>
-      <c r="AE35" s="112"/>
-      <c r="AF35" s="112"/>
-      <c r="AG35" s="112"/>
-      <c r="AH35" s="112"/>
-      <c r="AI35" s="112"/>
+      <c r="W35" s="106"/>
+      <c r="X35" s="106"/>
+      <c r="Y35" s="106"/>
+      <c r="Z35" s="106"/>
+      <c r="AA35" s="106"/>
+      <c r="AB35" s="106"/>
+      <c r="AC35" s="106"/>
+      <c r="AD35" s="106"/>
+      <c r="AE35" s="106"/>
+      <c r="AF35" s="106"/>
+      <c r="AG35" s="106"/>
+      <c r="AH35" s="106"/>
+      <c r="AI35" s="106"/>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A36" s="102"/>
-      <c r="B36" s="105"/>
+      <c r="A36" s="108"/>
+      <c r="B36" s="103"/>
       <c r="C36" s="16" t="s">
         <v>60</v>
       </c>
@@ -3586,23 +3593,23 @@
       </c>
       <c r="K36" s="31"/>
       <c r="V36"/>
-      <c r="W36" s="112"/>
-      <c r="X36" s="112"/>
-      <c r="Y36" s="112"/>
-      <c r="Z36" s="112"/>
-      <c r="AA36" s="112"/>
-      <c r="AB36" s="112"/>
-      <c r="AC36" s="112"/>
-      <c r="AD36" s="112"/>
-      <c r="AE36" s="112"/>
-      <c r="AF36" s="112"/>
-      <c r="AG36" s="112"/>
-      <c r="AH36" s="112"/>
-      <c r="AI36" s="112"/>
+      <c r="W36" s="106"/>
+      <c r="X36" s="106"/>
+      <c r="Y36" s="106"/>
+      <c r="Z36" s="106"/>
+      <c r="AA36" s="106"/>
+      <c r="AB36" s="106"/>
+      <c r="AC36" s="106"/>
+      <c r="AD36" s="106"/>
+      <c r="AE36" s="106"/>
+      <c r="AF36" s="106"/>
+      <c r="AG36" s="106"/>
+      <c r="AH36" s="106"/>
+      <c r="AI36" s="106"/>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A37" s="102"/>
-      <c r="B37" s="105"/>
+      <c r="A37" s="108"/>
+      <c r="B37" s="103"/>
       <c r="C37" s="16" t="s">
         <v>61</v>
       </c>
@@ -3627,22 +3634,22 @@
       </c>
       <c r="K37" s="31"/>
       <c r="V37"/>
-      <c r="W37" s="112"/>
-      <c r="X37" s="112"/>
-      <c r="Y37" s="112"/>
-      <c r="Z37" s="112"/>
-      <c r="AA37" s="112"/>
-      <c r="AB37" s="112"/>
-      <c r="AC37" s="112"/>
-      <c r="AD37" s="112"/>
-      <c r="AE37" s="112"/>
-      <c r="AF37" s="112"/>
-      <c r="AG37" s="112"/>
-      <c r="AH37" s="112"/>
-      <c r="AI37" s="112"/>
+      <c r="W37" s="106"/>
+      <c r="X37" s="106"/>
+      <c r="Y37" s="106"/>
+      <c r="Z37" s="106"/>
+      <c r="AA37" s="106"/>
+      <c r="AB37" s="106"/>
+      <c r="AC37" s="106"/>
+      <c r="AD37" s="106"/>
+      <c r="AE37" s="106"/>
+      <c r="AF37" s="106"/>
+      <c r="AG37" s="106"/>
+      <c r="AH37" s="106"/>
+      <c r="AI37" s="106"/>
     </row>
     <row r="38" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="104"/>
+      <c r="A38" s="109"/>
       <c r="B38" s="32" t="s">
         <v>63</v>
       </c>
@@ -3664,25 +3671,25 @@
       </c>
       <c r="K38" s="39"/>
       <c r="V38"/>
-      <c r="W38" s="112"/>
-      <c r="X38" s="112"/>
-      <c r="Y38" s="112"/>
-      <c r="Z38" s="112"/>
-      <c r="AA38" s="112"/>
-      <c r="AB38" s="112"/>
-      <c r="AC38" s="112"/>
-      <c r="AD38" s="112"/>
-      <c r="AE38" s="112"/>
-      <c r="AF38" s="112"/>
-      <c r="AG38" s="112"/>
-      <c r="AH38" s="112"/>
-      <c r="AI38" s="112"/>
+      <c r="W38" s="106"/>
+      <c r="X38" s="106"/>
+      <c r="Y38" s="106"/>
+      <c r="Z38" s="106"/>
+      <c r="AA38" s="106"/>
+      <c r="AB38" s="106"/>
+      <c r="AC38" s="106"/>
+      <c r="AD38" s="106"/>
+      <c r="AE38" s="106"/>
+      <c r="AF38" s="106"/>
+      <c r="AG38" s="106"/>
+      <c r="AH38" s="106"/>
+      <c r="AI38" s="106"/>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A39" s="101" t="s">
+      <c r="A39" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="109" t="s">
+      <c r="B39" s="102" t="s">
         <v>67</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -3724,8 +3731,8 @@
       <c r="AI39"/>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A40" s="102"/>
-      <c r="B40" s="105"/>
+      <c r="A40" s="108"/>
+      <c r="B40" s="103"/>
       <c r="C40" s="16" t="s">
         <v>69</v>
       </c>
@@ -3765,8 +3772,8 @@
       <c r="AI40"/>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A41" s="102"/>
-      <c r="B41" s="105" t="s">
+      <c r="A41" s="108"/>
+      <c r="B41" s="103" t="s">
         <v>70</v>
       </c>
       <c r="C41" s="16" t="s">
@@ -3808,8 +3815,8 @@
       <c r="AI41"/>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A42" s="102"/>
-      <c r="B42" s="105"/>
+      <c r="A42" s="108"/>
+      <c r="B42" s="103"/>
       <c r="C42" s="16" t="s">
         <v>72</v>
       </c>
@@ -3851,8 +3858,8 @@
       <c r="AI42"/>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A43" s="102"/>
-      <c r="B43" s="105" t="s">
+      <c r="A43" s="108"/>
+      <c r="B43" s="103" t="s">
         <v>74</v>
       </c>
       <c r="C43" s="16" t="s">
@@ -3881,8 +3888,8 @@
       <c r="Z43"/>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A44" s="102"/>
-      <c r="B44" s="105"/>
+      <c r="A44" s="108"/>
+      <c r="B44" s="103"/>
       <c r="C44" s="16" t="s">
         <v>77</v>
       </c>
@@ -3911,8 +3918,8 @@
       <c r="Z44"/>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A45" s="102"/>
-      <c r="B45" s="105"/>
+      <c r="A45" s="108"/>
+      <c r="B45" s="103"/>
       <c r="C45" s="16" t="s">
         <v>79</v>
       </c>
@@ -3941,8 +3948,8 @@
       <c r="Z45"/>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A46" s="102"/>
-      <c r="B46" s="105"/>
+      <c r="A46" s="108"/>
+      <c r="B46" s="103"/>
       <c r="C46" s="16" t="s">
         <v>80</v>
       </c>
@@ -3971,8 +3978,8 @@
       <c r="Z46"/>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A47" s="102"/>
-      <c r="B47" s="105"/>
+      <c r="A47" s="108"/>
+      <c r="B47" s="103"/>
       <c r="C47" s="16" t="s">
         <v>81</v>
       </c>
@@ -3996,8 +4003,8 @@
       <c r="K47" s="21"/>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A48" s="102"/>
-      <c r="B48" s="105"/>
+      <c r="A48" s="108"/>
+      <c r="B48" s="103"/>
       <c r="C48" s="16" t="s">
         <v>82</v>
       </c>
@@ -4023,8 +4030,8 @@
       <c r="K48" s="21"/>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A49" s="102"/>
-      <c r="B49" s="105"/>
+      <c r="A49" s="108"/>
+      <c r="B49" s="103"/>
       <c r="C49" s="16" t="s">
         <v>83</v>
       </c>
@@ -4050,8 +4057,8 @@
       <c r="K49" s="21"/>
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A50" s="102"/>
-      <c r="B50" s="105"/>
+      <c r="A50" s="108"/>
+      <c r="B50" s="103"/>
       <c r="C50" s="16" t="s">
         <v>84</v>
       </c>
@@ -4075,8 +4082,8 @@
       <c r="K50" s="21"/>
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A51" s="102"/>
-      <c r="B51" s="105"/>
+      <c r="A51" s="108"/>
+      <c r="B51" s="103"/>
       <c r="C51" s="16" t="s">
         <v>86</v>
       </c>
@@ -4103,8 +4110,8 @@
       <c r="K51" s="21"/>
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A52" s="102"/>
-      <c r="B52" s="105"/>
+      <c r="A52" s="108"/>
+      <c r="B52" s="103"/>
       <c r="C52" s="16" t="s">
         <v>88</v>
       </c>
@@ -4131,8 +4138,8 @@
       <c r="K52" s="21"/>
     </row>
     <row r="53" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="102"/>
-      <c r="B53" s="105"/>
+      <c r="A53" s="108"/>
+      <c r="B53" s="103"/>
       <c r="C53" s="16" t="s">
         <v>89</v>
       </c>
@@ -4189,8 +4196,8 @@
       <c r="AP53" s="1"/>
     </row>
     <row r="54" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="102"/>
-      <c r="B54" s="105" t="s">
+      <c r="A54" s="108"/>
+      <c r="B54" s="103" t="s">
         <v>90</v>
       </c>
       <c r="C54" s="16" t="s">
@@ -4247,8 +4254,8 @@
       <c r="AP54" s="1"/>
     </row>
     <row r="55" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="102"/>
-      <c r="B55" s="105"/>
+      <c r="A55" s="108"/>
+      <c r="B55" s="103"/>
       <c r="C55" s="16" t="s">
         <v>92</v>
       </c>
@@ -4305,8 +4312,8 @@
       <c r="AP55" s="1"/>
     </row>
     <row r="56" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="102"/>
-      <c r="B56" s="105"/>
+      <c r="A56" s="108"/>
+      <c r="B56" s="103"/>
       <c r="C56" s="16" t="s">
         <v>94</v>
       </c>
@@ -4361,8 +4368,8 @@
       <c r="AP56" s="1"/>
     </row>
     <row r="57" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="102"/>
-      <c r="B57" s="105"/>
+      <c r="A57" s="108"/>
+      <c r="B57" s="103"/>
       <c r="C57" s="16" t="s">
         <v>96</v>
       </c>
@@ -4419,8 +4426,8 @@
       <c r="AP57" s="1"/>
     </row>
     <row r="58" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="102"/>
-      <c r="B58" s="105"/>
+      <c r="A58" s="108"/>
+      <c r="B58" s="103"/>
       <c r="C58" s="16" t="s">
         <v>98</v>
       </c>
@@ -4477,8 +4484,8 @@
       <c r="AP58" s="1"/>
     </row>
     <row r="59" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="102"/>
-      <c r="B59" s="105"/>
+      <c r="A59" s="108"/>
+      <c r="B59" s="103"/>
       <c r="C59" s="16" t="s">
         <v>99</v>
       </c>
@@ -4533,8 +4540,8 @@
       <c r="AP59" s="1"/>
     </row>
     <row r="60" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="102"/>
-      <c r="B60" s="105"/>
+      <c r="A60" s="108"/>
+      <c r="B60" s="103"/>
       <c r="C60" s="16" t="s">
         <v>100</v>
       </c>
@@ -4589,8 +4596,8 @@
       <c r="AP60" s="1"/>
     </row>
     <row r="61" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="102"/>
-      <c r="B61" s="105"/>
+      <c r="A61" s="108"/>
+      <c r="B61" s="103"/>
       <c r="C61" s="16" t="s">
         <v>101</v>
       </c>
@@ -4647,8 +4654,8 @@
       <c r="AP61" s="1"/>
     </row>
     <row r="62" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="102"/>
-      <c r="B62" s="105"/>
+      <c r="A62" s="108"/>
+      <c r="B62" s="103"/>
       <c r="C62" s="16" t="s">
         <v>103</v>
       </c>
@@ -4707,8 +4714,8 @@
       <c r="AP62" s="1"/>
     </row>
     <row r="63" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="102"/>
-      <c r="B63" s="105"/>
+      <c r="A63" s="108"/>
+      <c r="B63" s="103"/>
       <c r="C63" s="16" t="s">
         <v>105</v>
       </c>
@@ -4765,8 +4772,8 @@
       <c r="AP63" s="1"/>
     </row>
     <row r="64" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="102"/>
-      <c r="B64" s="105"/>
+      <c r="A64" s="108"/>
+      <c r="B64" s="103"/>
       <c r="C64" s="16" t="s">
         <v>106</v>
       </c>
@@ -4821,8 +4828,8 @@
       <c r="AP64" s="1"/>
     </row>
     <row r="65" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="102"/>
-      <c r="B65" s="105"/>
+      <c r="A65" s="108"/>
+      <c r="B65" s="103"/>
       <c r="C65" s="16" t="s">
         <v>107</v>
       </c>
@@ -4877,8 +4884,8 @@
       <c r="AP65" s="1"/>
     </row>
     <row r="66" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="102"/>
-      <c r="B66" s="105"/>
+      <c r="A66" s="108"/>
+      <c r="B66" s="103"/>
       <c r="C66" s="16" t="s">
         <v>108</v>
       </c>
@@ -4933,8 +4940,8 @@
       <c r="AP66" s="1"/>
     </row>
     <row r="67" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="102"/>
-      <c r="B67" s="105"/>
+      <c r="A67" s="108"/>
+      <c r="B67" s="103"/>
       <c r="C67" s="16" t="s">
         <v>109</v>
       </c>
@@ -4991,8 +4998,8 @@
       <c r="AP67" s="1"/>
     </row>
     <row r="68" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="102"/>
-      <c r="B68" s="105"/>
+      <c r="A68" s="108"/>
+      <c r="B68" s="103"/>
       <c r="C68" s="16" t="s">
         <v>110</v>
       </c>
@@ -5049,7 +5056,7 @@
       <c r="AP68" s="1"/>
     </row>
     <row r="69" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="102"/>
+      <c r="A69" s="108"/>
       <c r="B69" s="15" t="s">
         <v>111</v>
       </c>
@@ -5108,7 +5115,7 @@
       <c r="AP69" s="1"/>
     </row>
     <row r="70" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="102"/>
+      <c r="A70" s="108"/>
       <c r="B70" s="15" t="s">
         <v>113</v>
       </c>
@@ -5167,7 +5174,7 @@
       <c r="AP70" s="1"/>
     </row>
     <row r="71" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="102"/>
+      <c r="A71" s="108"/>
       <c r="B71" s="15" t="s">
         <v>115</v>
       </c>
@@ -5226,7 +5233,7 @@
       <c r="AP71" s="1"/>
     </row>
     <row r="72" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="102"/>
+      <c r="A72" s="108"/>
       <c r="B72" s="15" t="s">
         <v>117</v>
       </c>
@@ -5287,7 +5294,7 @@
       <c r="AP72" s="1"/>
     </row>
     <row r="73" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="102"/>
+      <c r="A73" s="108"/>
       <c r="B73" s="15" t="s">
         <v>119</v>
       </c>
@@ -5346,8 +5353,8 @@
       <c r="AP73" s="1"/>
     </row>
     <row r="74" spans="1:42" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="102"/>
-      <c r="B74" s="105" t="s">
+      <c r="A74" s="108"/>
+      <c r="B74" s="103" t="s">
         <v>121</v>
       </c>
       <c r="C74" s="16" t="s">
@@ -5407,8 +5414,8 @@
       <c r="AP74" s="1"/>
     </row>
     <row r="75" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="102"/>
-      <c r="B75" s="105"/>
+      <c r="A75" s="108"/>
+      <c r="B75" s="103"/>
       <c r="C75" s="16" t="s">
         <v>125</v>
       </c>
@@ -5466,8 +5473,8 @@
       <c r="AP75" s="1"/>
     </row>
     <row r="76" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="102"/>
-      <c r="B76" s="105"/>
+      <c r="A76" s="108"/>
+      <c r="B76" s="103"/>
       <c r="C76" s="16" t="s">
         <v>127</v>
       </c>
@@ -5523,8 +5530,8 @@
       <c r="AP76" s="1"/>
     </row>
     <row r="77" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="102"/>
-      <c r="B77" s="105"/>
+      <c r="A77" s="108"/>
+      <c r="B77" s="103"/>
       <c r="C77" s="16" t="s">
         <v>128</v>
       </c>
@@ -5580,8 +5587,8 @@
       <c r="AP77" s="1"/>
     </row>
     <row r="78" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="102"/>
-      <c r="B78" s="105"/>
+      <c r="A78" s="108"/>
+      <c r="B78" s="103"/>
       <c r="C78" s="16" t="s">
         <v>129</v>
       </c>
@@ -5637,7 +5644,7 @@
       <c r="AP78" s="1"/>
     </row>
     <row r="79" spans="1:42" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="104"/>
+      <c r="A79" s="109"/>
       <c r="B79" s="32" t="s">
         <v>130</v>
       </c>
@@ -5690,10 +5697,10 @@
       <c r="AP79" s="1"/>
     </row>
     <row r="80" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="101" t="s">
+      <c r="A80" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="B80" s="109" t="s">
+      <c r="B80" s="102" t="s">
         <v>133</v>
       </c>
       <c r="C80" s="9" t="s">
@@ -5751,8 +5758,8 @@
       <c r="AP80" s="1"/>
     </row>
     <row r="81" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="102"/>
-      <c r="B81" s="105"/>
+      <c r="A81" s="108"/>
+      <c r="B81" s="103"/>
       <c r="C81" s="16" t="s">
         <v>135</v>
       </c>
@@ -5808,8 +5815,8 @@
       <c r="AP81" s="1"/>
     </row>
     <row r="82" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="102"/>
-      <c r="B82" s="105"/>
+      <c r="A82" s="108"/>
+      <c r="B82" s="103"/>
       <c r="C82" s="16" t="s">
         <v>136</v>
       </c>
@@ -5865,8 +5872,8 @@
       <c r="AP82" s="1"/>
     </row>
     <row r="83" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="102"/>
-      <c r="B83" s="105"/>
+      <c r="A83" s="108"/>
+      <c r="B83" s="103"/>
       <c r="C83" s="16" t="s">
         <v>137</v>
       </c>
@@ -5922,8 +5929,8 @@
       <c r="AP83" s="1"/>
     </row>
     <row r="84" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="102"/>
-      <c r="B84" s="105"/>
+      <c r="A84" s="108"/>
+      <c r="B84" s="103"/>
       <c r="C84" s="16" t="s">
         <v>138</v>
       </c>
@@ -5979,8 +5986,8 @@
       <c r="AP84" s="1"/>
     </row>
     <row r="85" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="102"/>
-      <c r="B85" s="105"/>
+      <c r="A85" s="108"/>
+      <c r="B85" s="103"/>
       <c r="C85" s="16" t="s">
         <v>139</v>
       </c>
@@ -6036,8 +6043,8 @@
       <c r="AP85" s="1"/>
     </row>
     <row r="86" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="102"/>
-      <c r="B86" s="105" t="s">
+      <c r="A86" s="108"/>
+      <c r="B86" s="103" t="s">
         <v>140</v>
       </c>
       <c r="C86" s="16" t="s">
@@ -6087,8 +6094,8 @@
       <c r="AP86" s="1"/>
     </row>
     <row r="87" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="102"/>
-      <c r="B87" s="105"/>
+      <c r="A87" s="108"/>
+      <c r="B87" s="103"/>
       <c r="C87" s="16" t="s">
         <v>143</v>
       </c>
@@ -6136,8 +6143,8 @@
       <c r="AP87" s="1"/>
     </row>
     <row r="88" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="102"/>
-      <c r="B88" s="105"/>
+      <c r="A88" s="108"/>
+      <c r="B88" s="103"/>
       <c r="C88" s="16" t="s">
         <v>144</v>
       </c>
@@ -6185,8 +6192,8 @@
       <c r="AP88" s="1"/>
     </row>
     <row r="89" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="102"/>
-      <c r="B89" s="105"/>
+      <c r="A89" s="108"/>
+      <c r="B89" s="103"/>
       <c r="C89" s="16" t="s">
         <v>145</v>
       </c>
@@ -6234,8 +6241,8 @@
       <c r="AP89" s="1"/>
     </row>
     <row r="90" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="102"/>
-      <c r="B90" s="105"/>
+      <c r="A90" s="108"/>
+      <c r="B90" s="103"/>
       <c r="C90" s="16" t="s">
         <v>146</v>
       </c>
@@ -6283,8 +6290,8 @@
       <c r="AP90" s="1"/>
     </row>
     <row r="91" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="102"/>
-      <c r="B91" s="105"/>
+      <c r="A91" s="108"/>
+      <c r="B91" s="103"/>
       <c r="C91" s="16" t="s">
         <v>147</v>
       </c>
@@ -6332,7 +6339,7 @@
       <c r="AP91" s="1"/>
     </row>
     <row r="92" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="102"/>
+      <c r="A92" s="108"/>
       <c r="B92" s="15" t="s">
         <v>148</v>
       </c>
@@ -6383,7 +6390,7 @@
       <c r="AP92" s="1"/>
     </row>
     <row r="93" spans="1:42" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="104"/>
+      <c r="A93" s="109"/>
       <c r="B93" s="32" t="s">
         <v>151</v>
       </c>
@@ -6440,13 +6447,13 @@
       <c r="AP93" s="1"/>
     </row>
     <row r="94" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="101" t="s">
+      <c r="A94" s="107" t="s">
         <v>153</v>
       </c>
-      <c r="B94" s="109" t="s">
+      <c r="B94" s="102" t="s">
         <v>154</v>
       </c>
-      <c r="C94" s="110" t="s">
+      <c r="C94" s="104" t="s">
         <v>155</v>
       </c>
       <c r="D94" s="50"/>
@@ -6495,9 +6502,9 @@
       <c r="AP94" s="1"/>
     </row>
     <row r="95" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="102"/>
-      <c r="B95" s="105"/>
-      <c r="C95" s="111"/>
+      <c r="A95" s="108"/>
+      <c r="B95" s="103"/>
+      <c r="C95" s="105"/>
       <c r="D95" s="24"/>
       <c r="E95" s="18"/>
       <c r="F95" s="18">
@@ -6544,9 +6551,9 @@
       <c r="AP95" s="1"/>
     </row>
     <row r="96" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="102"/>
-      <c r="B96" s="105"/>
-      <c r="C96" s="111"/>
+      <c r="A96" s="108"/>
+      <c r="B96" s="103"/>
+      <c r="C96" s="105"/>
       <c r="D96" s="24"/>
       <c r="E96" s="18"/>
       <c r="F96" s="18">
@@ -6593,9 +6600,9 @@
       <c r="AP96" s="1"/>
     </row>
     <row r="97" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="102"/>
-      <c r="B97" s="105"/>
-      <c r="C97" s="111"/>
+      <c r="A97" s="108"/>
+      <c r="B97" s="103"/>
+      <c r="C97" s="105"/>
       <c r="D97" s="24"/>
       <c r="E97" s="18"/>
       <c r="F97" s="18">
@@ -6642,9 +6649,9 @@
       <c r="AP97" s="1"/>
     </row>
     <row r="98" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="102"/>
-      <c r="B98" s="105"/>
-      <c r="C98" s="111"/>
+      <c r="A98" s="108"/>
+      <c r="B98" s="103"/>
+      <c r="C98" s="105"/>
       <c r="D98" s="24"/>
       <c r="E98" s="18"/>
       <c r="F98" s="18">
@@ -6691,9 +6698,9 @@
       <c r="AP98" s="1"/>
     </row>
     <row r="99" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="102"/>
-      <c r="B99" s="105"/>
-      <c r="C99" s="111"/>
+      <c r="A99" s="108"/>
+      <c r="B99" s="103"/>
+      <c r="C99" s="105"/>
       <c r="D99" s="24"/>
       <c r="E99" s="18"/>
       <c r="F99" s="18">
@@ -6740,9 +6747,9 @@
       <c r="AP99" s="1"/>
     </row>
     <row r="100" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="102"/>
-      <c r="B100" s="105"/>
-      <c r="C100" s="111" t="s">
+      <c r="A100" s="108"/>
+      <c r="B100" s="103"/>
+      <c r="C100" s="105" t="s">
         <v>156</v>
       </c>
       <c r="D100" s="24"/>
@@ -6791,9 +6798,9 @@
       <c r="AP100" s="1"/>
     </row>
     <row r="101" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="102"/>
-      <c r="B101" s="105"/>
-      <c r="C101" s="111"/>
+      <c r="A101" s="108"/>
+      <c r="B101" s="103"/>
+      <c r="C101" s="105"/>
       <c r="D101" s="24"/>
       <c r="E101" s="18"/>
       <c r="F101" s="18">
@@ -6840,9 +6847,9 @@
       <c r="AP101" s="1"/>
     </row>
     <row r="102" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="102"/>
-      <c r="B102" s="105"/>
-      <c r="C102" s="111"/>
+      <c r="A102" s="108"/>
+      <c r="B102" s="103"/>
+      <c r="C102" s="105"/>
       <c r="D102" s="24"/>
       <c r="E102" s="18"/>
       <c r="F102" s="18">
@@ -6889,9 +6896,9 @@
       <c r="AP102" s="1"/>
     </row>
     <row r="103" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="102"/>
-      <c r="B103" s="105"/>
-      <c r="C103" s="111" t="s">
+      <c r="A103" s="108"/>
+      <c r="B103" s="103"/>
+      <c r="C103" s="105" t="s">
         <v>157</v>
       </c>
       <c r="D103" s="24"/>
@@ -6940,9 +6947,9 @@
       <c r="AP103" s="1"/>
     </row>
     <row r="104" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="102"/>
-      <c r="B104" s="105"/>
-      <c r="C104" s="111"/>
+      <c r="A104" s="108"/>
+      <c r="B104" s="103"/>
+      <c r="C104" s="105"/>
       <c r="D104" s="24"/>
       <c r="E104" s="18"/>
       <c r="F104" s="18">
@@ -6989,9 +6996,9 @@
       <c r="AP104" s="1"/>
     </row>
     <row r="105" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="102"/>
-      <c r="B105" s="105"/>
-      <c r="C105" s="111"/>
+      <c r="A105" s="108"/>
+      <c r="B105" s="103"/>
+      <c r="C105" s="105"/>
       <c r="D105" s="24"/>
       <c r="E105" s="18"/>
       <c r="F105" s="18">
@@ -7038,7 +7045,7 @@
       <c r="AP105" s="1"/>
     </row>
     <row r="106" spans="1:42" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="104"/>
+      <c r="A106" s="109"/>
       <c r="B106" s="32" t="s">
         <v>158</v>
       </c>
@@ -7089,10 +7096,10 @@
       <c r="AP106" s="1"/>
     </row>
     <row r="107" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="101" t="s">
+      <c r="A107" s="107" t="s">
         <v>161</v>
       </c>
-      <c r="B107" s="109" t="s">
+      <c r="B107" s="102" t="s">
         <v>162</v>
       </c>
       <c r="C107" s="9" t="s">
@@ -7142,8 +7149,8 @@
       <c r="AP107" s="1"/>
     </row>
     <row r="108" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="102"/>
-      <c r="B108" s="105"/>
+      <c r="A108" s="108"/>
+      <c r="B108" s="103"/>
       <c r="C108" s="16" t="s">
         <v>165</v>
       </c>
@@ -7191,8 +7198,8 @@
       <c r="AP108" s="1"/>
     </row>
     <row r="109" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="102"/>
-      <c r="B109" s="105" t="s">
+      <c r="A109" s="108"/>
+      <c r="B109" s="103" t="s">
         <v>166</v>
       </c>
       <c r="C109" s="16" t="s">
@@ -7242,8 +7249,8 @@
       <c r="AP109" s="1"/>
     </row>
     <row r="110" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="102"/>
-      <c r="B110" s="105"/>
+      <c r="A110" s="108"/>
+      <c r="B110" s="103"/>
       <c r="C110" s="16" t="s">
         <v>168</v>
       </c>
@@ -7291,8 +7298,8 @@
       <c r="AP110" s="1"/>
     </row>
     <row r="111" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="102"/>
-      <c r="B111" s="105" t="s">
+      <c r="A111" s="108"/>
+      <c r="B111" s="103" t="s">
         <v>169</v>
       </c>
       <c r="C111" s="16" t="s">
@@ -7342,8 +7349,8 @@
       <c r="AP111" s="1"/>
     </row>
     <row r="112" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="102"/>
-      <c r="B112" s="105"/>
+      <c r="A112" s="108"/>
+      <c r="B112" s="103"/>
       <c r="C112" s="16" t="s">
         <v>171</v>
       </c>
@@ -7391,8 +7398,8 @@
       <c r="AP112" s="1"/>
     </row>
     <row r="113" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="102"/>
-      <c r="B113" s="105" t="s">
+      <c r="A113" s="108"/>
+      <c r="B113" s="103" t="s">
         <v>172</v>
       </c>
       <c r="C113" s="16" t="s">
@@ -7442,8 +7449,8 @@
       <c r="AP113" s="1"/>
     </row>
     <row r="114" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="102"/>
-      <c r="B114" s="105"/>
+      <c r="A114" s="108"/>
+      <c r="B114" s="103"/>
       <c r="C114" s="16" t="s">
         <v>174</v>
       </c>
@@ -7491,8 +7498,8 @@
       <c r="AP114" s="1"/>
     </row>
     <row r="115" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="102"/>
-      <c r="B115" s="105" t="s">
+      <c r="A115" s="108"/>
+      <c r="B115" s="103" t="s">
         <v>175</v>
       </c>
       <c r="C115" s="16" t="s">
@@ -7542,8 +7549,8 @@
       <c r="AP115" s="1"/>
     </row>
     <row r="116" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="102"/>
-      <c r="B116" s="105"/>
+      <c r="A116" s="108"/>
+      <c r="B116" s="103"/>
       <c r="C116" s="16" t="s">
         <v>177</v>
       </c>
@@ -7591,7 +7598,7 @@
       <c r="AP116" s="1"/>
     </row>
     <row r="117" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="102"/>
+      <c r="A117" s="108"/>
       <c r="B117" s="15" t="s">
         <v>178</v>
       </c>
@@ -7642,7 +7649,7 @@
       <c r="AP117" s="1"/>
     </row>
     <row r="118" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="102"/>
+      <c r="A118" s="108"/>
       <c r="B118" s="51" t="s">
         <v>180</v>
       </c>
@@ -7695,7 +7702,7 @@
       <c r="AP118" s="1"/>
     </row>
     <row r="119" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="102"/>
+      <c r="A119" s="108"/>
       <c r="B119" s="51" t="s">
         <v>183</v>
       </c>
@@ -7748,7 +7755,7 @@
       <c r="AP119" s="1"/>
     </row>
     <row r="120" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="102"/>
+      <c r="A120" s="108"/>
       <c r="B120" s="51" t="s">
         <v>185</v>
       </c>
@@ -7801,7 +7808,7 @@
       <c r="AP120" s="1"/>
     </row>
     <row r="121" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="102"/>
+      <c r="A121" s="108"/>
       <c r="B121" s="51" t="s">
         <v>187</v>
       </c>
@@ -7854,7 +7861,7 @@
       <c r="AP121" s="1"/>
     </row>
     <row r="122" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="102"/>
+      <c r="A122" s="108"/>
       <c r="B122" s="51" t="s">
         <v>189</v>
       </c>
@@ -7907,7 +7914,7 @@
       <c r="AP122" s="1"/>
     </row>
     <row r="123" spans="1:42" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="104"/>
+      <c r="A123" s="109"/>
       <c r="B123" s="53" t="s">
         <v>191</v>
       </c>
@@ -7960,7 +7967,7 @@
       <c r="AP123" s="1"/>
     </row>
     <row r="124" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="101" t="s">
+      <c r="A124" s="107" t="s">
         <v>193</v>
       </c>
       <c r="B124" s="8" t="s">
@@ -8013,7 +8020,7 @@
       <c r="AP124" s="1"/>
     </row>
     <row r="125" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="102"/>
+      <c r="A125" s="108"/>
       <c r="B125" s="15" t="s">
         <v>196</v>
       </c>
@@ -8068,7 +8075,7 @@
       <c r="AP125" s="1"/>
     </row>
     <row r="126" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="102"/>
+      <c r="A126" s="108"/>
       <c r="B126" s="15" t="s">
         <v>201</v>
       </c>
@@ -8121,8 +8128,8 @@
       <c r="AP126" s="1"/>
     </row>
     <row r="127" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="102"/>
-      <c r="B127" s="105" t="s">
+      <c r="A127" s="108"/>
+      <c r="B127" s="103" t="s">
         <v>205</v>
       </c>
       <c r="C127" s="16" t="s">
@@ -8172,8 +8179,8 @@
       <c r="AP127" s="1"/>
     </row>
     <row r="128" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="102"/>
-      <c r="B128" s="105"/>
+      <c r="A128" s="108"/>
+      <c r="B128" s="103"/>
       <c r="C128" s="16" t="s">
         <v>208</v>
       </c>
@@ -8221,8 +8228,8 @@
       <c r="AP128" s="1"/>
     </row>
     <row r="129" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="102"/>
-      <c r="B129" s="105"/>
+      <c r="A129" s="108"/>
+      <c r="B129" s="103"/>
       <c r="C129" s="16" t="s">
         <v>210</v>
       </c>
@@ -8270,8 +8277,8 @@
       <c r="AP129" s="1"/>
     </row>
     <row r="130" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="102"/>
-      <c r="B130" s="106" t="s">
+      <c r="A130" s="108"/>
+      <c r="B130" s="111" t="s">
         <v>211</v>
       </c>
       <c r="C130" s="52" t="s">
@@ -8325,8 +8332,8 @@
       <c r="AP130" s="1"/>
     </row>
     <row r="131" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="102"/>
-      <c r="B131" s="106"/>
+      <c r="A131" s="108"/>
+      <c r="B131" s="111"/>
       <c r="C131" s="52" t="s">
         <v>216</v>
       </c>
@@ -8378,8 +8385,8 @@
       <c r="AP131" s="1"/>
     </row>
     <row r="132" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="102"/>
-      <c r="B132" s="105" t="s">
+      <c r="A132" s="108"/>
+      <c r="B132" s="103" t="s">
         <v>217</v>
       </c>
       <c r="C132" s="16" t="s">
@@ -8435,8 +8442,8 @@
       <c r="AP132" s="1"/>
     </row>
     <row r="133" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="102"/>
-      <c r="B133" s="105"/>
+      <c r="A133" s="108"/>
+      <c r="B133" s="103"/>
       <c r="C133" s="16" t="s">
         <v>219</v>
       </c>
@@ -8490,8 +8497,8 @@
       <c r="AP133" s="1"/>
     </row>
     <row r="134" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="102"/>
-      <c r="B134" s="105"/>
+      <c r="A134" s="108"/>
+      <c r="B134" s="103"/>
       <c r="C134" s="16" t="s">
         <v>220</v>
       </c>
@@ -8545,8 +8552,8 @@
       <c r="AP134" s="1"/>
     </row>
     <row r="135" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="102"/>
-      <c r="B135" s="105"/>
+      <c r="A135" s="108"/>
+      <c r="B135" s="103"/>
       <c r="C135" s="16" t="s">
         <v>221</v>
       </c>
@@ -8600,8 +8607,8 @@
       <c r="AP135" s="1"/>
     </row>
     <row r="136" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="102"/>
-      <c r="B136" s="105"/>
+      <c r="A136" s="108"/>
+      <c r="B136" s="103"/>
       <c r="C136" s="16" t="s">
         <v>222</v>
       </c>
@@ -8655,8 +8662,8 @@
       <c r="AP136" s="1"/>
     </row>
     <row r="137" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="102"/>
-      <c r="B137" s="105"/>
+      <c r="A137" s="108"/>
+      <c r="B137" s="103"/>
       <c r="C137" s="16" t="s">
         <v>223</v>
       </c>
@@ -8710,8 +8717,8 @@
       <c r="AP137" s="1"/>
     </row>
     <row r="138" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="103"/>
-      <c r="B138" s="107"/>
+      <c r="A138" s="110"/>
+      <c r="B138" s="112"/>
       <c r="C138" s="55" t="s">
         <v>224</v>
       </c>
@@ -8765,8 +8772,8 @@
       <c r="AP138" s="1"/>
     </row>
     <row r="139" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="103"/>
-      <c r="B139" s="107"/>
+      <c r="A139" s="110"/>
+      <c r="B139" s="112"/>
       <c r="C139" s="55" t="s">
         <v>227</v>
       </c>
@@ -8820,8 +8827,8 @@
       <c r="AP139" s="1"/>
     </row>
     <row r="140" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="103"/>
-      <c r="B140" s="107"/>
+      <c r="A140" s="110"/>
+      <c r="B140" s="112"/>
       <c r="C140" s="55" t="s">
         <v>229</v>
       </c>
@@ -8875,8 +8882,8 @@
       <c r="AP140" s="1"/>
     </row>
     <row r="141" spans="1:42" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="104"/>
-      <c r="B141" s="108"/>
+      <c r="A141" s="109"/>
+      <c r="B141" s="113"/>
       <c r="C141" s="33" t="s">
         <v>230</v>
       </c>
@@ -8932,11 +8939,16 @@
   </sheetData>
   <autoFilter ref="A1:K141" xr:uid="{9C6DE4F0-FB08-4A38-9A04-A033331CA2DF}"/>
   <mergeCells count="31">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B16"/>
-    <mergeCell ref="B17:B31"/>
-    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A124:A141"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B132:B141"/>
+    <mergeCell ref="A107:A123"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B115:B116"/>
     <mergeCell ref="C94:C99"/>
     <mergeCell ref="C100:C102"/>
     <mergeCell ref="C103:C105"/>
@@ -8953,16 +8965,11 @@
     <mergeCell ref="A94:A106"/>
     <mergeCell ref="B94:B105"/>
     <mergeCell ref="A2:A38"/>
-    <mergeCell ref="A124:A141"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="B132:B141"/>
-    <mergeCell ref="A107:A123"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B16"/>
+    <mergeCell ref="B17:B31"/>
+    <mergeCell ref="B35:B37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2:I141">
@@ -8983,11 +8990,11 @@
   <sheetPr codeName="Sheet2">
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:AS143"/>
+  <dimension ref="A1:AS146"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10609,19 +10616,19 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
-      <c r="Z35" s="112"/>
-      <c r="AA35" s="112"/>
-      <c r="AB35" s="112"/>
-      <c r="AC35" s="112"/>
-      <c r="AD35" s="112"/>
-      <c r="AE35" s="112"/>
-      <c r="AF35" s="112"/>
-      <c r="AG35" s="112"/>
-      <c r="AH35" s="112"/>
-      <c r="AI35" s="112"/>
-      <c r="AJ35" s="112"/>
-      <c r="AK35" s="112"/>
-      <c r="AL35" s="112"/>
+      <c r="Z35" s="106"/>
+      <c r="AA35" s="106"/>
+      <c r="AB35" s="106"/>
+      <c r="AC35" s="106"/>
+      <c r="AD35" s="106"/>
+      <c r="AE35" s="106"/>
+      <c r="AF35" s="106"/>
+      <c r="AG35" s="106"/>
+      <c r="AH35" s="106"/>
+      <c r="AI35" s="106"/>
+      <c r="AJ35" s="106"/>
+      <c r="AK35" s="106"/>
+      <c r="AL35" s="106"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="65" t="s">
@@ -10667,19 +10674,19 @@
       </c>
       <c r="N36" s="79"/>
       <c r="Y36"/>
-      <c r="Z36" s="112"/>
-      <c r="AA36" s="112"/>
-      <c r="AB36" s="112"/>
-      <c r="AC36" s="112"/>
-      <c r="AD36" s="112"/>
-      <c r="AE36" s="112"/>
-      <c r="AF36" s="112"/>
-      <c r="AG36" s="112"/>
-      <c r="AH36" s="112"/>
-      <c r="AI36" s="112"/>
-      <c r="AJ36" s="112"/>
-      <c r="AK36" s="112"/>
-      <c r="AL36" s="112"/>
+      <c r="Z36" s="106"/>
+      <c r="AA36" s="106"/>
+      <c r="AB36" s="106"/>
+      <c r="AC36" s="106"/>
+      <c r="AD36" s="106"/>
+      <c r="AE36" s="106"/>
+      <c r="AF36" s="106"/>
+      <c r="AG36" s="106"/>
+      <c r="AH36" s="106"/>
+      <c r="AI36" s="106"/>
+      <c r="AJ36" s="106"/>
+      <c r="AK36" s="106"/>
+      <c r="AL36" s="106"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="65" t="s">
@@ -10725,19 +10732,19 @@
       </c>
       <c r="N37" s="79"/>
       <c r="Y37"/>
-      <c r="Z37" s="112"/>
-      <c r="AA37" s="112"/>
-      <c r="AB37" s="112"/>
-      <c r="AC37" s="112"/>
-      <c r="AD37" s="112"/>
-      <c r="AE37" s="112"/>
-      <c r="AF37" s="112"/>
-      <c r="AG37" s="112"/>
-      <c r="AH37" s="112"/>
-      <c r="AI37" s="112"/>
-      <c r="AJ37" s="112"/>
-      <c r="AK37" s="112"/>
-      <c r="AL37" s="112"/>
+      <c r="Z37" s="106"/>
+      <c r="AA37" s="106"/>
+      <c r="AB37" s="106"/>
+      <c r="AC37" s="106"/>
+      <c r="AD37" s="106"/>
+      <c r="AE37" s="106"/>
+      <c r="AF37" s="106"/>
+      <c r="AG37" s="106"/>
+      <c r="AH37" s="106"/>
+      <c r="AI37" s="106"/>
+      <c r="AJ37" s="106"/>
+      <c r="AK37" s="106"/>
+      <c r="AL37" s="106"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="65" t="s">
@@ -10781,19 +10788,19 @@
       </c>
       <c r="N38" s="73"/>
       <c r="Y38"/>
-      <c r="Z38" s="112"/>
-      <c r="AA38" s="112"/>
-      <c r="AB38" s="112"/>
-      <c r="AC38" s="112"/>
-      <c r="AD38" s="112"/>
-      <c r="AE38" s="112"/>
-      <c r="AF38" s="112"/>
-      <c r="AG38" s="112"/>
-      <c r="AH38" s="112"/>
-      <c r="AI38" s="112"/>
-      <c r="AJ38" s="112"/>
-      <c r="AK38" s="112"/>
-      <c r="AL38" s="112"/>
+      <c r="Z38" s="106"/>
+      <c r="AA38" s="106"/>
+      <c r="AB38" s="106"/>
+      <c r="AC38" s="106"/>
+      <c r="AD38" s="106"/>
+      <c r="AE38" s="106"/>
+      <c r="AF38" s="106"/>
+      <c r="AG38" s="106"/>
+      <c r="AH38" s="106"/>
+      <c r="AI38" s="106"/>
+      <c r="AJ38" s="106"/>
+      <c r="AK38" s="106"/>
+      <c r="AL38" s="106"/>
     </row>
     <row r="39" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="65" t="s">
@@ -10833,19 +10840,19 @@
       </c>
       <c r="N39" s="73"/>
       <c r="Y39"/>
-      <c r="Z39" s="112"/>
-      <c r="AA39" s="112"/>
-      <c r="AB39" s="112"/>
-      <c r="AC39" s="112"/>
-      <c r="AD39" s="112"/>
-      <c r="AE39" s="112"/>
-      <c r="AF39" s="112"/>
-      <c r="AG39" s="112"/>
-      <c r="AH39" s="112"/>
-      <c r="AI39" s="112"/>
-      <c r="AJ39" s="112"/>
-      <c r="AK39" s="112"/>
-      <c r="AL39" s="112"/>
+      <c r="Z39" s="106"/>
+      <c r="AA39" s="106"/>
+      <c r="AB39" s="106"/>
+      <c r="AC39" s="106"/>
+      <c r="AD39" s="106"/>
+      <c r="AE39" s="106"/>
+      <c r="AF39" s="106"/>
+      <c r="AG39" s="106"/>
+      <c r="AH39" s="106"/>
+      <c r="AI39" s="106"/>
+      <c r="AJ39" s="106"/>
+      <c r="AK39" s="106"/>
+      <c r="AL39" s="106"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="81" t="s">
@@ -14436,7 +14443,7 @@
       <c r="E95" s="92">
         <v>0</v>
       </c>
-      <c r="F95" s="113" t="s">
+      <c r="F95" s="114" t="s">
         <v>155</v>
       </c>
       <c r="G95" s="75"/>
@@ -14504,7 +14511,7 @@
       <c r="E96" s="92">
         <v>0</v>
       </c>
-      <c r="F96" s="113"/>
+      <c r="F96" s="114"/>
       <c r="G96" s="75"/>
       <c r="H96" s="69">
         <v>1110035</v>
@@ -14570,7 +14577,7 @@
       <c r="E97" s="92">
         <v>0</v>
       </c>
-      <c r="F97" s="113"/>
+      <c r="F97" s="114"/>
       <c r="G97" s="75"/>
       <c r="H97" s="69">
         <v>1110062</v>
@@ -14636,7 +14643,7 @@
       <c r="E98" s="92">
         <v>0</v>
       </c>
-      <c r="F98" s="113"/>
+      <c r="F98" s="114"/>
       <c r="G98" s="75"/>
       <c r="H98" s="69">
         <v>502634</v>
@@ -14702,7 +14709,7 @@
       <c r="E99" s="92">
         <v>0</v>
       </c>
-      <c r="F99" s="113"/>
+      <c r="F99" s="114"/>
       <c r="G99" s="75"/>
       <c r="H99" s="69">
         <v>1110036</v>
@@ -14768,7 +14775,7 @@
       <c r="E100" s="92">
         <v>0</v>
       </c>
-      <c r="F100" s="113"/>
+      <c r="F100" s="114"/>
       <c r="G100" s="75"/>
       <c r="H100" s="69">
         <v>1110061</v>
@@ -14834,7 +14841,7 @@
       <c r="E101" s="92">
         <v>0</v>
       </c>
-      <c r="F101" s="113" t="s">
+      <c r="F101" s="114" t="s">
         <v>156</v>
       </c>
       <c r="G101" s="75"/>
@@ -14902,7 +14909,7 @@
       <c r="E102" s="92">
         <v>0</v>
       </c>
-      <c r="F102" s="113"/>
+      <c r="F102" s="114"/>
       <c r="G102" s="75"/>
       <c r="H102" s="69">
         <v>502655</v>
@@ -14968,7 +14975,7 @@
       <c r="E103" s="92">
         <v>0</v>
       </c>
-      <c r="F103" s="113"/>
+      <c r="F103" s="114"/>
       <c r="G103" s="75"/>
       <c r="H103" s="69">
         <v>502657</v>
@@ -15034,7 +15041,7 @@
       <c r="E104" s="92">
         <v>0</v>
       </c>
-      <c r="F104" s="113" t="s">
+      <c r="F104" s="114" t="s">
         <v>157</v>
       </c>
       <c r="G104" s="75"/>
@@ -15102,7 +15109,7 @@
       <c r="E105" s="92">
         <v>0</v>
       </c>
-      <c r="F105" s="113"/>
+      <c r="F105" s="114"/>
       <c r="G105" s="75"/>
       <c r="H105" s="69">
         <v>502656</v>
@@ -15168,7 +15175,7 @@
       <c r="E106" s="92">
         <v>0</v>
       </c>
-      <c r="F106" s="113"/>
+      <c r="F106" s="114"/>
       <c r="G106" s="75"/>
       <c r="H106" s="69">
         <v>502658</v>
@@ -16699,7 +16706,7 @@
         <v>345</v>
       </c>
       <c r="B129" s="82" t="str">
-        <f t="shared" ref="B129:B130" si="8">B128</f>
+        <f t="shared" ref="B129:B131" si="8">B128</f>
         <v>슬롯 강화</v>
       </c>
       <c r="C129" s="83">
@@ -16826,44 +16833,41 @@
       <c r="AR130" s="1"/>
       <c r="AS130" s="1"/>
     </row>
-    <row r="131" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="B131" s="82" t="s">
-        <v>217</v>
+      <c r="B131" s="82" t="str">
+        <f t="shared" si="8"/>
+        <v>슬롯 강화</v>
       </c>
       <c r="C131" s="83">
-        <v>976</v>
+        <v>1326</v>
       </c>
       <c r="D131" s="83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E131" s="92">
         <v>0</v>
       </c>
-      <c r="F131" s="67" t="s">
-        <v>218</v>
-      </c>
-      <c r="G131" s="68">
-        <v>45008</v>
-      </c>
-      <c r="H131" s="69">
-        <v>910317</v>
-      </c>
+      <c r="F131" s="101" t="s">
+        <v>355</v>
+      </c>
+      <c r="G131" s="75"/>
+      <c r="H131" s="69"/>
       <c r="I131" s="69"/>
-      <c r="J131" s="70"/>
+      <c r="J131" s="70" t="s">
+        <v>12</v>
+      </c>
       <c r="K131" s="71" t="s">
-        <v>13</v>
+        <v>209</v>
       </c>
       <c r="L131" s="71">
         <f>_xlfn.XLOOKUP(K131,타입분류!$A$1:$A$28,타입분류!$B$1:$B$28)</f>
-        <v>1</v>
-      </c>
-      <c r="M131" s="71" t="s">
-        <v>269</v>
-      </c>
-      <c r="N131" s="79"/>
+        <v>19</v>
+      </c>
+      <c r="M131" s="71"/>
+      <c r="N131" s="73"/>
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
@@ -16899,27 +16903,26 @@
       <c r="A132" s="81" t="s">
         <v>345</v>
       </c>
-      <c r="B132" s="82" t="str">
-        <f t="shared" ref="B132:B143" si="9">B131</f>
-        <v>기타</v>
+      <c r="B132" s="82" t="s">
+        <v>217</v>
       </c>
       <c r="C132" s="83">
         <v>976</v>
       </c>
       <c r="D132" s="83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E132" s="92">
         <v>0</v>
       </c>
       <c r="F132" s="67" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G132" s="68">
         <v>45008</v>
       </c>
       <c r="H132" s="69">
-        <v>1110187</v>
+        <v>910317</v>
       </c>
       <c r="I132" s="69"/>
       <c r="J132" s="70"/>
@@ -16933,7 +16936,7 @@
       <c r="M132" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="N132" s="73"/>
+      <c r="N132" s="79"/>
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
@@ -16970,26 +16973,26 @@
         <v>345</v>
       </c>
       <c r="B133" s="82" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="B133:B146" si="9">B132</f>
         <v>기타</v>
       </c>
       <c r="C133" s="83">
         <v>976</v>
       </c>
       <c r="D133" s="83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E133" s="92">
         <v>0</v>
       </c>
       <c r="F133" s="67" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G133" s="68">
         <v>45008</v>
       </c>
       <c r="H133" s="69">
-        <v>910397</v>
+        <v>1110187</v>
       </c>
       <c r="I133" s="69"/>
       <c r="J133" s="70"/>
@@ -17003,7 +17006,7 @@
       <c r="M133" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="N133" s="79"/>
+      <c r="N133" s="73"/>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
@@ -17047,19 +17050,19 @@
         <v>976</v>
       </c>
       <c r="D134" s="83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E134" s="92">
         <v>0</v>
       </c>
       <c r="F134" s="67" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G134" s="68">
         <v>45008</v>
       </c>
       <c r="H134" s="69">
-        <v>1110197</v>
+        <v>910397</v>
       </c>
       <c r="I134" s="69"/>
       <c r="J134" s="70"/>
@@ -17073,7 +17076,7 @@
       <c r="M134" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="N134" s="73"/>
+      <c r="N134" s="79"/>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
@@ -17117,19 +17120,19 @@
         <v>976</v>
       </c>
       <c r="D135" s="83">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E135" s="92">
         <v>0</v>
       </c>
       <c r="F135" s="67" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G135" s="68">
         <v>45008</v>
       </c>
       <c r="H135" s="69">
-        <v>1110207</v>
+        <v>1110197</v>
       </c>
       <c r="I135" s="69"/>
       <c r="J135" s="70"/>
@@ -17187,19 +17190,19 @@
         <v>976</v>
       </c>
       <c r="D136" s="83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E136" s="92">
         <v>0</v>
       </c>
       <c r="F136" s="67" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G136" s="68">
         <v>45008</v>
       </c>
       <c r="H136" s="69">
-        <v>1110264</v>
+        <v>1110207</v>
       </c>
       <c r="I136" s="69"/>
       <c r="J136" s="70"/>
@@ -17257,24 +17260,24 @@
         <v>976</v>
       </c>
       <c r="D137" s="83">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E137" s="92">
         <v>0</v>
       </c>
       <c r="F137" s="67" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G137" s="68">
         <v>45008</v>
       </c>
       <c r="H137" s="69">
-        <v>1110265</v>
+        <v>1110264</v>
       </c>
       <c r="I137" s="69"/>
       <c r="J137" s="70"/>
       <c r="K137" s="71" t="s">
-        <v>226</v>
+        <v>13</v>
       </c>
       <c r="L137" s="71">
         <f>_xlfn.XLOOKUP(K137,타입분류!$A$1:$A$28,타입분류!$B$1:$B$28)</f>
@@ -17327,24 +17330,24 @@
         <v>976</v>
       </c>
       <c r="D138" s="83">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E138" s="92">
         <v>0</v>
       </c>
       <c r="F138" s="67" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G138" s="68">
         <v>45008</v>
       </c>
       <c r="H138" s="69">
-        <v>1110280</v>
+        <v>1110265</v>
       </c>
       <c r="I138" s="69"/>
       <c r="J138" s="70"/>
       <c r="K138" s="71" t="s">
-        <v>13</v>
+        <v>226</v>
       </c>
       <c r="L138" s="71">
         <f>_xlfn.XLOOKUP(K138,타입분류!$A$1:$A$28,타입분류!$B$1:$B$28)</f>
@@ -17397,19 +17400,19 @@
         <v>976</v>
       </c>
       <c r="D139" s="83">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E139" s="92">
         <v>0</v>
       </c>
       <c r="F139" s="67" t="s">
-        <v>338</v>
+        <v>227</v>
       </c>
       <c r="G139" s="68">
         <v>45008</v>
       </c>
       <c r="H139" s="69">
-        <v>1110278</v>
+        <v>1110280</v>
       </c>
       <c r="I139" s="69"/>
       <c r="J139" s="70"/>
@@ -17467,19 +17470,19 @@
         <v>976</v>
       </c>
       <c r="D140" s="83">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E140" s="92">
         <v>0</v>
       </c>
       <c r="F140" s="67" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G140" s="68">
         <v>45008</v>
       </c>
       <c r="H140" s="69">
-        <v>1110279</v>
+        <v>1110278</v>
       </c>
       <c r="I140" s="69"/>
       <c r="J140" s="70"/>
@@ -17525,7 +17528,7 @@
       <c r="AR140" s="1"/>
       <c r="AS140" s="1"/>
     </row>
-    <row r="141" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="81" t="s">
         <v>345</v>
       </c>
@@ -17537,35 +17540,63 @@
         <v>976</v>
       </c>
       <c r="D141" s="83">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E141" s="92">
         <v>0</v>
       </c>
-      <c r="F141" s="86" t="s">
-        <v>346</v>
-      </c>
-      <c r="G141" s="91">
-        <v>45057</v>
-      </c>
-      <c r="H141" s="87">
-        <v>1110324</v>
-      </c>
-      <c r="I141" s="87"/>
-      <c r="J141" s="88"/>
-      <c r="K141" s="89" t="s">
+      <c r="F141" s="67" t="s">
+        <v>339</v>
+      </c>
+      <c r="G141" s="68">
+        <v>45008</v>
+      </c>
+      <c r="H141" s="69">
+        <v>1110279</v>
+      </c>
+      <c r="I141" s="69"/>
+      <c r="J141" s="70"/>
+      <c r="K141" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="L141" s="89">
+      <c r="L141" s="71">
         <f>_xlfn.XLOOKUP(K141,타입분류!$A$1:$A$28,타입분류!$B$1:$B$28)</f>
         <v>1</v>
       </c>
-      <c r="M141" s="89" t="s">
+      <c r="M141" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="N141" s="90" t="s">
-        <v>95</v>
-      </c>
+      <c r="N141" s="73"/>
+      <c r="P141" s="1"/>
+      <c r="Q141" s="1"/>
+      <c r="R141" s="1"/>
+      <c r="S141" s="1"/>
+      <c r="T141" s="1"/>
+      <c r="U141" s="1"/>
+      <c r="V141" s="1"/>
+      <c r="W141" s="1"/>
+      <c r="X141" s="1"/>
+      <c r="Y141" s="1"/>
+      <c r="Z141" s="1"/>
+      <c r="AA141" s="1"/>
+      <c r="AB141" s="1"/>
+      <c r="AC141" s="1"/>
+      <c r="AD141" s="1"/>
+      <c r="AE141" s="1"/>
+      <c r="AF141" s="1"/>
+      <c r="AG141" s="1"/>
+      <c r="AH141" s="1"/>
+      <c r="AI141" s="1"/>
+      <c r="AJ141" s="1"/>
+      <c r="AK141" s="1"/>
+      <c r="AL141" s="1"/>
+      <c r="AM141" s="1"/>
+      <c r="AN141" s="1"/>
+      <c r="AO141" s="1"/>
+      <c r="AP141" s="1"/>
+      <c r="AQ141" s="1"/>
+      <c r="AR141" s="1"/>
+      <c r="AS141" s="1"/>
     </row>
     <row r="142" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A142" s="81" t="s">
@@ -17579,19 +17610,19 @@
         <v>976</v>
       </c>
       <c r="D142" s="83">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E142" s="92">
         <v>0</v>
       </c>
       <c r="F142" s="86" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G142" s="91">
         <v>45057</v>
       </c>
       <c r="H142" s="87">
-        <v>1110334</v>
+        <v>1110324</v>
       </c>
       <c r="I142" s="87"/>
       <c r="J142" s="88"/>
@@ -17621,19 +17652,19 @@
         <v>976</v>
       </c>
       <c r="D143" s="83">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E143" s="92">
         <v>0</v>
       </c>
       <c r="F143" s="86" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G143" s="91">
         <v>45057</v>
       </c>
       <c r="H143" s="87">
-        <v>1110335</v>
+        <v>1110334</v>
       </c>
       <c r="I143" s="87"/>
       <c r="J143" s="88"/>
@@ -17651,7 +17682,134 @@
         <v>95</v>
       </c>
     </row>
+    <row r="144" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A144" s="81" t="s">
+        <v>345</v>
+      </c>
+      <c r="B144" s="82" t="str">
+        <f t="shared" si="9"/>
+        <v>기타</v>
+      </c>
+      <c r="C144" s="83">
+        <v>976</v>
+      </c>
+      <c r="D144" s="83">
+        <v>12</v>
+      </c>
+      <c r="E144" s="92">
+        <v>0</v>
+      </c>
+      <c r="F144" s="86" t="s">
+        <v>347</v>
+      </c>
+      <c r="G144" s="91">
+        <v>45057</v>
+      </c>
+      <c r="H144" s="87">
+        <v>1110335</v>
+      </c>
+      <c r="I144" s="87"/>
+      <c r="J144" s="88"/>
+      <c r="K144" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="L144" s="89">
+        <f>_xlfn.XLOOKUP(K144,타입분류!$A$1:$A$28,타입분류!$B$1:$B$28)</f>
+        <v>1</v>
+      </c>
+      <c r="M144" s="89" t="s">
+        <v>269</v>
+      </c>
+      <c r="N144" s="90" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A145" s="81" t="s">
+        <v>345</v>
+      </c>
+      <c r="B145" s="82" t="str">
+        <f t="shared" si="9"/>
+        <v>기타</v>
+      </c>
+      <c r="C145" s="83">
+        <v>976</v>
+      </c>
+      <c r="D145" s="83">
+        <v>13</v>
+      </c>
+      <c r="E145" s="92">
+        <v>0</v>
+      </c>
+      <c r="F145" s="86" t="s">
+        <v>347</v>
+      </c>
+      <c r="G145" s="91">
+        <v>45057</v>
+      </c>
+      <c r="H145" s="87">
+        <v>1110335</v>
+      </c>
+      <c r="I145" s="87"/>
+      <c r="J145" s="88"/>
+      <c r="K145" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="L145" s="89">
+        <f>_xlfn.XLOOKUP(K145,타입분류!$A$1:$A$28,타입분류!$B$1:$B$28)</f>
+        <v>1</v>
+      </c>
+      <c r="M145" s="89" t="s">
+        <v>269</v>
+      </c>
+      <c r="N145" s="90" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A146" s="81" t="s">
+        <v>345</v>
+      </c>
+      <c r="B146" s="82" t="str">
+        <f t="shared" si="9"/>
+        <v>기타</v>
+      </c>
+      <c r="C146" s="83">
+        <v>976</v>
+      </c>
+      <c r="D146" s="83">
+        <v>14</v>
+      </c>
+      <c r="E146" s="92">
+        <v>0</v>
+      </c>
+      <c r="F146" s="86" t="s">
+        <v>347</v>
+      </c>
+      <c r="G146" s="91">
+        <v>45057</v>
+      </c>
+      <c r="H146" s="87">
+        <v>1110335</v>
+      </c>
+      <c r="I146" s="87"/>
+      <c r="J146" s="88"/>
+      <c r="K146" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="L146" s="89">
+        <f>_xlfn.XLOOKUP(K146,타입분류!$A$1:$A$28,타입분류!$B$1:$B$28)</f>
+        <v>1</v>
+      </c>
+      <c r="M146" s="89" t="s">
+        <v>269</v>
+      </c>
+      <c r="N146" s="90" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:N144" xr:uid="{58870481-4012-4967-9DF8-188DDC2BA7B8}"/>
   <mergeCells count="4">
     <mergeCell ref="F95:F100"/>
     <mergeCell ref="F101:F103"/>
@@ -17659,7 +17817,7 @@
     <mergeCell ref="Z35:AL39"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E143">
+  <conditionalFormatting sqref="E2:E146">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -17667,7 +17825,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J143">
+  <conditionalFormatting sqref="J2:J146">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"O"</formula>
     </cfRule>
@@ -17685,8 +17843,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/확률정보.xlsx
+++ b/확률정보.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\파이썬프로젝트\r2mProbLog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EE1D99-35D5-4B51-B701-9AE48B568B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E644109-89A7-4AA9-9983-40CA28227842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{ABCE2CA0-A1D3-4D65-96EE-F34166D7733B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="1" xr2:uid="{ABCE2CA0-A1D3-4D65-96EE-F34166D7733B}"/>
   </bookViews>
   <sheets>
     <sheet name="23년4월" sheetId="1" state="hidden" r:id="rId1"/>
@@ -2120,10 +2120,37 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2135,35 +2162,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="10" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2665,10 +2665,10 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="113" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2703,8 +2703,8 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="109"/>
-      <c r="B3" s="104"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="109"/>
       <c r="C3" s="16" t="s">
         <v>14</v>
       </c>
@@ -2737,8 +2737,8 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="109"/>
-      <c r="B4" s="104" t="s">
+      <c r="A4" s="106"/>
+      <c r="B4" s="109" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="16" t="s">
@@ -2773,8 +2773,8 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="109"/>
-      <c r="B5" s="104"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="16" t="s">
         <v>17</v>
       </c>
@@ -2807,8 +2807,8 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="109"/>
-      <c r="B6" s="104" t="s">
+      <c r="A6" s="106"/>
+      <c r="B6" s="109" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -2839,8 +2839,8 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="109"/>
-      <c r="B7" s="104"/>
+      <c r="A7" s="106"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="16" t="s">
         <v>21</v>
       </c>
@@ -2869,8 +2869,8 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="109"/>
-      <c r="B8" s="104"/>
+      <c r="A8" s="106"/>
+      <c r="B8" s="109"/>
       <c r="C8" s="16" t="s">
         <v>22</v>
       </c>
@@ -2899,8 +2899,8 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109"/>
-      <c r="B9" s="104"/>
+      <c r="A9" s="106"/>
+      <c r="B9" s="109"/>
       <c r="C9" s="16" t="s">
         <v>23</v>
       </c>
@@ -2929,8 +2929,8 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
-      <c r="B10" s="104"/>
+      <c r="A10" s="106"/>
+      <c r="B10" s="109"/>
       <c r="C10" s="16" t="s">
         <v>24</v>
       </c>
@@ -2959,8 +2959,8 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="109"/>
-      <c r="B11" s="104"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="109"/>
       <c r="C11" s="16" t="s">
         <v>25</v>
       </c>
@@ -2993,8 +2993,8 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="109"/>
-      <c r="B12" s="104"/>
+      <c r="A12" s="106"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="16" t="s">
         <v>26</v>
       </c>
@@ -3027,8 +3027,8 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="109"/>
-      <c r="B13" s="104"/>
+      <c r="A13" s="106"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="16" t="s">
         <v>27</v>
       </c>
@@ -3061,8 +3061,8 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="109"/>
-      <c r="B14" s="104"/>
+      <c r="A14" s="106"/>
+      <c r="B14" s="109"/>
       <c r="C14" s="16" t="s">
         <v>28</v>
       </c>
@@ -3091,8 +3091,8 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="109"/>
-      <c r="B15" s="104"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
@@ -3121,8 +3121,8 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="109"/>
-      <c r="B16" s="104"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="16" t="s">
         <v>31</v>
       </c>
@@ -3144,8 +3144,8 @@
       <c r="K16" s="21"/>
     </row>
     <row r="17" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="109"/>
-      <c r="B17" s="104" t="s">
+      <c r="A17" s="106"/>
+      <c r="B17" s="109" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="16" t="s">
@@ -3169,8 +3169,8 @@
       <c r="K17" s="21"/>
     </row>
     <row r="18" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="109"/>
-      <c r="B18" s="104"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="16" t="s">
         <v>34</v>
       </c>
@@ -3194,8 +3194,8 @@
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="109"/>
-      <c r="B19" s="104"/>
+      <c r="A19" s="106"/>
+      <c r="B19" s="109"/>
       <c r="C19" s="16" t="s">
         <v>36</v>
       </c>
@@ -3217,8 +3217,8 @@
       <c r="K19" s="21"/>
     </row>
     <row r="20" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="109"/>
-      <c r="B20" s="104"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="109"/>
       <c r="C20" s="16" t="s">
         <v>38</v>
       </c>
@@ -3240,8 +3240,8 @@
       <c r="K20" s="21"/>
     </row>
     <row r="21" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="109"/>
-      <c r="B21" s="104"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="109"/>
       <c r="C21" s="16" t="s">
         <v>39</v>
       </c>
@@ -3263,8 +3263,8 @@
       <c r="K21" s="21"/>
     </row>
     <row r="22" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="109"/>
-      <c r="B22" s="104"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="109"/>
       <c r="C22" s="16" t="s">
         <v>40</v>
       </c>
@@ -3286,8 +3286,8 @@
       <c r="K22" s="21"/>
     </row>
     <row r="23" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="109"/>
-      <c r="B23" s="104"/>
+      <c r="A23" s="106"/>
+      <c r="B23" s="109"/>
       <c r="C23" s="16" t="s">
         <v>41</v>
       </c>
@@ -3309,8 +3309,8 @@
       <c r="K23" s="21"/>
     </row>
     <row r="24" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="109"/>
-      <c r="B24" s="104"/>
+      <c r="A24" s="106"/>
+      <c r="B24" s="109"/>
       <c r="C24" s="16" t="s">
         <v>42</v>
       </c>
@@ -3332,8 +3332,8 @@
       <c r="K24" s="21"/>
     </row>
     <row r="25" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="109"/>
-      <c r="B25" s="104"/>
+      <c r="A25" s="106"/>
+      <c r="B25" s="109"/>
       <c r="C25" s="16" t="s">
         <v>43</v>
       </c>
@@ -3357,8 +3357,8 @@
       <c r="K25" s="21"/>
     </row>
     <row r="26" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="109"/>
-      <c r="B26" s="104"/>
+      <c r="A26" s="106"/>
+      <c r="B26" s="109"/>
       <c r="C26" s="16" t="s">
         <v>45</v>
       </c>
@@ -3380,8 +3380,8 @@
       <c r="K26" s="21"/>
     </row>
     <row r="27" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="109"/>
-      <c r="B27" s="104"/>
+      <c r="A27" s="106"/>
+      <c r="B27" s="109"/>
       <c r="C27" s="16" t="s">
         <v>46</v>
       </c>
@@ -3403,8 +3403,8 @@
       <c r="K27" s="21"/>
     </row>
     <row r="28" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="109"/>
-      <c r="B28" s="104"/>
+      <c r="A28" s="106"/>
+      <c r="B28" s="109"/>
       <c r="C28" s="16" t="s">
         <v>47</v>
       </c>
@@ -3426,8 +3426,8 @@
       <c r="K28" s="21"/>
     </row>
     <row r="29" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="109"/>
-      <c r="B29" s="104"/>
+      <c r="A29" s="106"/>
+      <c r="B29" s="109"/>
       <c r="C29" s="16" t="s">
         <v>48</v>
       </c>
@@ -3449,8 +3449,8 @@
       <c r="K29" s="21"/>
     </row>
     <row r="30" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="109"/>
-      <c r="B30" s="104"/>
+      <c r="A30" s="106"/>
+      <c r="B30" s="109"/>
       <c r="C30" s="16" t="s">
         <v>49</v>
       </c>
@@ -3472,8 +3472,8 @@
       <c r="K30" s="21"/>
     </row>
     <row r="31" spans="1:21" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="109"/>
-      <c r="B31" s="104"/>
+      <c r="A31" s="106"/>
+      <c r="B31" s="109"/>
       <c r="C31" s="16" t="s">
         <v>50</v>
       </c>
@@ -3510,7 +3510,7 @@
       <c r="U31" s="1"/>
     </row>
     <row r="32" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="109"/>
+      <c r="A32" s="106"/>
       <c r="B32" s="15" t="s">
         <v>52</v>
       </c>
@@ -3548,7 +3548,7 @@
       <c r="U32" s="1"/>
     </row>
     <row r="33" spans="1:35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="109"/>
+      <c r="A33" s="106"/>
       <c r="B33" s="15" t="s">
         <v>54</v>
       </c>
@@ -3586,7 +3586,7 @@
       <c r="U33" s="1"/>
     </row>
     <row r="34" spans="1:35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="109"/>
+      <c r="A34" s="106"/>
       <c r="B34" s="15" t="s">
         <v>56</v>
       </c>
@@ -3624,8 +3624,8 @@
       <c r="U34" s="1"/>
     </row>
     <row r="35" spans="1:35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="109"/>
-      <c r="B35" s="104" t="s">
+      <c r="A35" s="106"/>
+      <c r="B35" s="109" t="s">
         <v>58</v>
       </c>
       <c r="C35" s="16" t="s">
@@ -3660,23 +3660,23 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
-      <c r="W35" s="107"/>
-      <c r="X35" s="107"/>
-      <c r="Y35" s="107"/>
-      <c r="Z35" s="107"/>
-      <c r="AA35" s="107"/>
-      <c r="AB35" s="107"/>
-      <c r="AC35" s="107"/>
-      <c r="AD35" s="107"/>
-      <c r="AE35" s="107"/>
-      <c r="AF35" s="107"/>
-      <c r="AG35" s="107"/>
-      <c r="AH35" s="107"/>
-      <c r="AI35" s="107"/>
+      <c r="W35" s="116"/>
+      <c r="X35" s="116"/>
+      <c r="Y35" s="116"/>
+      <c r="Z35" s="116"/>
+      <c r="AA35" s="116"/>
+      <c r="AB35" s="116"/>
+      <c r="AC35" s="116"/>
+      <c r="AD35" s="116"/>
+      <c r="AE35" s="116"/>
+      <c r="AF35" s="116"/>
+      <c r="AG35" s="116"/>
+      <c r="AH35" s="116"/>
+      <c r="AI35" s="116"/>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A36" s="109"/>
-      <c r="B36" s="104"/>
+      <c r="A36" s="106"/>
+      <c r="B36" s="109"/>
       <c r="C36" s="16" t="s">
         <v>60</v>
       </c>
@@ -3701,23 +3701,23 @@
       </c>
       <c r="K36" s="31"/>
       <c r="V36"/>
-      <c r="W36" s="107"/>
-      <c r="X36" s="107"/>
-      <c r="Y36" s="107"/>
-      <c r="Z36" s="107"/>
-      <c r="AA36" s="107"/>
-      <c r="AB36" s="107"/>
-      <c r="AC36" s="107"/>
-      <c r="AD36" s="107"/>
-      <c r="AE36" s="107"/>
-      <c r="AF36" s="107"/>
-      <c r="AG36" s="107"/>
-      <c r="AH36" s="107"/>
-      <c r="AI36" s="107"/>
+      <c r="W36" s="116"/>
+      <c r="X36" s="116"/>
+      <c r="Y36" s="116"/>
+      <c r="Z36" s="116"/>
+      <c r="AA36" s="116"/>
+      <c r="AB36" s="116"/>
+      <c r="AC36" s="116"/>
+      <c r="AD36" s="116"/>
+      <c r="AE36" s="116"/>
+      <c r="AF36" s="116"/>
+      <c r="AG36" s="116"/>
+      <c r="AH36" s="116"/>
+      <c r="AI36" s="116"/>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A37" s="109"/>
-      <c r="B37" s="104"/>
+      <c r="A37" s="106"/>
+      <c r="B37" s="109"/>
       <c r="C37" s="16" t="s">
         <v>61</v>
       </c>
@@ -3742,22 +3742,22 @@
       </c>
       <c r="K37" s="31"/>
       <c r="V37"/>
-      <c r="W37" s="107"/>
-      <c r="X37" s="107"/>
-      <c r="Y37" s="107"/>
-      <c r="Z37" s="107"/>
-      <c r="AA37" s="107"/>
-      <c r="AB37" s="107"/>
-      <c r="AC37" s="107"/>
-      <c r="AD37" s="107"/>
-      <c r="AE37" s="107"/>
-      <c r="AF37" s="107"/>
-      <c r="AG37" s="107"/>
-      <c r="AH37" s="107"/>
-      <c r="AI37" s="107"/>
+      <c r="W37" s="116"/>
+      <c r="X37" s="116"/>
+      <c r="Y37" s="116"/>
+      <c r="Z37" s="116"/>
+      <c r="AA37" s="116"/>
+      <c r="AB37" s="116"/>
+      <c r="AC37" s="116"/>
+      <c r="AD37" s="116"/>
+      <c r="AE37" s="116"/>
+      <c r="AF37" s="116"/>
+      <c r="AG37" s="116"/>
+      <c r="AH37" s="116"/>
+      <c r="AI37" s="116"/>
     </row>
     <row r="38" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="110"/>
+      <c r="A38" s="108"/>
       <c r="B38" s="32" t="s">
         <v>63</v>
       </c>
@@ -3779,25 +3779,25 @@
       </c>
       <c r="K38" s="39"/>
       <c r="V38"/>
-      <c r="W38" s="107"/>
-      <c r="X38" s="107"/>
-      <c r="Y38" s="107"/>
-      <c r="Z38" s="107"/>
-      <c r="AA38" s="107"/>
-      <c r="AB38" s="107"/>
-      <c r="AC38" s="107"/>
-      <c r="AD38" s="107"/>
-      <c r="AE38" s="107"/>
-      <c r="AF38" s="107"/>
-      <c r="AG38" s="107"/>
-      <c r="AH38" s="107"/>
-      <c r="AI38" s="107"/>
+      <c r="W38" s="116"/>
+      <c r="X38" s="116"/>
+      <c r="Y38" s="116"/>
+      <c r="Z38" s="116"/>
+      <c r="AA38" s="116"/>
+      <c r="AB38" s="116"/>
+      <c r="AC38" s="116"/>
+      <c r="AD38" s="116"/>
+      <c r="AE38" s="116"/>
+      <c r="AF38" s="116"/>
+      <c r="AG38" s="116"/>
+      <c r="AH38" s="116"/>
+      <c r="AI38" s="116"/>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A39" s="108" t="s">
+      <c r="A39" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="103" t="s">
+      <c r="B39" s="113" t="s">
         <v>67</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -3839,8 +3839,8 @@
       <c r="AI39"/>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A40" s="109"/>
-      <c r="B40" s="104"/>
+      <c r="A40" s="106"/>
+      <c r="B40" s="109"/>
       <c r="C40" s="16" t="s">
         <v>69</v>
       </c>
@@ -3880,8 +3880,8 @@
       <c r="AI40"/>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A41" s="109"/>
-      <c r="B41" s="104" t="s">
+      <c r="A41" s="106"/>
+      <c r="B41" s="109" t="s">
         <v>70</v>
       </c>
       <c r="C41" s="16" t="s">
@@ -3923,8 +3923,8 @@
       <c r="AI41"/>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A42" s="109"/>
-      <c r="B42" s="104"/>
+      <c r="A42" s="106"/>
+      <c r="B42" s="109"/>
       <c r="C42" s="16" t="s">
         <v>72</v>
       </c>
@@ -3966,8 +3966,8 @@
       <c r="AI42"/>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A43" s="109"/>
-      <c r="B43" s="104" t="s">
+      <c r="A43" s="106"/>
+      <c r="B43" s="109" t="s">
         <v>74</v>
       </c>
       <c r="C43" s="16" t="s">
@@ -3996,8 +3996,8 @@
       <c r="Z43"/>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A44" s="109"/>
-      <c r="B44" s="104"/>
+      <c r="A44" s="106"/>
+      <c r="B44" s="109"/>
       <c r="C44" s="16" t="s">
         <v>77</v>
       </c>
@@ -4026,8 +4026,8 @@
       <c r="Z44"/>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A45" s="109"/>
-      <c r="B45" s="104"/>
+      <c r="A45" s="106"/>
+      <c r="B45" s="109"/>
       <c r="C45" s="16" t="s">
         <v>79</v>
       </c>
@@ -4056,8 +4056,8 @@
       <c r="Z45"/>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A46" s="109"/>
-      <c r="B46" s="104"/>
+      <c r="A46" s="106"/>
+      <c r="B46" s="109"/>
       <c r="C46" s="16" t="s">
         <v>80</v>
       </c>
@@ -4086,8 +4086,8 @@
       <c r="Z46"/>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A47" s="109"/>
-      <c r="B47" s="104"/>
+      <c r="A47" s="106"/>
+      <c r="B47" s="109"/>
       <c r="C47" s="16" t="s">
         <v>81</v>
       </c>
@@ -4111,8 +4111,8 @@
       <c r="K47" s="21"/>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A48" s="109"/>
-      <c r="B48" s="104"/>
+      <c r="A48" s="106"/>
+      <c r="B48" s="109"/>
       <c r="C48" s="16" t="s">
         <v>82</v>
       </c>
@@ -4138,8 +4138,8 @@
       <c r="K48" s="21"/>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A49" s="109"/>
-      <c r="B49" s="104"/>
+      <c r="A49" s="106"/>
+      <c r="B49" s="109"/>
       <c r="C49" s="16" t="s">
         <v>83</v>
       </c>
@@ -4165,8 +4165,8 @@
       <c r="K49" s="21"/>
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A50" s="109"/>
-      <c r="B50" s="104"/>
+      <c r="A50" s="106"/>
+      <c r="B50" s="109"/>
       <c r="C50" s="16" t="s">
         <v>84</v>
       </c>
@@ -4190,8 +4190,8 @@
       <c r="K50" s="21"/>
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A51" s="109"/>
-      <c r="B51" s="104"/>
+      <c r="A51" s="106"/>
+      <c r="B51" s="109"/>
       <c r="C51" s="16" t="s">
         <v>86</v>
       </c>
@@ -4218,8 +4218,8 @@
       <c r="K51" s="21"/>
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A52" s="109"/>
-      <c r="B52" s="104"/>
+      <c r="A52" s="106"/>
+      <c r="B52" s="109"/>
       <c r="C52" s="16" t="s">
         <v>88</v>
       </c>
@@ -4246,8 +4246,8 @@
       <c r="K52" s="21"/>
     </row>
     <row r="53" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="109"/>
-      <c r="B53" s="104"/>
+      <c r="A53" s="106"/>
+      <c r="B53" s="109"/>
       <c r="C53" s="16" t="s">
         <v>89</v>
       </c>
@@ -4304,8 +4304,8 @@
       <c r="AP53" s="1"/>
     </row>
     <row r="54" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="109"/>
-      <c r="B54" s="104" t="s">
+      <c r="A54" s="106"/>
+      <c r="B54" s="109" t="s">
         <v>90</v>
       </c>
       <c r="C54" s="16" t="s">
@@ -4362,8 +4362,8 @@
       <c r="AP54" s="1"/>
     </row>
     <row r="55" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="109"/>
-      <c r="B55" s="104"/>
+      <c r="A55" s="106"/>
+      <c r="B55" s="109"/>
       <c r="C55" s="16" t="s">
         <v>92</v>
       </c>
@@ -4420,8 +4420,8 @@
       <c r="AP55" s="1"/>
     </row>
     <row r="56" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="109"/>
-      <c r="B56" s="104"/>
+      <c r="A56" s="106"/>
+      <c r="B56" s="109"/>
       <c r="C56" s="16" t="s">
         <v>94</v>
       </c>
@@ -4476,8 +4476,8 @@
       <c r="AP56" s="1"/>
     </row>
     <row r="57" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="109"/>
-      <c r="B57" s="104"/>
+      <c r="A57" s="106"/>
+      <c r="B57" s="109"/>
       <c r="C57" s="16" t="s">
         <v>96</v>
       </c>
@@ -4534,8 +4534,8 @@
       <c r="AP57" s="1"/>
     </row>
     <row r="58" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="109"/>
-      <c r="B58" s="104"/>
+      <c r="A58" s="106"/>
+      <c r="B58" s="109"/>
       <c r="C58" s="16" t="s">
         <v>98</v>
       </c>
@@ -4592,8 +4592,8 @@
       <c r="AP58" s="1"/>
     </row>
     <row r="59" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="109"/>
-      <c r="B59" s="104"/>
+      <c r="A59" s="106"/>
+      <c r="B59" s="109"/>
       <c r="C59" s="16" t="s">
         <v>99</v>
       </c>
@@ -4648,8 +4648,8 @@
       <c r="AP59" s="1"/>
     </row>
     <row r="60" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="109"/>
-      <c r="B60" s="104"/>
+      <c r="A60" s="106"/>
+      <c r="B60" s="109"/>
       <c r="C60" s="16" t="s">
         <v>100</v>
       </c>
@@ -4704,8 +4704,8 @@
       <c r="AP60" s="1"/>
     </row>
     <row r="61" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="109"/>
-      <c r="B61" s="104"/>
+      <c r="A61" s="106"/>
+      <c r="B61" s="109"/>
       <c r="C61" s="16" t="s">
         <v>101</v>
       </c>
@@ -4762,8 +4762,8 @@
       <c r="AP61" s="1"/>
     </row>
     <row r="62" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="109"/>
-      <c r="B62" s="104"/>
+      <c r="A62" s="106"/>
+      <c r="B62" s="109"/>
       <c r="C62" s="16" t="s">
         <v>103</v>
       </c>
@@ -4822,8 +4822,8 @@
       <c r="AP62" s="1"/>
     </row>
     <row r="63" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="109"/>
-      <c r="B63" s="104"/>
+      <c r="A63" s="106"/>
+      <c r="B63" s="109"/>
       <c r="C63" s="16" t="s">
         <v>105</v>
       </c>
@@ -4880,8 +4880,8 @@
       <c r="AP63" s="1"/>
     </row>
     <row r="64" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="109"/>
-      <c r="B64" s="104"/>
+      <c r="A64" s="106"/>
+      <c r="B64" s="109"/>
       <c r="C64" s="16" t="s">
         <v>106</v>
       </c>
@@ -4936,8 +4936,8 @@
       <c r="AP64" s="1"/>
     </row>
     <row r="65" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="109"/>
-      <c r="B65" s="104"/>
+      <c r="A65" s="106"/>
+      <c r="B65" s="109"/>
       <c r="C65" s="16" t="s">
         <v>107</v>
       </c>
@@ -4992,8 +4992,8 @@
       <c r="AP65" s="1"/>
     </row>
     <row r="66" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="109"/>
-      <c r="B66" s="104"/>
+      <c r="A66" s="106"/>
+      <c r="B66" s="109"/>
       <c r="C66" s="16" t="s">
         <v>108</v>
       </c>
@@ -5048,8 +5048,8 @@
       <c r="AP66" s="1"/>
     </row>
     <row r="67" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="109"/>
-      <c r="B67" s="104"/>
+      <c r="A67" s="106"/>
+      <c r="B67" s="109"/>
       <c r="C67" s="16" t="s">
         <v>109</v>
       </c>
@@ -5106,8 +5106,8 @@
       <c r="AP67" s="1"/>
     </row>
     <row r="68" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="109"/>
-      <c r="B68" s="104"/>
+      <c r="A68" s="106"/>
+      <c r="B68" s="109"/>
       <c r="C68" s="16" t="s">
         <v>110</v>
       </c>
@@ -5164,7 +5164,7 @@
       <c r="AP68" s="1"/>
     </row>
     <row r="69" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="109"/>
+      <c r="A69" s="106"/>
       <c r="B69" s="15" t="s">
         <v>111</v>
       </c>
@@ -5223,7 +5223,7 @@
       <c r="AP69" s="1"/>
     </row>
     <row r="70" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="109"/>
+      <c r="A70" s="106"/>
       <c r="B70" s="15" t="s">
         <v>113</v>
       </c>
@@ -5282,7 +5282,7 @@
       <c r="AP70" s="1"/>
     </row>
     <row r="71" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="109"/>
+      <c r="A71" s="106"/>
       <c r="B71" s="15" t="s">
         <v>115</v>
       </c>
@@ -5341,7 +5341,7 @@
       <c r="AP71" s="1"/>
     </row>
     <row r="72" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="109"/>
+      <c r="A72" s="106"/>
       <c r="B72" s="15" t="s">
         <v>117</v>
       </c>
@@ -5402,7 +5402,7 @@
       <c r="AP72" s="1"/>
     </row>
     <row r="73" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="109"/>
+      <c r="A73" s="106"/>
       <c r="B73" s="15" t="s">
         <v>119</v>
       </c>
@@ -5461,8 +5461,8 @@
       <c r="AP73" s="1"/>
     </row>
     <row r="74" spans="1:42" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="109"/>
-      <c r="B74" s="104" t="s">
+      <c r="A74" s="106"/>
+      <c r="B74" s="109" t="s">
         <v>121</v>
       </c>
       <c r="C74" s="16" t="s">
@@ -5522,8 +5522,8 @@
       <c r="AP74" s="1"/>
     </row>
     <row r="75" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="109"/>
-      <c r="B75" s="104"/>
+      <c r="A75" s="106"/>
+      <c r="B75" s="109"/>
       <c r="C75" s="16" t="s">
         <v>125</v>
       </c>
@@ -5581,8 +5581,8 @@
       <c r="AP75" s="1"/>
     </row>
     <row r="76" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="109"/>
-      <c r="B76" s="104"/>
+      <c r="A76" s="106"/>
+      <c r="B76" s="109"/>
       <c r="C76" s="16" t="s">
         <v>127</v>
       </c>
@@ -5638,8 +5638,8 @@
       <c r="AP76" s="1"/>
     </row>
     <row r="77" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="109"/>
-      <c r="B77" s="104"/>
+      <c r="A77" s="106"/>
+      <c r="B77" s="109"/>
       <c r="C77" s="16" t="s">
         <v>128</v>
       </c>
@@ -5695,8 +5695,8 @@
       <c r="AP77" s="1"/>
     </row>
     <row r="78" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="109"/>
-      <c r="B78" s="104"/>
+      <c r="A78" s="106"/>
+      <c r="B78" s="109"/>
       <c r="C78" s="16" t="s">
         <v>129</v>
       </c>
@@ -5752,7 +5752,7 @@
       <c r="AP78" s="1"/>
     </row>
     <row r="79" spans="1:42" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="110"/>
+      <c r="A79" s="108"/>
       <c r="B79" s="32" t="s">
         <v>130</v>
       </c>
@@ -5805,10 +5805,10 @@
       <c r="AP79" s="1"/>
     </row>
     <row r="80" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="108" t="s">
+      <c r="A80" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="B80" s="103" t="s">
+      <c r="B80" s="113" t="s">
         <v>133</v>
       </c>
       <c r="C80" s="9" t="s">
@@ -5866,8 +5866,8 @@
       <c r="AP80" s="1"/>
     </row>
     <row r="81" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="109"/>
-      <c r="B81" s="104"/>
+      <c r="A81" s="106"/>
+      <c r="B81" s="109"/>
       <c r="C81" s="16" t="s">
         <v>135</v>
       </c>
@@ -5923,8 +5923,8 @@
       <c r="AP81" s="1"/>
     </row>
     <row r="82" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="109"/>
-      <c r="B82" s="104"/>
+      <c r="A82" s="106"/>
+      <c r="B82" s="109"/>
       <c r="C82" s="16" t="s">
         <v>136</v>
       </c>
@@ -5980,8 +5980,8 @@
       <c r="AP82" s="1"/>
     </row>
     <row r="83" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="109"/>
-      <c r="B83" s="104"/>
+      <c r="A83" s="106"/>
+      <c r="B83" s="109"/>
       <c r="C83" s="16" t="s">
         <v>137</v>
       </c>
@@ -6037,8 +6037,8 @@
       <c r="AP83" s="1"/>
     </row>
     <row r="84" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="109"/>
-      <c r="B84" s="104"/>
+      <c r="A84" s="106"/>
+      <c r="B84" s="109"/>
       <c r="C84" s="16" t="s">
         <v>138</v>
       </c>
@@ -6094,8 +6094,8 @@
       <c r="AP84" s="1"/>
     </row>
     <row r="85" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="109"/>
-      <c r="B85" s="104"/>
+      <c r="A85" s="106"/>
+      <c r="B85" s="109"/>
       <c r="C85" s="16" t="s">
         <v>139</v>
       </c>
@@ -6151,8 +6151,8 @@
       <c r="AP85" s="1"/>
     </row>
     <row r="86" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="109"/>
-      <c r="B86" s="104" t="s">
+      <c r="A86" s="106"/>
+      <c r="B86" s="109" t="s">
         <v>140</v>
       </c>
       <c r="C86" s="16" t="s">
@@ -6202,8 +6202,8 @@
       <c r="AP86" s="1"/>
     </row>
     <row r="87" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="109"/>
-      <c r="B87" s="104"/>
+      <c r="A87" s="106"/>
+      <c r="B87" s="109"/>
       <c r="C87" s="16" t="s">
         <v>143</v>
       </c>
@@ -6251,8 +6251,8 @@
       <c r="AP87" s="1"/>
     </row>
     <row r="88" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="109"/>
-      <c r="B88" s="104"/>
+      <c r="A88" s="106"/>
+      <c r="B88" s="109"/>
       <c r="C88" s="16" t="s">
         <v>144</v>
       </c>
@@ -6300,8 +6300,8 @@
       <c r="AP88" s="1"/>
     </row>
     <row r="89" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="109"/>
-      <c r="B89" s="104"/>
+      <c r="A89" s="106"/>
+      <c r="B89" s="109"/>
       <c r="C89" s="16" t="s">
         <v>145</v>
       </c>
@@ -6349,8 +6349,8 @@
       <c r="AP89" s="1"/>
     </row>
     <row r="90" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="109"/>
-      <c r="B90" s="104"/>
+      <c r="A90" s="106"/>
+      <c r="B90" s="109"/>
       <c r="C90" s="16" t="s">
         <v>146</v>
       </c>
@@ -6398,8 +6398,8 @@
       <c r="AP90" s="1"/>
     </row>
     <row r="91" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="109"/>
-      <c r="B91" s="104"/>
+      <c r="A91" s="106"/>
+      <c r="B91" s="109"/>
       <c r="C91" s="16" t="s">
         <v>147</v>
       </c>
@@ -6447,7 +6447,7 @@
       <c r="AP91" s="1"/>
     </row>
     <row r="92" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="109"/>
+      <c r="A92" s="106"/>
       <c r="B92" s="15" t="s">
         <v>148</v>
       </c>
@@ -6498,7 +6498,7 @@
       <c r="AP92" s="1"/>
     </row>
     <row r="93" spans="1:42" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="110"/>
+      <c r="A93" s="108"/>
       <c r="B93" s="32" t="s">
         <v>151</v>
       </c>
@@ -6555,13 +6555,13 @@
       <c r="AP93" s="1"/>
     </row>
     <row r="94" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="108" t="s">
+      <c r="A94" s="105" t="s">
         <v>153</v>
       </c>
-      <c r="B94" s="103" t="s">
+      <c r="B94" s="113" t="s">
         <v>154</v>
       </c>
-      <c r="C94" s="105" t="s">
+      <c r="C94" s="114" t="s">
         <v>155</v>
       </c>
       <c r="D94" s="50"/>
@@ -6610,9 +6610,9 @@
       <c r="AP94" s="1"/>
     </row>
     <row r="95" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="109"/>
-      <c r="B95" s="104"/>
-      <c r="C95" s="106"/>
+      <c r="A95" s="106"/>
+      <c r="B95" s="109"/>
+      <c r="C95" s="115"/>
       <c r="D95" s="24"/>
       <c r="E95" s="18"/>
       <c r="F95" s="18">
@@ -6659,9 +6659,9 @@
       <c r="AP95" s="1"/>
     </row>
     <row r="96" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="109"/>
-      <c r="B96" s="104"/>
-      <c r="C96" s="106"/>
+      <c r="A96" s="106"/>
+      <c r="B96" s="109"/>
+      <c r="C96" s="115"/>
       <c r="D96" s="24"/>
       <c r="E96" s="18"/>
       <c r="F96" s="18">
@@ -6708,9 +6708,9 @@
       <c r="AP96" s="1"/>
     </row>
     <row r="97" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="109"/>
-      <c r="B97" s="104"/>
-      <c r="C97" s="106"/>
+      <c r="A97" s="106"/>
+      <c r="B97" s="109"/>
+      <c r="C97" s="115"/>
       <c r="D97" s="24"/>
       <c r="E97" s="18"/>
       <c r="F97" s="18">
@@ -6757,9 +6757,9 @@
       <c r="AP97" s="1"/>
     </row>
     <row r="98" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="109"/>
-      <c r="B98" s="104"/>
-      <c r="C98" s="106"/>
+      <c r="A98" s="106"/>
+      <c r="B98" s="109"/>
+      <c r="C98" s="115"/>
       <c r="D98" s="24"/>
       <c r="E98" s="18"/>
       <c r="F98" s="18">
@@ -6806,9 +6806,9 @@
       <c r="AP98" s="1"/>
     </row>
     <row r="99" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="109"/>
-      <c r="B99" s="104"/>
-      <c r="C99" s="106"/>
+      <c r="A99" s="106"/>
+      <c r="B99" s="109"/>
+      <c r="C99" s="115"/>
       <c r="D99" s="24"/>
       <c r="E99" s="18"/>
       <c r="F99" s="18">
@@ -6855,9 +6855,9 @@
       <c r="AP99" s="1"/>
     </row>
     <row r="100" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="109"/>
-      <c r="B100" s="104"/>
-      <c r="C100" s="106" t="s">
+      <c r="A100" s="106"/>
+      <c r="B100" s="109"/>
+      <c r="C100" s="115" t="s">
         <v>156</v>
       </c>
       <c r="D100" s="24"/>
@@ -6906,9 +6906,9 @@
       <c r="AP100" s="1"/>
     </row>
     <row r="101" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="109"/>
-      <c r="B101" s="104"/>
-      <c r="C101" s="106"/>
+      <c r="A101" s="106"/>
+      <c r="B101" s="109"/>
+      <c r="C101" s="115"/>
       <c r="D101" s="24"/>
       <c r="E101" s="18"/>
       <c r="F101" s="18">
@@ -6955,9 +6955,9 @@
       <c r="AP101" s="1"/>
     </row>
     <row r="102" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="109"/>
-      <c r="B102" s="104"/>
-      <c r="C102" s="106"/>
+      <c r="A102" s="106"/>
+      <c r="B102" s="109"/>
+      <c r="C102" s="115"/>
       <c r="D102" s="24"/>
       <c r="E102" s="18"/>
       <c r="F102" s="18">
@@ -7004,9 +7004,9 @@
       <c r="AP102" s="1"/>
     </row>
     <row r="103" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="109"/>
-      <c r="B103" s="104"/>
-      <c r="C103" s="106" t="s">
+      <c r="A103" s="106"/>
+      <c r="B103" s="109"/>
+      <c r="C103" s="115" t="s">
         <v>157</v>
       </c>
       <c r="D103" s="24"/>
@@ -7055,9 +7055,9 @@
       <c r="AP103" s="1"/>
     </row>
     <row r="104" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="109"/>
-      <c r="B104" s="104"/>
-      <c r="C104" s="106"/>
+      <c r="A104" s="106"/>
+      <c r="B104" s="109"/>
+      <c r="C104" s="115"/>
       <c r="D104" s="24"/>
       <c r="E104" s="18"/>
       <c r="F104" s="18">
@@ -7104,9 +7104,9 @@
       <c r="AP104" s="1"/>
     </row>
     <row r="105" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="109"/>
-      <c r="B105" s="104"/>
-      <c r="C105" s="106"/>
+      <c r="A105" s="106"/>
+      <c r="B105" s="109"/>
+      <c r="C105" s="115"/>
       <c r="D105" s="24"/>
       <c r="E105" s="18"/>
       <c r="F105" s="18">
@@ -7153,7 +7153,7 @@
       <c r="AP105" s="1"/>
     </row>
     <row r="106" spans="1:42" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="110"/>
+      <c r="A106" s="108"/>
       <c r="B106" s="32" t="s">
         <v>158</v>
       </c>
@@ -7204,10 +7204,10 @@
       <c r="AP106" s="1"/>
     </row>
     <row r="107" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="108" t="s">
+      <c r="A107" s="105" t="s">
         <v>161</v>
       </c>
-      <c r="B107" s="103" t="s">
+      <c r="B107" s="113" t="s">
         <v>162</v>
       </c>
       <c r="C107" s="9" t="s">
@@ -7257,8 +7257,8 @@
       <c r="AP107" s="1"/>
     </row>
     <row r="108" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="109"/>
-      <c r="B108" s="104"/>
+      <c r="A108" s="106"/>
+      <c r="B108" s="109"/>
       <c r="C108" s="16" t="s">
         <v>165</v>
       </c>
@@ -7306,8 +7306,8 @@
       <c r="AP108" s="1"/>
     </row>
     <row r="109" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="109"/>
-      <c r="B109" s="104" t="s">
+      <c r="A109" s="106"/>
+      <c r="B109" s="109" t="s">
         <v>166</v>
       </c>
       <c r="C109" s="16" t="s">
@@ -7357,8 +7357,8 @@
       <c r="AP109" s="1"/>
     </row>
     <row r="110" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="109"/>
-      <c r="B110" s="104"/>
+      <c r="A110" s="106"/>
+      <c r="B110" s="109"/>
       <c r="C110" s="16" t="s">
         <v>168</v>
       </c>
@@ -7406,8 +7406,8 @@
       <c r="AP110" s="1"/>
     </row>
     <row r="111" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="109"/>
-      <c r="B111" s="104" t="s">
+      <c r="A111" s="106"/>
+      <c r="B111" s="109" t="s">
         <v>169</v>
       </c>
       <c r="C111" s="16" t="s">
@@ -7457,8 +7457,8 @@
       <c r="AP111" s="1"/>
     </row>
     <row r="112" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="109"/>
-      <c r="B112" s="104"/>
+      <c r="A112" s="106"/>
+      <c r="B112" s="109"/>
       <c r="C112" s="16" t="s">
         <v>171</v>
       </c>
@@ -7506,8 +7506,8 @@
       <c r="AP112" s="1"/>
     </row>
     <row r="113" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="109"/>
-      <c r="B113" s="104" t="s">
+      <c r="A113" s="106"/>
+      <c r="B113" s="109" t="s">
         <v>172</v>
       </c>
       <c r="C113" s="16" t="s">
@@ -7557,8 +7557,8 @@
       <c r="AP113" s="1"/>
     </row>
     <row r="114" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="109"/>
-      <c r="B114" s="104"/>
+      <c r="A114" s="106"/>
+      <c r="B114" s="109"/>
       <c r="C114" s="16" t="s">
         <v>174</v>
       </c>
@@ -7606,8 +7606,8 @@
       <c r="AP114" s="1"/>
     </row>
     <row r="115" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="109"/>
-      <c r="B115" s="104" t="s">
+      <c r="A115" s="106"/>
+      <c r="B115" s="109" t="s">
         <v>175</v>
       </c>
       <c r="C115" s="16" t="s">
@@ -7657,8 +7657,8 @@
       <c r="AP115" s="1"/>
     </row>
     <row r="116" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="109"/>
-      <c r="B116" s="104"/>
+      <c r="A116" s="106"/>
+      <c r="B116" s="109"/>
       <c r="C116" s="16" t="s">
         <v>177</v>
       </c>
@@ -7706,7 +7706,7 @@
       <c r="AP116" s="1"/>
     </row>
     <row r="117" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="109"/>
+      <c r="A117" s="106"/>
       <c r="B117" s="15" t="s">
         <v>178</v>
       </c>
@@ -7757,7 +7757,7 @@
       <c r="AP117" s="1"/>
     </row>
     <row r="118" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="109"/>
+      <c r="A118" s="106"/>
       <c r="B118" s="51" t="s">
         <v>180</v>
       </c>
@@ -7810,7 +7810,7 @@
       <c r="AP118" s="1"/>
     </row>
     <row r="119" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="109"/>
+      <c r="A119" s="106"/>
       <c r="B119" s="51" t="s">
         <v>183</v>
       </c>
@@ -7863,7 +7863,7 @@
       <c r="AP119" s="1"/>
     </row>
     <row r="120" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="109"/>
+      <c r="A120" s="106"/>
       <c r="B120" s="51" t="s">
         <v>185</v>
       </c>
@@ -7916,7 +7916,7 @@
       <c r="AP120" s="1"/>
     </row>
     <row r="121" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="109"/>
+      <c r="A121" s="106"/>
       <c r="B121" s="51" t="s">
         <v>187</v>
       </c>
@@ -7969,7 +7969,7 @@
       <c r="AP121" s="1"/>
     </row>
     <row r="122" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="109"/>
+      <c r="A122" s="106"/>
       <c r="B122" s="51" t="s">
         <v>189</v>
       </c>
@@ -8022,7 +8022,7 @@
       <c r="AP122" s="1"/>
     </row>
     <row r="123" spans="1:42" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="110"/>
+      <c r="A123" s="108"/>
       <c r="B123" s="53" t="s">
         <v>191</v>
       </c>
@@ -8075,7 +8075,7 @@
       <c r="AP123" s="1"/>
     </row>
     <row r="124" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="108" t="s">
+      <c r="A124" s="105" t="s">
         <v>193</v>
       </c>
       <c r="B124" s="8" t="s">
@@ -8128,7 +8128,7 @@
       <c r="AP124" s="1"/>
     </row>
     <row r="125" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="109"/>
+      <c r="A125" s="106"/>
       <c r="B125" s="15" t="s">
         <v>196</v>
       </c>
@@ -8183,7 +8183,7 @@
       <c r="AP125" s="1"/>
     </row>
     <row r="126" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="109"/>
+      <c r="A126" s="106"/>
       <c r="B126" s="15" t="s">
         <v>201</v>
       </c>
@@ -8236,8 +8236,8 @@
       <c r="AP126" s="1"/>
     </row>
     <row r="127" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="109"/>
-      <c r="B127" s="104" t="s">
+      <c r="A127" s="106"/>
+      <c r="B127" s="109" t="s">
         <v>205</v>
       </c>
       <c r="C127" s="16" t="s">
@@ -8287,8 +8287,8 @@
       <c r="AP127" s="1"/>
     </row>
     <row r="128" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="109"/>
-      <c r="B128" s="104"/>
+      <c r="A128" s="106"/>
+      <c r="B128" s="109"/>
       <c r="C128" s="16" t="s">
         <v>208</v>
       </c>
@@ -8336,8 +8336,8 @@
       <c r="AP128" s="1"/>
     </row>
     <row r="129" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="109"/>
-      <c r="B129" s="104"/>
+      <c r="A129" s="106"/>
+      <c r="B129" s="109"/>
       <c r="C129" s="16" t="s">
         <v>210</v>
       </c>
@@ -8385,8 +8385,8 @@
       <c r="AP129" s="1"/>
     </row>
     <row r="130" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="109"/>
-      <c r="B130" s="112" t="s">
+      <c r="A130" s="106"/>
+      <c r="B130" s="110" t="s">
         <v>211</v>
       </c>
       <c r="C130" s="52" t="s">
@@ -8440,8 +8440,8 @@
       <c r="AP130" s="1"/>
     </row>
     <row r="131" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="109"/>
-      <c r="B131" s="112"/>
+      <c r="A131" s="106"/>
+      <c r="B131" s="110"/>
       <c r="C131" s="52" t="s">
         <v>216</v>
       </c>
@@ -8493,8 +8493,8 @@
       <c r="AP131" s="1"/>
     </row>
     <row r="132" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="109"/>
-      <c r="B132" s="104" t="s">
+      <c r="A132" s="106"/>
+      <c r="B132" s="109" t="s">
         <v>217</v>
       </c>
       <c r="C132" s="16" t="s">
@@ -8550,8 +8550,8 @@
       <c r="AP132" s="1"/>
     </row>
     <row r="133" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="109"/>
-      <c r="B133" s="104"/>
+      <c r="A133" s="106"/>
+      <c r="B133" s="109"/>
       <c r="C133" s="16" t="s">
         <v>219</v>
       </c>
@@ -8605,8 +8605,8 @@
       <c r="AP133" s="1"/>
     </row>
     <row r="134" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="109"/>
-      <c r="B134" s="104"/>
+      <c r="A134" s="106"/>
+      <c r="B134" s="109"/>
       <c r="C134" s="16" t="s">
         <v>220</v>
       </c>
@@ -8660,8 +8660,8 @@
       <c r="AP134" s="1"/>
     </row>
     <row r="135" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="109"/>
-      <c r="B135" s="104"/>
+      <c r="A135" s="106"/>
+      <c r="B135" s="109"/>
       <c r="C135" s="16" t="s">
         <v>221</v>
       </c>
@@ -8715,8 +8715,8 @@
       <c r="AP135" s="1"/>
     </row>
     <row r="136" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="109"/>
-      <c r="B136" s="104"/>
+      <c r="A136" s="106"/>
+      <c r="B136" s="109"/>
       <c r="C136" s="16" t="s">
         <v>222</v>
       </c>
@@ -8770,8 +8770,8 @@
       <c r="AP136" s="1"/>
     </row>
     <row r="137" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="109"/>
-      <c r="B137" s="104"/>
+      <c r="A137" s="106"/>
+      <c r="B137" s="109"/>
       <c r="C137" s="16" t="s">
         <v>223</v>
       </c>
@@ -8825,8 +8825,8 @@
       <c r="AP137" s="1"/>
     </row>
     <row r="138" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="111"/>
-      <c r="B138" s="113"/>
+      <c r="A138" s="107"/>
+      <c r="B138" s="111"/>
       <c r="C138" s="55" t="s">
         <v>224</v>
       </c>
@@ -8880,8 +8880,8 @@
       <c r="AP138" s="1"/>
     </row>
     <row r="139" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="111"/>
-      <c r="B139" s="113"/>
+      <c r="A139" s="107"/>
+      <c r="B139" s="111"/>
       <c r="C139" s="55" t="s">
         <v>227</v>
       </c>
@@ -8935,8 +8935,8 @@
       <c r="AP139" s="1"/>
     </row>
     <row r="140" spans="1:42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="111"/>
-      <c r="B140" s="113"/>
+      <c r="A140" s="107"/>
+      <c r="B140" s="111"/>
       <c r="C140" s="55" t="s">
         <v>229</v>
       </c>
@@ -8990,8 +8990,8 @@
       <c r="AP140" s="1"/>
     </row>
     <row r="141" spans="1:42" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="110"/>
-      <c r="B141" s="114"/>
+      <c r="A141" s="108"/>
+      <c r="B141" s="112"/>
       <c r="C141" s="33" t="s">
         <v>230</v>
       </c>
@@ -9047,16 +9047,11 @@
   </sheetData>
   <autoFilter ref="A1:K141" xr:uid="{9C6DE4F0-FB08-4A38-9A04-A033331CA2DF}"/>
   <mergeCells count="31">
-    <mergeCell ref="A124:A141"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="B132:B141"/>
-    <mergeCell ref="A107:A123"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B16"/>
+    <mergeCell ref="B17:B31"/>
+    <mergeCell ref="B35:B37"/>
     <mergeCell ref="C94:C99"/>
     <mergeCell ref="C100:C102"/>
     <mergeCell ref="C103:C105"/>
@@ -9073,11 +9068,16 @@
     <mergeCell ref="A94:A106"/>
     <mergeCell ref="B94:B105"/>
     <mergeCell ref="A2:A38"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B16"/>
-    <mergeCell ref="B17:B31"/>
-    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A124:A141"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B132:B141"/>
+    <mergeCell ref="A107:A123"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B115:B116"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2:I141">
@@ -9102,7 +9102,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F157" sqref="F157"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9284,10 +9284,10 @@
       <c r="B4" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="117">
+      <c r="C4" s="104">
         <v>941</v>
       </c>
-      <c r="D4" s="117">
+      <c r="D4" s="104">
         <v>0</v>
       </c>
       <c r="E4" s="92">
@@ -9335,10 +9335,10 @@
         <f>B4</f>
         <v>다이아 변신 뽑기</v>
       </c>
-      <c r="C5" s="117">
+      <c r="C5" s="104">
         <v>941</v>
       </c>
-      <c r="D5" s="117">
+      <c r="D5" s="104">
         <v>1</v>
       </c>
       <c r="E5" s="92">
@@ -9526,10 +9526,10 @@
         <f t="shared" si="0"/>
         <v>변신 합성</v>
       </c>
-      <c r="C9" s="117">
+      <c r="C9" s="104">
         <v>942</v>
       </c>
-      <c r="D9" s="117">
+      <c r="D9" s="104">
         <v>3</v>
       </c>
       <c r="E9" s="92">
@@ -9573,10 +9573,10 @@
         <f t="shared" si="0"/>
         <v>변신 합성</v>
       </c>
-      <c r="C10" s="117">
+      <c r="C10" s="104">
         <v>942</v>
       </c>
-      <c r="D10" s="117">
+      <c r="D10" s="104">
         <v>4</v>
       </c>
       <c r="E10" s="92">
@@ -9671,10 +9671,10 @@
         <f t="shared" si="0"/>
         <v>변신 합성</v>
       </c>
-      <c r="C12" s="117">
+      <c r="C12" s="104">
         <v>942</v>
       </c>
-      <c r="D12" s="117">
+      <c r="D12" s="104">
         <v>6</v>
       </c>
       <c r="E12" s="92">
@@ -9820,10 +9820,10 @@
         <f t="shared" si="0"/>
         <v>변신 합성</v>
       </c>
-      <c r="C15" s="117">
+      <c r="C15" s="104">
         <v>942</v>
       </c>
-      <c r="D15" s="117">
+      <c r="D15" s="104">
         <v>6</v>
       </c>
       <c r="E15" s="92">
@@ -9850,7 +9850,7 @@
       <c r="M15" s="71" t="s">
         <v>270</v>
       </c>
-      <c r="N15" s="116" t="s">
+      <c r="N15" s="103" t="s">
         <v>359</v>
       </c>
       <c r="O15" s="1"/>
@@ -9948,14 +9948,14 @@
         <f t="shared" ref="B18:B30" si="1">B17</f>
         <v>변신 교체 뽑기</v>
       </c>
-      <c r="C18" s="117">
+      <c r="C18" s="104">
         <v>943</v>
       </c>
-      <c r="D18" s="117">
+      <c r="D18" s="104">
         <v>1</v>
       </c>
       <c r="E18" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="67" t="s">
         <v>298</v>
@@ -10070,14 +10070,14 @@
         <f t="shared" si="1"/>
         <v>변신 교체 뽑기</v>
       </c>
-      <c r="C21" s="117">
+      <c r="C21" s="104">
         <v>943</v>
       </c>
-      <c r="D21" s="117">
+      <c r="D21" s="104">
         <v>4</v>
       </c>
       <c r="E21" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="67" t="s">
         <v>301</v>
@@ -10110,14 +10110,14 @@
         <f t="shared" si="1"/>
         <v>변신 교체 뽑기</v>
       </c>
-      <c r="C22" s="117">
+      <c r="C22" s="104">
         <v>943</v>
       </c>
-      <c r="D22" s="117">
+      <c r="D22" s="104">
         <v>5</v>
       </c>
       <c r="E22" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="67" t="s">
         <v>302</v>
@@ -10197,7 +10197,7 @@
         <v>7</v>
       </c>
       <c r="E24" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="67" t="s">
         <v>308</v>
@@ -10439,7 +10439,7 @@
         <v>13</v>
       </c>
       <c r="E30" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="67" t="s">
         <v>309</v>
@@ -10527,14 +10527,14 @@
         <f>B31</f>
         <v>변신 교체 뽑기</v>
       </c>
-      <c r="C32" s="117">
+      <c r="C32" s="104">
         <v>943</v>
       </c>
-      <c r="D32" s="117">
+      <c r="D32" s="104">
         <v>15</v>
       </c>
       <c r="E32" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="102" t="s">
         <v>357</v>
@@ -10572,14 +10572,14 @@
       <c r="B33" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="117">
+      <c r="C33" s="104">
         <v>944</v>
       </c>
-      <c r="D33" s="117">
+      <c r="D33" s="104">
         <v>0</v>
       </c>
       <c r="E33" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="67" t="s">
         <v>279</v>
@@ -10624,14 +10624,14 @@
       <c r="B34" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="117">
+      <c r="C34" s="104">
         <v>945</v>
       </c>
-      <c r="D34" s="117">
+      <c r="D34" s="104">
         <v>0</v>
       </c>
       <c r="E34" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="67" t="s">
         <v>311</v>
@@ -10728,14 +10728,14 @@
       <c r="B36" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="117">
+      <c r="C36" s="104">
         <v>1423</v>
       </c>
-      <c r="D36" s="117">
+      <c r="D36" s="104">
         <v>0</v>
       </c>
       <c r="E36" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="67" t="s">
         <v>313</v>
@@ -10772,19 +10772,19 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
-      <c r="Z36" s="107"/>
-      <c r="AA36" s="107"/>
-      <c r="AB36" s="107"/>
-      <c r="AC36" s="107"/>
-      <c r="AD36" s="107"/>
-      <c r="AE36" s="107"/>
-      <c r="AF36" s="107"/>
-      <c r="AG36" s="107"/>
-      <c r="AH36" s="107"/>
-      <c r="AI36" s="107"/>
-      <c r="AJ36" s="107"/>
-      <c r="AK36" s="107"/>
-      <c r="AL36" s="107"/>
+      <c r="Z36" s="116"/>
+      <c r="AA36" s="116"/>
+      <c r="AB36" s="116"/>
+      <c r="AC36" s="116"/>
+      <c r="AD36" s="116"/>
+      <c r="AE36" s="116"/>
+      <c r="AF36" s="116"/>
+      <c r="AG36" s="116"/>
+      <c r="AH36" s="116"/>
+      <c r="AI36" s="116"/>
+      <c r="AJ36" s="116"/>
+      <c r="AK36" s="116"/>
+      <c r="AL36" s="116"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="65" t="s">
@@ -10794,14 +10794,14 @@
         <f t="shared" ref="B37:B38" si="2">B36</f>
         <v>구간 변신 뽑기</v>
       </c>
-      <c r="C37" s="117">
+      <c r="C37" s="104">
         <v>1423</v>
       </c>
-      <c r="D37" s="117">
+      <c r="D37" s="104">
         <v>1</v>
       </c>
       <c r="E37" s="92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="67" t="s">
         <v>314</v>
@@ -10830,19 +10830,19 @@
       </c>
       <c r="N37" s="79"/>
       <c r="Y37"/>
-      <c r="Z37" s="107"/>
-      <c r="AA37" s="107"/>
-      <c r="AB37" s="107"/>
-      <c r="AC37" s="107"/>
-      <c r="AD37" s="107"/>
-      <c r="AE37" s="107"/>
-      <c r="AF37" s="107"/>
-      <c r="AG37" s="107"/>
-      <c r="AH37" s="107"/>
-      <c r="AI37" s="107"/>
-      <c r="AJ37" s="107"/>
-      <c r="AK37" s="107"/>
-      <c r="AL37" s="107"/>
+      <c r="Z37" s="116"/>
+      <c r="AA37" s="116"/>
+      <c r="AB37" s="116"/>
+      <c r="AC37" s="116"/>
+      <c r="AD37" s="116"/>
+      <c r="AE37" s="116"/>
+      <c r="AF37" s="116"/>
+      <c r="AG37" s="116"/>
+      <c r="AH37" s="116"/>
+      <c r="AI37" s="116"/>
+      <c r="AJ37" s="116"/>
+      <c r="AK37" s="116"/>
+      <c r="AL37" s="116"/>
     </row>
     <row r="38" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="65" t="s">
@@ -10888,19 +10888,19 @@
       </c>
       <c r="N38" s="79"/>
       <c r="Y38"/>
-      <c r="Z38" s="107"/>
-      <c r="AA38" s="107"/>
-      <c r="AB38" s="107"/>
-      <c r="AC38" s="107"/>
-      <c r="AD38" s="107"/>
-      <c r="AE38" s="107"/>
-      <c r="AF38" s="107"/>
-      <c r="AG38" s="107"/>
-      <c r="AH38" s="107"/>
-      <c r="AI38" s="107"/>
-      <c r="AJ38" s="107"/>
-      <c r="AK38" s="107"/>
-      <c r="AL38" s="107"/>
+      <c r="Z38" s="116"/>
+      <c r="AA38" s="116"/>
+      <c r="AB38" s="116"/>
+      <c r="AC38" s="116"/>
+      <c r="AD38" s="116"/>
+      <c r="AE38" s="116"/>
+      <c r="AF38" s="116"/>
+      <c r="AG38" s="116"/>
+      <c r="AH38" s="116"/>
+      <c r="AI38" s="116"/>
+      <c r="AJ38" s="116"/>
+      <c r="AK38" s="116"/>
+      <c r="AL38" s="116"/>
     </row>
     <row r="39" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="65" t="s">
@@ -10944,19 +10944,19 @@
       </c>
       <c r="N39" s="73"/>
       <c r="Y39"/>
-      <c r="Z39" s="107"/>
-      <c r="AA39" s="107"/>
-      <c r="AB39" s="107"/>
-      <c r="AC39" s="107"/>
-      <c r="AD39" s="107"/>
-      <c r="AE39" s="107"/>
-      <c r="AF39" s="107"/>
-      <c r="AG39" s="107"/>
-      <c r="AH39" s="107"/>
-      <c r="AI39" s="107"/>
-      <c r="AJ39" s="107"/>
-      <c r="AK39" s="107"/>
-      <c r="AL39" s="107"/>
+      <c r="Z39" s="116"/>
+      <c r="AA39" s="116"/>
+      <c r="AB39" s="116"/>
+      <c r="AC39" s="116"/>
+      <c r="AD39" s="116"/>
+      <c r="AE39" s="116"/>
+      <c r="AF39" s="116"/>
+      <c r="AG39" s="116"/>
+      <c r="AH39" s="116"/>
+      <c r="AI39" s="116"/>
+      <c r="AJ39" s="116"/>
+      <c r="AK39" s="116"/>
+      <c r="AL39" s="116"/>
     </row>
     <row r="40" spans="1:38" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="65" t="s">
@@ -10996,19 +10996,19 @@
       </c>
       <c r="N40" s="73"/>
       <c r="Y40"/>
-      <c r="Z40" s="107"/>
-      <c r="AA40" s="107"/>
-      <c r="AB40" s="107"/>
-      <c r="AC40" s="107"/>
-      <c r="AD40" s="107"/>
-      <c r="AE40" s="107"/>
-      <c r="AF40" s="107"/>
-      <c r="AG40" s="107"/>
-      <c r="AH40" s="107"/>
-      <c r="AI40" s="107"/>
-      <c r="AJ40" s="107"/>
-      <c r="AK40" s="107"/>
-      <c r="AL40" s="107"/>
+      <c r="Z40" s="116"/>
+      <c r="AA40" s="116"/>
+      <c r="AB40" s="116"/>
+      <c r="AC40" s="116"/>
+      <c r="AD40" s="116"/>
+      <c r="AE40" s="116"/>
+      <c r="AF40" s="116"/>
+      <c r="AG40" s="116"/>
+      <c r="AH40" s="116"/>
+      <c r="AI40" s="116"/>
+      <c r="AJ40" s="116"/>
+      <c r="AK40" s="116"/>
+      <c r="AL40" s="116"/>
     </row>
     <row r="41" spans="1:38" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="81" t="s">
@@ -14536,7 +14536,7 @@
       <c r="E95" s="92">
         <v>0</v>
       </c>
-      <c r="F95" s="115" t="s">
+      <c r="F95" s="117" t="s">
         <v>155</v>
       </c>
       <c r="G95" s="75"/>
@@ -14604,7 +14604,7 @@
       <c r="E96" s="92">
         <v>0</v>
       </c>
-      <c r="F96" s="115"/>
+      <c r="F96" s="117"/>
       <c r="G96" s="75"/>
       <c r="H96" s="69">
         <v>1110035</v>
@@ -14670,7 +14670,7 @@
       <c r="E97" s="92">
         <v>0</v>
       </c>
-      <c r="F97" s="115"/>
+      <c r="F97" s="117"/>
       <c r="G97" s="75"/>
       <c r="H97" s="69">
         <v>1110062</v>
@@ -14736,7 +14736,7 @@
       <c r="E98" s="92">
         <v>0</v>
       </c>
-      <c r="F98" s="115"/>
+      <c r="F98" s="117"/>
       <c r="G98" s="75"/>
       <c r="H98" s="69">
         <v>502634</v>
@@ -14802,7 +14802,7 @@
       <c r="E99" s="92">
         <v>0</v>
       </c>
-      <c r="F99" s="115"/>
+      <c r="F99" s="117"/>
       <c r="G99" s="75"/>
       <c r="H99" s="69">
         <v>1110036</v>
@@ -14868,7 +14868,7 @@
       <c r="E100" s="92">
         <v>0</v>
       </c>
-      <c r="F100" s="115"/>
+      <c r="F100" s="117"/>
       <c r="G100" s="75"/>
       <c r="H100" s="69">
         <v>1110061</v>
@@ -14934,7 +14934,7 @@
       <c r="E101" s="92">
         <v>0</v>
       </c>
-      <c r="F101" s="115" t="s">
+      <c r="F101" s="117" t="s">
         <v>156</v>
       </c>
       <c r="G101" s="75"/>
@@ -15002,7 +15002,7 @@
       <c r="E102" s="92">
         <v>0</v>
       </c>
-      <c r="F102" s="115"/>
+      <c r="F102" s="117"/>
       <c r="G102" s="75"/>
       <c r="H102" s="69">
         <v>502655</v>
@@ -15068,7 +15068,7 @@
       <c r="E103" s="92">
         <v>0</v>
       </c>
-      <c r="F103" s="115"/>
+      <c r="F103" s="117"/>
       <c r="G103" s="75"/>
       <c r="H103" s="69">
         <v>502657</v>
@@ -15134,7 +15134,7 @@
       <c r="E104" s="92">
         <v>0</v>
       </c>
-      <c r="F104" s="115" t="s">
+      <c r="F104" s="117" t="s">
         <v>157</v>
       </c>
       <c r="G104" s="75"/>
@@ -15202,7 +15202,7 @@
       <c r="E105" s="92">
         <v>0</v>
       </c>
-      <c r="F105" s="115"/>
+      <c r="F105" s="117"/>
       <c r="G105" s="75"/>
       <c r="H105" s="69">
         <v>502656</v>
@@ -15268,7 +15268,7 @@
       <c r="E106" s="92">
         <v>0</v>
       </c>
-      <c r="F106" s="115"/>
+      <c r="F106" s="117"/>
       <c r="G106" s="75"/>
       <c r="H106" s="69">
         <v>502658</v>
@@ -17945,8 +17945,8 @@
   <dimension ref="A1:AS146"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19568,19 +19568,19 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
-      <c r="Z35" s="107"/>
-      <c r="AA35" s="107"/>
-      <c r="AB35" s="107"/>
-      <c r="AC35" s="107"/>
-      <c r="AD35" s="107"/>
-      <c r="AE35" s="107"/>
-      <c r="AF35" s="107"/>
-      <c r="AG35" s="107"/>
-      <c r="AH35" s="107"/>
-      <c r="AI35" s="107"/>
-      <c r="AJ35" s="107"/>
-      <c r="AK35" s="107"/>
-      <c r="AL35" s="107"/>
+      <c r="Z35" s="116"/>
+      <c r="AA35" s="116"/>
+      <c r="AB35" s="116"/>
+      <c r="AC35" s="116"/>
+      <c r="AD35" s="116"/>
+      <c r="AE35" s="116"/>
+      <c r="AF35" s="116"/>
+      <c r="AG35" s="116"/>
+      <c r="AH35" s="116"/>
+      <c r="AI35" s="116"/>
+      <c r="AJ35" s="116"/>
+      <c r="AK35" s="116"/>
+      <c r="AL35" s="116"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="65" t="s">
@@ -19626,19 +19626,19 @@
       </c>
       <c r="N36" s="79"/>
       <c r="Y36"/>
-      <c r="Z36" s="107"/>
-      <c r="AA36" s="107"/>
-      <c r="AB36" s="107"/>
-      <c r="AC36" s="107"/>
-      <c r="AD36" s="107"/>
-      <c r="AE36" s="107"/>
-      <c r="AF36" s="107"/>
-      <c r="AG36" s="107"/>
-      <c r="AH36" s="107"/>
-      <c r="AI36" s="107"/>
-      <c r="AJ36" s="107"/>
-      <c r="AK36" s="107"/>
-      <c r="AL36" s="107"/>
+      <c r="Z36" s="116"/>
+      <c r="AA36" s="116"/>
+      <c r="AB36" s="116"/>
+      <c r="AC36" s="116"/>
+      <c r="AD36" s="116"/>
+      <c r="AE36" s="116"/>
+      <c r="AF36" s="116"/>
+      <c r="AG36" s="116"/>
+      <c r="AH36" s="116"/>
+      <c r="AI36" s="116"/>
+      <c r="AJ36" s="116"/>
+      <c r="AK36" s="116"/>
+      <c r="AL36" s="116"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="65" t="s">
@@ -19684,19 +19684,19 @@
       </c>
       <c r="N37" s="79"/>
       <c r="Y37"/>
-      <c r="Z37" s="107"/>
-      <c r="AA37" s="107"/>
-      <c r="AB37" s="107"/>
-      <c r="AC37" s="107"/>
-      <c r="AD37" s="107"/>
-      <c r="AE37" s="107"/>
-      <c r="AF37" s="107"/>
-      <c r="AG37" s="107"/>
-      <c r="AH37" s="107"/>
-      <c r="AI37" s="107"/>
-      <c r="AJ37" s="107"/>
-      <c r="AK37" s="107"/>
-      <c r="AL37" s="107"/>
+      <c r="Z37" s="116"/>
+      <c r="AA37" s="116"/>
+      <c r="AB37" s="116"/>
+      <c r="AC37" s="116"/>
+      <c r="AD37" s="116"/>
+      <c r="AE37" s="116"/>
+      <c r="AF37" s="116"/>
+      <c r="AG37" s="116"/>
+      <c r="AH37" s="116"/>
+      <c r="AI37" s="116"/>
+      <c r="AJ37" s="116"/>
+      <c r="AK37" s="116"/>
+      <c r="AL37" s="116"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="65" t="s">
@@ -19740,19 +19740,19 @@
       </c>
       <c r="N38" s="73"/>
       <c r="Y38"/>
-      <c r="Z38" s="107"/>
-      <c r="AA38" s="107"/>
-      <c r="AB38" s="107"/>
-      <c r="AC38" s="107"/>
-      <c r="AD38" s="107"/>
-      <c r="AE38" s="107"/>
-      <c r="AF38" s="107"/>
-      <c r="AG38" s="107"/>
-      <c r="AH38" s="107"/>
-      <c r="AI38" s="107"/>
-      <c r="AJ38" s="107"/>
-      <c r="AK38" s="107"/>
-      <c r="AL38" s="107"/>
+      <c r="Z38" s="116"/>
+      <c r="AA38" s="116"/>
+      <c r="AB38" s="116"/>
+      <c r="AC38" s="116"/>
+      <c r="AD38" s="116"/>
+      <c r="AE38" s="116"/>
+      <c r="AF38" s="116"/>
+      <c r="AG38" s="116"/>
+      <c r="AH38" s="116"/>
+      <c r="AI38" s="116"/>
+      <c r="AJ38" s="116"/>
+      <c r="AK38" s="116"/>
+      <c r="AL38" s="116"/>
     </row>
     <row r="39" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="65" t="s">
@@ -19792,19 +19792,19 @@
       </c>
       <c r="N39" s="73"/>
       <c r="Y39"/>
-      <c r="Z39" s="107"/>
-      <c r="AA39" s="107"/>
-      <c r="AB39" s="107"/>
-      <c r="AC39" s="107"/>
-      <c r="AD39" s="107"/>
-      <c r="AE39" s="107"/>
-      <c r="AF39" s="107"/>
-      <c r="AG39" s="107"/>
-      <c r="AH39" s="107"/>
-      <c r="AI39" s="107"/>
-      <c r="AJ39" s="107"/>
-      <c r="AK39" s="107"/>
-      <c r="AL39" s="107"/>
+      <c r="Z39" s="116"/>
+      <c r="AA39" s="116"/>
+      <c r="AB39" s="116"/>
+      <c r="AC39" s="116"/>
+      <c r="AD39" s="116"/>
+      <c r="AE39" s="116"/>
+      <c r="AF39" s="116"/>
+      <c r="AG39" s="116"/>
+      <c r="AH39" s="116"/>
+      <c r="AI39" s="116"/>
+      <c r="AJ39" s="116"/>
+      <c r="AK39" s="116"/>
+      <c r="AL39" s="116"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="81" t="s">
@@ -23395,7 +23395,7 @@
       <c r="E95" s="92">
         <v>0</v>
       </c>
-      <c r="F95" s="115" t="s">
+      <c r="F95" s="117" t="s">
         <v>155</v>
       </c>
       <c r="G95" s="75"/>
@@ -23463,7 +23463,7 @@
       <c r="E96" s="92">
         <v>0</v>
       </c>
-      <c r="F96" s="115"/>
+      <c r="F96" s="117"/>
       <c r="G96" s="75"/>
       <c r="H96" s="69">
         <v>1110035</v>
@@ -23529,7 +23529,7 @@
       <c r="E97" s="92">
         <v>0</v>
       </c>
-      <c r="F97" s="115"/>
+      <c r="F97" s="117"/>
       <c r="G97" s="75"/>
       <c r="H97" s="69">
         <v>1110062</v>
@@ -23595,7 +23595,7 @@
       <c r="E98" s="92">
         <v>0</v>
       </c>
-      <c r="F98" s="115"/>
+      <c r="F98" s="117"/>
       <c r="G98" s="75"/>
       <c r="H98" s="69">
         <v>502634</v>
@@ -23661,7 +23661,7 @@
       <c r="E99" s="92">
         <v>0</v>
       </c>
-      <c r="F99" s="115"/>
+      <c r="F99" s="117"/>
       <c r="G99" s="75"/>
       <c r="H99" s="69">
         <v>1110036</v>
@@ -23727,7 +23727,7 @@
       <c r="E100" s="92">
         <v>0</v>
       </c>
-      <c r="F100" s="115"/>
+      <c r="F100" s="117"/>
       <c r="G100" s="75"/>
       <c r="H100" s="69">
         <v>1110061</v>
@@ -23793,7 +23793,7 @@
       <c r="E101" s="92">
         <v>0</v>
       </c>
-      <c r="F101" s="115" t="s">
+      <c r="F101" s="117" t="s">
         <v>156</v>
       </c>
       <c r="G101" s="75"/>
@@ -23861,7 +23861,7 @@
       <c r="E102" s="92">
         <v>0</v>
       </c>
-      <c r="F102" s="115"/>
+      <c r="F102" s="117"/>
       <c r="G102" s="75"/>
       <c r="H102" s="69">
         <v>502655</v>
@@ -23927,7 +23927,7 @@
       <c r="E103" s="92">
         <v>0</v>
       </c>
-      <c r="F103" s="115"/>
+      <c r="F103" s="117"/>
       <c r="G103" s="75"/>
       <c r="H103" s="69">
         <v>502657</v>
@@ -23993,7 +23993,7 @@
       <c r="E104" s="92">
         <v>0</v>
       </c>
-      <c r="F104" s="115" t="s">
+      <c r="F104" s="117" t="s">
         <v>157</v>
       </c>
       <c r="G104" s="75"/>
@@ -24061,7 +24061,7 @@
       <c r="E105" s="92">
         <v>0</v>
       </c>
-      <c r="F105" s="115"/>
+      <c r="F105" s="117"/>
       <c r="G105" s="75"/>
       <c r="H105" s="69">
         <v>502656</v>
@@ -24127,7 +24127,7 @@
       <c r="E106" s="92">
         <v>0</v>
       </c>
-      <c r="F106" s="115"/>
+      <c r="F106" s="117"/>
       <c r="G106" s="75"/>
       <c r="H106" s="69">
         <v>502658</v>
